--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D03EF63-7712-47E6-AC16-8B785C9169B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD3CEBF-7914-43DC-8555-242F312FA979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
+    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Versioni EJB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="140">
   <si>
     <t>isp-ib-om</t>
   </si>
@@ -366,97 +366,97 @@
     <t>VERSIONE SVIS/SVIA</t>
   </si>
   <si>
-    <t>1.8.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.5.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.7.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.6.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.48.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.24.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.10.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.12.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.9.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.14.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.11.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>0.30.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.19.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>Mettere l'Ignore nella classi di test per ridurre i tempi di build</t>
-  </si>
-  <si>
-    <t>1.39.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.20.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.15.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.16.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.51.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.22.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.70.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.27.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.40.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.47.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.201.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.136.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.30.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.120.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.38.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.13.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.69.0-env-svis-SNAPSHOT</t>
+    <t>1.8.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.5.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.7.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.6.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.48.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.24.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.10.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.12.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.9.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.14.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.11.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.30.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.19.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.13.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.39.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.20.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.15.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.17.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.52.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.22.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.70.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.16.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.27.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.40.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.47.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.201.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.136.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.30.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.120.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.38.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.69.0-env-svia-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>4</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>12</v>
@@ -1026,7 +1026,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>13</v>
@@ -1035,7 +1035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>14</v>
@@ -1044,7 +1044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>15</v>
@@ -1052,11 +1052,8 @@
       <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>16</v>
@@ -1065,7 +1062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>17</v>
@@ -1074,7 +1071,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>18</v>
@@ -1083,7 +1080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>19</v>
@@ -1092,7 +1089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>20</v>
@@ -1101,7 +1098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>21</v>
@@ -1110,7 +1107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>22</v>
@@ -1119,7 +1116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>23</v>
@@ -1128,7 +1125,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>24</v>
@@ -1137,7 +1134,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -1146,7 +1143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>26</v>
@@ -1179,7 +1176,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,7 +1502,7 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1567,7 +1564,7 @@
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,7 +1573,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1594,7 +1591,7 @@
         <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1637,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,7 +1651,7 @@
         <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1689,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,7 +1695,7 @@
         <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1707,7 +1704,7 @@
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,11 +1790,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD315DD5-8851-4C46-8B35-757CD3C08EC5}">
-  <dimension ref="A1:D511"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E386" sqref="E386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1849,7 +1846,7 @@
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1866,7 +1863,7 @@
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1897,7 +1894,7 @@
       </c>
       <c r="C11" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1914,7 +1911,7 @@
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1938,7 +1935,7 @@
       </c>
       <c r="C16" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1948,7 +1945,7 @@
       </c>
       <c r="C17" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="18" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -1965,7 +1962,7 @@
       </c>
       <c r="C19" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1975,7 +1972,7 @@
       </c>
       <c r="C20" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="21" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -1992,7 +1989,7 @@
       </c>
       <c r="C22" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2002,7 +1999,7 @@
       </c>
       <c r="C23" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="24" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2026,7 +2023,7 @@
       </c>
       <c r="C26" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2036,7 +2033,7 @@
       </c>
       <c r="C27" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2046,7 +2043,7 @@
       </c>
       <c r="C28" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2056,7 +2053,7 @@
       </c>
       <c r="C29" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2080,7 +2077,7 @@
       </c>
       <c r="C32" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2090,7 +2087,7 @@
       </c>
       <c r="C33" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2100,7 +2097,7 @@
       </c>
       <c r="C34" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2110,7 +2107,7 @@
       </c>
       <c r="C35" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2117,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2137,7 +2134,7 @@
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2147,7 +2144,7 @@
       </c>
       <c r="C39" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2157,7 +2154,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2167,7 +2164,7 @@
       </c>
       <c r="C41" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2184,7 +2181,7 @@
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2194,7 +2191,7 @@
       </c>
       <c r="C44" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2204,7 +2201,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2221,7 +2218,7 @@
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2231,7 +2228,7 @@
       </c>
       <c r="C48" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2241,7 +2238,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2258,7 +2255,7 @@
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2268,7 +2265,7 @@
       </c>
       <c r="C52" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2278,7 +2275,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2295,7 +2292,7 @@
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2305,7 +2302,7 @@
       </c>
       <c r="C56" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="57" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2319,7 @@
       </c>
       <c r="C58" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2332,7 +2329,7 @@
       </c>
       <c r="C59" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2342,7 +2339,7 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2352,7 +2349,7 @@
       </c>
       <c r="C61" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2362,7 +2359,7 @@
       </c>
       <c r="C62" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2387,7 +2384,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2394,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2407,7 +2404,7 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2424,7 +2421,7 @@
       </c>
       <c r="C69" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="70" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2434,7 +2431,7 @@
       </c>
       <c r="C70" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2451,7 +2448,7 @@
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2461,7 +2458,7 @@
       </c>
       <c r="C73" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2478,7 +2475,7 @@
       </c>
       <c r="C75" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="76" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2485,7 @@
       </c>
       <c r="C76" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="77" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2505,7 +2502,7 @@
       </c>
       <c r="C78" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="79" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2515,7 +2512,7 @@
       </c>
       <c r="C79" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2532,7 +2529,7 @@
       </c>
       <c r="C81" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2542,7 +2539,7 @@
       </c>
       <c r="C82" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="83" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2559,7 +2556,7 @@
       </c>
       <c r="C84" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="85" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2569,7 +2566,7 @@
       </c>
       <c r="C85" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="86" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2586,7 +2583,7 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2596,7 +2593,7 @@
       </c>
       <c r="C88" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="89" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2613,7 +2610,7 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2623,7 +2620,7 @@
       </c>
       <c r="C91" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2640,7 +2637,7 @@
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2650,7 +2647,7 @@
       </c>
       <c r="C94" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2675,7 +2672,7 @@
       </c>
       <c r="C97" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2685,7 +2682,7 @@
       </c>
       <c r="C98" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2695,7 +2692,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2705,7 +2702,7 @@
       </c>
       <c r="C100" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="101" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2722,7 +2719,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2732,7 +2729,7 @@
       </c>
       <c r="C103" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="104" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2742,7 +2739,7 @@
       </c>
       <c r="C104" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2752,7 +2749,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2769,7 +2766,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2779,7 +2776,7 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2789,7 +2786,7 @@
       </c>
       <c r="C109" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="110" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2799,7 +2796,7 @@
       </c>
       <c r="C110" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="111" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2809,7 +2806,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2819,7 +2816,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2836,7 +2833,7 @@
       </c>
       <c r="C114" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="115" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2846,7 +2843,7 @@
       </c>
       <c r="C115" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="116" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2856,7 +2853,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2866,7 +2863,7 @@
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2876,7 +2873,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2900,7 +2897,7 @@
       </c>
       <c r="C121" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2910,7 +2907,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2920,7 +2917,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2930,7 +2927,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2940,7 +2937,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2957,7 +2954,7 @@
       </c>
       <c r="C127" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2967,7 +2964,7 @@
       </c>
       <c r="C128" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2985,7 +2982,7 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2995,7 +2992,7 @@
       </c>
       <c r="C131" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="132" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3012,7 +3009,7 @@
       </c>
       <c r="C133" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3022,7 +3019,7 @@
       </c>
       <c r="C134" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="135" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3039,7 +3036,7 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3049,7 +3046,7 @@
       </c>
       <c r="C137" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="138" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3059,7 +3056,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3077,7 +3074,7 @@
       </c>
       <c r="C140" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="141" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3102,7 +3099,7 @@
       </c>
       <c r="C143" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="144" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3112,7 +3109,7 @@
       </c>
       <c r="C144" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3122,7 +3119,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3139,7 +3136,7 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3149,7 +3146,7 @@
       </c>
       <c r="C148" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3159,7 +3156,7 @@
       </c>
       <c r="C149" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="150" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3169,7 +3166,7 @@
       </c>
       <c r="C150" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="151" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3193,7 +3190,7 @@
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3203,7 +3200,7 @@
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3213,7 +3210,7 @@
       </c>
       <c r="C155" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3223,7 +3220,7 @@
       </c>
       <c r="C156" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="157" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3240,7 +3237,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3250,7 +3247,7 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3260,7 +3257,7 @@
       </c>
       <c r="C160" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="161" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3277,7 +3274,7 @@
       </c>
       <c r="C162" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="163" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3287,7 +3284,7 @@
       </c>
       <c r="C163" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="164" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3297,7 +3294,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3307,7 +3304,7 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3324,7 +3321,7 @@
       </c>
       <c r="C167" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="168" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3334,7 +3331,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3344,7 +3341,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3361,7 +3358,7 @@
       </c>
       <c r="C171" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="172" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3371,7 +3368,7 @@
       </c>
       <c r="C172" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="173" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3395,7 +3392,7 @@
       </c>
       <c r="C175" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="176" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3405,7 +3402,7 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3415,7 +3412,7 @@
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="178" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3425,7 +3422,7 @@
       </c>
       <c r="C178" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="179" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3435,7 +3432,7 @@
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="180" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3459,7 +3456,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3469,7 +3466,7 @@
       </c>
       <c r="C183" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="184" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3479,7 +3476,7 @@
       </c>
       <c r="C184" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="185" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3489,7 +3486,7 @@
       </c>
       <c r="C185" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="186" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3499,7 +3496,7 @@
       </c>
       <c r="C186" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="187" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3523,7 +3520,7 @@
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="190" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3533,7 +3530,7 @@
       </c>
       <c r="C190" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="191" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3543,7 +3540,7 @@
       </c>
       <c r="C191" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="192" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3553,7 +3550,7 @@
       </c>
       <c r="C192" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="193" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3563,7 +3560,7 @@
       </c>
       <c r="C193" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="194" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3580,7 +3577,7 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3590,7 +3587,7 @@
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3600,7 +3597,7 @@
       </c>
       <c r="C197" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="198" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3617,7 +3614,7 @@
       </c>
       <c r="C199" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="200" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3627,7 +3624,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3637,7 +3634,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C25</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3647,7 +3644,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3657,7 +3654,7 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3667,7 +3664,7 @@
       </c>
       <c r="C204" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="205" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3677,7 +3674,7 @@
       </c>
       <c r="C205" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="206" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3687,7 +3684,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3697,7 +3694,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3707,7 +3704,7 @@
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="209" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3724,7 +3721,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3734,7 +3731,7 @@
       </c>
       <c r="C211" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="212" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3744,7 +3741,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3761,7 +3758,7 @@
       </c>
       <c r="C214" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="215" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3771,7 +3768,7 @@
       </c>
       <c r="C215" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="216" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3781,7 +3778,7 @@
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="217" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3791,7 +3788,7 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3801,7 +3798,7 @@
       </c>
       <c r="C218" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="219" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3811,7 +3808,7 @@
       </c>
       <c r="C219" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="220" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3821,7 +3818,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3831,7 +3828,7 @@
       </c>
       <c r="C221" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="222" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3848,7 +3845,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3858,7 +3855,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3868,7 +3865,7 @@
       </c>
       <c r="C225" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="226" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3878,7 +3875,7 @@
       </c>
       <c r="C226" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="227" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3888,7 +3885,7 @@
       </c>
       <c r="C227" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="228" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3898,7 +3895,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3908,7 +3905,7 @@
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="230" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3918,7 +3915,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3928,7 +3925,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3952,7 +3949,7 @@
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="235" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3962,7 +3959,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3972,7 +3969,7 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3982,7 +3979,7 @@
       </c>
       <c r="C237" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="238" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3992,7 +3989,7 @@
       </c>
       <c r="C238" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="239" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4002,7 +3999,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4012,7 +4009,7 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4022,7 +4019,7 @@
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="242" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4032,7 +4029,7 @@
       </c>
       <c r="C242" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="243" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4049,7 +4046,7 @@
       </c>
       <c r="C244" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="245" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4059,7 +4056,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4069,7 +4066,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4079,7 +4076,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4089,7 +4086,7 @@
       </c>
       <c r="C248" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="249" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4099,7 +4096,7 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4109,7 +4106,7 @@
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="251" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4119,7 +4116,7 @@
       </c>
       <c r="C251" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="252" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4129,7 +4126,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4139,7 +4136,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4149,7 +4146,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4159,7 +4156,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4176,7 +4173,7 @@
       </c>
       <c r="C257" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="258" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4186,7 +4183,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="259" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4196,7 +4193,7 @@
       </c>
       <c r="C259" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="260" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4206,7 +4203,7 @@
       </c>
       <c r="C260" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="261" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4216,7 +4213,7 @@
       </c>
       <c r="C261" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="262" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4226,7 +4223,7 @@
       </c>
       <c r="C262" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="263" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4236,7 +4233,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4253,7 +4250,7 @@
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="266" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4263,7 +4260,7 @@
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="267" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4273,7 +4270,7 @@
       </c>
       <c r="C267" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="268" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4283,7 +4280,7 @@
       </c>
       <c r="C268" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="269" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4293,7 +4290,7 @@
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="270" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4303,7 +4300,7 @@
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="271" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4320,7 +4317,7 @@
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="273" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4330,7 +4327,7 @@
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="274" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4340,7 +4337,7 @@
       </c>
       <c r="C274" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="275" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4350,7 +4347,7 @@
       </c>
       <c r="C275" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="276" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4360,7 +4357,7 @@
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="277" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4370,7 +4367,7 @@
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="278" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4387,7 +4384,7 @@
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="280" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4397,7 +4394,7 @@
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="281" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4407,7 +4404,7 @@
       </c>
       <c r="C281" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="282" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4417,7 +4414,7 @@
       </c>
       <c r="C282" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="283" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4427,7 +4424,7 @@
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="284" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4437,7 +4434,7 @@
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="285" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4447,7 +4444,7 @@
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="286" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4457,7 +4454,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4467,7 +4464,7 @@
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="288" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4484,7 +4481,7 @@
       </c>
       <c r="C289" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="290" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4494,7 +4491,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4504,7 +4501,7 @@
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="292" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4514,7 +4511,7 @@
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="293" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4524,7 +4521,7 @@
       </c>
       <c r="C293" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="294" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4534,7 +4531,7 @@
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="295" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4544,7 +4541,7 @@
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="296" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4554,7 +4551,7 @@
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="297" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4571,7 +4568,7 @@
       </c>
       <c r="C298" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="299" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4581,7 +4578,7 @@
       </c>
       <c r="C299" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="300" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4591,7 +4588,7 @@
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="301" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4601,7 +4598,7 @@
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="302" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4625,7 +4622,7 @@
       </c>
       <c r="C304" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="305" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4635,7 +4632,7 @@
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="306" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4645,7 +4642,7 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4655,7 +4652,7 @@
       </c>
       <c r="C307" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="308" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4665,7 +4662,7 @@
       </c>
       <c r="C308" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="309" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4675,7 +4672,7 @@
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4685,7 +4682,7 @@
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="311" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4695,7 +4692,7 @@
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="312" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4712,7 +4709,7 @@
       </c>
       <c r="C313" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="314" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4722,7 +4719,7 @@
       </c>
       <c r="C314" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="315" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4732,7 +4729,7 @@
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="316" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4742,7 +4739,7 @@
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="317" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4752,7 +4749,7 @@
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="318" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4762,7 +4759,7 @@
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="319" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4772,7 +4769,7 @@
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="320" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4782,7 +4779,7 @@
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="321" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4792,7 +4789,7 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4802,7 +4799,7 @@
       </c>
       <c r="C322" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="323" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4812,7 +4809,7 @@
       </c>
       <c r="C323" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="324" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4829,7 +4826,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4839,7 +4836,7 @@
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="327" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4849,7 +4846,7 @@
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="328" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4859,7 +4856,7 @@
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="329" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4869,7 +4866,7 @@
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="330" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4879,7 +4876,7 @@
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svis-SNAPSHOT</v>
+        <v>1.70.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="331" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4896,7 +4893,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.51.0-env-svis-SNAPSHOT</v>
+        <v>1.52.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4906,7 +4903,7 @@
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svis-SNAPSHOT</v>
+        <v>1.70.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="334" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4916,7 +4913,7 @@
       </c>
       <c r="C334" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="335" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4926,7 +4923,7 @@
       </c>
       <c r="C335" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="336" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4936,7 +4933,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4946,7 +4943,7 @@
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="338" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4956,7 +4953,7 @@
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="339" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4966,7 +4963,7 @@
       </c>
       <c r="C339" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="340" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4990,7 +4987,7 @@
       </c>
       <c r="C342" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="343" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5000,7 +4997,7 @@
       </c>
       <c r="C343" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="344" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5010,7 +5007,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5020,7 +5017,7 @@
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="346" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5037,7 +5034,7 @@
       </c>
       <c r="C347" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="348" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5047,7 +5044,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5057,7 +5054,7 @@
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="350" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5067,7 +5064,7 @@
       </c>
       <c r="C350" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="351" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5084,7 +5081,7 @@
       </c>
       <c r="C352" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="353" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5094,7 +5091,7 @@
       </c>
       <c r="C353" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="354" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5104,7 +5101,7 @@
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="355" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5114,7 +5111,7 @@
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="356" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5124,7 +5121,7 @@
       </c>
       <c r="C356" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="357" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5141,7 +5138,7 @@
       </c>
       <c r="C358" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="359" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5151,7 +5148,7 @@
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5161,7 +5158,7 @@
       </c>
       <c r="C360" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="361" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5171,7 +5168,7 @@
       </c>
       <c r="C361" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="362" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5188,7 +5185,7 @@
       </c>
       <c r="C363" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="364" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5198,7 +5195,7 @@
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="365" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5208,7 +5205,7 @@
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="366" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5218,7 +5215,7 @@
       </c>
       <c r="C366" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="367" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5228,7 +5225,7 @@
       </c>
       <c r="C367" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="368" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5245,7 +5242,7 @@
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="370" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5255,7 +5252,7 @@
       </c>
       <c r="C370" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="371" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5265,7 +5262,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.51.0-env-svis-SNAPSHOT</v>
+        <v>1.52.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5275,7 +5272,7 @@
       </c>
       <c r="C372" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.39.0-env-svis-SNAPSHOT</v>
+        <v>1.39.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="373" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5285,7 +5282,7 @@
       </c>
       <c r="C373" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svis-SNAPSHOT</v>
+        <v>1.70.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="374" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5295,7 +5292,7 @@
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="375" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5305,7 +5302,7 @@
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="376" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5315,7 +5312,7 @@
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C69</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="377" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5325,7 +5322,7 @@
       </c>
       <c r="C377" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="378" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5335,7 +5332,7 @@
       </c>
       <c r="C378" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="379" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5345,7 +5342,7 @@
       </c>
       <c r="C379" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="380" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5355,7 +5352,7 @@
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="381" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5372,7 +5369,7 @@
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="383" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5382,7 +5379,7 @@
       </c>
       <c r="C383" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="384" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5392,7 +5389,7 @@
       </c>
       <c r="C384" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="385" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5402,7 +5399,7 @@
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="386" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5426,7 +5423,7 @@
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5436,7 +5433,7 @@
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5446,7 +5443,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5456,7 +5453,7 @@
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="392" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5466,7 +5463,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5476,7 +5473,7 @@
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5486,7 +5483,7 @@
       </c>
       <c r="C394" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="395" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5518,7 +5515,7 @@
       </c>
       <c r="C398" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="399" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5528,7 +5525,7 @@
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5538,7 +5535,7 @@
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.19.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="401" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5548,7 +5545,7 @@
       </c>
       <c r="C401" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="402" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5558,7 +5555,7 @@
       </c>
       <c r="C402" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="403" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5568,7 +5565,7 @@
       </c>
       <c r="C403" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="404" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5578,7 +5575,7 @@
       </c>
       <c r="C404" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="405" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5588,7 +5585,7 @@
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="406" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5598,7 +5595,7 @@
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="407" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5608,7 +5605,7 @@
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="408" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5618,7 +5615,7 @@
       </c>
       <c r="C408" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="409" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5642,7 +5639,7 @@
       </c>
       <c r="C411" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="412" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5652,7 +5649,7 @@
       </c>
       <c r="C412" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svis-SNAPSHOT</v>
+        <v>1.201.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="413" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5662,7 +5659,7 @@
       </c>
       <c r="C413" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="414" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5672,7 +5669,7 @@
       </c>
       <c r="C414" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="415" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5682,7 +5679,7 @@
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="416" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5692,7 +5689,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5716,7 +5713,7 @@
       </c>
       <c r="C419" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="420" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5726,7 +5723,7 @@
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="421" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5736,7 +5733,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.136.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5746,7 +5743,7 @@
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="423" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5756,7 +5753,7 @@
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="424" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5766,7 +5763,7 @@
       </c>
       <c r="C424" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="425" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5783,7 +5780,7 @@
       </c>
       <c r="C426" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="427" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5793,7 +5790,7 @@
       </c>
       <c r="C427" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svis-SNAPSHOT</v>
+        <v>1.201.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="428" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5803,7 +5800,7 @@
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="429" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5813,7 +5810,7 @@
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="430" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5823,7 +5820,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5833,7 +5830,7 @@
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="432" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5843,7 +5840,7 @@
       </c>
       <c r="C432" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="433" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5860,7 +5857,7 @@
       </c>
       <c r="C434" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.136.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="435" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5870,7 +5867,7 @@
       </c>
       <c r="C435" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="436" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5880,7 +5877,7 @@
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="437" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5890,7 +5887,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5900,7 +5897,7 @@
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="439" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5917,7 +5914,7 @@
       </c>
       <c r="C440" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svis-SNAPSHOT</v>
+        <v>1.201.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="441" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5927,7 +5924,7 @@
       </c>
       <c r="C441" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="442" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5937,7 +5934,7 @@
       </c>
       <c r="C442" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="443" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5947,7 +5944,7 @@
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="444" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5957,7 +5954,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5967,7 +5964,7 @@
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="446" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5977,7 +5974,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5987,7 +5984,7 @@
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="448" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5997,7 +5994,7 @@
       </c>
       <c r="C448" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="449" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6007,7 +6004,7 @@
       </c>
       <c r="C449" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="450" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6017,7 +6014,7 @@
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="451" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6027,7 +6024,7 @@
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="452" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6037,7 +6034,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6047,7 +6044,7 @@
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="454" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6057,7 +6054,7 @@
       </c>
       <c r="C454" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="455" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6074,7 +6071,7 @@
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="457" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6084,7 +6081,7 @@
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="458" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6094,7 +6091,7 @@
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="459" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6104,7 +6101,7 @@
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="460" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6114,7 +6111,7 @@
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="461" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6124,7 +6121,7 @@
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6134,7 +6131,7 @@
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.136.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="463" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6151,7 +6148,7 @@
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.136.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="465" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6161,7 +6158,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6171,7 +6168,7 @@
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6181,7 +6178,7 @@
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="468" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6191,7 +6188,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6215,7 +6212,7 @@
       </c>
       <c r="C471" t="str">
         <f>'Versioni EJB'!C80</f>
-        <v>1.40.0-env-svis-SNAPSHOT</v>
+        <v>1.40.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="472" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6225,7 +6222,7 @@
       </c>
       <c r="C472" t="str">
         <f>'Versioni EJB'!C79</f>
-        <v>1.27.0-env-svis-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="473" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6235,7 +6232,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6245,7 +6242,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6255,7 +6252,7 @@
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="476" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6265,7 +6262,7 @@
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C25</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="477" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6275,7 +6272,7 @@
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="478" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6285,7 +6282,7 @@
       </c>
       <c r="C478" t="str">
         <f>'Versioni EJB'!C96</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="479" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6295,7 +6292,7 @@
       </c>
       <c r="C479" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="480" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6305,7 +6302,7 @@
       </c>
       <c r="C480" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="481" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6315,7 +6312,7 @@
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="482" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6325,7 +6322,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6335,7 +6332,7 @@
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="484" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6352,7 +6349,7 @@
       </c>
       <c r="C485" t="str">
         <f>'Versioni EJB'!C94</f>
-        <v>1.120.0-env-svis-SNAPSHOT</v>
+        <v>1.120.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="486" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6362,7 +6359,7 @@
       </c>
       <c r="C486" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svis-SNAPSHOT</v>
+        <v>1.201.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="487" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6372,7 +6369,7 @@
       </c>
       <c r="C487" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="488" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6382,7 +6379,7 @@
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="489" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6392,7 +6389,7 @@
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="490" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6402,7 +6399,7 @@
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.6.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="491" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6412,7 +6409,7 @@
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="492" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6429,7 +6426,7 @@
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="494" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6439,7 +6436,7 @@
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svis-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="495" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6449,7 +6446,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C94</f>
-        <v>1.120.0-env-svis-SNAPSHOT</v>
+        <v>1.120.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6459,7 +6456,7 @@
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="497" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6476,127 +6473,126 @@
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
     </row>
-    <row r="499" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B499" t="str">
         <f>'Versioni EJB'!B87</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C499" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.201.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B500" t="str">
         <f>'Versioni EJB'!B99</f>
         <v>pulsantiera-ejb</v>
       </c>
       <c r="C500" t="str">
         <f>'Versioni EJB'!C99</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.14.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B501" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>matchingidbpfm-ejb</v>
       </c>
       <c r="C501" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.8.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B502" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>bustine-ejb</v>
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.7.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B503" t="str">
         <f>'Versioni EJB'!B34</f>
         <v>prestiti-ejb</v>
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.9.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B504" t="str">
         <f>'Versioni EJB'!B96</f>
         <v>proposte-ejb</v>
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C96</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.6.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B505" t="str">
         <f>'Versioni EJB'!B64</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.22.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B506" t="str">
         <f>'Versioni EJB'!B42</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B507" t="str">
         <f>'Versioni EJB'!B18</f>
         <v>agenda-ejb</v>
       </c>
       <c r="C507" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.8.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B508" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>carte-ejb</v>
       </c>
       <c r="C508" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.22.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B509" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.5.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B510" t="str">
         <f>'Versioni EJB'!B35</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" collapsed="1" x14ac:dyDescent="0.3"/>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:C17">
     <sortCondition ref="B16"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD3CEBF-7914-43DC-8555-242F312FA979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A096AE88-5982-4359-94C5-3738FC22158C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Versioni EJB" sheetId="1" r:id="rId1"/>
@@ -366,97 +366,97 @@
     <t>VERSIONE SVIS/SVIA</t>
   </si>
   <si>
-    <t>1.8.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.5.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.7.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.6.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.48.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.24.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.10.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.12.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.9.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.14.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.11.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>0.30.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.19.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.13.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.39.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.20.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.15.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.17.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.52.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.22.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.70.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.16.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.27.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.40.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.47.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.201.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.136.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.30.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.120.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.38.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.69.0-env-svia-SNAPSHOT</t>
+    <t>1.10.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.5.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.7.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.8.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.6.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.48.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.29.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.12.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.9.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.20.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.11.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.30.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.19.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.14.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.39.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.15.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.17.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.52.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.22.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.70.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.16.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.27.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.40.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.47.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.202.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.136.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.120.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.38.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.30.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.13.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.69.0-env-svis-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1220,7 +1220,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,7 +1467,7 @@
         <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1511,7 +1511,7 @@
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
         <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,7 +1591,7 @@
         <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1617,7 +1617,7 @@
         <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,7 @@
         <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,7 +1704,7 @@
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
         <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,7 +1730,7 @@
         <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
         <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,7 +1794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E386" sqref="E386"/>
+      <selection pane="bottomLeft" activeCell="A388" sqref="A388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="C11" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C16" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C17" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="18" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C19" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C20" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="21" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C22" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="C23" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="24" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C26" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C27" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="C28" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="C29" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C32" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="C33" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C34" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C35" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C39" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C41" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C44" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C48" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C52" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C56" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="57" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C58" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="C59" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C61" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="C62" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C69" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="70" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C70" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C73" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="C75" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="76" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C76" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="77" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C78" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="79" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="C79" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C81" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="C82" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="83" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C84" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="85" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C85" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="86" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C88" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="89" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="C91" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="C94" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C97" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="C98" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="C100" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="101" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C103" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="104" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C104" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C109" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="110" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C110" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="111" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C114" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="115" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C115" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="116" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C121" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C127" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C128" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="C131" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="132" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C133" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="C134" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="135" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="C137" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="138" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C140" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="141" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C143" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="144" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C144" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C148" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C149" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="150" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C150" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="151" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="C155" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C156" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="157" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="C160" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="161" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C162" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="163" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C163" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="164" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C167" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="168" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C171" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="172" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C172" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="173" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C175" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="176" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="178" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C178" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="179" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="180" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C183" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="184" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C184" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="185" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C185" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="186" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C186" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="187" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="190" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C190" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="191" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C191" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="192" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C192" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="193" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C193" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="194" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="C197" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="198" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C199" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="200" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C25</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="C204" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="205" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C205" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="206" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="209" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="C211" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="212" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C214" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="215" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C215" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="216" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="217" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C218" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="219" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C219" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="220" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="C221" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="222" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="C225" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="226" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C226" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="227" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="C227" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="228" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="230" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="235" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C237" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="238" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C238" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="239" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="242" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C242" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="243" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C244" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="245" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C248" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="249" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="251" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="C251" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="252" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="C257" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="258" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="259" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C259" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="260" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C260" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="261" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C261" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="262" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C262" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="263" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="266" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="267" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C267" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="268" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C268" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="269" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="270" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="271" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="273" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="274" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="C274" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="275" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="C275" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="276" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="277" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="278" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="280" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="281" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="C281" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="282" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C282" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="283" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="284" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="285" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="286" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="288" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="C289" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="290" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="292" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="293" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C293" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="294" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="295" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="296" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="297" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C298" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="299" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="C299" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="300" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="301" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="302" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C304" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="305" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="306" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C307" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="308" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C308" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="309" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="311" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="312" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C313" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="314" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="C314" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="315" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="316" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="317" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="318" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="319" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="320" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="321" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="C322" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="323" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="C323" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="324" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="327" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="328" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="329" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="330" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svia-SNAPSHOT</v>
+        <v>1.70.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="331" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.52.0-env-svia-SNAPSHOT</v>
+        <v>1.52.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svia-SNAPSHOT</v>
+        <v>1.70.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="334" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="C334" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="335" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="C335" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="336" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="338" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="339" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="C339" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="340" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C342" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="343" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C343" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="344" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="346" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="C347" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="348" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="350" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="C350" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="351" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C352" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="353" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C353" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="354" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="355" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="356" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C356" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="357" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C358" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="359" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C360" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="361" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="C361" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="362" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="C363" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="364" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="365" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="366" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C366" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="367" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C367" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="368" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="370" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C370" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="371" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.52.0-env-svia-SNAPSHOT</v>
+        <v>1.52.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C372" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.39.0-env-svia-SNAPSHOT</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="373" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="C373" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svia-SNAPSHOT</v>
+        <v>1.70.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="374" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="375" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="376" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C69</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="377" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C377" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="378" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C378" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="379" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C379" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="380" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="381" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="383" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="C383" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="384" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="C384" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="385" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="386" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="392" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="C394" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="395" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="C398" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="399" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="401" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="C401" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="402" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="C402" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="403" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C403" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="404" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="C404" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="405" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="406" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="407" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="408" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C408" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="409" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="C411" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="412" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="C412" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svia-SNAPSHOT</v>
+        <v>1.202.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="413" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="C413" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="414" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="C414" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="415" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="416" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C419" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="420" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="421" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svia-SNAPSHOT</v>
+        <v>1.136.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="423" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="424" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="C424" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="425" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="C426" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="427" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="C427" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svia-SNAPSHOT</v>
+        <v>1.202.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="428" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="429" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="430" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="432" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="C432" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="433" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="C434" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svia-SNAPSHOT</v>
+        <v>1.136.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="435" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="C435" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="436" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="437" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="439" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="C440" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svia-SNAPSHOT</v>
+        <v>1.202.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="441" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="C441" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="442" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="C442" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="443" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="444" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="446" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="448" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C448" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="449" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="C449" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="450" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="451" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="452" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="454" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="C454" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="455" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="457" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="458" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="459" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="460" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="461" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svia-SNAPSHOT</v>
+        <v>1.136.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="463" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svia-SNAPSHOT</v>
+        <v>1.136.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="465" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="468" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C471" t="str">
         <f>'Versioni EJB'!C80</f>
-        <v>1.40.0-env-svia-SNAPSHOT</v>
+        <v>1.40.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="472" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C472" t="str">
         <f>'Versioni EJB'!C79</f>
-        <v>1.27.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="473" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="476" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C25</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="477" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="478" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C478" t="str">
         <f>'Versioni EJB'!C96</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="479" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C479" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="480" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C480" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="481" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="482" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="484" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="C485" t="str">
         <f>'Versioni EJB'!C94</f>
-        <v>1.120.0-env-svia-SNAPSHOT</v>
+        <v>1.120.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="486" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="C486" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svia-SNAPSHOT</v>
+        <v>1.202.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="487" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C487" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="488" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="489" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="490" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="491" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="492" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="494" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="495" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C94</f>
-        <v>1.120.0-env-svia-SNAPSHOT</v>
+        <v>1.120.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="497" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="C499" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.201.0-env-svia-SNAPSHOT</v>
+        <v>1.202.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="500" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="C500" t="str">
         <f>'Versioni EJB'!C99</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="501" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="C501" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="502" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="503" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="504" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C96</f>
-        <v>1.6.0-env-svia-SNAPSHOT</v>
+        <v>1.6.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="505" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="506" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="507" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="C507" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="508" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="C508" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="509" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
+        <v>1.5.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="510" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -6598,11 +6598,6 @@
     <sortCondition ref="B16"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A497:C497"/>
     <mergeCell ref="A469:C469"/>
     <mergeCell ref="A151:C151"/>
@@ -6616,6 +6611,11 @@
     <mergeCell ref="A187:C187"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A096AE88-5982-4359-94C5-3738FC22158C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33021A85-5A9B-47BD-B3EC-171286295890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
   <si>
     <t>isp-ib-om</t>
   </si>
@@ -369,42 +369,24 @@
     <t>1.10.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.5.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.7.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
     <t>1.8.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.6.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.48.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.29.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.12.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
     <t>1.9.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.20.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.11.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>0.30.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.19.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.14.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
@@ -417,9 +399,6 @@
     <t>1.17.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.52.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.22.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
@@ -429,34 +408,61 @@
     <t>1.16.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.27.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.40.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.47.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.202.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.136.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.120.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.38.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.30.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.13.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.69.0-env-svis-SNAPSHOT</t>
+    <t>1.50.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.34.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.26.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.33.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.18.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.42.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.21.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.53.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.23.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.71.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.25.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.28.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.41.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.205.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.138.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.31.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.122.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.49.0-env-svis-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -853,7 +859,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -927,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -962,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1032,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1041,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,7 +1065,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1068,7 +1074,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1077,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1086,7 +1092,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1104,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,7 +1128,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,7 +1137,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1140,7 +1146,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,7 +1155,7 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,7 +1164,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,7 +1173,7 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,7 +1182,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,7 +1191,7 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,7 +1200,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,7 +1217,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1220,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,7 +1235,7 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,7 +1244,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,7 +1253,7 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1273,7 +1279,7 @@
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1291,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,7 +1306,7 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,7 +1315,7 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,7 +1332,7 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1343,7 +1349,7 @@
         <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1360,7 +1366,7 @@
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1378,7 +1384,7 @@
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,7 +1393,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,7 +1402,7 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1431,7 +1437,7 @@
         <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,7 +1446,7 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,7 +1455,7 @@
         <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,7 +1464,7 @@
         <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,7 +1473,7 @@
         <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1476,7 +1482,7 @@
         <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1485,7 +1491,7 @@
         <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,7 +1508,7 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1511,7 +1517,7 @@
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,7 +1526,7 @@
         <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,7 +1535,7 @@
         <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1546,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1555,7 +1561,7 @@
         <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1570,7 @@
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,7 +1579,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1582,7 +1588,7 @@
         <v>67</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,7 +1597,7 @@
         <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,7 +1606,7 @@
         <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1617,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,7 +1640,7 @@
         <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,7 +1657,7 @@
         <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,7 +1674,7 @@
         <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1677,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,7 +1692,7 @@
         <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1695,7 +1701,7 @@
         <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,7 +1710,7 @@
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1719,7 @@
         <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,7 +1736,7 @@
         <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,7 +1745,7 @@
         <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,7 +1754,7 @@
         <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="C102" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1793,8 +1799,8 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A388" sqref="A388"/>
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1935,7 +1941,7 @@
       </c>
       <c r="C16" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1962,7 +1968,7 @@
       </c>
       <c r="C19" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1989,7 +1995,7 @@
       </c>
       <c r="C22" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2039,7 @@
       </c>
       <c r="C27" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2043,7 +2049,7 @@
       </c>
       <c r="C28" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2053,7 +2059,7 @@
       </c>
       <c r="C29" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2087,7 +2093,7 @@
       </c>
       <c r="C33" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2097,7 +2103,7 @@
       </c>
       <c r="C34" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2107,7 +2113,7 @@
       </c>
       <c r="C35" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2117,7 +2123,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2144,7 +2150,7 @@
       </c>
       <c r="C39" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2154,7 +2160,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2164,7 +2170,7 @@
       </c>
       <c r="C41" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2191,7 +2197,7 @@
       </c>
       <c r="C44" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2201,7 +2207,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2228,7 +2234,7 @@
       </c>
       <c r="C48" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2238,7 +2244,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2265,7 +2271,7 @@
       </c>
       <c r="C52" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2275,7 +2281,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2302,7 +2308,7 @@
       </c>
       <c r="C56" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="57" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2319,7 +2325,7 @@
       </c>
       <c r="C58" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2339,7 +2345,7 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2349,7 +2355,7 @@
       </c>
       <c r="C61" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2359,7 +2365,7 @@
       </c>
       <c r="C62" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2384,7 +2390,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2394,7 +2400,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2404,7 +2410,7 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
       </c>
       <c r="C70" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2464,7 @@
       </c>
       <c r="C73" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
       </c>
       <c r="C76" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="77" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2512,7 +2518,7 @@
       </c>
       <c r="C79" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2529,7 +2535,7 @@
       </c>
       <c r="C81" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2572,7 @@
       </c>
       <c r="C85" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="86" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2593,7 +2599,7 @@
       </c>
       <c r="C88" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="89" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2620,7 +2626,7 @@
       </c>
       <c r="C91" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2647,7 +2653,7 @@
       </c>
       <c r="C94" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2672,7 +2678,7 @@
       </c>
       <c r="C97" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2682,7 +2688,7 @@
       </c>
       <c r="C98" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2692,7 +2698,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2719,7 +2725,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2739,7 +2745,7 @@
       </c>
       <c r="C104" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2749,7 +2755,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2772,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2776,7 +2782,7 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2796,7 +2802,7 @@
       </c>
       <c r="C110" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="111" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2806,7 +2812,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2816,7 +2822,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2839,7 @@
       </c>
       <c r="C114" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="115" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2843,7 +2849,7 @@
       </c>
       <c r="C115" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="116" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2853,7 +2859,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2873,7 +2879,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2907,7 +2913,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2917,7 +2923,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2927,7 +2933,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2937,7 +2943,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2964,7 +2970,7 @@
       </c>
       <c r="C128" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2982,7 +2988,7 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2992,7 +2998,7 @@
       </c>
       <c r="C131" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="132" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3009,7 +3015,7 @@
       </c>
       <c r="C133" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3019,7 +3025,7 @@
       </c>
       <c r="C134" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="135" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3036,7 +3042,7 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3056,7 +3062,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3074,7 +3080,7 @@
       </c>
       <c r="C140" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="141" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3099,7 +3105,7 @@
       </c>
       <c r="C143" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="144" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3109,7 +3115,7 @@
       </c>
       <c r="C144" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3136,7 +3142,7 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3146,7 +3152,7 @@
       </c>
       <c r="C148" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3156,7 +3162,7 @@
       </c>
       <c r="C149" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="150" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3200,7 +3206,7 @@
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3210,7 +3216,7 @@
       </c>
       <c r="C155" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3226,7 @@
       </c>
       <c r="C156" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="157" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3237,7 +3243,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3247,7 +3253,7 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3274,7 +3280,7 @@
       </c>
       <c r="C162" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="163" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3294,7 +3300,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3304,7 +3310,7 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3331,7 +3337,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3341,7 +3347,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3358,7 +3364,7 @@
       </c>
       <c r="C171" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="172" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3402,7 +3408,7 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3418,7 @@
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="178" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3428,7 @@
       </c>
       <c r="C178" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="179" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3432,7 +3438,7 @@
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="180" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3456,7 +3462,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3472,7 @@
       </c>
       <c r="C183" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="184" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3492,7 @@
       </c>
       <c r="C185" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="186" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3496,7 +3502,7 @@
       </c>
       <c r="C186" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="187" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3530,7 +3536,7 @@
       </c>
       <c r="C190" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="191" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3540,7 +3546,7 @@
       </c>
       <c r="C191" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="192" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3550,7 +3556,7 @@
       </c>
       <c r="C192" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="193" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3560,7 +3566,7 @@
       </c>
       <c r="C193" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="194" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3577,7 +3583,7 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3587,7 +3593,7 @@
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3597,7 +3603,7 @@
       </c>
       <c r="C197" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="198" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3620,7 @@
       </c>
       <c r="C199" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="200" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3624,7 +3630,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3634,7 +3640,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C25</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3644,7 +3650,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3654,7 +3660,7 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3664,7 +3670,7 @@
       </c>
       <c r="C204" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="205" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3674,7 +3680,7 @@
       </c>
       <c r="C205" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="206" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3690,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3694,7 +3700,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3721,7 +3727,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3731,7 +3737,7 @@
       </c>
       <c r="C211" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="212" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3741,7 +3747,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3758,7 +3764,7 @@
       </c>
       <c r="C214" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="215" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3768,7 +3774,7 @@
       </c>
       <c r="C215" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="216" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3788,7 +3794,7 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3798,7 +3804,7 @@
       </c>
       <c r="C218" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="219" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3808,7 +3814,7 @@
       </c>
       <c r="C219" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="220" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3818,7 +3824,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3828,7 +3834,7 @@
       </c>
       <c r="C221" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="222" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3845,7 +3851,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3855,7 +3861,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3865,7 +3871,7 @@
       </c>
       <c r="C225" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="226" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3875,7 +3881,7 @@
       </c>
       <c r="C226" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="227" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3885,7 +3891,7 @@
       </c>
       <c r="C227" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="228" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3895,7 +3901,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3915,7 +3921,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3925,7 +3931,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3959,7 +3965,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3969,7 +3975,7 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3979,7 +3985,7 @@
       </c>
       <c r="C237" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="238" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3989,7 +3995,7 @@
       </c>
       <c r="C238" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="239" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3999,7 +4005,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4009,7 +4015,7 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4019,7 +4025,7 @@
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="242" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4029,7 +4035,7 @@
       </c>
       <c r="C242" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="243" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4056,7 +4062,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4066,7 +4072,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4076,7 +4082,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4086,7 +4092,7 @@
       </c>
       <c r="C248" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="249" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4096,7 +4102,7 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4106,7 +4112,7 @@
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="251" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4116,7 +4122,7 @@
       </c>
       <c r="C251" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="252" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4126,7 +4132,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4136,7 +4142,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4146,7 +4152,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4156,7 +4162,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4173,7 +4179,7 @@
       </c>
       <c r="C257" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="258" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4183,7 +4189,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="259" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4203,7 +4209,7 @@
       </c>
       <c r="C260" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="261" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4213,7 +4219,7 @@
       </c>
       <c r="C261" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="262" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4223,7 +4229,7 @@
       </c>
       <c r="C262" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="263" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4233,7 +4239,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4250,7 +4256,7 @@
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="266" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4260,7 +4266,7 @@
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="267" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4270,7 +4276,7 @@
       </c>
       <c r="C267" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="268" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4290,7 +4296,7 @@
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="270" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4300,7 +4306,7 @@
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="271" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4317,7 +4323,7 @@
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="273" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4327,7 +4333,7 @@
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="274" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4337,7 +4343,7 @@
       </c>
       <c r="C274" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="275" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4357,7 +4363,7 @@
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="277" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4367,7 +4373,7 @@
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="278" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4394,7 +4400,7 @@
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="281" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4404,7 +4410,7 @@
       </c>
       <c r="C281" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="282" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4414,7 +4420,7 @@
       </c>
       <c r="C282" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="283" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4424,7 +4430,7 @@
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="284" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4434,7 +4440,7 @@
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="285" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4444,7 +4450,7 @@
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="286" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4454,7 +4460,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4464,7 +4470,7 @@
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="288" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4481,7 +4487,7 @@
       </c>
       <c r="C289" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="290" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4491,7 +4497,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4501,7 +4507,7 @@
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="292" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4511,7 +4517,7 @@
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="293" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4531,7 +4537,7 @@
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="295" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4541,7 +4547,7 @@
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="296" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4551,7 +4557,7 @@
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="297" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4568,7 +4574,7 @@
       </c>
       <c r="C298" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="299" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4588,7 +4594,7 @@
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="301" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4598,7 +4604,7 @@
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="302" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4632,7 +4638,7 @@
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="306" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4642,7 +4648,7 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4652,7 +4658,7 @@
       </c>
       <c r="C307" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="308" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4662,7 +4668,7 @@
       </c>
       <c r="C308" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="309" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4672,7 +4678,7 @@
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4682,7 +4688,7 @@
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="311" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4692,7 +4698,7 @@
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="312" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4709,7 +4715,7 @@
       </c>
       <c r="C313" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="314" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4719,7 +4725,7 @@
       </c>
       <c r="C314" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="315" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4729,7 +4735,7 @@
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.20.0-env-svis-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="316" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4739,7 +4745,7 @@
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="317" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4749,7 +4755,7 @@
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="318" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4759,7 +4765,7 @@
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="319" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4769,7 +4775,7 @@
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="320" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4779,7 +4785,7 @@
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="321" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4789,7 +4795,7 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4799,7 +4805,7 @@
       </c>
       <c r="C322" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="323" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4809,7 +4815,7 @@
       </c>
       <c r="C323" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="324" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4826,7 +4832,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4836,7 +4842,7 @@
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="327" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4846,7 +4852,7 @@
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="328" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4866,7 +4872,7 @@
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="330" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4876,7 +4882,7 @@
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svis-SNAPSHOT</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="331" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4893,7 +4899,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.53.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4903,7 +4909,7 @@
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svis-SNAPSHOT</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="334" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4913,7 +4919,7 @@
       </c>
       <c r="C334" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="335" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4923,7 +4929,7 @@
       </c>
       <c r="C335" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="336" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4933,7 +4939,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4943,7 +4949,7 @@
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="338" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4953,7 +4959,7 @@
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="339" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4997,7 +5003,7 @@
       </c>
       <c r="C343" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="344" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5007,7 +5013,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5017,7 +5023,7 @@
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="346" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5044,7 +5050,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5054,7 +5060,7 @@
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="350" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5064,7 +5070,7 @@
       </c>
       <c r="C350" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="351" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5081,7 +5087,7 @@
       </c>
       <c r="C352" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="353" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5091,7 +5097,7 @@
       </c>
       <c r="C353" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="354" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5101,7 +5107,7 @@
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="355" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5121,7 +5127,7 @@
       </c>
       <c r="C356" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="357" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5138,7 +5144,7 @@
       </c>
       <c r="C358" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="359" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5148,7 +5154,7 @@
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5168,7 +5174,7 @@
       </c>
       <c r="C361" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="362" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5185,7 +5191,7 @@
       </c>
       <c r="C363" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="364" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5205,7 +5211,7 @@
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="366" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5215,7 +5221,7 @@
       </c>
       <c r="C366" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="367" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5225,7 +5231,7 @@
       </c>
       <c r="C367" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="368" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5242,7 +5248,7 @@
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="370" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5262,7 +5268,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.53.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5272,7 +5278,7 @@
       </c>
       <c r="C372" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.39.0-env-svis-SNAPSHOT</v>
+        <v>1.42.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="373" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5282,7 +5288,7 @@
       </c>
       <c r="C373" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.70.0-env-svis-SNAPSHOT</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="374" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5292,7 +5298,7 @@
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="375" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5302,7 +5308,7 @@
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="376" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5312,7 +5318,7 @@
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C69</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="377" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5322,7 +5328,7 @@
       </c>
       <c r="C377" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="378" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5332,7 +5338,7 @@
       </c>
       <c r="C378" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="379" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5342,7 +5348,7 @@
       </c>
       <c r="C379" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="380" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5352,7 +5358,7 @@
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="381" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5369,7 +5375,7 @@
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="383" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5389,7 +5395,7 @@
       </c>
       <c r="C384" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="385" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5399,7 +5405,7 @@
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="386" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5423,7 +5429,7 @@
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5433,7 +5439,7 @@
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5443,7 +5449,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5453,7 +5459,7 @@
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="392" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5463,7 +5469,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C56</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5473,7 +5479,7 @@
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5515,7 +5521,7 @@
       </c>
       <c r="C398" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="399" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5525,7 +5531,7 @@
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5535,7 +5541,7 @@
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.20.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="401" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5545,7 +5551,7 @@
       </c>
       <c r="C401" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="402" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5555,7 +5561,7 @@
       </c>
       <c r="C402" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.20.0-env-svis-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="403" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5565,7 +5571,7 @@
       </c>
       <c r="C403" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="404" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5575,7 +5581,7 @@
       </c>
       <c r="C404" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="405" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5585,7 +5591,7 @@
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="406" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5595,7 +5601,7 @@
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="407" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5605,7 +5611,7 @@
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="408" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5639,7 +5645,7 @@
       </c>
       <c r="C411" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="412" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5649,7 +5655,7 @@
       </c>
       <c r="C412" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.202.0-env-svis-SNAPSHOT</v>
+        <v>1.205.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="413" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5659,7 +5665,7 @@
       </c>
       <c r="C413" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="414" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5679,7 +5685,7 @@
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="416" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5689,7 +5695,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5723,7 +5729,7 @@
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="421" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5733,7 +5739,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.138.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5743,7 +5749,7 @@
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="423" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5753,7 +5759,7 @@
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="424" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5763,7 +5769,7 @@
       </c>
       <c r="C424" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="425" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5780,7 +5786,7 @@
       </c>
       <c r="C426" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="427" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5790,7 +5796,7 @@
       </c>
       <c r="C427" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.202.0-env-svis-SNAPSHOT</v>
+        <v>1.205.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="428" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5800,7 +5806,7 @@
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="429" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5810,7 +5816,7 @@
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="430" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5820,7 +5826,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5830,7 +5836,7 @@
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="432" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5857,7 +5863,7 @@
       </c>
       <c r="C434" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.138.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="435" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5867,7 +5873,7 @@
       </c>
       <c r="C435" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="436" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5877,7 +5883,7 @@
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="437" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5887,7 +5893,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -5914,7 +5920,7 @@
       </c>
       <c r="C440" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.202.0-env-svis-SNAPSHOT</v>
+        <v>1.205.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="441" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5924,7 +5930,7 @@
       </c>
       <c r="C441" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="442" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5934,7 +5940,7 @@
       </c>
       <c r="C442" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="443" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5944,7 +5950,7 @@
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="444" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5954,7 +5960,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5964,7 +5970,7 @@
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.20.0-env-svis-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="446" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5974,7 +5980,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5984,7 +5990,7 @@
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="448" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5994,7 +6000,7 @@
       </c>
       <c r="C448" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="449" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6004,7 +6010,7 @@
       </c>
       <c r="C449" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="450" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6014,7 +6020,7 @@
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="451" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6024,7 +6030,7 @@
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="452" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6034,7 +6040,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6044,7 +6050,7 @@
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C52</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="454" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6054,7 +6060,7 @@
       </c>
       <c r="C454" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="455" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6071,7 +6077,7 @@
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="457" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6081,7 +6087,7 @@
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="458" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6091,7 +6097,7 @@
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C24</f>
-        <v>1.20.0-env-svis-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="459" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6101,7 +6107,7 @@
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="460" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6121,7 +6127,7 @@
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6131,7 +6137,7 @@
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.138.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="463" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6148,7 +6154,7 @@
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C89</f>
-        <v>1.136.0-env-svis-SNAPSHOT</v>
+        <v>1.138.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="465" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6158,7 +6164,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.50.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6168,7 +6174,7 @@
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6178,7 +6184,7 @@
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="468" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6188,7 +6194,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6212,7 +6218,7 @@
       </c>
       <c r="C471" t="str">
         <f>'Versioni EJB'!C80</f>
-        <v>1.40.0-env-svis-SNAPSHOT</v>
+        <v>1.41.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="472" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6222,7 +6228,7 @@
       </c>
       <c r="C472" t="str">
         <f>'Versioni EJB'!C79</f>
-        <v>1.27.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="473" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6232,7 +6238,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6242,7 +6248,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6252,7 +6258,7 @@
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="476" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6262,7 +6268,7 @@
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C25</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="477" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6272,7 +6278,7 @@
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="478" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6282,7 +6288,7 @@
       </c>
       <c r="C478" t="str">
         <f>'Versioni EJB'!C96</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="479" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6292,7 +6298,7 @@
       </c>
       <c r="C479" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="480" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6302,7 +6308,7 @@
       </c>
       <c r="C480" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="481" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6312,7 +6318,7 @@
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="482" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6322,7 +6328,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6349,7 +6355,7 @@
       </c>
       <c r="C485" t="str">
         <f>'Versioni EJB'!C94</f>
-        <v>1.120.0-env-svis-SNAPSHOT</v>
+        <v>1.122.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="486" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6359,7 +6365,7 @@
       </c>
       <c r="C486" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.202.0-env-svis-SNAPSHOT</v>
+        <v>1.205.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="487" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6369,7 +6375,7 @@
       </c>
       <c r="C487" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="488" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6379,7 +6385,7 @@
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="489" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6389,7 +6395,7 @@
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="490" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6399,7 +6405,7 @@
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="491" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6409,7 +6415,7 @@
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="492" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6426,7 +6432,7 @@
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="494" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6436,7 +6442,7 @@
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.34.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="495" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6446,7 +6452,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C94</f>
-        <v>1.120.0-env-svis-SNAPSHOT</v>
+        <v>1.122.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6456,7 +6462,7 @@
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="497" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6480,7 +6486,7 @@
       </c>
       <c r="C499" t="str">
         <f>'Versioni EJB'!C87</f>
-        <v>1.202.0-env-svis-SNAPSHOT</v>
+        <v>1.205.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="500" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6490,7 +6496,7 @@
       </c>
       <c r="C500" t="str">
         <f>'Versioni EJB'!C99</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="501" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6500,7 +6506,7 @@
       </c>
       <c r="C501" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="502" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6510,7 +6516,7 @@
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.7.0-env-svis-SNAPSHOT</v>
+        <v>1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="503" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6520,7 +6526,7 @@
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="504" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6530,7 +6536,7 @@
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C96</f>
-        <v>1.6.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="505" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6540,7 +6546,7 @@
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="506" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6550,7 +6556,7 @@
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C42</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="507" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6560,7 +6566,7 @@
       </c>
       <c r="C507" t="str">
         <f>'Versioni EJB'!C18</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="508" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6570,7 +6576,7 @@
       </c>
       <c r="C508" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.22.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="509" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6580,7 +6586,7 @@
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="510" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6590,7 +6596,7 @@
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C35</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -6598,6 +6604,11 @@
     <sortCondition ref="B16"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A497:C497"/>
     <mergeCell ref="A469:C469"/>
     <mergeCell ref="A151:C151"/>
@@ -6611,11 +6622,6 @@
     <mergeCell ref="A187:C187"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BD7ADD-C4E4-4B01-AEC2-98D39D406622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9579BD6-5D00-4F77-9486-6910ABDA9F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Versioni EJB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
   <si>
     <t>isp-ib-om</t>
   </si>
@@ -366,60 +366,6 @@
     <t>VERSIONE SVIS/SVIA</t>
   </si>
   <si>
-    <t>1.10.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.8.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.48.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.12.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.9.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.11.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.14.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.15.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.17.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.16.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.13.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.18.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.21.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.23.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.71.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.25.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.28.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.49.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>wishlist-ejb</t>
   </si>
   <si>
@@ -435,58 +381,103 @@
     <t>catalogo-prodotti-ejb</t>
   </si>
   <si>
-    <t>1.4.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.5.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.52.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.20.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>0.34.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>Blocco 19</t>
   </si>
   <si>
-    <t>1.43.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.19.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.55.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.72.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.29.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.30.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.206.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.140.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.33.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.123.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.40.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.51.0-env-svis-SNAPSHOT</t>
+    <t>1.14.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.9.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.11.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.4.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.12.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.10.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.5.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.54.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.13.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.16.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.33.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.18.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.22.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.17.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.34.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.23.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.19.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.43.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.55.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.28.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.15.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.72.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.21.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.30.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.8.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.49.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.206.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.140.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.34.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.124.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.40.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.51.0-env-svia-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -884,7 +875,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -958,16 +949,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,16 +976,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1046,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1108,7 +1099,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,10 +1132,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,7 +1170,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,16 +1188,16 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1224,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,7 +1224,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,7 +1233,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,7 +1260,7 @@
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,7 +1269,7 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,7 +1286,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1304,7 +1295,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,7 +1304,7 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1322,7 +1313,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1331,7 +1322,7 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,7 +1331,7 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,7 +1340,7 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,7 +1357,7 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1375,7 +1366,7 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,7 +1375,7 @@
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,7 +1384,7 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,7 +1401,7 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1444,7 +1435,7 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,7 +1444,7 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1462,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,7 +1462,7 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,7 +1471,7 @@
         <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,7 +1480,7 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,7 +1489,7 @@
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,7 +1498,7 @@
         <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1524,7 +1515,7 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,7 +1524,7 @@
         <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,7 +1533,7 @@
         <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,7 +1542,7 @@
         <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,7 +1551,7 @@
         <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,7 +1568,7 @@
         <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,7 +1577,7 @@
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,7 +1586,7 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1604,7 +1595,7 @@
         <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,7 +1612,7 @@
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,16 +1621,16 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,7 +1639,7 @@
         <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,7 +1648,7 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1666,7 +1657,7 @@
         <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,7 +1666,7 @@
         <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1684,7 +1675,7 @@
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,7 +1692,7 @@
         <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,7 +1709,7 @@
         <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,7 +1726,7 @@
         <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,7 +1743,7 @@
         <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,7 +1761,7 @@
         <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1770,7 @@
         <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,7 +1779,7 @@
         <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,7 +1788,7 @@
         <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,7 +1805,7 @@
         <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,7 +1814,7 @@
         <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,7 +1823,7 @@
         <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,7 +1840,7 @@
         <v>82</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1878,8 +1869,8 @@
   <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B514" sqref="B514"/>
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1931,7 +1922,7 @@
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1948,7 +1939,7 @@
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1967,7 +1958,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1980,7 +1971,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1997,7 +1988,7 @@
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -2014,12 +2005,12 @@
       </c>
       <c r="C15" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="16" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2032,7 +2023,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="18" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2056,7 +2047,7 @@
       </c>
       <c r="C20" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2066,7 +2057,7 @@
       </c>
       <c r="C21" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="22" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2083,7 +2074,7 @@
       </c>
       <c r="C23" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2093,7 +2084,7 @@
       </c>
       <c r="C24" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="25" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2110,7 +2101,7 @@
       </c>
       <c r="C26" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2111,7 @@
       </c>
       <c r="C27" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2144,7 +2135,7 @@
       </c>
       <c r="C30" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2154,7 +2145,7 @@
       </c>
       <c r="C31" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2164,7 +2155,7 @@
       </c>
       <c r="C32" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2174,7 +2165,7 @@
       </c>
       <c r="C33" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2198,7 +2189,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2208,7 +2199,7 @@
       </c>
       <c r="C37" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2218,7 +2209,7 @@
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2228,7 +2219,7 @@
       </c>
       <c r="C39" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2238,7 +2229,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2255,7 +2246,7 @@
       </c>
       <c r="C42" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2265,7 +2256,7 @@
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2275,7 +2266,7 @@
       </c>
       <c r="C44" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2285,7 +2276,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2302,7 +2293,7 @@
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2312,7 +2303,7 @@
       </c>
       <c r="C48" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2313,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2339,7 +2330,7 @@
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2349,7 +2340,7 @@
       </c>
       <c r="C52" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2359,7 +2350,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2376,7 +2367,7 @@
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2386,7 +2377,7 @@
       </c>
       <c r="C56" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2396,7 +2387,7 @@
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2413,7 +2404,7 @@
       </c>
       <c r="C59" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2423,7 +2414,7 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2440,7 +2431,7 @@
       </c>
       <c r="C62" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2450,7 +2441,7 @@
       </c>
       <c r="C63" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2467,7 +2458,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2477,7 +2468,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2487,7 +2478,7 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2497,7 +2488,7 @@
       </c>
       <c r="C68" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="69" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2507,7 +2498,7 @@
       </c>
       <c r="C69" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="70" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2532,7 +2523,7 @@
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2542,7 +2533,7 @@
       </c>
       <c r="C73" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2552,12 +2543,12 @@
       </c>
       <c r="C74" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2569,7 +2560,7 @@
       </c>
       <c r="C76" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="77" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2579,7 +2570,7 @@
       </c>
       <c r="C77" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2596,7 +2587,7 @@
       </c>
       <c r="C79" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2606,7 +2597,7 @@
       </c>
       <c r="C80" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2623,7 +2614,7 @@
       </c>
       <c r="C82" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="83" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2633,7 +2624,7 @@
       </c>
       <c r="C83" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="84" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2657,7 +2648,7 @@
       </c>
       <c r="C86" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="87" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2667,7 +2658,7 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2684,7 +2675,7 @@
       </c>
       <c r="C89" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="90" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2694,7 +2685,7 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2711,7 +2702,7 @@
       </c>
       <c r="C92" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2721,12 +2712,12 @@
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2738,7 +2729,7 @@
       </c>
       <c r="C95" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2748,7 +2739,7 @@
       </c>
       <c r="C96" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="97" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2765,7 +2756,7 @@
       </c>
       <c r="C98" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2775,7 +2766,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2792,7 +2783,7 @@
       </c>
       <c r="C101" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="102" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2802,7 +2793,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2819,7 +2810,7 @@
       </c>
       <c r="C104" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2829,7 +2820,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2846,7 +2837,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2856,7 +2847,7 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2881,7 +2872,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2891,7 +2882,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2901,7 +2892,7 @@
       </c>
       <c r="C113" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="114" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2911,7 +2902,7 @@
       </c>
       <c r="C114" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="115" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2928,7 +2919,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2938,7 +2929,7 @@
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2948,7 +2939,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2958,7 +2949,7 @@
       </c>
       <c r="C119" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="120" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2975,7 +2966,7 @@
       </c>
       <c r="C121" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2985,7 +2976,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2995,7 +2986,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3005,7 +2996,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3015,7 +3006,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3025,7 +3016,7 @@
       </c>
       <c r="C126" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="127" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3042,7 +3033,7 @@
       </c>
       <c r="C128" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3052,7 +3043,7 @@
       </c>
       <c r="C129" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3062,7 +3053,7 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3072,7 +3063,7 @@
       </c>
       <c r="C131" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3082,7 +3073,7 @@
       </c>
       <c r="C132" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="133" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3106,7 +3097,7 @@
       </c>
       <c r="C135" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="136" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3116,7 +3107,7 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3126,7 +3117,7 @@
       </c>
       <c r="C137" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="138" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3136,7 +3127,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3146,7 +3137,7 @@
       </c>
       <c r="C139" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="140" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3163,7 +3154,7 @@
       </c>
       <c r="C141" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="142" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3173,7 +3164,7 @@
       </c>
       <c r="C142" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="143" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3191,7 +3182,7 @@
       </c>
       <c r="C144" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3201,7 +3192,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3218,7 +3209,7 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3228,7 +3219,7 @@
       </c>
       <c r="C148" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="149" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3245,7 +3236,7 @@
       </c>
       <c r="C150" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="151" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3255,7 +3246,7 @@
       </c>
       <c r="C151" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="152" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3265,7 +3256,7 @@
       </c>
       <c r="C152" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="153" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3275,7 +3266,7 @@
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3285,7 +3276,7 @@
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3295,7 +3286,7 @@
       </c>
       <c r="C155" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="156" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3312,7 +3303,7 @@
       </c>
       <c r="C157" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="158" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3322,7 +3313,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3332,7 +3323,7 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3350,7 +3341,7 @@
       </c>
       <c r="C161" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="162" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3375,7 +3366,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3385,7 +3376,7 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3395,7 +3386,7 @@
       </c>
       <c r="C166" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="167" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3403,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3413,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3432,7 +3423,7 @@
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="171" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3442,7 +3433,7 @@
       </c>
       <c r="C171" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="172" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3457,7 @@
       </c>
       <c r="C174" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="175" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3476,7 +3467,7 @@
       </c>
       <c r="C175" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="176" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3477,7 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3496,7 +3487,7 @@
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="178" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3513,7 +3504,7 @@
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="180" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3523,7 +3514,7 @@
       </c>
       <c r="C180" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="181" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3533,7 +3524,7 @@
       </c>
       <c r="C181" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="182" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3543,7 +3534,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3560,7 +3551,7 @@
       </c>
       <c r="C184" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="185" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3570,7 +3561,7 @@
       </c>
       <c r="C185" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="186" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3580,7 +3571,7 @@
       </c>
       <c r="C186" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="187" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3597,7 +3588,7 @@
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="189" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3607,7 +3598,7 @@
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="190" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3631,7 +3622,7 @@
       </c>
       <c r="C192" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="193" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3641,7 +3632,7 @@
       </c>
       <c r="C193" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="194" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3651,7 +3642,7 @@
       </c>
       <c r="C194" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="195" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3661,7 +3652,7 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3671,7 +3662,7 @@
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3695,7 +3686,7 @@
       </c>
       <c r="C199" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="200" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3705,7 +3696,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3715,7 +3706,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3725,7 +3716,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3735,7 +3726,7 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3759,7 +3750,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3769,7 +3760,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3779,7 +3770,7 @@
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="209" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3789,7 +3780,7 @@
       </c>
       <c r="C209" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="210" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3799,7 +3790,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3816,7 +3807,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3826,7 +3817,7 @@
       </c>
       <c r="C213" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="214" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3836,7 +3827,7 @@
       </c>
       <c r="C214" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="215" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3846,7 +3837,7 @@
       </c>
       <c r="C215" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="216" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3856,7 +3847,7 @@
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="217" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3866,7 +3857,7 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3876,7 +3867,7 @@
       </c>
       <c r="C218" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="219" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3886,7 +3877,7 @@
       </c>
       <c r="C219" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="220" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3896,7 +3887,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3913,7 +3904,7 @@
       </c>
       <c r="C222" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="223" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3923,7 +3914,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3933,7 +3924,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3950,7 +3941,7 @@
       </c>
       <c r="C226" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="227" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3960,7 +3951,7 @@
       </c>
       <c r="C227" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="228" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3970,7 +3961,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3980,7 +3971,7 @@
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="230" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3990,7 +3981,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4000,7 +3991,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4010,7 +4001,7 @@
       </c>
       <c r="C232" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="233" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4027,7 +4018,7 @@
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="235" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4037,7 +4028,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4047,7 +4038,7 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4057,7 +4048,7 @@
       </c>
       <c r="C237" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="238" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4067,7 +4058,7 @@
       </c>
       <c r="C238" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="239" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4077,7 +4068,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4087,7 +4078,7 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4097,7 +4088,7 @@
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="242" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4107,7 +4098,7 @@
       </c>
       <c r="C242" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="243" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4117,7 +4108,7 @@
       </c>
       <c r="C243" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="244" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4134,7 +4125,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4144,7 +4135,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4154,7 +4145,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4171,7 +4162,7 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4181,7 +4172,7 @@
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="251" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4191,7 +4182,7 @@
       </c>
       <c r="C251" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="252" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4201,7 +4192,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4211,7 +4202,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4221,7 +4212,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4231,7 +4222,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4241,7 +4232,7 @@
       </c>
       <c r="C256" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="257" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4258,7 +4249,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="259" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4268,7 +4259,7 @@
       </c>
       <c r="C259" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="260" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4278,7 +4269,7 @@
       </c>
       <c r="C260" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="261" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4288,7 +4279,7 @@
       </c>
       <c r="C261" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="262" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4298,7 +4289,7 @@
       </c>
       <c r="C262" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="263" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4308,7 +4299,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4318,7 +4309,7 @@
       </c>
       <c r="C264" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="265" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4328,7 +4319,7 @@
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="266" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4338,7 +4329,7 @@
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="267" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4362,7 +4353,7 @@
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="270" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4372,7 +4363,7 @@
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C22</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="271" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4382,7 +4373,7 @@
       </c>
       <c r="C271" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="272" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4392,7 +4383,7 @@
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="273" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4402,7 +4393,7 @@
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="274" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4412,7 +4403,7 @@
       </c>
       <c r="C274" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.19.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="275" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4422,7 +4413,7 @@
       </c>
       <c r="C275" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="276" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4432,7 +4423,7 @@
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="277" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4442,7 +4433,7 @@
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="278" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4452,7 +4443,7 @@
       </c>
       <c r="C278" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="279" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4462,7 +4453,7 @@
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="280" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4472,7 +4463,7 @@
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="281" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4489,7 +4480,7 @@
       </c>
       <c r="C282" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="283" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4499,7 +4490,7 @@
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="284" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4509,7 +4500,7 @@
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="285" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4519,7 +4510,7 @@
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="286" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4529,7 +4520,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4539,7 +4530,7 @@
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="288" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4556,7 +4547,7 @@
       </c>
       <c r="C289" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="290" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4566,7 +4557,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4576,7 +4567,7 @@
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="292" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4586,7 +4577,7 @@
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="293" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4596,7 +4587,7 @@
       </c>
       <c r="C293" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="294" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4606,7 +4597,7 @@
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="295" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4616,7 +4607,7 @@
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="296" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4626,7 +4617,7 @@
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="297" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4636,7 +4627,7 @@
       </c>
       <c r="C297" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="298" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4653,7 +4644,7 @@
       </c>
       <c r="C299" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="300" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4663,7 +4654,7 @@
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="301" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4673,7 +4664,7 @@
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="302" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4683,7 +4674,7 @@
       </c>
       <c r="C302" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="303" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4693,7 +4684,7 @@
       </c>
       <c r="C303" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="304" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4703,7 +4694,7 @@
       </c>
       <c r="C304" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="305" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4713,7 +4704,7 @@
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="306" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4723,7 +4714,7 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4740,7 +4731,7 @@
       </c>
       <c r="C308" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="309" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4750,7 +4741,7 @@
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4760,7 +4751,7 @@
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="311" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4770,7 +4761,7 @@
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.19.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="312" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4794,7 +4785,7 @@
       </c>
       <c r="C314" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="315" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4804,7 +4795,7 @@
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="316" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4814,7 +4805,7 @@
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="317" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4824,7 +4815,7 @@
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="318" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4834,7 +4825,7 @@
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="319" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4844,7 +4835,7 @@
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="320" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4854,7 +4845,7 @@
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="321" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4864,7 +4855,7 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4881,7 +4872,7 @@
       </c>
       <c r="C323" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="324" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4891,7 +4882,7 @@
       </c>
       <c r="C324" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="325" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4901,7 +4892,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4911,7 +4902,7 @@
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="327" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4921,7 +4912,7 @@
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="328" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4931,7 +4922,7 @@
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="329" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4941,7 +4932,7 @@
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="330" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4951,7 +4942,7 @@
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="331" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4961,7 +4952,7 @@
       </c>
       <c r="C331" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="332" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4971,7 +4962,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4981,7 +4972,7 @@
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="334" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4998,7 +4989,7 @@
       </c>
       <c r="C335" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="336" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5008,7 +4999,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5018,7 +5009,7 @@
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="338" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5028,7 +5019,7 @@
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="339" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5038,7 +5029,7 @@
       </c>
       <c r="C339" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="340" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5048,7 +5039,7 @@
       </c>
       <c r="C340" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.72.0-env-svis-SNAPSHOT</v>
+        <v>1.72.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="341" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5065,7 +5056,7 @@
       </c>
       <c r="C342" t="str">
         <f>'Versioni EJB'!C69</f>
-        <v>1.55.0-env-svis-SNAPSHOT</v>
+        <v>1.55.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="343" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5075,7 +5066,7 @@
       </c>
       <c r="C343" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.72.0-env-svis-SNAPSHOT</v>
+        <v>1.72.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="344" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5085,7 +5076,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5095,7 +5086,7 @@
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="346" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5105,7 +5096,7 @@
       </c>
       <c r="C346" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="347" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5115,7 +5106,7 @@
       </c>
       <c r="C347" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="348" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5125,7 +5116,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5135,7 +5126,7 @@
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="350" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5159,7 +5150,7 @@
       </c>
       <c r="C352" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="353" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5169,7 +5160,7 @@
       </c>
       <c r="C353" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="354" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5179,7 +5170,7 @@
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="355" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5180,7 @@
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="356" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5206,7 +5197,7 @@
       </c>
       <c r="C357" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="358" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5216,7 +5207,7 @@
       </c>
       <c r="C358" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="359" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5226,7 +5217,7 @@
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5236,12 +5227,12 @@
       </c>
       <c r="C360" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="361" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -5253,7 +5244,7 @@
       </c>
       <c r="C362" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.5.0-env-svis-SNAPSHOT</v>
+        <v>1.5.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="363" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5263,7 +5254,7 @@
       </c>
       <c r="C363" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="364" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5273,7 +5264,7 @@
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="365" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5283,7 +5274,7 @@
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="366" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5300,7 +5291,7 @@
       </c>
       <c r="C367" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="368" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5310,7 +5301,7 @@
       </c>
       <c r="C368" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="369" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5320,7 +5311,7 @@
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="370" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5330,7 +5321,7 @@
       </c>
       <c r="C370" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="371" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5340,7 +5331,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5357,7 +5348,7 @@
       </c>
       <c r="C373" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="374" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5367,7 +5358,7 @@
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="375" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5377,7 +5368,7 @@
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="376" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5387,7 +5378,7 @@
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="377" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5404,7 +5395,7 @@
       </c>
       <c r="C378" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="379" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5414,7 +5405,7 @@
       </c>
       <c r="C379" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="380" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5424,7 +5415,7 @@
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="381" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5434,7 +5425,7 @@
       </c>
       <c r="C381" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.19.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="382" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5444,7 +5435,7 @@
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="383" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5461,7 +5452,7 @@
       </c>
       <c r="C384" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="385" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5471,7 +5462,7 @@
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="386" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5481,7 +5472,7 @@
       </c>
       <c r="C386" t="str">
         <f>'Versioni EJB'!C69</f>
-        <v>1.55.0-env-svis-SNAPSHOT</v>
+        <v>1.55.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="387" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5491,7 +5482,7 @@
       </c>
       <c r="C387" t="str">
         <f>'Versioni EJB'!C51</f>
-        <v>1.43.0-env-svis-SNAPSHOT</v>
+        <v>1.43.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="388" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5501,7 +5492,7 @@
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.72.0-env-svis-SNAPSHOT</v>
+        <v>1.72.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5511,7 +5502,7 @@
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.19.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5521,7 +5512,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.13.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5531,7 +5522,7 @@
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C74</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="392" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5541,7 +5532,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5551,7 +5542,7 @@
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5561,7 +5552,7 @@
       </c>
       <c r="C394" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="395" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5571,7 +5562,7 @@
       </c>
       <c r="C395" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="396" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5588,7 +5579,7 @@
       </c>
       <c r="C397" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="398" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5598,7 +5589,7 @@
       </c>
       <c r="C398" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="399" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5608,7 +5599,7 @@
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5618,7 +5609,7 @@
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="401" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5642,7 +5633,7 @@
       </c>
       <c r="C403" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="404" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5652,7 +5643,7 @@
       </c>
       <c r="C404" t="str">
         <f>'Versioni EJB'!C50</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="405" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5662,7 +5653,7 @@
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C83</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="406" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5672,7 +5663,7 @@
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="407" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5682,7 +5673,7 @@
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="408" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5692,7 +5683,7 @@
       </c>
       <c r="C408" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="409" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5702,7 +5693,7 @@
       </c>
       <c r="C409" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="410" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5734,7 +5725,7 @@
       </c>
       <c r="C413" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="414" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5744,7 +5735,7 @@
       </c>
       <c r="C414" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="415" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5754,7 +5745,7 @@
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C91</f>
-        <v>1.23.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="416" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5764,7 +5755,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5774,7 +5765,7 @@
       </c>
       <c r="C417" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="418" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5784,7 +5775,7 @@
       </c>
       <c r="C418" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="419" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5794,7 +5785,7 @@
       </c>
       <c r="C419" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="420" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5804,7 +5795,7 @@
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="421" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5814,7 +5805,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5824,7 +5815,7 @@
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="423" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5834,7 +5825,7 @@
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="424" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5858,7 +5849,7 @@
       </c>
       <c r="C426" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="427" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5868,7 +5859,7 @@
       </c>
       <c r="C427" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svis-SNAPSHOT</v>
+        <v>1.206.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="428" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5878,7 +5869,7 @@
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="429" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5888,7 +5879,7 @@
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="430" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5898,7 +5889,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5908,7 +5899,7 @@
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="432" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5932,7 +5923,7 @@
       </c>
       <c r="C434" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="435" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5942,7 +5933,7 @@
       </c>
       <c r="C435" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="436" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5952,7 +5943,7 @@
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svis-SNAPSHOT</v>
+        <v>1.140.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="437" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5962,7 +5953,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5972,7 +5963,7 @@
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="439" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5982,7 +5973,7 @@
       </c>
       <c r="C439" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="440" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5999,7 +5990,7 @@
       </c>
       <c r="C441" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="442" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6009,7 +6000,7 @@
       </c>
       <c r="C442" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svis-SNAPSHOT</v>
+        <v>1.206.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="443" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6019,7 +6010,7 @@
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="444" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6029,7 +6020,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6039,7 +6030,7 @@
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="446" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6049,7 +6040,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6059,7 +6050,7 @@
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="448" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6076,7 +6067,7 @@
       </c>
       <c r="C449" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svis-SNAPSHOT</v>
+        <v>1.140.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="450" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6086,7 +6077,7 @@
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="451" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6096,7 +6087,7 @@
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="452" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6106,7 +6097,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6116,7 +6107,7 @@
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="454" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6133,7 +6124,7 @@
       </c>
       <c r="C455" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svis-SNAPSHOT</v>
+        <v>1.206.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="456" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6143,7 +6134,7 @@
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="457" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6153,7 +6144,7 @@
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="458" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6163,7 +6154,7 @@
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="459" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6173,7 +6164,7 @@
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="460" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6183,7 +6174,7 @@
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="461" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6193,7 +6184,7 @@
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6203,7 +6194,7 @@
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="463" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6213,7 +6204,7 @@
       </c>
       <c r="C463" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="464" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6223,7 +6214,7 @@
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="465" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6233,7 +6224,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6243,7 +6234,7 @@
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6253,7 +6244,7 @@
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="468" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6263,7 +6254,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6273,7 +6264,7 @@
       </c>
       <c r="C469" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="470" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6290,7 +6281,7 @@
       </c>
       <c r="C471" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="472" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6300,7 +6291,7 @@
       </c>
       <c r="C472" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="473" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6310,7 +6301,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6320,7 +6311,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6330,7 +6321,7 @@
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="476" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6340,7 +6331,7 @@
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="477" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6350,7 +6341,7 @@
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svis-SNAPSHOT</v>
+        <v>1.140.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="478" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6367,7 +6358,7 @@
       </c>
       <c r="C479" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svis-SNAPSHOT</v>
+        <v>1.140.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="480" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6377,7 +6368,7 @@
       </c>
       <c r="C480" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.52.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="481" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6387,7 +6378,7 @@
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="482" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6397,7 +6388,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6407,7 +6398,7 @@
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="484" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6431,7 +6422,7 @@
       </c>
       <c r="C486" t="str">
         <f>'Versioni EJB'!C86</f>
-        <v>1.43.0-env-svis-SNAPSHOT</v>
+        <v>1.43.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="487" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6441,7 +6432,7 @@
       </c>
       <c r="C487" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.30.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="488" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6451,7 +6442,7 @@
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="489" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6461,7 +6452,7 @@
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="490" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6471,7 +6462,7 @@
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C82</f>
-        <v>1.11.0-env-svis-SNAPSHOT</v>
+        <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="491" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6481,7 +6472,7 @@
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="492" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6491,7 +6482,7 @@
       </c>
       <c r="C492" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="493" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6501,7 +6492,7 @@
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="494" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6511,7 +6502,7 @@
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="495" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6521,7 +6512,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6531,7 +6522,7 @@
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="497" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6541,7 +6532,7 @@
       </c>
       <c r="C497" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="498" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6551,7 +6542,7 @@
       </c>
       <c r="C498" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="499" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6568,7 +6559,7 @@
       </c>
       <c r="C500" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.123.0-env-svis-SNAPSHOT</v>
+        <v>1.124.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="501" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6578,7 +6569,7 @@
       </c>
       <c r="C501" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svis-SNAPSHOT</v>
+        <v>1.206.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="502" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6588,7 +6579,7 @@
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="503" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6598,7 +6589,7 @@
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="504" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6608,7 +6599,7 @@
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="505" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6618,7 +6609,7 @@
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="506" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6628,7 +6619,7 @@
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="507" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6645,7 +6636,7 @@
       </c>
       <c r="C508" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="509" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6655,7 +6646,7 @@
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.48.0-env-svis-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="510" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6665,7 +6656,7 @@
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.123.0-env-svis-SNAPSHOT</v>
+        <v>1.124.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="511" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6675,12 +6666,12 @@
       </c>
       <c r="C511" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="512" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A512" s="9" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -6699,7 +6690,7 @@
       </c>
       <c r="C514" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svis-SNAPSHOT</v>
+        <v>1.206.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="515" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6709,7 +6700,7 @@
       </c>
       <c r="C515" t="str">
         <f>'Versioni EJB'!C105</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="516" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6719,7 +6710,7 @@
       </c>
       <c r="C516" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svis-SNAPSHOT</v>
+        <v>1.10.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="517" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6729,7 +6720,7 @@
       </c>
       <c r="C517" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="518" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6739,7 +6730,7 @@
       </c>
       <c r="C518" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="519" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6749,7 +6740,7 @@
       </c>
       <c r="C519" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.8.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="520" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6759,7 +6750,7 @@
       </c>
       <c r="C520" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="521" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6769,7 +6760,7 @@
       </c>
       <c r="C521" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="522" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6779,7 +6770,7 @@
       </c>
       <c r="C522" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.12.0-env-svis-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="523" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6789,7 +6780,7 @@
       </c>
       <c r="C523" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="524" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6799,7 +6790,7 @@
       </c>
       <c r="C524" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svis-SNAPSHOT</v>
+        <v>1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="525" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6809,7 +6800,7 @@
       </c>
       <c r="C525" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -6817,12 +6808,6 @@
     <sortCondition ref="B20"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A84:C84"/>
     <mergeCell ref="A512:C512"/>
     <mergeCell ref="A484:C484"/>
     <mergeCell ref="A172:C172"/>
@@ -6836,6 +6821,12 @@
     <mergeCell ref="A204:C204"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A84:C84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9579BD6-5D00-4F77-9486-6910ABDA9F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7B9E1-4F12-48CB-91C2-F0FCED770DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
   <si>
     <t>isp-ib-om</t>
   </si>
@@ -414,9 +414,6 @@
     <t>1.16.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.33.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.18.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
@@ -478,6 +475,15 @@
   </si>
   <si>
     <t>1.51.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.58.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.24.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.20.0-env-svia-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104:C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1135,7 +1141,7 @@
         <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1206,7 +1212,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,7 +1221,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,7 +1257,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,7 +1292,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1322,7 +1328,7 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1401,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,7 +1424,7 @@
         <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1444,7 +1450,7 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,7 +1477,7 @@
         <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,7 +1495,7 @@
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,7 +1521,7 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1524,7 +1530,7 @@
         <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,7 +1539,7 @@
         <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1568,7 +1574,7 @@
         <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,7 +1583,7 @@
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,7 +1592,7 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,7 +1636,7 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1639,7 +1645,7 @@
         <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,7 +1654,7 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,7 +1663,7 @@
         <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1666,7 +1672,7 @@
         <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1692,7 +1698,7 @@
         <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1709,7 +1715,7 @@
         <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1726,7 +1732,7 @@
         <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,7 +1767,7 @@
         <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,7 +1776,7 @@
         <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1785,7 @@
         <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -1805,7 +1811,7 @@
         <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,7 +1820,7 @@
         <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,7 +1846,7 @@
         <v>82</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1875,7 @@
   <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2235,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2276,7 +2282,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2313,7 +2319,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2350,7 +2356,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2387,7 +2393,7 @@
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2404,7 +2410,7 @@
       </c>
       <c r="C59" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2441,7 +2447,7 @@
       </c>
       <c r="C63" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2498,7 +2504,7 @@
       </c>
       <c r="C69" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="70" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2543,7 +2549,7 @@
       </c>
       <c r="C74" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2576,7 @@
       </c>
       <c r="C77" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2597,7 +2603,7 @@
       </c>
       <c r="C80" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2624,7 +2630,7 @@
       </c>
       <c r="C83" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="84" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2658,7 +2664,7 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2685,7 +2691,7 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2702,7 +2708,7 @@
       </c>
       <c r="C92" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2739,7 +2745,7 @@
       </c>
       <c r="C96" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="97" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2772,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2793,7 +2799,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2820,7 +2826,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2847,7 +2853,7 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2892,7 +2898,7 @@
       </c>
       <c r="C113" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="114" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2919,7 +2925,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2976,7 +2982,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3053,7 +3059,7 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3137,7 +3143,7 @@
       </c>
       <c r="C139" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="140" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3192,7 +3198,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3209,7 +3215,7 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3276,7 +3282,7 @@
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3303,7 +3309,7 @@
       </c>
       <c r="C157" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="158" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3376,7 +3382,7 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3423,7 +3429,7 @@
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="171" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3487,7 +3493,7 @@
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="178" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3504,7 +3510,7 @@
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="180" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3534,7 +3540,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3588,7 +3594,7 @@
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="189" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3662,7 +3668,7 @@
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3696,7 +3702,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3716,7 +3722,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3790,7 +3796,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3887,7 +3893,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3924,7 +3930,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3991,7 +3997,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4078,7 +4084,7 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4088,7 +4094,7 @@
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="242" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4135,7 +4141,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4172,7 +4178,7 @@
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="251" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4212,7 +4218,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4299,7 +4305,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4443,7 +4449,7 @@
       </c>
       <c r="C278" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="279" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4453,7 +4459,7 @@
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="280" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4520,7 +4526,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4557,7 +4563,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4674,7 +4680,7 @@
       </c>
       <c r="C302" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="303" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4714,7 +4720,7 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4855,7 +4861,7 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4892,7 +4898,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.33.0-env-svia-SNAPSHOT</v>
+        <v>1.34.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4922,7 +4928,7 @@
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="329" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4962,7 +4968,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4999,7 +5005,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5076,7 +5082,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5116,7 +5122,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5180,7 +5186,7 @@
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="356" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5264,7 +5270,7 @@
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.33.0-env-svia-SNAPSHOT</v>
+        <v>1.34.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="365" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5331,7 +5337,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5348,7 +5354,7 @@
       </c>
       <c r="C373" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="374" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5452,7 +5458,7 @@
       </c>
       <c r="C384" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="385" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5512,7 +5518,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5532,7 +5538,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5755,7 +5761,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5765,7 +5771,7 @@
       </c>
       <c r="C417" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.33.0-env-svia-SNAPSHOT</v>
+        <v>1.34.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="418" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5805,7 +5811,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5889,7 +5895,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5953,7 +5959,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6020,7 +6026,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6040,7 +6046,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6077,7 +6083,7 @@
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="451" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6097,7 +6103,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6174,7 +6180,7 @@
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.33.0-env-svia-SNAPSHOT</v>
+        <v>1.34.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="461" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6204,7 +6210,7 @@
       </c>
       <c r="C463" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="464" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6224,7 +6230,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6254,7 +6260,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6301,7 +6307,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.33.0-env-svia-SNAPSHOT</v>
+        <v>1.34.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6311,7 +6317,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6388,7 +6394,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6512,7 +6518,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6532,7 +6538,7 @@
       </c>
       <c r="C497" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="498" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6599,7 +6605,7 @@
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="505" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6646,7 +6652,7 @@
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="510" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6760,7 +6766,7 @@
       </c>
       <c r="C521" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="522" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6808,6 +6814,12 @@
     <sortCondition ref="B20"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A84:C84"/>
     <mergeCell ref="A512:C512"/>
     <mergeCell ref="A484:C484"/>
     <mergeCell ref="A172:C172"/>
@@ -6821,12 +6833,6 @@
     <mergeCell ref="A204:C204"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A84:C84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7B9E1-4F12-48CB-91C2-F0FCED770DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F059B723-C600-407E-A8D0-39C24FDA113B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="154">
   <si>
     <t>isp-ib-om</t>
   </si>
@@ -384,106 +384,121 @@
     <t>Blocco 19</t>
   </si>
   <si>
-    <t>1.14.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.9.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.11.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.4.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.12.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.10.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.5.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.54.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.13.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.16.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.18.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.22.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.17.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>0.34.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.23.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.19.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.43.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.55.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.28.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.15.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.72.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.21.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.30.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.8.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.49.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.206.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.140.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.34.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.124.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.40.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.51.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.58.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.24.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.20.0-env-svia-SNAPSHOT</t>
+    <t>1.17.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.11.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.13.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.12.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.5.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.6.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.56.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.77.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.16.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.15.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.10.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.42.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.19.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.23.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.18.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.14.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.9.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.35.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.24.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.25.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.26.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.45.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.28.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.20.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.57.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.30.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.73.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.22.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.35.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.34.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.46.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.50.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.220.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.141.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.36.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.129.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.41.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.53.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.74.0-env-svis-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -882,7 +897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104:C106"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,7 +979,7 @@
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -991,7 +1006,7 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1026,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1087,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1123,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,7 +1156,7 @@
         <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1150,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,7 +1174,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,7 +1191,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,7 +1200,7 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,7 +1209,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,7 +1218,7 @@
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,7 +1227,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1221,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,7 +1245,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,7 +1254,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,7 +1272,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1275,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,7 +1307,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1301,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,7 +1325,7 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,7 +1334,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,7 +1352,7 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1346,7 +1361,7 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,7 +1378,7 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,7 +1422,7 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,7 +1439,7 @@
         <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,7 +1456,7 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1450,7 +1465,7 @@
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,7 +1474,7 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,7 +1483,7 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1477,7 +1492,7 @@
         <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,7 +1510,7 @@
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1504,7 +1519,7 @@
         <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,7 +1536,7 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1539,7 +1554,7 @@
         <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,7 +1563,7 @@
         <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1557,7 +1572,7 @@
         <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1574,7 +1589,7 @@
         <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1583,7 +1598,7 @@
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,7 +1607,7 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1601,7 +1616,7 @@
         <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1618,7 +1633,7 @@
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1627,7 +1642,7 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,7 +1651,7 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,7 +1660,7 @@
         <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,7 +1669,7 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,7 +1678,7 @@
         <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,7 +1687,7 @@
         <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1681,7 +1696,7 @@
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,7 +1713,7 @@
         <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,7 +1730,7 @@
         <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1732,7 +1747,7 @@
         <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1749,7 +1764,7 @@
         <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,7 +1773,7 @@
         <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1767,7 +1782,7 @@
         <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,7 +1791,7 @@
         <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,7 +1800,7 @@
         <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,7 +1809,7 @@
         <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,7 +1826,7 @@
         <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,7 +1835,7 @@
         <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1829,7 +1844,7 @@
         <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1846,7 +1861,7 @@
         <v>82</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
+      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1921,34 +1936,34 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B5" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1969,7 +1984,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="str">
         <f>'Versioni EJB'!B2</f>
@@ -1977,51 +1992,51 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C15" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="str">
         <f>'Versioni EJB'!B2</f>
@@ -2029,10 +2044,10 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>86</v>
       </c>
@@ -2046,81 +2061,81 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C20" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C21" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
       </c>
       <c r="C23" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C24" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C26" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C27" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>87</v>
       </c>
@@ -2134,47 +2149,47 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C30" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C31" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C32" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
         <f>'Versioni EJB'!B10</f>
         <v>userpreferences-ejb</v>
       </c>
       <c r="C33" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>88</v>
       </c>
@@ -2188,333 +2203,333 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C37" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B39" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C39" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B40" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B42" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C42" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B43" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B44" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C44" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B45" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B47" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B48" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C48" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B49" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B51" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B52" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C52" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B53" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B55" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B56" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C56" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B57" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B59" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C59" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B60" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B62" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C62" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B63" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C63" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B65" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B66" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B67" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B68" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C68" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B69" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C69" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>72</v>
       </c>
@@ -2522,118 +2537,118 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B72" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B73" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C73" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B74" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C74" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B76" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C76" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B77" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C77" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B79" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C79" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B80" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C80" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B82" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C82" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B83" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C83" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>89</v>
       </c>
@@ -2647,216 +2662,216 @@
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B86" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C86" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B87" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B89" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C89" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B90" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B92" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C92" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B93" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B95" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C95" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B96" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C96" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B98" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C98" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B99" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B101" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C101" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B102" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B104" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C104" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B105" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B107" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B108" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>44</v>
       </c>
@@ -2864,225 +2879,225 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B111" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B112" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B113" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C113" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B114" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C114" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B116" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B117" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B118" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B119" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C119" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B121" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C121" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B122" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B123" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B124" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B125" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B126" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>stampe-ejb</v>
       </c>
       <c r="C126" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B128" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C128" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B129" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C129" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B130" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B131" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C131" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B132" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
       </c>
       <c r="C132" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>90</v>
       </c>
@@ -3096,84 +3111,84 @@
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B135" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C135" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B136" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B137" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C137" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B138" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B139" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C139" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B141" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C141" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B142" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C142" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>61</v>
       </c>
@@ -3181,158 +3196,158 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B144" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C144" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B145" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B147" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B148" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C148" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B150" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C150" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B151" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C151" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B152" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C152" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B153" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B154" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B155" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C155" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B157" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C157" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B158" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B159" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>76</v>
       </c>
@@ -3340,17 +3355,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B161" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C161" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>49</v>
       </c>
@@ -3358,91 +3373,91 @@
         <v>106</v>
       </c>
     </row>
-    <row r="163" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B164" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>stampe-ejb</v>
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B165" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B166" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C166" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B168" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B169" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B170" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B171" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C171" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>91</v>
       </c>
@@ -3456,158 +3471,158 @@
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B174" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C174" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B175" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C175" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B176" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>commonssmallbusiness-ejb</v>
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B177" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B179" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B180" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C180" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B181" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C181" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B182" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B184" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C184" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B185" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C185" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B186" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>commonssmallbusiness-ejb</v>
       </c>
       <c r="C186" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B188" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B189" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>92</v>
       </c>
@@ -3621,57 +3636,57 @@
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B192" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C192" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B193" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C193" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B194" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C194" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B195" t="str">
         <f>'Versioni EJB'!B54</f>
         <v>etichette-ejb</v>
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B196" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>93</v>
       </c>
@@ -3685,57 +3700,57 @@
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B199" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C199" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B200" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B201" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B202" t="str">
         <f>'Versioni EJB'!B58</f>
         <v>rubriche-ejb</v>
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B203" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>commonssmallbusiness-ejb</v>
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>94</v>
       </c>
@@ -3749,596 +3764,596 @@
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
     </row>
-    <row r="206" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B206" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B207" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B208" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B209" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C209" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B210" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
     </row>
-    <row r="212" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B212" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B213" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C213" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B214" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C214" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B215" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C215" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B216" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>condizioni-ejb</v>
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B217" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B218" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C218" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B219" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C219" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B220" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B222" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C222" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B223" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B224" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
     </row>
-    <row r="226" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B226" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C226" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B227" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C227" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B228" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B229" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B230" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B231" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B232" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C232" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
     </row>
-    <row r="234" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B234" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B235" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>pendingprocesslist-ejb</v>
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B236" t="str">
         <f>'Versioni EJB'!B29</f>
         <v>gestorelimiti-ejb</v>
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B237" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>condizioni-ejb</v>
       </c>
       <c r="C237" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B238" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C238" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B239" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B240" t="str">
         <f>'Versioni EJB'!B58</f>
         <v>rubriche-ejb</v>
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B241" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B242" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C242" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B243" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C243" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
     </row>
-    <row r="245" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B245" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B246" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B247" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
     </row>
-    <row r="249" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B249" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B250" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B251" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C251" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B252" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B253" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B254" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B255" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B256" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C256" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
     </row>
-    <row r="258" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B258" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B259" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>condizioni-ejb</v>
       </c>
       <c r="C259" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B260" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C260" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B261" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C261" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B262" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C262" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B263" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B264" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C264" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B265" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B266" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>95</v>
       </c>
@@ -4352,425 +4367,425 @@
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B269" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B270" t="str">
         <f>'Versioni EJB'!B22</f>
         <v>antiriciclaggio-ejb</v>
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C22</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B271" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C271" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B272" t="str">
         <f>'Versioni EJB'!B21</f>
         <v>anagrafiche-ejb</v>
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B273" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B274" t="str">
         <f>'Versioni EJB'!B68</f>
         <v>salvadanaio-ejb</v>
       </c>
       <c r="C274" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B275" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C275" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B276" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B277" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B278" t="str">
         <f>'Versioni EJB'!B58</f>
         <v>rubriche-ejb</v>
       </c>
       <c r="C278" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B279" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B280" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
     </row>
-    <row r="282" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B282" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C282" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B283" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>autorizzazioni-ejb</v>
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B284" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B285" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B286" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B287" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
     </row>
-    <row r="289" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B289" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C289" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B290" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B291" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B292" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B293" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C293" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B294" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>autorizzazioni-ejb</v>
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B295" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>condizioni-ejb</v>
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B296" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B297" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C297" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
     </row>
-    <row r="299" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B299" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C299" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B300" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>autorizzazioni-ejb</v>
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B301" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B302" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C302" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B303" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C303" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B304" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C304" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B305" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B306" t="str">
         <f>'Versioni EJB'!B58</f>
         <v>rubriche-ejb</v>
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B308" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C308" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B309" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B310" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B311" t="str">
         <f>'Versioni EJB'!B68</f>
         <v>salvadanaio-ejb</v>
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
         <v>96</v>
       </c>
@@ -4784,358 +4799,358 @@
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
     </row>
-    <row r="314" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B314" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C314" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B315" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B316" t="str">
         <f>'Versioni EJB'!B71</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.30.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B317" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B318" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B319" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B320" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B321" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
     </row>
-    <row r="323" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B323" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C323" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B324" t="str">
         <f>'Versioni EJB'!B71</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C324" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.30.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B325" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.34.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.42.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B326" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B327" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B328" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B329" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B330" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>agenda-ejb</v>
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B331" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C331" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B332" t="str">
         <f>'Versioni EJB'!B58</f>
         <v>rubriche-ejb</v>
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B333" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B335" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>commonssmallbusiness-ejb</v>
       </c>
       <c r="C335" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B336" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B337" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B338" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B339" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C339" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B340" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
       </c>
       <c r="C340" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.72.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.73.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B342" t="str">
         <f>'Versioni EJB'!B69</f>
         <v>tasse-ejb</v>
       </c>
       <c r="C342" t="str">
         <f>'Versioni EJB'!C69</f>
-        <v>1.55.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.57.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B343" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
       </c>
       <c r="C343" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.72.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.73.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B344" t="str">
         <f>'Versioni EJB'!B63</f>
         <v>bollettinopostale-ejb</v>
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B345" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>moneytransfer-ejb</v>
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B346" t="str">
         <f>'Versioni EJB'!B65</f>
         <v>f24-ejb</v>
       </c>
       <c r="C346" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B347" t="str">
         <f>'Versioni EJB'!B71</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C347" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.30.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B348" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B349" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>97</v>
       </c>
@@ -5149,476 +5164,476 @@
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B352" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C352" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B353" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C353" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B354" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B355" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
     </row>
-    <row r="357" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B357" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C357" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B358" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C358" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B359" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B360" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>stampe-ejb</v>
       </c>
       <c r="C360" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
     </row>
-    <row r="362" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B362" t="str">
         <f>'Versioni EJB'!B11</f>
         <v>wishlist-ejb</v>
       </c>
       <c r="C362" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.5.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.6.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B363" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C363" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B364" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.34.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.42.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B365" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
     </row>
-    <row r="367" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B367" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C367" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B368" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>pendingprocesslist-ejb</v>
       </c>
       <c r="C368" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B369" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B370" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C370" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B371" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
     </row>
-    <row r="373" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B373" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C373" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B374" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B375" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B376" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
     </row>
-    <row r="378" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B378" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C378" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B379" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C379" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B380" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B381" t="str">
         <f>'Versioni EJB'!B77</f>
         <v>bonificoestero-ejb</v>
       </c>
       <c r="C381" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.21.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B382" t="str">
         <f>'Versioni EJB'!B71</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.30.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
     </row>
-    <row r="384" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B384" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C384" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B385" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B386" t="str">
         <f>'Versioni EJB'!B69</f>
         <v>tasse-ejb</v>
       </c>
       <c r="C386" t="str">
         <f>'Versioni EJB'!C69</f>
-        <v>1.55.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.57.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B387" t="str">
         <f>'Versioni EJB'!B51</f>
         <v>ricarichevarie-ejb</v>
       </c>
       <c r="C387" t="str">
         <f>'Versioni EJB'!C51</f>
-        <v>1.43.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.45.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B388" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.72.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.73.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B389" t="str">
         <f>'Versioni EJB'!B77</f>
         <v>bonificoestero-ejb</v>
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.21.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B390" t="str">
         <f>'Versioni EJB'!B72</f>
         <v>giroconto-ejb</v>
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B391" t="str">
         <f>'Versioni EJB'!B74</f>
         <v>ricaricacellulare-ejb</v>
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C74</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B392" t="str">
         <f>'Versioni EJB'!B63</f>
         <v>bollettinopostale-ejb</v>
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B393" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>moneytransfer-ejb</v>
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B394" t="str">
         <f>'Versioni EJB'!B65</f>
         <v>f24-ejb</v>
       </c>
       <c r="C394" t="str">
         <f>'Versioni EJB'!C65</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B395" t="str">
         <f>'Versioni EJB'!B71</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C395" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.30.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
     </row>
-    <row r="397" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B397" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C397" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B398" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C398" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B399" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B400" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="9" t="s">
         <v>98</v>
       </c>
@@ -5632,77 +5647,77 @@
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
     </row>
-    <row r="403" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B403" t="str">
         <f>'Versioni EJB'!B5</f>
         <v>callmeback-ejb</v>
       </c>
       <c r="C403" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B404" t="str">
         <f>'Versioni EJB'!B50</f>
         <v>rapporticliente-ejb</v>
       </c>
       <c r="C404" t="str">
         <f>'Versioni EJB'!C50</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B405" t="str">
         <f>'Versioni EJB'!B83</f>
         <v>bonus-ejb</v>
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C83</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B406" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>agenda-ejb</v>
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B407" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>autorizzazioni-ejb</v>
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B408" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C408" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B409" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C409" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="9" t="s">
         <v>99</v>
       </c>
@@ -5716,7 +5731,7 @@
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
     </row>
-    <row r="412" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>72</v>
       </c>
@@ -5724,117 +5739,117 @@
         <v>106</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B413" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C413" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B414" t="str">
         <f>'Versioni EJB'!B54</f>
         <v>etichette-ejb</v>
       </c>
       <c r="C414" t="str">
         <f>'Versioni EJB'!C54</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B415" t="str">
         <f>'Versioni EJB'!B91</f>
         <v>ricordamidi-ejb</v>
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C91</f>
-        <v>1.23.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.24.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B416" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B417" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C417" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.34.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.42.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B418" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C418" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B419" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C419" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B420" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B421" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B422" t="str">
         <f>'Versioni EJB'!B10</f>
         <v>userpreferences-ejb</v>
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B423" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="9" t="s">
         <v>101</v>
       </c>
@@ -5848,67 +5863,67 @@
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
     </row>
-    <row r="426" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B426" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C426" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B427" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C427" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.220.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B428" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B429" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B430" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B431" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="9" t="s">
         <v>100</v>
       </c>
@@ -5922,492 +5937,492 @@
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
     </row>
-    <row r="434" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B434" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C434" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B435" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C435" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B436" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.141.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B437" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B438" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B439" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
       </c>
       <c r="C439" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
     </row>
-    <row r="441" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B441" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C441" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B442" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C442" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.220.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B443" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B444" t="str">
         <f>'Versioni EJB'!B58</f>
         <v>rubriche-ejb</v>
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B445" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B446" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B447" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
     </row>
-    <row r="449" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B449" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
       <c r="C449" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.141.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B450" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B451" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B452" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+        <v>1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B453" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
     </row>
-    <row r="455" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B455" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C455" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.220.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B456" t="str">
         <f>'Versioni EJB'!B40</f>
         <v>prestiti-ejb</v>
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B457" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>agenda-ejb</v>
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B458" t="str">
         <f>'Versioni EJB'!B34</f>
         <v>listiniinfofin-ejb</v>
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B459" t="str">
         <f>'Versioni EJB'!B71</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.30.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B460" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.34.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.42.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B461" t="str">
         <f>'Versioni EJB'!B21</f>
         <v>anagrafiche-ejb</v>
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B462" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B463" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C463" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B464" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B465" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B466" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B467" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B468" t="str">
         <f>'Versioni EJB'!B58</f>
         <v>rubriche-ejb</v>
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C58</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B469" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
       <c r="C469" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B471" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C471" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B472" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>condizioni-ejb</v>
       </c>
       <c r="C472" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B473" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.34.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.42.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B474" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B475" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B476" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B477" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.141.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
     </row>
-    <row r="479" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B479" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
       <c r="C479" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.140.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.141.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B480" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
       <c r="C480" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.54.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B481" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B482" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B483" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="9" t="s">
         <v>102</v>
       </c>
@@ -6421,261 +6436,261 @@
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
     </row>
-    <row r="486" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B486" t="str">
         <f>'Versioni EJB'!B86</f>
         <v>nfc-ejb</v>
       </c>
       <c r="C486" t="str">
         <f>'Versioni EJB'!C86</f>
-        <v>1.43.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.46.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B487" t="str">
         <f>'Versioni EJB'!B85</f>
         <v>masterpass-ejb</v>
       </c>
       <c r="C487" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.34.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B488" t="str">
         <f>'Versioni EJB'!B32</f>
         <v>jiffy-v2-ejb</v>
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B489" t="str">
         <f>'Versioni EJB'!B67</f>
         <v>matchingidbpfm-ejb</v>
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B490" t="str">
         <f>'Versioni EJB'!B82</f>
         <v>applepay-ejb</v>
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C82</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B491" t="str">
         <f>'Versioni EJB'!B29</f>
         <v>gestorelimiti-ejb</v>
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B492" t="str">
         <f>'Versioni EJB'!B64</f>
         <v>bustine-ejb</v>
       </c>
       <c r="C492" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B493" t="str">
         <f>'Versioni EJB'!B102</f>
         <v>proposte-ejb</v>
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B494" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B495" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>pfm-ejb</v>
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B496" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B497" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C497" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B498" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C498" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
     </row>
-    <row r="500" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B500" t="str">
         <f>'Versioni EJB'!B100</f>
         <v>globalposition-ejb</v>
       </c>
       <c r="C500" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.124.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.129.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B501" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C501" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.220.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B502" t="str">
         <f>'Versioni EJB'!B71</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.30.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B503" t="str">
         <f>'Versioni EJB'!B60</f>
         <v>interactiondb-ejb</v>
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C60</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B504" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B505" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>commonssmallbusiness-ejb</v>
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B506" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
     </row>
-    <row r="508" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B508" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C508" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B509" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.77.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B510" t="str">
         <f>'Versioni EJB'!B100</f>
         <v>globalposition-ejb</v>
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.124.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1.129.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B511" t="str">
         <f>'Versioni EJB'!B34</f>
         <v>listiniinfofin-ejb</v>
       </c>
       <c r="C511" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
+        <v>1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="9" t="s">
         <v>114</v>
       </c>
@@ -6696,7 +6711,7 @@
       </c>
       <c r="C514" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.206.0-env-svia-SNAPSHOT</v>
+        <v>1.220.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="515" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6706,7 +6721,7 @@
       </c>
       <c r="C515" t="str">
         <f>'Versioni EJB'!C105</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="516" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6716,7 +6731,7 @@
       </c>
       <c r="C516" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.10.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="517" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6726,7 +6741,7 @@
       </c>
       <c r="C517" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="518" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6736,7 +6751,7 @@
       </c>
       <c r="C518" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="519" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6746,7 +6761,7 @@
       </c>
       <c r="C519" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.10.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="520" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6756,7 +6771,7 @@
       </c>
       <c r="C520" t="str">
         <f>'Versioni EJB'!C71</f>
-        <v>1.28.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="521" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6766,7 +6781,7 @@
       </c>
       <c r="C521" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="522" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6776,7 +6791,7 @@
       </c>
       <c r="C522" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="523" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6786,7 +6801,7 @@
       </c>
       <c r="C523" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.30.0-env-svia-SNAPSHOT</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="524" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6796,7 +6811,7 @@
       </c>
       <c r="C524" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.9.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="525" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6806,7 +6821,7 @@
       </c>
       <c r="C525" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -6814,12 +6829,6 @@
     <sortCondition ref="B20"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A84:C84"/>
     <mergeCell ref="A512:C512"/>
     <mergeCell ref="A484:C484"/>
     <mergeCell ref="A172:C172"/>
@@ -6833,6 +6842,12 @@
     <mergeCell ref="A204:C204"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A84:C84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED5C9A9-47F1-4F07-857B-EF2AF0615D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED6D0CF-AFF3-496C-B32F-7D0286901B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
+    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{ED1ED9CF-A468-4C7A-9A72-2CE304B78EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Versioni EJB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="156">
   <si>
     <t>isp-ib-om</t>
   </si>
@@ -384,121 +384,127 @@
     <t>Blocco 19</t>
   </si>
   <si>
-    <t>1.18.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.12.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.14.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.13.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.6.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.7.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.57.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.78.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.17.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.16.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.11.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.24.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.44.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.20.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.19.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.15.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.10.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>0.36.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.25.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.26.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.46.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.29.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.22.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.58.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.31.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.27.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.74.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.23.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.37.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.35.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.47.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.51.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.222.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.143.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.131.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.42.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.54.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.21.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.75.0-env-svia-SNAPSHOT</t>
+    <t>1.18.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.12.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.14.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.13.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.6.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.7.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.57.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.78.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.17.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.16.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.11.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.51.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.20.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.24.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.19.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.15.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.10.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.36.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.25.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.26.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.46.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.29.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.22.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.58.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.31.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.27.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.74.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.23.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.37.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.35.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.47.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.223.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.143.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>1.131.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.42.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.54.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.21.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.75.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>NOME EJB PULITO</t>
+  </si>
+  <si>
+    <t>TAG PER EMAIL</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -573,6 +579,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,21 +902,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B868E9A-6BB2-4C73-8CAB-3D3A909EC13B}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="92.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -920,23 +932,50 @@
       <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>B2</f>
+        <v>isp-ib-om</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("&lt;",E2,".version&gt;",C2,"&lt;/",E2,".version&gt;")</f>
+        <v>&lt;isp-ib-om.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/isp-ib-om.version&gt;</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(E2, " --&gt; ", C2)</f>
+        <v>isp-ib-om --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -945,78 +984,177 @@
       <c r="C4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="E4" t="str">
+        <f>LEFT(B4, LEN(B4)-4)</f>
+        <v>banca</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE("&lt;",E4,".version&gt;",C4,"&lt;/",E4,".version&gt;")</f>
+        <v>&lt;banca.version&gt;1.12.0-env-svis-SNAPSHOT&lt;/banca.version&gt;</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G3:G66" si="0">CONCATENATE(E4, " --&gt; ", C4)</f>
+        <v>banca --&gt; 1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E68" si="1">LEFT(B5, LEN(B5)-4)</f>
+        <v>callmeback</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE("&lt;",E5,".version&gt;",C5,"&lt;/",E5,".version&gt;")</f>
+        <v>&lt;callmeback.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/callmeback.version&gt;</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>callmeback --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>customerjourney</v>
+      </c>
+      <c r="F6" t="str">
+        <f>CONCATENATE("&lt;",E6,".version&gt;",C6,"&lt;/",E6,".version&gt;")</f>
+        <v>&lt;customerjourney.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/customerjourney.version&gt;</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>customerjourney --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>deviceregistry</v>
+      </c>
+      <c r="F7" t="str">
+        <f>CONCATENATE("&lt;",E7,".version&gt;",C7,"&lt;/",E7,".version&gt;")</f>
+        <v>&lt;deviceregistry.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/deviceregistry.version&gt;</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>deviceregistry --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>ricerca</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE("&lt;",E8,".version&gt;",C8,"&lt;/",E8,".version&gt;")</f>
+        <v>&lt;ricerca.version&gt;1.6.0-env-svis-SNAPSHOT&lt;/ricerca.version&gt;</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>ricerca --&gt; 1.6.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>stampe</v>
+      </c>
+      <c r="F9" t="str">
+        <f>CONCATENATE("&lt;",E9,".version&gt;",C9,"&lt;/",E9,".version&gt;")</f>
+        <v>&lt;stampe.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/stampe.version&gt;</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>stampe --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>userpreferences</v>
+      </c>
+      <c r="F10" t="str">
+        <f>CONCATENATE("&lt;",E10,".version&gt;",C10,"&lt;/",E10,".version&gt;")</f>
+        <v>&lt;userpreferences.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/userpreferences.version&gt;</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>userpreferences --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>wishlist</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE("&lt;",E11,".version&gt;",C11,"&lt;/",E11,".version&gt;")</f>
+        <v>&lt;wishlist.version&gt;1.7.0-env-svis-SNAPSHOT&lt;/wishlist.version&gt;</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>wishlist --&gt; 1.7.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -1025,32 +1163,71 @@
       <c r="C13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>commons</v>
+      </c>
+      <c r="F13" t="str">
+        <f>CONCATENATE("&lt;",E13,".version&gt;",C13,"&lt;/",E13,".version&gt;")</f>
+        <v>&lt;commons.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/commons.version&gt;</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>commons --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>notification</v>
+      </c>
+      <c r="F14" t="str">
+        <f>CONCATENATE("&lt;",E14,".version&gt;",C14,"&lt;/",E14,".version&gt;")</f>
+        <v>&lt;notification.version&gt;1.57.0-env-svis-SNAPSHOT&lt;/notification.version&gt;</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>notification --&gt; 1.57.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>postvendita-common</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE("&lt;",E15,".version&gt;",C15,"&lt;/",E15,".version&gt;")</f>
+        <v>&lt;postvendita-common.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/postvendita-common.version&gt;</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>postvendita-common --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -1060,15 +1237,30 @@
       <c r="C17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>profilocliente</v>
+      </c>
+      <c r="F17" t="str">
+        <f>CONCATENATE("&lt;",E17,".version&gt;",C17,"&lt;/",E17,".version&gt;")</f>
+        <v>&lt;profilocliente.version&gt;1.78.0-env-svis-SNAPSHOT&lt;/profilocliente.version&gt;</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>profilocliente --&gt; 1.78.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -1077,114 +1269,261 @@
       <c r="C19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>adue</v>
+      </c>
+      <c r="F19" t="str">
+        <f>CONCATENATE("&lt;",E19,".version&gt;",C19,"&lt;/",E19,".version&gt;")</f>
+        <v>&lt;adue.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/adue.version&gt;</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>adue --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>agenda</v>
+      </c>
+      <c r="F20" t="str">
+        <f>CONCATENATE("&lt;",E20,".version&gt;",C20,"&lt;/",E20,".version&gt;")</f>
+        <v>&lt;agenda.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/agenda.version&gt;</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>agenda --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>anagrafiche</v>
+      </c>
+      <c r="F21" t="str">
+        <f>CONCATENATE("&lt;",E21,".version&gt;",C21,"&lt;/",E21,".version&gt;")</f>
+        <v>&lt;anagrafiche.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/anagrafiche.version&gt;</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>anagrafiche --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>antiriciclaggio</v>
+      </c>
+      <c r="F22" t="str">
+        <f>CONCATENATE("&lt;",E22,".version&gt;",C22,"&lt;/",E22,".version&gt;")</f>
+        <v>&lt;antiriciclaggio.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/antiriciclaggio.version&gt;</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>antiriciclaggio --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>assegni</v>
+      </c>
+      <c r="F23" t="str">
+        <f>CONCATENATE("&lt;",E23,".version&gt;",C23,"&lt;/",E23,".version&gt;")</f>
+        <v>&lt;assegni.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/assegni.version&gt;</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>assegni --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>condizionieconomiche</v>
+      </c>
+      <c r="F24" t="str">
+        <f>CONCATENATE("&lt;",E24,".version&gt;",C24,"&lt;/",E24,".version&gt;")</f>
+        <v>&lt;condizionieconomiche.version&gt;1.11.0-env-svis-SNAPSHOT&lt;/condizionieconomiche.version&gt;</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>condizionieconomiche --&gt; 1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>digitalcollaboration</v>
+      </c>
+      <c r="F25" t="str">
+        <f>CONCATENATE("&lt;",E25,".version&gt;",C25,"&lt;/",E25,".version&gt;")</f>
+        <v>&lt;digitalcollaboration.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/digitalcollaboration.version&gt;</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>digitalcollaboration --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>duplicatocarta</v>
+      </c>
+      <c r="F26" t="str">
+        <f>CONCATENATE("&lt;",E26,".version&gt;",C26,"&lt;/",E26,".version&gt;")</f>
+        <v>&lt;duplicatocarta.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/duplicatocarta.version&gt;</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>duplicatocarta --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>filialevirtuale</v>
+      </c>
+      <c r="F27" t="str">
+        <f>CONCATENATE("&lt;",E27,".version&gt;",C27,"&lt;/",E27,".version&gt;")</f>
+        <v>&lt;filialevirtuale.version&gt;1.51.0-env-svis-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>filialevirtuale --&gt; 1.51.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>firmaunica</v>
+      </c>
+      <c r="F28" t="str">
+        <f>CONCATENATE("&lt;",E28,".version&gt;",C28,"&lt;/",E28,".version&gt;")</f>
+        <v>&lt;firmaunica.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/firmaunica.version&gt;</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>firmaunica --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>gestorelimiti</v>
+      </c>
+      <c r="F29" t="str">
+        <f>CONCATENATE("&lt;",E29,".version&gt;",C29,"&lt;/",E29,".version&gt;")</f>
+        <v>&lt;gestorelimiti.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/gestorelimiti.version&gt;</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>gestorelimiti --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>guestarea</v>
+      </c>
+      <c r="F30" t="str">
+        <f>CONCATENATE("&lt;",E30,".version&gt;",C30,"&lt;/",E30,".version&gt;")</f>
+        <v>&lt;guestarea.version&gt;1.24.0-env-svis-SNAPSHOT&lt;/guestarea.version&gt;</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>guestarea --&gt; 1.24.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>5</v>
       </c>
       <c r="B32" t="s">
@@ -1193,174 +1532,396 @@
       <c r="C32" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>jiffy-v2</v>
+      </c>
+      <c r="F32" t="str">
+        <f>CONCATENATE("&lt;",E32,".version&gt;",C32,"&lt;/",E32,".version&gt;")</f>
+        <v>&lt;jiffy-v2.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/jiffy-v2.version&gt;</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>jiffy-v2 --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>listaprodotti</v>
+      </c>
+      <c r="F33" t="str">
+        <f>CONCATENATE("&lt;",E33,".version&gt;",C33,"&lt;/",E33,".version&gt;")</f>
+        <v>&lt;listaprodotti.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/listaprodotti.version&gt;</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>listaprodotti --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>listiniinfofin</v>
+      </c>
+      <c r="F34" t="str">
+        <f>CONCATENATE("&lt;",E34,".version&gt;",C34,"&lt;/",E34,".version&gt;")</f>
+        <v>&lt;listiniinfofin.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/listiniinfofin.version&gt;</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>listiniinfofin --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>mobileconfigurator</v>
+      </c>
+      <c r="F35" t="str">
+        <f>CONCATENATE("&lt;",E35,".version&gt;",C35,"&lt;/",E35,".version&gt;")</f>
+        <v>&lt;mobileconfigurator.version&gt;1.10.0-env-svis-SNAPSHOT&lt;/mobileconfigurator.version&gt;</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>mobileconfigurator --&gt; 1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
         <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>monetaattiva</v>
+      </c>
+      <c r="F36" t="str">
+        <f>CONCATENATE("&lt;",E36,".version&gt;",C36,"&lt;/",E36,".version&gt;")</f>
+        <v>&lt;monetaattiva.version&gt;0.36.0-env-svis-SNAPSHOT&lt;/monetaattiva.version&gt;</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>monetaattiva --&gt; 0.36.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>movepay</v>
+      </c>
+      <c r="F37" t="str">
+        <f>CONCATENATE("&lt;",E37,".version&gt;",C37,"&lt;/",E37,".version&gt;")</f>
+        <v>&lt;movepay.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/movepay.version&gt;</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>movepay --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>pagamenti</v>
+      </c>
+      <c r="F38" t="str">
+        <f>CONCATENATE("&lt;",E38,".version&gt;",C38,"&lt;/",E38,".version&gt;")</f>
+        <v>&lt;pagamenti.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/pagamenti.version&gt;</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>pagamenti --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>pendingprocesslist</v>
+      </c>
+      <c r="F39" t="str">
+        <f>CONCATENATE("&lt;",E39,".version&gt;",C39,"&lt;/",E39,".version&gt;")</f>
+        <v>&lt;pendingprocesslist.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/pendingprocesslist.version&gt;</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>pendingprocesslist --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
       <c r="B40" t="s">
         <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>prestiti</v>
+      </c>
+      <c r="F40" t="str">
+        <f>CONCATENATE("&lt;",E40,".version&gt;",C40,"&lt;/",E40,".version&gt;")</f>
+        <v>&lt;prestiti.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/prestiti.version&gt;</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>prestiti --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>saldo</v>
+      </c>
+      <c r="F41" t="str">
+        <f>CONCATENATE("&lt;",E41,".version&gt;",C41,"&lt;/",E41,".version&gt;")</f>
+        <v>&lt;saldo.version&gt;1.26.0-env-svis-SNAPSHOT&lt;/saldo.version&gt;</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>saldo --&gt; 1.26.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>variazionelimiti-definitiva</v>
+      </c>
+      <c r="F42" t="str">
+        <f>CONCATENATE("&lt;",E42,".version&gt;",C42,"&lt;/",E42,".version&gt;")</f>
+        <v>&lt;variazionelimiti-definitiva.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/variazionelimiti-definitiva.version&gt;</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>variazionelimiti-definitiva --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
       <c r="B43" t="s">
         <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>variazionelimiti-temporanea</v>
+      </c>
+      <c r="F43" t="str">
+        <f>CONCATENATE("&lt;",E43,".version&gt;",C43,"&lt;/",E43,".version&gt;")</f>
+        <v>&lt;variazionelimiti-temporanea.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/variazionelimiti-temporanea.version&gt;</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>variazionelimiti-temporanea --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
       <c r="B45" t="s">
         <v>35</v>
       </c>
       <c r="C45" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>commonssmallbusiness</v>
+      </c>
+      <c r="F45" t="str">
+        <f>CONCATENATE("&lt;",E45,".version&gt;",C45,"&lt;/",E45,".version&gt;")</f>
+        <v>&lt;commonssmallbusiness.version&gt;1.11.0-env-svis-SNAPSHOT&lt;/commonssmallbusiness.version&gt;</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>commonssmallbusiness --&gt; 1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>condizioni</v>
+      </c>
+      <c r="F46" t="str">
+        <f>CONCATENATE("&lt;",E46,".version&gt;",C46,"&lt;/",E46,".version&gt;")</f>
+        <v>&lt;condizioni.version&gt;1.11.0-env-svis-SNAPSHOT&lt;/condizioni.version&gt;</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>condizioni --&gt; 1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
       <c r="B47" t="s">
         <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>moneytransfer</v>
+      </c>
+      <c r="F47" t="str">
+        <f>CONCATENATE("&lt;",E47,".version&gt;",C47,"&lt;/",E47,".version&gt;")</f>
+        <v>&lt;moneytransfer.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/moneytransfer.version&gt;</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>moneytransfer --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
       <c r="B48" t="s">
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>pfm</v>
+      </c>
+      <c r="F48" t="str">
+        <f>CONCATENATE("&lt;",E48,".version&gt;",C48,"&lt;/",E48,".version&gt;")</f>
+        <v>&lt;pfm.version&gt;1.24.0-env-svis-SNAPSHOT&lt;/pfm.version&gt;</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>pfm --&gt; 1.24.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
       <c r="B49" t="s">
         <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>rapporticliente</v>
+      </c>
+      <c r="F49" t="str">
+        <f>CONCATENATE("&lt;",E49,".version&gt;",C49,"&lt;/",E49,".version&gt;")</f>
+        <v>&lt;rapporticliente.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/rapporticliente.version&gt;</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>rapporticliente --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>ricarichevarie</v>
+      </c>
+      <c r="F50" t="str">
+        <f>CONCATENATE("&lt;",E50,".version&gt;",C50,"&lt;/",E50,".version&gt;")</f>
+        <v>&lt;ricarichevarie.version&gt;1.46.0-env-svis-SNAPSHOT&lt;/ricarichevarie.version&gt;</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>ricarichevarie --&gt; 1.46.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>7</v>
       </c>
       <c r="B52" t="s">
@@ -1369,41 +1930,92 @@
       <c r="C52" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>bonificimultipli</v>
+      </c>
+      <c r="F52" t="str">
+        <f>CONCATENATE("&lt;",E52,".version&gt;",C52,"&lt;/",E52,".version&gt;")</f>
+        <v>&lt;bonificimultipli.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/bonificimultipli.version&gt;</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>bonificimultipli --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
         <v>40</v>
       </c>
       <c r="C53" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>etichette</v>
+      </c>
+      <c r="F53" t="str">
+        <f>CONCATENATE("&lt;",E53,".version&gt;",C53,"&lt;/",E53,".version&gt;")</f>
+        <v>&lt;etichette.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/etichette.version&gt;</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>etichette --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
       <c r="B54" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>incassiribamultipli</v>
+      </c>
+      <c r="F54" t="str">
+        <f>CONCATENATE("&lt;",E54,".version&gt;",C54,"&lt;/",E54,".version&gt;")</f>
+        <v>&lt;incassiribamultipli.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/incassiribamultipli.version&gt;</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>incassiribamultipli --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
       <c r="B55" t="s">
         <v>42</v>
       </c>
       <c r="C55" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>xmedindi</v>
+      </c>
+      <c r="F55" t="str">
+        <f>CONCATENATE("&lt;",E55,".version&gt;",C55,"&lt;/",E55,".version&gt;")</f>
+        <v>&lt;xmedindi.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/xmedindi.version&gt;</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>xmedindi --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>8</v>
       </c>
@@ -1413,14 +2025,29 @@
       <c r="C57" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>rubriche</v>
+      </c>
+      <c r="F57" t="str">
+        <f>CONCATENATE("&lt;",E57,".version&gt;",C57,"&lt;/",E57,".version&gt;")</f>
+        <v>&lt;rubriche.version&gt;1.29.0-env-svis-SNAPSHOT&lt;/rubriche.version&gt;</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>rubriche --&gt; 1.29.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>9</v>
       </c>
@@ -1430,15 +2057,30 @@
       <c r="C59" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>interactiondb</v>
+      </c>
+      <c r="F59" t="str">
+        <f>CONCATENATE("&lt;",E59,".version&gt;",C59,"&lt;/",E59,".version&gt;")</f>
+        <v>&lt;interactiondb.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/interactiondb.version&gt;</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>interactiondb --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
         <v>10</v>
       </c>
       <c r="B61" t="s">
@@ -1447,78 +2089,177 @@
       <c r="C61" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>autorizzazioni</v>
+      </c>
+      <c r="F61" t="str">
+        <f>CONCATENATE("&lt;",E61,".version&gt;",C61,"&lt;/",E61,".version&gt;")</f>
+        <v>&lt;autorizzazioni.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/autorizzazioni.version&gt;</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>autorizzazioni --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
       <c r="B62" t="s">
         <v>51</v>
       </c>
       <c r="C62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>bollettinopostale</v>
+      </c>
+      <c r="F62" t="str">
+        <f>CONCATENATE("&lt;",E62,".version&gt;",C62,"&lt;/",E62,".version&gt;")</f>
+        <v>&lt;bollettinopostale.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/bollettinopostale.version&gt;</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>bollettinopostale --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
       <c r="B63" t="s">
         <v>46</v>
       </c>
       <c r="C63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>bustine</v>
+      </c>
+      <c r="F63" t="str">
+        <f>CONCATENATE("&lt;",E63,".version&gt;",C63,"&lt;/",E63,".version&gt;")</f>
+        <v>&lt;bustine.version&gt;1.11.0-env-svis-SNAPSHOT&lt;/bustine.version&gt;</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>bustine --&gt; 1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
       <c r="B64" t="s">
         <v>53</v>
       </c>
       <c r="C64" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>f24</v>
+      </c>
+      <c r="F64" t="str">
+        <f>CONCATENATE("&lt;",E64,".version&gt;",C64,"&lt;/",E64,".version&gt;")</f>
+        <v>&lt;f24.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/f24.version&gt;</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>f24 --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
       <c r="B65" t="s">
         <v>47</v>
       </c>
       <c r="C65" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>jiffy</v>
+      </c>
+      <c r="F65" t="str">
+        <f>CONCATENATE("&lt;",E65,".version&gt;",C65,"&lt;/",E65,".version&gt;")</f>
+        <v>&lt;jiffy.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/jiffy.version&gt;</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>jiffy --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
       <c r="B66" t="s">
         <v>48</v>
       </c>
       <c r="C66" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>matchingidbpfm</v>
+      </c>
+      <c r="F66" t="str">
+        <f>CONCATENATE("&lt;",E66,".version&gt;",C66,"&lt;/",E66,".version&gt;")</f>
+        <v>&lt;matchingidbpfm.version&gt;1.12.0-env-svis-SNAPSHOT&lt;/matchingidbpfm.version&gt;</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>matchingidbpfm --&gt; 1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
       <c r="B67" t="s">
         <v>49</v>
       </c>
       <c r="C67" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>salvadanaio</v>
+      </c>
+      <c r="F67" t="str">
+        <f>CONCATENATE("&lt;",E67,".version&gt;",C67,"&lt;/",E67,".version&gt;")</f>
+        <v>&lt;salvadanaio.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/salvadanaio.version&gt;</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G108" si="2">CONCATENATE(E67, " --&gt; ", C67)</f>
+        <v>salvadanaio --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
       <c r="B68" t="s">
         <v>50</v>
       </c>
       <c r="C68" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>tasse</v>
+      </c>
+      <c r="F68" t="str">
+        <f>CONCATENATE("&lt;",E68,".version&gt;",C68,"&lt;/",E68,".version&gt;")</f>
+        <v>&lt;tasse.version&gt;1.58.0-env-svis-SNAPSHOT&lt;/tasse.version&gt;</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>tasse --&gt; 1.58.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
         <v>11</v>
       </c>
       <c r="B70" t="s">
@@ -1527,60 +2268,135 @@
       <c r="C70" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
+      <c r="E70" t="str">
+        <f t="shared" ref="E70:E108" si="3">LEFT(B70, LEN(B70)-4)</f>
+        <v>bonifico</v>
+      </c>
+      <c r="F70" t="str">
+        <f>CONCATENATE("&lt;",E70,".version&gt;",C70,"&lt;/",E70,".version&gt;")</f>
+        <v>&lt;bonifico.version&gt;1.31.0-env-svis-SNAPSHOT&lt;/bonifico.version&gt;</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>bonifico --&gt; 1.31.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
       <c r="B71" t="s">
         <v>34</v>
       </c>
       <c r="C71" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>cardless</v>
+      </c>
+      <c r="F71" t="str">
+        <f>CONCATENATE("&lt;",E71,".version&gt;",C71,"&lt;/",E71,".version&gt;")</f>
+        <v>&lt;cardless.version&gt;1.27.0-env-svis-SNAPSHOT&lt;/cardless.version&gt;</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>cardless --&gt; 1.27.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
       <c r="B72" t="s">
         <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>giroconto</v>
+      </c>
+      <c r="F72" t="str">
+        <f>CONCATENATE("&lt;",E72,".version&gt;",C72,"&lt;/",E72,".version&gt;")</f>
+        <v>&lt;giroconto.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/giroconto.version&gt;</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>giroconto --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
       <c r="B73" t="s">
         <v>56</v>
       </c>
       <c r="C73" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v>pagamentibollette</v>
+      </c>
+      <c r="F73" t="str">
+        <f>CONCATENATE("&lt;",E73,".version&gt;",C73,"&lt;/",E73,".version&gt;")</f>
+        <v>&lt;pagamentibollette.version&gt;1.74.0-env-svis-SNAPSHOT&lt;/pagamentibollette.version&gt;</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>pagamentibollette --&gt; 1.74.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
       <c r="B74" t="s">
         <v>57</v>
       </c>
       <c r="C74" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
+      <c r="E74" t="str">
+        <f t="shared" si="3"/>
+        <v>ricaricacellulare</v>
+      </c>
+      <c r="F74" t="str">
+        <f>CONCATENATE("&lt;",E74,".version&gt;",C74,"&lt;/",E74,".version&gt;")</f>
+        <v>&lt;ricaricacellulare.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/ricaricacellulare.version&gt;</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>ricaricacellulare --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
       <c r="B75" t="s">
         <v>58</v>
       </c>
       <c r="C75" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="str">
+        <f t="shared" si="3"/>
+        <v>xmedindi-self</v>
+      </c>
+      <c r="F75" t="str">
+        <f>CONCATENATE("&lt;",E75,".version&gt;",C75,"&lt;/",E75,".version&gt;")</f>
+        <v>&lt;xmedindi-self.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/xmedindi-self.version&gt;</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>xmedindi-self --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
         <v>12</v>
       </c>
       <c r="B77" t="s">
@@ -1589,42 +2405,93 @@
       <c r="C77" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
+      <c r="E77" t="str">
+        <f t="shared" si="3"/>
+        <v>bonificoestero</v>
+      </c>
+      <c r="F77" t="str">
+        <f>CONCATENATE("&lt;",E77,".version&gt;",C77,"&lt;/",E77,".version&gt;")</f>
+        <v>&lt;bonificoestero.version&gt;1.23.0-env-svis-SNAPSHOT&lt;/bonificoestero.version&gt;</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>bonificoestero --&gt; 1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
+      <c r="E78" t="str">
+        <f t="shared" si="3"/>
+        <v>carte</v>
+      </c>
+      <c r="F78" t="str">
+        <f>CONCATENATE("&lt;",E78,".version&gt;",C78,"&lt;/",E78,".version&gt;")</f>
+        <v>&lt;carte.version&gt;1.37.0-env-svis-SNAPSHOT&lt;/carte.version&gt;</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>carte --&gt; 1.37.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
       <c r="B79" t="s">
         <v>61</v>
       </c>
       <c r="C79" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
+      <c r="E79" t="str">
+        <f t="shared" si="3"/>
+        <v>pagamentiribamultipli</v>
+      </c>
+      <c r="F79" t="str">
+        <f>CONCATENATE("&lt;",E79,".version&gt;",C79,"&lt;/",E79,".version&gt;")</f>
+        <v>&lt;pagamentiribamultipli.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/pagamentiribamultipli.version&gt;</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>pagamentiribamultipli --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
       <c r="B80" t="s">
         <v>62</v>
       </c>
       <c r="C80" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="str">
+        <f t="shared" si="3"/>
+        <v>revoche</v>
+      </c>
+      <c r="F80" t="str">
+        <f>CONCATENATE("&lt;",E80,".version&gt;",C80,"&lt;/",E80,".version&gt;")</f>
+        <v>&lt;revoche.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/revoche.version&gt;</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>revoche --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
         <v>13</v>
       </c>
       <c r="B82" t="s">
@@ -1633,77 +2500,176 @@
       <c r="C82" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
+      <c r="E82" t="str">
+        <f t="shared" si="3"/>
+        <v>applepay</v>
+      </c>
+      <c r="F82" t="str">
+        <f>CONCATENATE("&lt;",E82,".version&gt;",C82,"&lt;/",E82,".version&gt;")</f>
+        <v>&lt;applepay.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/applepay.version&gt;</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v>applepay --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="9"/>
       <c r="B83" t="s">
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="3"/>
+        <v>bonus</v>
+      </c>
+      <c r="F83" t="str">
+        <f>CONCATENATE("&lt;",E83,".version&gt;",C83,"&lt;/",E83,".version&gt;")</f>
+        <v>&lt;bonus.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/bonus.version&gt;</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="2"/>
+        <v>bonus --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
       <c r="B84" t="s">
         <v>113</v>
       </c>
       <c r="C84" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
+      <c r="E84" t="str">
+        <f t="shared" si="3"/>
+        <v>catalogo-prodotti</v>
+      </c>
+      <c r="F84" t="str">
+        <f>CONCATENATE("&lt;",E84,".version&gt;",C84,"&lt;/",E84,".version&gt;")</f>
+        <v>&lt;catalogo-prodotti.version&gt;1.10.0-env-svis-SNAPSHOT&lt;/catalogo-prodotti.version&gt;</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="2"/>
+        <v>catalogo-prodotti --&gt; 1.10.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
       <c r="B85" t="s">
         <v>65</v>
       </c>
       <c r="C85" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
+      <c r="E85" t="str">
+        <f t="shared" si="3"/>
+        <v>masterpass</v>
+      </c>
+      <c r="F85" t="str">
+        <f>CONCATENATE("&lt;",E85,".version&gt;",C85,"&lt;/",E85,".version&gt;")</f>
+        <v>&lt;masterpass.version&gt;1.35.0-env-svis-SNAPSHOT&lt;/masterpass.version&gt;</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="2"/>
+        <v>masterpass --&gt; 1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
       <c r="B86" t="s">
         <v>66</v>
       </c>
       <c r="C86" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
+      <c r="E86" t="str">
+        <f t="shared" si="3"/>
+        <v>nfc</v>
+      </c>
+      <c r="F86" t="str">
+        <f>CONCATENATE("&lt;",E86,".version&gt;",C86,"&lt;/",E86,".version&gt;")</f>
+        <v>&lt;nfc.version&gt;1.47.0-env-svis-SNAPSHOT&lt;/nfc.version&gt;</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="2"/>
+        <v>nfc --&gt; 1.47.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
       <c r="B87" t="s">
         <v>67</v>
       </c>
       <c r="C87" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="8"/>
+      <c r="E87" t="str">
+        <f t="shared" si="3"/>
+        <v>opricorrenti</v>
+      </c>
+      <c r="F87" t="str">
+        <f>CONCATENATE("&lt;",E87,".version&gt;",C87,"&lt;/",E87,".version&gt;")</f>
+        <v>&lt;opricorrenti.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/opricorrenti.version&gt;</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="2"/>
+        <v>opricorrenti --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
       <c r="B88" t="s">
         <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="3"/>
+        <v>pagamentimultipli</v>
+      </c>
+      <c r="F88" t="str">
+        <f>CONCATENATE("&lt;",E88,".version&gt;",C88,"&lt;/",E88,".version&gt;")</f>
+        <v>&lt;pagamentimultipli.version&gt;1.51.0-env-svis-SNAPSHOT&lt;/pagamentimultipli.version&gt;</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="2"/>
+        <v>pagamentimultipli --&gt; 1.51.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="9"/>
       <c r="B89" t="s">
         <v>69</v>
       </c>
       <c r="C89" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="str">
+        <f t="shared" si="3"/>
+        <v>ristampa-pin</v>
+      </c>
+      <c r="F89" t="str">
+        <f>CONCATENATE("&lt;",E89,".version&gt;",C89,"&lt;/",E89,".version&gt;")</f>
+        <v>&lt;ristampa-pin.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/ristampa-pin.version&gt;</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="2"/>
+        <v>ristampa-pin --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>14</v>
       </c>
@@ -1713,14 +2679,29 @@
       <c r="C91" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="str">
+        <f t="shared" si="3"/>
+        <v>ricordamidi</v>
+      </c>
+      <c r="F91" t="str">
+        <f>CONCATENATE("&lt;",E91,".version&gt;",C91,"&lt;/",E91,".version&gt;")</f>
+        <v>&lt;ricordamidi.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/ricordamidi.version&gt;</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="2"/>
+        <v>ricordamidi --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>15</v>
       </c>
@@ -1728,16 +2709,31 @@
         <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="3"/>
+        <v>comunicazioni</v>
+      </c>
+      <c r="F93" t="str">
+        <f>CONCATENATE("&lt;",E93,".version&gt;",C93,"&lt;/",E93,".version&gt;")</f>
+        <v>&lt;comunicazioni.version&gt;1.223.0-env-svis-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="2"/>
+        <v>comunicazioni --&gt; 1.223.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>16</v>
       </c>
@@ -1745,17 +2741,32 @@
         <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="3"/>
+        <v>miogestore</v>
+      </c>
+      <c r="F95" t="str">
+        <f>CONCATENATE("&lt;",E95,".version&gt;",C95,"&lt;/",E95,".version&gt;")</f>
+        <v>&lt;miogestore.version&gt;1.143.0-env-svis-SNAPSHOT&lt;/miogestore.version&gt;</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="2"/>
+        <v>miogestore --&gt; 1.143.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
         <v>17</v>
       </c>
       <c r="B97" t="s">
@@ -1764,60 +2775,135 @@
       <c r="C97" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="8"/>
+      <c r="E97" t="str">
+        <f t="shared" si="3"/>
+        <v>bloccosblocco</v>
+      </c>
+      <c r="F97" t="str">
+        <f>CONCATENATE("&lt;",E97,".version&gt;",C97,"&lt;/",E97,".version&gt;")</f>
+        <v>&lt;bloccosblocco.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="2"/>
+        <v>bloccosblocco --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
       <c r="B98" t="s">
         <v>74</v>
       </c>
       <c r="C98" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="8"/>
+      <c r="E98" t="str">
+        <f t="shared" si="3"/>
+        <v>condivisione</v>
+      </c>
+      <c r="F98" t="str">
+        <f>CONCATENATE("&lt;",E98,".version&gt;",C98,"&lt;/",E98,".version&gt;")</f>
+        <v>&lt;condivisione.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/condivisione.version&gt;</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="2"/>
+        <v>condivisione --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="9"/>
       <c r="B99" t="s">
         <v>75</v>
       </c>
       <c r="C99" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="8"/>
+      <c r="E99" t="str">
+        <f t="shared" si="3"/>
+        <v>conto</v>
+      </c>
+      <c r="F99" t="str">
+        <f>CONCATENATE("&lt;",E99,".version&gt;",C99,"&lt;/",E99,".version&gt;")</f>
+        <v>&lt;conto.version&gt;1.37.0-env-svis-SNAPSHOT&lt;/conto.version&gt;</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="2"/>
+        <v>conto --&gt; 1.37.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
       <c r="B100" t="s">
         <v>76</v>
       </c>
       <c r="C100" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="8"/>
+      <c r="E100" t="str">
+        <f t="shared" si="3"/>
+        <v>globalposition</v>
+      </c>
+      <c r="F100" t="str">
+        <f>CONCATENATE("&lt;",E100,".version&gt;",C100,"&lt;/",E100,".version&gt;")</f>
+        <v>&lt;globalposition.version&gt;1.131.0-env-svis-SNAPSHOT&lt;/globalposition.version&gt;</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="2"/>
+        <v>globalposition --&gt; 1.131.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="9"/>
       <c r="B101" t="s">
         <v>77</v>
       </c>
       <c r="C101" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="8"/>
+      <c r="E101" t="str">
+        <f t="shared" si="3"/>
+        <v>identitadigitale</v>
+      </c>
+      <c r="F101" t="str">
+        <f>CONCATENATE("&lt;",E101,".version&gt;",C101,"&lt;/",E101,".version&gt;")</f>
+        <v>&lt;identitadigitale.version&gt;1.42.0-env-svis-SNAPSHOT&lt;/identitadigitale.version&gt;</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="2"/>
+        <v>identitadigitale --&gt; 1.42.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="9"/>
       <c r="B102" t="s">
         <v>78</v>
       </c>
       <c r="C102" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="str">
+        <f t="shared" si="3"/>
+        <v>proposte</v>
+      </c>
+      <c r="F102" t="str">
+        <f>CONCATENATE("&lt;",E102,".version&gt;",C102,"&lt;/",E102,".version&gt;")</f>
+        <v>&lt;proposte.version&gt;1.11.0-env-svis-SNAPSHOT&lt;/proposte.version&gt;</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="2"/>
+        <v>proposte --&gt; 1.11.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
         <v>18</v>
       </c>
       <c r="B104" t="s">
@@ -1826,32 +2912,71 @@
       <c r="C104" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="8"/>
+      <c r="E104" t="str">
+        <f t="shared" si="3"/>
+        <v>digitalwallet</v>
+      </c>
+      <c r="F104" t="str">
+        <f>CONCATENATE("&lt;",E104,".version&gt;",C104,"&lt;/",E104,".version&gt;")</f>
+        <v>&lt;digitalwallet.version&gt;1.54.0-env-svis-SNAPSHOT&lt;/digitalwallet.version&gt;</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="2"/>
+        <v>digitalwallet --&gt; 1.54.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="9"/>
       <c r="B105" t="s">
         <v>80</v>
       </c>
       <c r="C105" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="8"/>
+      <c r="E105" t="str">
+        <f t="shared" si="3"/>
+        <v>pulsantiera</v>
+      </c>
+      <c r="F105" t="str">
+        <f>CONCATENATE("&lt;",E105,".version&gt;",C105,"&lt;/",E105,".version&gt;")</f>
+        <v>&lt;pulsantiera.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/pulsantiera.version&gt;</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="2"/>
+        <v>pulsantiera --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="9"/>
       <c r="B106" t="s">
         <v>81</v>
       </c>
       <c r="C106" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="str">
+        <f t="shared" si="3"/>
+        <v>trading</v>
+      </c>
+      <c r="F106" t="str">
+        <f>CONCATENATE("&lt;",E106,".version&gt;",C106,"&lt;/",E106,".version&gt;")</f>
+        <v>&lt;trading.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/trading.version&gt;</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="2"/>
+        <v>trading --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>19</v>
       </c>
@@ -1860,6 +2985,18 @@
       </c>
       <c r="C108" t="s">
         <v>153</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="3"/>
+        <v>listaoperazioni</v>
+      </c>
+      <c r="F108" t="str">
+        <f>CONCATENATE("&lt;",E108,".version&gt;",C108,"&lt;/",E108,".version&gt;")</f>
+        <v>&lt;listaoperazioni.version&gt;1.75.0-env-svis-SNAPSHOT&lt;/listaoperazioni.version&gt;</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="2"/>
+        <v>listaoperazioni --&gt; 1.75.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +3026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134:XFD134"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -1921,11 +3058,11 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1941,7 +3078,7 @@
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1958,7 +3095,7 @@
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -1990,7 +3127,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -2007,7 +3144,7 @@
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -2024,7 +3161,7 @@
       </c>
       <c r="C15" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="16" spans="1:4" collapsed="1" x14ac:dyDescent="0.3">
@@ -2042,15 +3179,15 @@
       </c>
       <c r="C17" s="7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="18" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -2066,7 +3203,7 @@
       </c>
       <c r="C20" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2076,7 +3213,7 @@
       </c>
       <c r="C21" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="22" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2093,7 +3230,7 @@
       </c>
       <c r="C23" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2103,7 +3240,7 @@
       </c>
       <c r="C24" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="25" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2120,7 +3257,7 @@
       </c>
       <c r="C26" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2130,15 +3267,15 @@
       </c>
       <c r="C27" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -2154,7 +3291,7 @@
       </c>
       <c r="C30" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2164,7 +3301,7 @@
       </c>
       <c r="C31" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2174,7 +3311,7 @@
       </c>
       <c r="C32" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2184,15 +3321,15 @@
       </c>
       <c r="C33" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2208,7 +3345,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2218,7 +3355,7 @@
       </c>
       <c r="C37" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2228,7 +3365,7 @@
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2238,7 +3375,7 @@
       </c>
       <c r="C39" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2248,7 +3385,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2265,7 +3402,7 @@
       </c>
       <c r="C42" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2275,7 +3412,7 @@
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2285,7 +3422,7 @@
       </c>
       <c r="C44" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2295,7 +3432,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2312,7 +3449,7 @@
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2322,7 +3459,7 @@
       </c>
       <c r="C48" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2332,7 +3469,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2349,7 +3486,7 @@
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2359,7 +3496,7 @@
       </c>
       <c r="C52" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2369,7 +3506,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2386,7 +3523,7 @@
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2396,7 +3533,7 @@
       </c>
       <c r="C56" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2406,7 +3543,7 @@
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2423,7 +3560,7 @@
       </c>
       <c r="C59" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2433,7 +3570,7 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2450,7 +3587,7 @@
       </c>
       <c r="C62" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2460,7 +3597,7 @@
       </c>
       <c r="C63" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2477,7 +3614,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2487,7 +3624,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2497,7 +3634,7 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2507,7 +3644,7 @@
       </c>
       <c r="C68" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="69" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2517,7 +3654,7 @@
       </c>
       <c r="C69" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="70" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2542,7 +3679,7 @@
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2552,7 +3689,7 @@
       </c>
       <c r="C73" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2562,7 +3699,7 @@
       </c>
       <c r="C74" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2579,7 +3716,7 @@
       </c>
       <c r="C76" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="77" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2589,7 +3726,7 @@
       </c>
       <c r="C77" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2606,7 +3743,7 @@
       </c>
       <c r="C79" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2616,7 +3753,7 @@
       </c>
       <c r="C80" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2633,7 +3770,7 @@
       </c>
       <c r="C82" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="83" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2643,15 +3780,15 @@
       </c>
       <c r="C83" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="84" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
@@ -2667,7 +3804,7 @@
       </c>
       <c r="C86" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="87" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2677,7 +3814,7 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2694,7 +3831,7 @@
       </c>
       <c r="C89" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="90" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2704,7 +3841,7 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2721,7 +3858,7 @@
       </c>
       <c r="C92" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2731,7 +3868,7 @@
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2748,7 +3885,7 @@
       </c>
       <c r="C95" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2758,7 +3895,7 @@
       </c>
       <c r="C96" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="97" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2775,7 +3912,7 @@
       </c>
       <c r="C98" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2785,7 +3922,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2802,7 +3939,7 @@
       </c>
       <c r="C101" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="102" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2812,7 +3949,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2829,7 +3966,7 @@
       </c>
       <c r="C104" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2839,7 +3976,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2856,7 +3993,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2866,7 +4003,7 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2891,7 +4028,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2901,7 +4038,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2911,7 +4048,7 @@
       </c>
       <c r="C113" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="114" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2921,7 +4058,7 @@
       </c>
       <c r="C114" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="115" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2938,7 +4075,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2948,7 +4085,7 @@
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2958,7 +4095,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2968,7 +4105,7 @@
       </c>
       <c r="C119" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="120" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -2985,7 +4122,7 @@
       </c>
       <c r="C121" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2995,7 +4132,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3005,7 +4142,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3015,7 +4152,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3025,7 +4162,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3035,7 +4172,7 @@
       </c>
       <c r="C126" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="127" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3052,7 +4189,7 @@
       </c>
       <c r="C128" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3062,7 +4199,7 @@
       </c>
       <c r="C129" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3072,7 +4209,7 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3082,7 +4219,7 @@
       </c>
       <c r="C131" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="132" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3092,15 +4229,15 @@
       </c>
       <c r="C132" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="133" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
@@ -3116,7 +4253,7 @@
       </c>
       <c r="C135" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="136" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3126,7 +4263,7 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3144,7 +4281,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3154,7 +4291,7 @@
       </c>
       <c r="C139" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="140" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3171,7 +4308,7 @@
       </c>
       <c r="C141" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="142" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3181,7 +4318,7 @@
       </c>
       <c r="C142" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="143" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3198,7 +4335,7 @@
       </c>
       <c r="C144" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3208,7 +4345,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3218,7 +4355,7 @@
       </c>
       <c r="C146" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="147" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3228,7 +4365,7 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3238,7 +4375,7 @@
       </c>
       <c r="C148" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3248,7 +4385,7 @@
       </c>
       <c r="C149" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="150" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3265,7 +4402,7 @@
       </c>
       <c r="C151" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="152" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3275,7 +4412,7 @@
       </c>
       <c r="C152" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="153" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3285,7 +4422,7 @@
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3303,7 +4440,7 @@
       </c>
       <c r="C155" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3328,7 +4465,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3338,7 +4475,7 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3348,7 +4485,7 @@
       </c>
       <c r="C160" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="161" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3365,7 +4502,7 @@
       </c>
       <c r="C162" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="163" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3375,7 +4512,7 @@
       </c>
       <c r="C163" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="164" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3385,7 +4522,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3395,15 +4532,15 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
@@ -3419,7 +4556,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3429,7 +4566,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3439,7 +4576,7 @@
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="171" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3449,7 +4586,7 @@
       </c>
       <c r="C171" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="172" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3466,7 +4603,7 @@
       </c>
       <c r="C173" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="174" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3476,7 +4613,7 @@
       </c>
       <c r="C174" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="175" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3486,7 +4623,7 @@
       </c>
       <c r="C175" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="176" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3496,7 +4633,7 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3513,7 +4650,7 @@
       </c>
       <c r="C178" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="179" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3523,7 +4660,7 @@
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="180" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3533,7 +4670,7 @@
       </c>
       <c r="C180" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="181" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3550,7 +4687,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3560,15 +4697,15 @@
       </c>
       <c r="C183" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="184" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
@@ -3584,7 +4721,7 @@
       </c>
       <c r="C186" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="187" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3594,7 +4731,7 @@
       </c>
       <c r="C187" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="188" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3604,7 +4741,7 @@
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="189" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3614,7 +4751,7 @@
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C53</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="190" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3624,15 +4761,15 @@
       </c>
       <c r="C190" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="191" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
@@ -3648,7 +4785,7 @@
       </c>
       <c r="C193" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="194" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3658,7 +4795,7 @@
       </c>
       <c r="C194" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="195" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3668,7 +4805,7 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3678,7 +4815,7 @@
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3688,15 +4825,15 @@
       </c>
       <c r="C197" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="198" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
@@ -3712,7 +4849,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3722,7 +4859,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3732,7 +4869,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3742,7 +4879,7 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3752,7 +4889,7 @@
       </c>
       <c r="C204" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="205" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3769,7 +4906,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3779,7 +4916,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3789,7 +4926,7 @@
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="209" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3799,7 +4936,7 @@
       </c>
       <c r="C209" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="210" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3809,7 +4946,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3819,7 +4956,7 @@
       </c>
       <c r="C211" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="212" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3829,7 +4966,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3839,7 +4976,7 @@
       </c>
       <c r="C213" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="214" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3849,7 +4986,7 @@
       </c>
       <c r="C214" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="215" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3866,7 +5003,7 @@
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="217" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3876,7 +5013,7 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3886,7 +5023,7 @@
       </c>
       <c r="C218" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="219" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3903,7 +5040,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3913,7 +5050,7 @@
       </c>
       <c r="C221" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="222" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3923,7 +5060,7 @@
       </c>
       <c r="C222" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="223" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3933,7 +5070,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3943,7 +5080,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3953,7 +5090,7 @@
       </c>
       <c r="C225" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="226" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3963,7 +5100,7 @@
       </c>
       <c r="C226" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="227" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -3980,7 +5117,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3990,7 +5127,7 @@
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="230" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4000,7 +5137,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4010,7 +5147,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4020,7 +5157,7 @@
       </c>
       <c r="C232" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="233" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4030,7 +5167,7 @@
       </c>
       <c r="C233" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="234" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4040,7 +5177,7 @@
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="235" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4050,7 +5187,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4060,7 +5197,7 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4070,7 +5207,7 @@
       </c>
       <c r="C237" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="238" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4087,7 +5224,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4097,7 +5234,7 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4107,7 +5244,7 @@
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="242" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4124,7 +5261,7 @@
       </c>
       <c r="C243" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="244" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4134,7 +5271,7 @@
       </c>
       <c r="C244" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="245" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4144,7 +5281,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4154,7 +5291,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4164,7 +5301,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4174,7 +5311,7 @@
       </c>
       <c r="C248" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="249" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4184,7 +5321,7 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4194,7 +5331,7 @@
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="251" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4211,7 +5348,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4221,7 +5358,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4231,7 +5368,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4241,7 +5378,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4251,7 +5388,7 @@
       </c>
       <c r="C256" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="257" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4261,7 +5398,7 @@
       </c>
       <c r="C257" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="258" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4271,7 +5408,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="259" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4281,7 +5418,7 @@
       </c>
       <c r="C259" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="260" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4291,15 +5428,15 @@
       </c>
       <c r="C260" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="261" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
@@ -4315,7 +5452,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4325,7 +5462,7 @@
       </c>
       <c r="C264" t="str">
         <f>'Versioni EJB'!C22</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="265" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4335,7 +5472,7 @@
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="266" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4345,7 +5482,7 @@
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="267" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4355,7 +5492,7 @@
       </c>
       <c r="C267" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="268" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4365,7 +5502,7 @@
       </c>
       <c r="C268" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="269" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4375,7 +5512,7 @@
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="270" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4385,7 +5522,7 @@
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="271" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4395,7 +5532,7 @@
       </c>
       <c r="C271" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="272" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4405,7 +5542,7 @@
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="273" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4415,7 +5552,7 @@
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="274" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4425,7 +5562,7 @@
       </c>
       <c r="C274" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="275" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4442,7 +5579,7 @@
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="277" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4452,7 +5589,7 @@
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="278" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4462,7 +5599,7 @@
       </c>
       <c r="C278" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="279" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4472,7 +5609,7 @@
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="280" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4482,7 +5619,7 @@
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="281" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4492,7 +5629,7 @@
       </c>
       <c r="C281" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="282" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4509,7 +5646,7 @@
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="284" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4519,7 +5656,7 @@
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="285" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4529,7 +5666,7 @@
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="286" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4539,7 +5676,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4549,7 +5686,7 @@
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="288" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4559,7 +5696,7 @@
       </c>
       <c r="C288" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="289" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4576,7 +5713,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4586,7 +5723,7 @@
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="292" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4596,7 +5733,7 @@
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="293" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4606,7 +5743,7 @@
       </c>
       <c r="C293" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="294" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4616,7 +5753,7 @@
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="295" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4626,7 +5763,7 @@
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="296" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4636,7 +5773,7 @@
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="297" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4646,7 +5783,7 @@
       </c>
       <c r="C297" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="298" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4656,7 +5793,7 @@
       </c>
       <c r="C298" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="299" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4673,7 +5810,7 @@
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="301" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4683,7 +5820,7 @@
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="302" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4693,7 +5830,7 @@
       </c>
       <c r="C302" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="303" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4703,7 +5840,7 @@
       </c>
       <c r="C303" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="304" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4713,7 +5850,7 @@
       </c>
       <c r="C304" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="305" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4723,7 +5860,7 @@
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="306" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4733,7 +5870,7 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4743,7 +5880,7 @@
       </c>
       <c r="C307" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="308" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4760,7 +5897,7 @@
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4770,7 +5907,7 @@
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="311" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4780,7 +5917,7 @@
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="312" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4790,15 +5927,15 @@
       </c>
       <c r="C312" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="313" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
+      <c r="B313" s="10"/>
+      <c r="C313" s="10"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
@@ -4814,7 +5951,7 @@
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="316" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4824,7 +5961,7 @@
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="317" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4834,7 +5971,7 @@
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="318" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4844,7 +5981,7 @@
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="319" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4854,7 +5991,7 @@
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="320" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4864,7 +6001,7 @@
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="321" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4874,7 +6011,7 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4884,7 +6021,7 @@
       </c>
       <c r="C322" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="323" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -4901,7 +6038,7 @@
       </c>
       <c r="C324" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="325" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4911,7 +6048,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4921,7 +6058,7 @@
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.44.0-env-svia-SNAPSHOT</v>
+        <v>1.51.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="327" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4931,7 +6068,7 @@
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="328" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4941,7 +6078,7 @@
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="329" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4951,7 +6088,7 @@
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="330" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4961,7 +6098,7 @@
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="331" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4971,7 +6108,7 @@
       </c>
       <c r="C331" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="332" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4981,7 +6118,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4991,7 +6128,7 @@
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="334" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5001,7 +6138,7 @@
       </c>
       <c r="C334" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="335" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5018,7 +6155,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5028,7 +6165,7 @@
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="338" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5038,7 +6175,7 @@
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="339" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5048,7 +6185,7 @@
       </c>
       <c r="C339" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="340" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5058,7 +6195,7 @@
       </c>
       <c r="C340" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="341" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5068,7 +6205,7 @@
       </c>
       <c r="C341" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.74.0-env-svia-SNAPSHOT</v>
+        <v>1.74.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="342" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5085,7 +6222,7 @@
       </c>
       <c r="C343" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="344" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5095,7 +6232,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.74.0-env-svia-SNAPSHOT</v>
+        <v>1.74.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5105,7 +6242,7 @@
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="346" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5115,7 +6252,7 @@
       </c>
       <c r="C346" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="347" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5125,7 +6262,7 @@
       </c>
       <c r="C347" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="348" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5135,7 +6272,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5145,7 +6282,7 @@
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="350" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5155,15 +6292,15 @@
       </c>
       <c r="C350" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="351" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="9" t="s">
+      <c r="A351" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9"/>
+      <c r="B351" s="10"/>
+      <c r="C351" s="10"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
@@ -5179,7 +6316,7 @@
       </c>
       <c r="C353" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="354" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5189,7 +6326,7 @@
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="355" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5199,7 +6336,7 @@
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="356" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5209,7 +6346,7 @@
       </c>
       <c r="C356" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="357" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5226,7 +6363,7 @@
       </c>
       <c r="C358" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="359" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5236,7 +6373,7 @@
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5246,7 +6383,7 @@
       </c>
       <c r="C360" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="361" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5256,7 +6393,7 @@
       </c>
       <c r="C361" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="362" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5273,7 +6410,7 @@
       </c>
       <c r="C363" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.7.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="364" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5283,7 +6420,7 @@
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="365" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5293,7 +6430,7 @@
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.44.0-env-svia-SNAPSHOT</v>
+        <v>1.51.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="366" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5303,7 +6440,7 @@
       </c>
       <c r="C366" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="367" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5320,7 +6457,7 @@
       </c>
       <c r="C368" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="369" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5330,7 +6467,7 @@
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="370" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5340,7 +6477,7 @@
       </c>
       <c r="C370" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="371" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5350,7 +6487,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5360,7 +6497,7 @@
       </c>
       <c r="C372" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="373" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5377,7 +6514,7 @@
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="375" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5387,7 +6524,7 @@
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="376" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5397,7 +6534,7 @@
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="377" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5407,7 +6544,7 @@
       </c>
       <c r="C377" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="378" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5424,7 +6561,7 @@
       </c>
       <c r="C379" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="380" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5434,7 +6571,7 @@
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="381" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5444,7 +6581,7 @@
       </c>
       <c r="C381" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="382" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5454,7 +6591,7 @@
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.23.0-env-svia-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="383" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5464,7 +6601,7 @@
       </c>
       <c r="C383" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="384" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5481,7 +6618,7 @@
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="386" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5491,7 +6628,7 @@
       </c>
       <c r="C386" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="387" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5501,7 +6638,7 @@
       </c>
       <c r="C387" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="388" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5511,7 +6648,7 @@
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C50</f>
-        <v>1.46.0-env-svia-SNAPSHOT</v>
+        <v>1.46.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5521,7 +6658,7 @@
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.74.0-env-svia-SNAPSHOT</v>
+        <v>1.74.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5531,7 +6668,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.23.0-env-svia-SNAPSHOT</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5541,7 +6678,7 @@
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="392" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5551,7 +6688,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C74</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5561,7 +6698,7 @@
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5571,7 +6708,7 @@
       </c>
       <c r="C394" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="395" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5581,7 +6718,7 @@
       </c>
       <c r="C395" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="396" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5591,7 +6728,7 @@
       </c>
       <c r="C396" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="397" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -5608,7 +6745,7 @@
       </c>
       <c r="C398" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="399" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5618,7 +6755,7 @@
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5628,7 +6765,7 @@
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="401" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5638,15 +6775,15 @@
       </c>
       <c r="C401" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="402" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B402" s="9"/>
-      <c r="C402" s="9"/>
+      <c r="B402" s="10"/>
+      <c r="C402" s="10"/>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
@@ -5662,7 +6799,7 @@
       </c>
       <c r="C404" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="405" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5672,7 +6809,7 @@
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="406" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5682,7 +6819,7 @@
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C83</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="407" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5692,7 +6829,7 @@
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="408" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5702,7 +6839,7 @@
       </c>
       <c r="C408" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="409" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5712,7 +6849,7 @@
       </c>
       <c r="C409" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="410" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5722,15 +6859,15 @@
       </c>
       <c r="C410" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="411" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="9" t="s">
+      <c r="A411" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B411" s="9"/>
-      <c r="C411" s="9"/>
+      <c r="B411" s="10"/>
+      <c r="C411" s="10"/>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
@@ -5754,7 +6891,7 @@
       </c>
       <c r="C414" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="415" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5764,7 +6901,7 @@
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C53</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="416" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5774,7 +6911,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C91</f>
-        <v>1.25.0-env-svia-SNAPSHOT</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5784,7 +6921,7 @@
       </c>
       <c r="C417" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="418" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5794,7 +6931,7 @@
       </c>
       <c r="C418" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.44.0-env-svia-SNAPSHOT</v>
+        <v>1.51.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="419" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5804,7 +6941,7 @@
       </c>
       <c r="C419" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="420" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5814,7 +6951,7 @@
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="421" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5824,7 +6961,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5834,7 +6971,7 @@
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="423" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5844,7 +6981,7 @@
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="424" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5854,15 +6991,15 @@
       </c>
       <c r="C424" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="425" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="9" t="s">
+      <c r="A425" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B425" s="9"/>
-      <c r="C425" s="9"/>
+      <c r="B425" s="10"/>
+      <c r="C425" s="10"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
@@ -5878,7 +7015,7 @@
       </c>
       <c r="C427" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="428" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5888,7 +7025,7 @@
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.222.0-env-svia-SNAPSHOT</v>
+        <v>1.223.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="429" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5898,7 +7035,7 @@
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="430" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5908,7 +7045,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5918,7 +7055,7 @@
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="432" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5928,15 +7065,15 @@
       </c>
       <c r="C432" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="433" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="9" t="s">
+      <c r="A433" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B433" s="9"/>
-      <c r="C433" s="9"/>
+      <c r="B433" s="10"/>
+      <c r="C433" s="10"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
@@ -5952,7 +7089,7 @@
       </c>
       <c r="C435" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="436" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5962,7 +7099,7 @@
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="437" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5972,7 +7109,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.143.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5982,7 +7119,7 @@
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="439" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5992,7 +7129,7 @@
       </c>
       <c r="C439" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="440" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6002,7 +7139,7 @@
       </c>
       <c r="C440" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="441" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6019,7 +7156,7 @@
       </c>
       <c r="C442" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="443" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6029,7 +7166,7 @@
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.222.0-env-svia-SNAPSHOT</v>
+        <v>1.223.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="444" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6039,7 +7176,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6049,7 +7186,7 @@
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="446" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6059,7 +7196,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6069,7 +7206,7 @@
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="448" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6079,7 +7216,7 @@
       </c>
       <c r="C448" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="449" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6096,7 +7233,7 @@
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.143.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="451" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6106,7 +7243,7 @@
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="452" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6116,7 +7253,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6126,7 +7263,7 @@
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="454" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -6136,7 +7273,7 @@
       </c>
       <c r="C454" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="455" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6153,7 +7290,7 @@
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.222.0-env-svia-SNAPSHOT</v>
+        <v>1.223.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="457" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6163,7 +7300,7 @@
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="458" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6173,7 +7310,7 @@
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="459" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6183,7 +7320,7 @@
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="460" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6193,7 +7330,7 @@
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="461" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6203,7 +7340,7 @@
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.44.0-env-svia-SNAPSHOT</v>
+        <v>1.51.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6213,7 +7350,7 @@
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="463" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6223,7 +7360,7 @@
       </c>
       <c r="C463" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="464" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6233,7 +7370,7 @@
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="465" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6243,7 +7380,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6253,7 +7390,7 @@
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6263,7 +7400,7 @@
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="468" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6273,7 +7410,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6283,7 +7420,7 @@
       </c>
       <c r="C469" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="470" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6293,7 +7430,7 @@
       </c>
       <c r="C470" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="471" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6310,7 +7447,7 @@
       </c>
       <c r="C472" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="473" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6320,7 +7457,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6330,7 +7467,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.44.0-env-svia-SNAPSHOT</v>
+        <v>1.51.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6340,7 +7477,7 @@
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="476" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6350,7 +7487,7 @@
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="477" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6360,7 +7497,7 @@
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="478" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6370,7 +7507,7 @@
       </c>
       <c r="C478" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.143.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="479" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6387,7 +7524,7 @@
       </c>
       <c r="C480" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.143.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="481" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6397,7 +7534,7 @@
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.57.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="482" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6407,7 +7544,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6417,7 +7554,7 @@
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="484" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6427,15 +7564,15 @@
       </c>
       <c r="C484" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="485" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B485" s="9"/>
-      <c r="C485" s="9"/>
+      <c r="B485" s="10"/>
+      <c r="C485" s="10"/>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
@@ -6451,7 +7588,7 @@
       </c>
       <c r="C487" t="str">
         <f>'Versioni EJB'!C86</f>
-        <v>1.47.0-env-svia-SNAPSHOT</v>
+        <v>1.47.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="488" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6461,7 +7598,7 @@
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.35.0-env-svia-SNAPSHOT</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="489" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6471,7 +7608,7 @@
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="490" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6481,7 +7618,7 @@
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="491" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6491,7 +7628,7 @@
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C82</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="492" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6501,7 +7638,7 @@
       </c>
       <c r="C492" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="493" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6511,7 +7648,7 @@
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="494" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6521,7 +7658,7 @@
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="495" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6531,7 +7668,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6541,7 +7678,7 @@
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="497" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6551,7 +7688,7 @@
       </c>
       <c r="C497" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="498" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6561,7 +7698,7 @@
       </c>
       <c r="C498" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="499" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6571,7 +7708,7 @@
       </c>
       <c r="C499" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="500" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6588,7 +7725,7 @@
       </c>
       <c r="C501" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.131.0-env-svia-SNAPSHOT</v>
+        <v>1.131.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="502" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6598,7 +7735,7 @@
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.222.0-env-svia-SNAPSHOT</v>
+        <v>1.223.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="503" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6608,7 +7745,7 @@
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="504" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6618,7 +7755,7 @@
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="505" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6628,7 +7765,7 @@
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="506" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6638,7 +7775,7 @@
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="507" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6648,7 +7785,7 @@
       </c>
       <c r="C507" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="508" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
@@ -6665,7 +7802,7 @@
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="510" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6675,7 +7812,7 @@
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.78.0-env-svia-SNAPSHOT</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="511" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6685,7 +7822,7 @@
       </c>
       <c r="C511" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.131.0-env-svia-SNAPSHOT</v>
+        <v>1.131.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="512" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6695,15 +7832,15 @@
       </c>
       <c r="C512" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="513" spans="1:3" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="9" t="s">
+      <c r="A513" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B513" s="9"/>
-      <c r="C513" s="9"/>
+      <c r="B513" s="10"/>
+      <c r="C513" s="10"/>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
@@ -6719,7 +7856,7 @@
       </c>
       <c r="C515" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.222.0-env-svia-SNAPSHOT</v>
+        <v>1.223.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="516" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6729,7 +7866,7 @@
       </c>
       <c r="C516" t="str">
         <f>'Versioni EJB'!C105</f>
-        <v>1.21.0-env-svia-SNAPSHOT</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="517" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6739,7 +7876,7 @@
       </c>
       <c r="C517" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="518" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6749,7 +7886,7 @@
       </c>
       <c r="C518" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="519" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6759,7 +7896,7 @@
       </c>
       <c r="C519" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="520" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6769,7 +7906,7 @@
       </c>
       <c r="C520" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.11.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="521" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6779,7 +7916,7 @@
       </c>
       <c r="C521" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="522" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6789,7 +7926,7 @@
       </c>
       <c r="C522" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="523" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6799,7 +7936,7 @@
       </c>
       <c r="C523" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="524" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6809,7 +7946,7 @@
       </c>
       <c r="C524" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.37.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="525" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6819,7 +7956,7 @@
       </c>
       <c r="C525" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="526" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6829,7 +7966,7 @@
       </c>
       <c r="C526" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.26.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2ABD09-0FBA-4591-94C7-7BE9BB392CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versioni EJB" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Versioni EJB'!$B$1:$D$108</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,407 +117,401 @@
     <t>profilocliente-ejb</t>
   </si>
   <si>
+    <t>adue-ejb</t>
+  </si>
+  <si>
+    <t>agenda-ejb</t>
+  </si>
+  <si>
+    <t>anagrafiche-ejb</t>
+  </si>
+  <si>
+    <t>antiriciclaggio-ejb</t>
+  </si>
+  <si>
+    <t>assegni-ejb</t>
+  </si>
+  <si>
+    <t>condizionieconomiche-ejb</t>
+  </si>
+  <si>
+    <t>digitalcollaboration-ejb</t>
+  </si>
+  <si>
+    <t>duplicatocarta-ejb</t>
+  </si>
+  <si>
+    <t>filialevirtuale-ejb</t>
+  </si>
+  <si>
+    <t>firmaunica-ejb</t>
+  </si>
+  <si>
+    <t>gestorelimiti-ejb</t>
+  </si>
+  <si>
+    <t>guestarea-ejb</t>
+  </si>
+  <si>
+    <t>jiffy-v2-ejb</t>
+  </si>
+  <si>
+    <t>listaprodotti-ejb</t>
+  </si>
+  <si>
+    <t>listiniinfofin-ejb</t>
+  </si>
+  <si>
+    <t>mobileconfigurator-ejb</t>
+  </si>
+  <si>
+    <t>monetaattiva-ejb</t>
+  </si>
+  <si>
+    <t>movepay-ejb</t>
+  </si>
+  <si>
+    <t>pagamenti-ejb</t>
+  </si>
+  <si>
+    <t>pendingprocesslist-ejb</t>
+  </si>
+  <si>
+    <t>prestiti-ejb</t>
+  </si>
+  <si>
+    <t>saldo-ejb</t>
+  </si>
+  <si>
+    <t>variazionelimiti-definitiva-ejb</t>
+  </si>
+  <si>
+    <t>variazionelimiti-temporanea-ejb</t>
+  </si>
+  <si>
+    <t>commonssmallbusiness-ejb</t>
+  </si>
+  <si>
+    <t>condizioni-ejb</t>
+  </si>
+  <si>
+    <t>moneytransfer-ejb</t>
+  </si>
+  <si>
+    <t>pfm-ejb</t>
+  </si>
+  <si>
+    <t>rapporticliente-ejb</t>
+  </si>
+  <si>
+    <t>ricarichevarie-ejb</t>
+  </si>
+  <si>
+    <t>bonificimultipli-ejb</t>
+  </si>
+  <si>
+    <t>etichette-ejb</t>
+  </si>
+  <si>
+    <t>incassiribamultipli-ejb</t>
+  </si>
+  <si>
+    <t>xmedindi-ejb</t>
+  </si>
+  <si>
+    <t>rubriche-ejb</t>
+  </si>
+  <si>
+    <t>interactiondb-ejb</t>
+  </si>
+  <si>
+    <t>autorizzazioni-ejb</t>
+  </si>
+  <si>
+    <t>bollettinopostale-ejb</t>
+  </si>
+  <si>
+    <t>bustine-ejb</t>
+  </si>
+  <si>
+    <t>f24-ejb</t>
+  </si>
+  <si>
+    <t>jiffy-ejb</t>
+  </si>
+  <si>
+    <t>matchingidbpfm-ejb</t>
+  </si>
+  <si>
+    <t>salvadanaio-ejb</t>
+  </si>
+  <si>
+    <t>tasse-ejb</t>
+  </si>
+  <si>
+    <t>bonifico-ejb</t>
+  </si>
+  <si>
+    <t>cardless-ejb</t>
+  </si>
+  <si>
+    <t>giroconto-ejb</t>
+  </si>
+  <si>
+    <t>pagamentibollette-ejb</t>
+  </si>
+  <si>
+    <t>ricaricacellulare-ejb</t>
+  </si>
+  <si>
+    <t>xmedindi-self-ejb</t>
+  </si>
+  <si>
+    <t>bonificoestero-ejb</t>
+  </si>
+  <si>
+    <t>carte-ejb</t>
+  </si>
+  <si>
+    <t>pagamentiribamultipli-ejb</t>
+  </si>
+  <si>
+    <t>revoche-ejb</t>
+  </si>
+  <si>
+    <t>applepay-ejb</t>
+  </si>
+  <si>
+    <t>bonus-ejb</t>
+  </si>
+  <si>
+    <t>catalogo-prodotti-ejb</t>
+  </si>
+  <si>
+    <t>masterpass-ejb</t>
+  </si>
+  <si>
+    <t>nfc-ejb</t>
+  </si>
+  <si>
+    <t>opricorrenti-ejb</t>
+  </si>
+  <si>
+    <t>pagamentimultipli-ejb</t>
+  </si>
+  <si>
+    <t>ristampa-pin-ejb</t>
+  </si>
+  <si>
+    <t>ricordamidi-ejb</t>
+  </si>
+  <si>
+    <t>comunicazioni-ejb</t>
+  </si>
+  <si>
+    <t>miogestore-ejb</t>
+  </si>
+  <si>
+    <t>bloccosblocco-ejb</t>
+  </si>
+  <si>
+    <t>condivisione-ejb</t>
+  </si>
+  <si>
+    <t>conto-ejb</t>
+  </si>
+  <si>
+    <t>globalposition-ejb</t>
+  </si>
+  <si>
+    <t>identitadigitale-ejb</t>
+  </si>
+  <si>
+    <t>proposte-ejb</t>
+  </si>
+  <si>
+    <t>digitalwallet-ejb</t>
+  </si>
+  <si>
+    <t>pulsantiera-ejb</t>
+  </si>
+  <si>
+    <t>trading-ejb</t>
+  </si>
+  <si>
+    <t>listaoperazioni-ejb</t>
+  </si>
+  <si>
+    <t>EJB</t>
+  </si>
+  <si>
+    <t>DIPENDENZE</t>
+  </si>
+  <si>
+    <t>VERSIONE SVIS/SVIA</t>
+  </si>
+  <si>
+    <t>Blocco 1</t>
+  </si>
+  <si>
+    <t>Blocco 2</t>
+  </si>
+  <si>
+    <t>Blocco 3</t>
+  </si>
+  <si>
+    <t>Blocco 4</t>
+  </si>
+  <si>
+    <t>Dipendenza circolare</t>
+  </si>
+  <si>
+    <t>Blocco 5</t>
+  </si>
+  <si>
+    <t>Blocco 6</t>
+  </si>
+  <si>
+    <t>Blocco 7</t>
+  </si>
+  <si>
+    <t>Blocco 8</t>
+  </si>
+  <si>
+    <t>Blocco 9</t>
+  </si>
+  <si>
+    <t>Blocco 10</t>
+  </si>
+  <si>
+    <t>Blocco 11</t>
+  </si>
+  <si>
+    <t>Blocco 12</t>
+  </si>
+  <si>
+    <t>Blocco 13</t>
+  </si>
+  <si>
+    <t>Blocco 14</t>
+  </si>
+  <si>
+    <t>Blocco 15</t>
+  </si>
+  <si>
+    <t>Blocco 16</t>
+  </si>
+  <si>
+    <t>Blocco 17</t>
+  </si>
+  <si>
+    <t>Blocco 18</t>
+  </si>
+  <si>
+    <t>Blocco 19</t>
+  </si>
+  <si>
     <t>1.79.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>adue-ejb</t>
-  </si>
-  <si>
     <t>1.17.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>agenda-ejb</t>
-  </si>
-  <si>
     <t>1.16.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>anagrafiche-ejb</t>
-  </si>
-  <si>
-    <t>antiriciclaggio-ejb</t>
-  </si>
-  <si>
-    <t>assegni-ejb</t>
-  </si>
-  <si>
-    <t>condizionieconomiche-ejb</t>
-  </si>
-  <si>
     <t>1.11.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>digitalcollaboration-ejb</t>
-  </si>
-  <si>
-    <t>duplicatocarta-ejb</t>
-  </si>
-  <si>
-    <t>filialevirtuale-ejb</t>
-  </si>
-  <si>
-    <t>1.52.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>firmaunica-ejb</t>
+    <t>1.55.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
     <t>1.20.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>gestorelimiti-ejb</t>
-  </si>
-  <si>
-    <t>guestarea-ejb</t>
-  </si>
-  <si>
     <t>1.24.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>jiffy-v2-ejb</t>
-  </si>
-  <si>
     <t>1.19.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>listaprodotti-ejb</t>
-  </si>
-  <si>
-    <t>listiniinfofin-ejb</t>
-  </si>
-  <si>
     <t>1.15.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>mobileconfigurator-ejb</t>
-  </si>
-  <si>
     <t>1.10.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>monetaattiva-ejb</t>
-  </si>
-  <si>
     <t>0.36.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>movepay-ejb</t>
-  </si>
-  <si>
     <t>1.25.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>pagamenti-ejb</t>
-  </si>
-  <si>
-    <t>pendingprocesslist-ejb</t>
-  </si>
-  <si>
-    <t>prestiti-ejb</t>
-  </si>
-  <si>
-    <t>saldo-ejb</t>
-  </si>
-  <si>
     <t>1.26.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>variazionelimiti-definitiva-ejb</t>
-  </si>
-  <si>
-    <t>variazionelimiti-temporanea-ejb</t>
-  </si>
-  <si>
-    <t>commonssmallbusiness-ejb</t>
-  </si>
-  <si>
-    <t>condizioni-ejb</t>
-  </si>
-  <si>
-    <t>moneytransfer-ejb</t>
-  </si>
-  <si>
-    <t>pfm-ejb</t>
-  </si>
-  <si>
-    <t>rapporticliente-ejb</t>
-  </si>
-  <si>
-    <t>ricarichevarie-ejb</t>
-  </si>
-  <si>
     <t>1.46.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>bonificimultipli-ejb</t>
-  </si>
-  <si>
-    <t>etichette-ejb</t>
-  </si>
-  <si>
-    <t>incassiribamultipli-ejb</t>
-  </si>
-  <si>
-    <t>xmedindi-ejb</t>
-  </si>
-  <si>
-    <t>rubriche-ejb</t>
-  </si>
-  <si>
     <t>1.29.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>interactiondb-ejb</t>
-  </si>
-  <si>
     <t>1.22.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>autorizzazioni-ejb</t>
-  </si>
-  <si>
-    <t>bollettinopostale-ejb</t>
-  </si>
-  <si>
-    <t>bustine-ejb</t>
-  </si>
-  <si>
-    <t>f24-ejb</t>
-  </si>
-  <si>
-    <t>jiffy-ejb</t>
-  </si>
-  <si>
-    <t>matchingidbpfm-ejb</t>
-  </si>
-  <si>
-    <t>salvadanaio-ejb</t>
-  </si>
-  <si>
-    <t>tasse-ejb</t>
-  </si>
-  <si>
     <t>1.58.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>bonifico-ejb</t>
-  </si>
-  <si>
-    <t>1.31.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>cardless-ejb</t>
+    <t>1.32.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
     <t>1.27.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>giroconto-ejb</t>
-  </si>
-  <si>
-    <t>pagamentibollette-ejb</t>
-  </si>
-  <si>
     <t>1.74.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>ricaricacellulare-ejb</t>
-  </si>
-  <si>
-    <t>xmedindi-self-ejb</t>
-  </si>
-  <si>
-    <t>bonificoestero-ejb</t>
-  </si>
-  <si>
     <t>1.23.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>carte-ejb</t>
-  </si>
-  <si>
     <t>1.37.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>pagamentiribamultipli-ejb</t>
-  </si>
-  <si>
-    <t>revoche-ejb</t>
-  </si>
-  <si>
-    <t>applepay-ejb</t>
-  </si>
-  <si>
-    <t>bonus-ejb</t>
-  </si>
-  <si>
-    <t>catalogo-prodotti-ejb</t>
-  </si>
-  <si>
-    <t>masterpass-ejb</t>
-  </si>
-  <si>
     <t>1.35.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>nfc-ejb</t>
-  </si>
-  <si>
     <t>1.47.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>opricorrenti-ejb</t>
-  </si>
-  <si>
-    <t>pagamentimultipli-ejb</t>
-  </si>
-  <si>
     <t>1.51.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>ristampa-pin-ejb</t>
-  </si>
-  <si>
-    <t>ricordamidi-ejb</t>
-  </si>
-  <si>
-    <t>comunicazioni-ejb</t>
-  </si>
-  <si>
-    <t>1.223.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>miogestore-ejb</t>
+    <t>1.224.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
     <t>1.143.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>bloccosblocco-ejb</t>
-  </si>
-  <si>
-    <t>condivisione-ejb</t>
-  </si>
-  <si>
-    <t>conto-ejb</t>
-  </si>
-  <si>
-    <t>globalposition-ejb</t>
-  </si>
-  <si>
     <t>1.131.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>identitadigitale-ejb</t>
-  </si>
-  <si>
     <t>1.42.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>proposte-ejb</t>
-  </si>
-  <si>
-    <t>digitalwallet-ejb</t>
-  </si>
-  <si>
     <t>1.54.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>pulsantiera-ejb</t>
-  </si>
-  <si>
     <t>1.21.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>trading-ejb</t>
-  </si>
-  <si>
-    <t>listaoperazioni-ejb</t>
-  </si>
-  <si>
     <t>1.75.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>EJB</t>
-  </si>
-  <si>
-    <t>DIPENDENZE</t>
-  </si>
-  <si>
-    <t>VERSIONE SVIS/SVIA</t>
-  </si>
-  <si>
-    <t>Blocco 1</t>
-  </si>
-  <si>
-    <t>Blocco 2</t>
-  </si>
-  <si>
-    <t>Blocco 3</t>
-  </si>
-  <si>
-    <t>Blocco 4</t>
-  </si>
-  <si>
-    <t>Dipendenza circolare</t>
-  </si>
-  <si>
-    <t>Blocco 5</t>
-  </si>
-  <si>
-    <t>Blocco 6</t>
-  </si>
-  <si>
-    <t>Blocco 7</t>
-  </si>
-  <si>
-    <t>Blocco 8</t>
-  </si>
-  <si>
-    <t>Blocco 9</t>
-  </si>
-  <si>
-    <t>Blocco 10</t>
-  </si>
-  <si>
-    <t>Blocco 11</t>
-  </si>
-  <si>
-    <t>Blocco 12</t>
-  </si>
-  <si>
-    <t>Blocco 13</t>
-  </si>
-  <si>
-    <t>Blocco 14</t>
-  </si>
-  <si>
-    <t>Blocco 15</t>
-  </si>
-  <si>
-    <t>Blocco 16</t>
-  </si>
-  <si>
-    <t>Blocco 17</t>
-  </si>
-  <si>
-    <t>Blocco 18</t>
-  </si>
-  <si>
-    <t>Blocco 19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,171 +527,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,7 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,194 +553,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -901,325 +562,40 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1477,28 +853,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.7818181818182" customWidth="1"/>
-    <col min="5" max="5" width="25.1090909090909" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="92.2181818181818" customWidth="1"/>
-    <col min="7" max="7" width="51.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="92.21875" customWidth="1"/>
+    <col min="7" max="7" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1525,13 +900,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="str">
@@ -1548,22 +923,22 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="str">
@@ -1575,16 +950,16 @@
         <v>&lt;banca.version&gt;1.12.0-env-svia-SNAPSHOT&lt;/banca.version&gt;</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G3:G66" si="1">CONCATENATE(E4," --&gt; ",C4)</f>
+        <f t="shared" ref="G4:G66" si="1">CONCATENATE(E4," --&gt; ",C4)</f>
         <v>banca --&gt; 1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="str">
@@ -1601,11 +976,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="str">
@@ -1622,11 +997,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="str">
@@ -1643,11 +1018,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="str">
@@ -1664,11 +1039,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="str">
@@ -1685,11 +1060,11 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="str">
@@ -1706,11 +1081,11 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="str">
@@ -1727,22 +1102,22 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="str">
@@ -1759,11 +1134,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="str">
@@ -1780,11 +1155,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="str">
@@ -1801,23 +1176,23 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
+      <c r="C17" t="s">
+        <v>125</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
@@ -1833,23 +1208,23 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -1865,12 +1240,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
@@ -1886,11 +1261,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="str">
@@ -1907,11 +1282,11 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="str">
@@ -1928,11 +1303,11 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="str">
@@ -1949,12 +1324,12 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
@@ -1970,11 +1345,11 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="str">
@@ -1991,12 +1366,12 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -2012,12 +1387,12 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -2025,20 +1400,20 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;filialevirtuale.version&gt;1.52.0-env-svia-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
+        <v>&lt;filialevirtuale.version&gt;1.55.0-env-svia-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>filialevirtuale --&gt; 1.52.0-env-svia-SNAPSHOT</v>
+        <v>filialevirtuale --&gt; 1.55.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
@@ -2054,11 +1429,11 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="str">
@@ -2075,12 +1450,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
@@ -2096,23 +1471,23 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -2128,12 +1503,12 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -2149,12 +1524,12 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -2170,12 +1545,12 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -2191,12 +1566,12 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -2212,12 +1587,12 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -2233,11 +1608,11 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="E38" t="str">
@@ -2254,12 +1629,12 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
       <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -2275,12 +1650,12 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -2296,12 +1671,12 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5"/>
+      <c r="A41" s="7"/>
       <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -2317,12 +1692,12 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
@@ -2338,11 +1713,11 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="str">
@@ -2359,21 +1734,21 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5"/>
+      <c r="A45" s="7"/>
       <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
@@ -2389,12 +1764,12 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5"/>
+      <c r="A46" s="7"/>
       <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -2410,11 +1785,11 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5"/>
+      <c r="A47" s="7"/>
       <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="str">
@@ -2431,12 +1806,12 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5"/>
+      <c r="A48" s="7"/>
       <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -2452,11 +1827,11 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5"/>
+      <c r="A49" s="7"/>
       <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="E49" t="str">
@@ -2473,12 +1848,12 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5"/>
+      <c r="A50" s="7"/>
       <c r="B50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -2494,23 +1869,23 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="5">
+      <c r="A52" s="7">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
@@ -2526,11 +1901,11 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="5"/>
+      <c r="A53" s="7"/>
       <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="str">
@@ -2547,11 +1922,11 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="5"/>
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="E54" t="str">
@@ -2568,12 +1943,12 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="5"/>
+      <c r="A55" s="7"/>
       <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -2589,23 +1964,23 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>139</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -2621,23 +1996,23 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
@@ -2653,22 +2028,22 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5">
+      <c r="A61" s="7">
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="str">
@@ -2685,12 +2060,12 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="5"/>
+      <c r="A62" s="7"/>
       <c r="B62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -2706,12 +2081,12 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="5"/>
+      <c r="A63" s="7"/>
       <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -2727,12 +2102,12 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="5"/>
+      <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
@@ -2748,12 +2123,12 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="5"/>
+      <c r="A65" s="7"/>
       <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
@@ -2769,11 +2144,11 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="5"/>
+      <c r="A66" s="7"/>
       <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="E66" t="str">
@@ -2790,12 +2165,12 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="5"/>
+      <c r="A67" s="7"/>
       <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
@@ -2811,12 +2186,12 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="5"/>
+      <c r="A68" s="7"/>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -2832,23 +2207,23 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="5">
+      <c r="A70" s="7">
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:E108" si="8">LEFT(B70,LEN(B70)-4)</f>
@@ -2856,20 +2231,20 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:F75" si="9">CONCATENATE("&lt;",E70,".version&gt;",C70,"&lt;/",E70,".version&gt;")</f>
-        <v>&lt;bonifico.version&gt;1.31.0-env-svia-SNAPSHOT&lt;/bonifico.version&gt;</v>
+        <v>&lt;bonifico.version&gt;1.32.0-env-svia-SNAPSHOT&lt;/bonifico.version&gt;</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="7"/>
-        <v>bonifico --&gt; 1.31.0-env-svia-SNAPSHOT</v>
+        <v>bonifico --&gt; 1.32.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="5"/>
+      <c r="A71" s="7"/>
       <c r="B71" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="8"/>
@@ -2885,12 +2260,12 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="5"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="8"/>
@@ -2906,12 +2281,12 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="5"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="8"/>
@@ -2927,11 +2302,11 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="5"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="E74" t="str">
@@ -2948,11 +2323,11 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="5"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="str">
@@ -2969,23 +2344,23 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="5">
+      <c r="A77" s="7">
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="8"/>
@@ -3001,12 +2376,12 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="5"/>
+      <c r="A78" s="7"/>
       <c r="B78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="8"/>
@@ -3022,12 +2397,12 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="5"/>
+      <c r="A79" s="7"/>
       <c r="B79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>126</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="8"/>
@@ -3043,12 +2418,12 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="5"/>
+      <c r="A80" s="7"/>
       <c r="B80" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>133</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="8"/>
@@ -3064,23 +2439,23 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="5">
+      <c r="A82" s="7">
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>133</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="8"/>
@@ -3096,11 +2471,11 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="5"/>
+      <c r="A83" s="7"/>
       <c r="B83" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="str">
@@ -3117,12 +2492,12 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="5"/>
+      <c r="A84" s="7"/>
       <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>52</v>
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="8"/>
@@ -3138,12 +2513,12 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="5"/>
+      <c r="A85" s="7"/>
       <c r="B85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>147</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="8"/>
@@ -3159,12 +2534,12 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="5"/>
+      <c r="A86" s="7"/>
       <c r="B86" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>148</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="8"/>
@@ -3180,12 +2555,12 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="5"/>
+      <c r="A87" s="7"/>
       <c r="B87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>29</v>
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>126</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="8"/>
@@ -3201,12 +2576,12 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="5"/>
+      <c r="A88" s="7"/>
       <c r="B88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="8"/>
@@ -3222,12 +2597,12 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="5"/>
+      <c r="A89" s="7"/>
       <c r="B89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="8"/>
@@ -3243,23 +2618,23 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>136</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="8"/>
@@ -3275,23 +2650,23 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>116</v>
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>150</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="8"/>
@@ -3299,31 +2674,31 @@
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("&lt;",E93,".version&gt;",C93,"&lt;/",E93,".version&gt;")</f>
-        <v>&lt;comunicazioni.version&gt;1.223.0-env-svia-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
+        <v>&lt;comunicazioni.version&gt;1.224.0-env-svia-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="7"/>
-        <v>comunicazioni --&gt; 1.223.0-env-svia-SNAPSHOT</v>
+        <v>comunicazioni --&gt; 1.224.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>151</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="8"/>
@@ -3339,23 +2714,23 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="5">
+      <c r="A97" s="7">
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>47</v>
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="8"/>
@@ -3371,12 +2746,12 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="5"/>
+      <c r="A98" s="7"/>
       <c r="B98" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="8"/>
@@ -3392,12 +2767,12 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="5"/>
+      <c r="A99" s="7"/>
       <c r="B99" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>146</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="8"/>
@@ -3413,12 +2788,12 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="5"/>
+      <c r="A100" s="7"/>
       <c r="B100" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>123</v>
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>152</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="8"/>
@@ -3434,12 +2809,12 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="5"/>
+      <c r="A101" s="7"/>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="8"/>
@@ -3455,12 +2830,12 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="5"/>
+      <c r="A102" s="7"/>
       <c r="B102" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="8"/>
@@ -3476,23 +2851,23 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="5">
+      <c r="A104" s="7">
         <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>128</v>
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>154</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="8"/>
@@ -3508,12 +2883,12 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="5"/>
+      <c r="A105" s="7"/>
       <c r="B105" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>130</v>
+        <v>99</v>
+      </c>
+      <c r="C105" t="s">
+        <v>155</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="8"/>
@@ -3529,12 +2904,12 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="5"/>
+      <c r="A106" s="7"/>
       <c r="B106" t="s">
-        <v>131</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>47</v>
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>132</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="8"/>
@@ -3550,23 +2925,23 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="C108" t="s">
+        <v>156</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="8"/>
@@ -3582,83 +2957,78 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D108">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="B1:D108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A19:A30"/>
     <mergeCell ref="A32:A43"/>
     <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A104:A106"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A61:A68"/>
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A104:A106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D526"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C526" sqref="C526"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B342" sqref="B342:C342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="29.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="25.4454545454545" customWidth="1"/>
-    <col min="3" max="3" width="29.6636363636364" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" outlineLevel="1" spans="2:3">
+    <row r="5" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B5" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3668,14 +3038,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" collapsed="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" outlineLevel="1" spans="2:3">
+    <row r="7" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B7" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3685,46 +3055,46 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" collapsed="1">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" outlineLevel="1" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="str">
+    <row r="11" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="C11" s="3" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" collapsed="1">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" outlineLevel="1" spans="2:3">
+    <row r="13" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B13" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3734,14 +3104,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" collapsed="1">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" outlineLevel="1" spans="2:3">
+    <row r="15" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B15" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3751,30 +3121,30 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" collapsed="1">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" outlineLevel="1" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="str">
+    <row r="17" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C17" s="4" t="str">
+      <c r="C17" s="3" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:3" collapsed="1">
+      <c r="A18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
@@ -3783,7 +3153,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" outlineLevel="1" spans="2:3">
+    <row r="20" spans="1:3" outlineLevel="1">
       <c r="B20" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3793,7 +3163,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="21" outlineLevel="1" spans="2:3">
+    <row r="21" spans="1:3" outlineLevel="1">
       <c r="B21" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3810,7 +3180,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" outlineLevel="1" spans="2:3">
+    <row r="23" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B23" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
@@ -3820,7 +3190,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="24" outlineLevel="1" spans="2:3">
+    <row r="24" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B24" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3830,14 +3200,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" collapsed="1">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" outlineLevel="1" spans="2:3">
+    <row r="26" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B26" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3847,7 +3217,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="27" outlineLevel="1" spans="2:3">
+    <row r="27" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B27" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3857,12 +3227,12 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+    <row r="28" spans="1:3" collapsed="1">
+      <c r="A28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
@@ -3871,7 +3241,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" outlineLevel="1" spans="2:3">
+    <row r="30" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B30" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3881,7 +3251,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="31" outlineLevel="1" spans="2:3">
+    <row r="31" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B31" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3891,7 +3261,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="32" outlineLevel="1" spans="2:3">
+    <row r="32" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B32" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -3901,7 +3271,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="33" outlineLevel="1" spans="2:3">
+    <row r="33" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B33" t="str">
         <f>'Versioni EJB'!B10</f>
         <v>userpreferences-ejb</v>
@@ -3911,21 +3281,21 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    <row r="34" spans="1:3" collapsed="1">
+      <c r="A34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" outlineLevel="1" spans="2:3">
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B36" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3935,7 +3305,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="37" outlineLevel="1" spans="2:3">
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B37" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -3945,7 +3315,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="38" outlineLevel="1" spans="2:3">
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B38" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3955,7 +3325,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="39" outlineLevel="1" spans="2:3">
+    <row r="39" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B39" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -3965,7 +3335,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="40" outlineLevel="1" spans="2:3">
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B40" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -3975,14 +3345,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" collapsed="1">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" outlineLevel="1" spans="2:3">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B42" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3992,7 +3362,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="43" outlineLevel="1" spans="2:3">
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B43" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4002,7 +3372,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="44" outlineLevel="1" spans="2:3">
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B44" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4012,7 +3382,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="45" outlineLevel="1" spans="2:3">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B45" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4022,14 +3392,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" collapsed="1">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" outlineLevel="1" spans="2:3">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B47" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4039,7 +3409,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="48" outlineLevel="1" spans="2:3">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B48" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4049,7 +3419,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="49" outlineLevel="1" spans="2:3">
+    <row r="49" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B49" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4059,14 +3429,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" collapsed="1">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" outlineLevel="1" spans="2:3">
+    <row r="51" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B51" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4076,7 +3446,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="52" outlineLevel="1" spans="2:3">
+    <row r="52" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B52" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4086,7 +3456,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="53" outlineLevel="1" spans="2:3">
+    <row r="53" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B53" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4096,14 +3466,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" collapsed="1">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" outlineLevel="1" spans="2:3">
+    <row r="55" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B55" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4113,7 +3483,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="56" outlineLevel="1" spans="2:3">
+    <row r="56" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B56" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4123,7 +3493,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="57" outlineLevel="1" spans="2:3">
+    <row r="57" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B57" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4133,14 +3503,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" collapsed="1">
       <c r="A58" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" outlineLevel="1" spans="2:3">
+    <row r="59" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B59" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4150,7 +3520,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="60" outlineLevel="1" spans="2:3">
+    <row r="60" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B60" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4160,14 +3530,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" collapsed="1">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" outlineLevel="1" spans="2:3">
+    <row r="62" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B62" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4177,7 +3547,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="63" outlineLevel="1" spans="2:3">
+    <row r="63" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B63" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4187,14 +3557,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" collapsed="1">
       <c r="A64" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" outlineLevel="1" spans="2:3">
+    <row r="65" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B65" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4204,7 +3574,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="66" outlineLevel="1" spans="2:3">
+    <row r="66" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B66" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4214,7 +3584,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="67" outlineLevel="1" spans="2:3">
+    <row r="67" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B67" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
@@ -4224,7 +3594,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="68" outlineLevel="1" spans="2:3">
+    <row r="68" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B68" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4234,7 +3604,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="69" outlineLevel="1" spans="2:3">
+    <row r="69" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B69" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4244,22 +3614,22 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" collapsed="1">
       <c r="A70" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" outlineLevel="1" spans="2:3">
+    <row r="71" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B71" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" outlineLevel="1" spans="2:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B72" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4269,7 +3639,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="73" outlineLevel="1" spans="2:3">
+    <row r="73" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B73" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4279,7 +3649,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="74" outlineLevel="1" spans="2:3">
+    <row r="74" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B74" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4289,14 +3659,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" collapsed="1">
       <c r="A75" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" outlineLevel="1" spans="2:3">
+    <row r="76" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B76" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4306,7 +3676,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="77" outlineLevel="1" spans="2:3">
+    <row r="77" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B77" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4316,14 +3686,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" collapsed="1">
       <c r="A78" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" outlineLevel="1" spans="2:3">
+    <row r="79" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B79" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4333,7 +3703,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="80" outlineLevel="1" spans="2:3">
+    <row r="80" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B80" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4343,14 +3713,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" collapsed="1">
       <c r="A81" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" outlineLevel="1" spans="2:3">
+    <row r="82" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B82" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4360,7 +3730,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="83" outlineLevel="1" spans="2:3">
+    <row r="83" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B83" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4370,21 +3740,21 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+    <row r="84" spans="1:3" collapsed="1">
+      <c r="A84" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" outlineLevel="1" spans="2:3">
+    <row r="86" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B86" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4394,7 +3764,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="87" outlineLevel="1" spans="2:3">
+    <row r="87" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B87" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4404,14 +3774,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" collapsed="1">
       <c r="A88" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" outlineLevel="1" spans="2:3">
+    <row r="89" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B89" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4421,7 +3791,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="90" outlineLevel="1" spans="2:3">
+    <row r="90" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B90" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4431,14 +3801,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" collapsed="1">
       <c r="A91" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" outlineLevel="1" spans="2:3">
+    <row r="92" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B92" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4448,7 +3818,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="93" outlineLevel="1" spans="2:3">
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B93" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4458,14 +3828,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" collapsed="1">
       <c r="A94" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" outlineLevel="1" spans="2:3">
+    <row r="95" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B95" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4475,7 +3845,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="96" outlineLevel="1" spans="2:3">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B96" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4485,14 +3855,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" collapsed="1">
       <c r="A97" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" outlineLevel="1" spans="2:3">
+    <row r="98" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B98" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4502,7 +3872,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="99" outlineLevel="1" spans="2:3">
+    <row r="99" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B99" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4512,14 +3882,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" collapsed="1">
       <c r="A100" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" outlineLevel="1" spans="2:3">
+    <row r="101" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B101" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4529,7 +3899,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="102" outlineLevel="1" spans="2:3">
+    <row r="102" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B102" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4539,14 +3909,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" collapsed="1">
       <c r="A103" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" outlineLevel="1" spans="2:3">
+    <row r="104" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B104" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4556,7 +3926,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="105" outlineLevel="1" spans="2:3">
+    <row r="105" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B105" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4566,14 +3936,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" collapsed="1">
       <c r="A106" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" outlineLevel="1" spans="2:3">
+    <row r="107" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B107" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4583,7 +3953,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="108" outlineLevel="1" spans="2:3">
+    <row r="108" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B108" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4593,22 +3963,22 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="109" outlineLevel="1" spans="2:3">
+    <row r="109" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B109" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" collapsed="1">
       <c r="A110" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" outlineLevel="1" spans="2:3">
+    <row r="111" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B111" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4618,7 +3988,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="112" outlineLevel="1" spans="2:3">
+    <row r="112" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B112" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4628,7 +3998,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="113" outlineLevel="1" spans="2:3">
+    <row r="113" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B113" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4638,7 +4008,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="114" outlineLevel="1" spans="2:3">
+    <row r="114" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B114" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4648,14 +4018,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" collapsed="1">
       <c r="A115" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" outlineLevel="1" spans="2:3">
+    <row r="116" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B116" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4665,7 +4035,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="117" outlineLevel="1" spans="2:3">
+    <row r="117" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B117" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4675,7 +4045,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="118" outlineLevel="1" spans="2:3">
+    <row r="118" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B118" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -4685,7 +4055,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="119" outlineLevel="1" spans="2:3">
+    <row r="119" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B119" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4695,14 +4065,14 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" collapsed="1">
       <c r="A120" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" outlineLevel="1" spans="2:3">
+    <row r="121" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B121" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4712,7 +4082,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="122" outlineLevel="1" spans="2:3">
+    <row r="122" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B122" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4722,7 +4092,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="123" outlineLevel="1" spans="2:3">
+    <row r="123" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B123" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4732,7 +4102,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="124" outlineLevel="1" spans="2:3">
+    <row r="124" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B124" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
@@ -4742,7 +4112,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="125" outlineLevel="1" spans="2:3">
+    <row r="125" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B125" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4752,7 +4122,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="126" outlineLevel="1" spans="2:3">
+    <row r="126" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B126" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>stampe-ejb</v>
@@ -4762,14 +4132,14 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" collapsed="1">
       <c r="A127" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" outlineLevel="1" spans="2:3">
+    <row r="128" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B128" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4779,7 +4149,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="129" outlineLevel="1" spans="2:3">
+    <row r="129" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B129" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4789,7 +4159,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="130" outlineLevel="1" spans="2:3">
+    <row r="130" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B130" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4799,7 +4169,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="131" outlineLevel="1" spans="2:3">
+    <row r="131" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B131" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4809,7 +4179,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="132" outlineLevel="1" spans="2:3">
+    <row r="132" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B132" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
@@ -4819,21 +4189,21 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+    <row r="133" spans="1:3" collapsed="1">
+      <c r="A133" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" outlineLevel="1" spans="2:3">
+    <row r="135" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B135" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4843,7 +4213,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="136" outlineLevel="1" spans="2:3">
+    <row r="136" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B136" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4853,15 +4223,15 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="137" outlineLevel="1" spans="2:3">
+    <row r="137" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B137" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" outlineLevel="1" spans="2:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B138" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -4871,7 +4241,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="139" outlineLevel="1" spans="2:3">
+    <row r="139" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B139" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4881,14 +4251,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" collapsed="1">
       <c r="A140" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" outlineLevel="1" spans="2:3">
+    <row r="141" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B141" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4898,7 +4268,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="142" outlineLevel="1" spans="2:3">
+    <row r="142" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B142" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -4908,14 +4278,14 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" collapsed="1">
       <c r="A143" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" outlineLevel="1" spans="2:3">
+    <row r="144" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B144" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -4925,7 +4295,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="145" outlineLevel="1" spans="2:3">
+    <row r="145" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B145" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -4935,7 +4305,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="146" outlineLevel="1" spans="2:3">
+    <row r="146" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B146" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -4945,7 +4315,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="147" outlineLevel="1" spans="2:3">
+    <row r="147" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B147" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4955,7 +4325,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="148" outlineLevel="1" spans="2:3">
+    <row r="148" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B148" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4965,7 +4335,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="149" outlineLevel="1" spans="2:3">
+    <row r="149" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B149" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4975,14 +4345,14 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" collapsed="1">
       <c r="A150" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" outlineLevel="1" spans="2:3">
+    <row r="151" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B151" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -4992,7 +4362,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="152" outlineLevel="1" spans="2:3">
+    <row r="152" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B152" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5002,7 +4372,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="153" outlineLevel="1" spans="2:3">
+    <row r="153" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B153" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5012,15 +4382,15 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="154" outlineLevel="1" spans="2:3">
+    <row r="154" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B154" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C154" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="155" outlineLevel="1" spans="2:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B155" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5030,22 +4400,22 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="156" outlineLevel="1" spans="2:3">
+    <row r="156" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B156" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C156" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" collapsed="1">
       <c r="A157" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" outlineLevel="1" spans="2:3">
+    <row r="158" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B158" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>stampe-ejb</v>
@@ -5055,7 +4425,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="159" outlineLevel="1" spans="2:3">
+    <row r="159" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B159" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5065,7 +4435,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="160" outlineLevel="1" spans="2:3">
+    <row r="160" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B160" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5075,14 +4445,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" collapsed="1">
       <c r="A161" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" outlineLevel="1" spans="2:3">
+    <row r="162" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B162" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5092,7 +4462,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="163" outlineLevel="1" spans="2:3">
+    <row r="163" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B163" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5102,7 +4472,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="164" outlineLevel="1" spans="2:3">
+    <row r="164" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B164" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5112,7 +4482,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="165" outlineLevel="1" spans="2:3">
+    <row r="165" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B165" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5122,21 +4492,21 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+    <row r="166" spans="1:3" collapsed="1">
+      <c r="A166" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" outlineLevel="1" spans="2:3">
+    <row r="168" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B168" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5146,7 +4516,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="169" outlineLevel="1" spans="2:3">
+    <row r="169" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B169" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5156,7 +4526,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="170" outlineLevel="1" spans="2:3">
+    <row r="170" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B170" t="str">
         <f>'Versioni EJB'!B45</f>
         <v>commonssmallbusiness-ejb</v>
@@ -5166,7 +4536,7 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="171" outlineLevel="1" spans="2:3">
+    <row r="171" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B171" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5176,14 +4546,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" collapsed="1">
       <c r="A172" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" outlineLevel="1" spans="2:3">
+    <row r="173" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B173" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
@@ -5193,7 +4563,7 @@
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="174" outlineLevel="1" spans="2:3">
+    <row r="174" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B174" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5203,7 +4573,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="175" outlineLevel="1" spans="2:3">
+    <row r="175" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B175" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5213,7 +4583,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="176" outlineLevel="1" spans="2:3">
+    <row r="176" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B176" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5223,14 +4593,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" collapsed="1">
       <c r="A177" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" outlineLevel="1" spans="2:3">
+    <row r="178" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B178" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5240,7 +4610,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="179" outlineLevel="1" spans="2:3">
+    <row r="179" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B179" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5250,7 +4620,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="180" outlineLevel="1" spans="2:3">
+    <row r="180" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B180" t="str">
         <f>'Versioni EJB'!B45</f>
         <v>commonssmallbusiness-ejb</v>
@@ -5260,14 +4630,14 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" collapsed="1">
       <c r="A181" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" outlineLevel="1" spans="2:3">
+    <row r="182" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B182" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
@@ -5277,7 +4647,7 @@
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="183" outlineLevel="1" spans="2:3">
+    <row r="183" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B183" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5287,21 +4657,21 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
+    <row r="184" spans="1:3" collapsed="1">
+      <c r="A184" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" outlineLevel="1" spans="2:3">
+    <row r="186" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B186" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5311,7 +4681,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="187" outlineLevel="1" spans="2:3">
+    <row r="187" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B187" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5321,7 +4691,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="188" outlineLevel="1" spans="2:3">
+    <row r="188" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B188" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -5331,7 +4701,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="189" outlineLevel="1" spans="2:3">
+    <row r="189" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B189" t="str">
         <f>'Versioni EJB'!B53</f>
         <v>etichette-ejb</v>
@@ -5341,7 +4711,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="190" outlineLevel="1" spans="2:3">
+    <row r="190" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B190" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5351,21 +4721,21 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
+    <row r="191" spans="1:3" collapsed="1">
+      <c r="A191" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" outlineLevel="1" spans="2:3">
+    <row r="193" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B193" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5375,7 +4745,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="194" outlineLevel="1" spans="2:3">
+    <row r="194" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B194" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5385,7 +4755,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="195" outlineLevel="1" spans="2:3">
+    <row r="195" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B195" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5395,7 +4765,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="196" outlineLevel="1" spans="2:3">
+    <row r="196" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B196" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>rubriche-ejb</v>
@@ -5405,7 +4775,7 @@
         <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="197" outlineLevel="1" spans="2:3">
+    <row r="197" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B197" t="str">
         <f>'Versioni EJB'!B45</f>
         <v>commonssmallbusiness-ejb</v>
@@ -5415,21 +4785,21 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+    <row r="198" spans="1:3" collapsed="1">
+      <c r="A198" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
     </row>
-    <row r="200" outlineLevel="1" spans="2:3">
+    <row r="200" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B200" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5439,7 +4809,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="201" outlineLevel="1" spans="2:3">
+    <row r="201" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B201" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5449,7 +4819,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="202" outlineLevel="1" spans="2:3">
+    <row r="202" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B202" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -5459,7 +4829,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="203" outlineLevel="1" spans="2:3">
+    <row r="203" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B203" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -5469,7 +4839,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="204" outlineLevel="1" spans="2:3">
+    <row r="204" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B204" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5479,14 +4849,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" collapsed="1">
       <c r="A205" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" outlineLevel="1" spans="2:3">
+    <row r="206" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B206" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5496,7 +4866,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="207" outlineLevel="1" spans="2:3">
+    <row r="207" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B207" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5506,7 +4876,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="208" outlineLevel="1" spans="2:3">
+    <row r="208" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B208" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -5516,7 +4886,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="209" outlineLevel="1" spans="2:3">
+    <row r="209" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B209" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5526,7 +4896,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="210" outlineLevel="1" spans="2:3">
+    <row r="210" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B210" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>condizioni-ejb</v>
@@ -5536,7 +4906,7 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="211" outlineLevel="1" spans="2:3">
+    <row r="211" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B211" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5546,7 +4916,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="212" outlineLevel="1" spans="2:3">
+    <row r="212" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B212" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -5556,7 +4926,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="213" outlineLevel="1" spans="2:3">
+    <row r="213" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B213" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -5566,7 +4936,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="214" outlineLevel="1" spans="2:3">
+    <row r="214" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B214" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5576,14 +4946,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" collapsed="1">
       <c r="A215" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" outlineLevel="1" spans="2:3">
+    <row r="216" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B216" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -5593,7 +4963,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="217" outlineLevel="1" spans="2:3">
+    <row r="217" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B217" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5603,7 +4973,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="218" outlineLevel="1" spans="2:3">
+    <row r="218" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B218" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5613,14 +4983,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" collapsed="1">
       <c r="A219" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" outlineLevel="1" spans="2:3">
+    <row r="220" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B220" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5630,7 +5000,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="221" outlineLevel="1" spans="2:3">
+    <row r="221" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B221" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5640,7 +5010,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="222" outlineLevel="1" spans="2:3">
+    <row r="222" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B222" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5650,7 +5020,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="223" outlineLevel="1" spans="2:3">
+    <row r="223" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B223" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -5660,7 +5030,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="224" outlineLevel="1" spans="2:3">
+    <row r="224" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B224" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5670,7 +5040,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="225" outlineLevel="1" spans="2:3">
+    <row r="225" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B225" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5680,7 +5050,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="226" outlineLevel="1" spans="2:3">
+    <row r="226" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B226" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -5690,14 +5060,14 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" collapsed="1">
       <c r="A227" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" outlineLevel="1" spans="2:3">
+    <row r="228" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B228" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5707,7 +5077,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="229" outlineLevel="1" spans="2:3">
+    <row r="229" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B229" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>pendingprocesslist-ejb</v>
@@ -5717,7 +5087,7 @@
         <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="230" outlineLevel="1" spans="2:3">
+    <row r="230" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B230" t="str">
         <f>'Versioni EJB'!B29</f>
         <v>gestorelimiti-ejb</v>
@@ -5727,7 +5097,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="231" outlineLevel="1" spans="2:3">
+    <row r="231" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B231" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>condizioni-ejb</v>
@@ -5737,7 +5107,7 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="232" outlineLevel="1" spans="2:3">
+    <row r="232" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B232" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5747,7 +5117,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="233" outlineLevel="1" spans="2:3">
+    <row r="233" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B233" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -5757,7 +5127,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="234" outlineLevel="1" spans="2:3">
+    <row r="234" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B234" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>rubriche-ejb</v>
@@ -5767,7 +5137,7 @@
         <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="235" outlineLevel="1" spans="2:3">
+    <row r="235" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B235" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5777,7 +5147,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="236" outlineLevel="1" spans="2:3">
+    <row r="236" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B236" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -5787,7 +5157,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="237" outlineLevel="1" spans="2:3">
+    <row r="237" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B237" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5797,14 +5167,14 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" collapsed="1">
       <c r="A238" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" outlineLevel="1" spans="2:3">
+    <row r="239" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B239" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5814,7 +5184,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="240" outlineLevel="1" spans="2:3">
+    <row r="240" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B240" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5824,7 +5194,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="241" outlineLevel="1" spans="2:3">
+    <row r="241" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B241" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -5834,14 +5204,14 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" collapsed="1">
       <c r="A242" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
     </row>
-    <row r="243" outlineLevel="1" spans="2:3">
+    <row r="243" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B243" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5851,7 +5221,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="244" outlineLevel="1" spans="2:3">
+    <row r="244" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B244" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5861,7 +5231,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="245" outlineLevel="1" spans="2:3">
+    <row r="245" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B245" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5871,7 +5241,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="246" outlineLevel="1" spans="2:3">
+    <row r="246" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B246" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -5881,7 +5251,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="247" outlineLevel="1" spans="2:3">
+    <row r="247" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B247" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -5891,7 +5261,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="248" outlineLevel="1" spans="2:3">
+    <row r="248" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B248" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
@@ -5901,7 +5271,7 @@
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="249" outlineLevel="1" spans="2:3">
+    <row r="249" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B249" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5911,7 +5281,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="250" outlineLevel="1" spans="2:3">
+    <row r="250" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B250" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -5921,14 +5291,14 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" collapsed="1">
       <c r="A251" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" outlineLevel="1" spans="2:3">
+    <row r="252" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B252" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -5938,7 +5308,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="253" outlineLevel="1" spans="2:3">
+    <row r="253" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B253" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>condizioni-ejb</v>
@@ -5948,7 +5318,7 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="254" outlineLevel="1" spans="2:3">
+    <row r="254" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B254" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -5958,7 +5328,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="255" outlineLevel="1" spans="2:3">
+    <row r="255" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B255" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -5968,7 +5338,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="256" outlineLevel="1" spans="2:3">
+    <row r="256" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B256" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5978,7 +5348,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="257" outlineLevel="1" spans="2:3">
+    <row r="257" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B257" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -5988,7 +5358,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="258" outlineLevel="1" spans="2:3">
+    <row r="258" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B258" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5998,7 +5368,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="259" outlineLevel="1" spans="2:3">
+    <row r="259" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B259" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -6008,7 +5378,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="260" outlineLevel="1" spans="2:3">
+    <row r="260" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B260" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6018,21 +5388,21 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
+    <row r="261" spans="1:3" collapsed="1">
+      <c r="A261" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
     </row>
-    <row r="263" outlineLevel="1" spans="2:3">
+    <row r="263" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B263" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6042,7 +5412,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="264" outlineLevel="1" spans="2:3">
+    <row r="264" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B264" t="str">
         <f>'Versioni EJB'!B22</f>
         <v>antiriciclaggio-ejb</v>
@@ -6052,7 +5422,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="265" outlineLevel="1" spans="2:3">
+    <row r="265" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B265" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -6062,7 +5432,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="266" outlineLevel="1" spans="2:3">
+    <row r="266" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B266" t="str">
         <f>'Versioni EJB'!B21</f>
         <v>anagrafiche-ejb</v>
@@ -6072,7 +5442,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="267" outlineLevel="1" spans="2:3">
+    <row r="267" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B267" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -6082,7 +5452,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="268" outlineLevel="1" spans="2:3">
+    <row r="268" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B268" t="str">
         <f>'Versioni EJB'!B67</f>
         <v>salvadanaio-ejb</v>
@@ -6092,7 +5462,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="269" outlineLevel="1" spans="2:3">
+    <row r="269" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B269" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -6102,7 +5472,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="270" outlineLevel="1" spans="2:3">
+    <row r="270" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B270" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6112,7 +5482,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="271" outlineLevel="1" spans="2:3">
+    <row r="271" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B271" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -6122,7 +5492,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="272" outlineLevel="1" spans="2:3">
+    <row r="272" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B272" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>rubriche-ejb</v>
@@ -6132,7 +5502,7 @@
         <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="273" outlineLevel="1" spans="2:3">
+    <row r="273" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B273" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6142,7 +5512,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="274" outlineLevel="1" spans="2:3">
+    <row r="274" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B274" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6152,14 +5522,14 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" collapsed="1">
       <c r="A275" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
     </row>
-    <row r="276" outlineLevel="1" spans="2:3">
+    <row r="276" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B276" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6169,7 +5539,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="277" outlineLevel="1" spans="2:3">
+    <row r="277" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B277" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -6179,7 +5549,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="278" outlineLevel="1" spans="2:3">
+    <row r="278" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B278" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -6189,7 +5559,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="279" outlineLevel="1" spans="2:3">
+    <row r="279" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B279" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -6199,7 +5569,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="280" outlineLevel="1" spans="2:3">
+    <row r="280" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B280" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6209,7 +5579,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="281" outlineLevel="1" spans="2:3">
+    <row r="281" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B281" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -6219,14 +5589,14 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" collapsed="1">
       <c r="A282" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
-    <row r="283" outlineLevel="1" spans="2:3">
+    <row r="283" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B283" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -6236,7 +5606,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="284" outlineLevel="1" spans="2:3">
+    <row r="284" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B284" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -6246,7 +5616,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="285" outlineLevel="1" spans="2:3">
+    <row r="285" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B285" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6256,7 +5626,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="286" outlineLevel="1" spans="2:3">
+    <row r="286" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B286" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6266,7 +5636,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="287" outlineLevel="1" spans="2:3">
+    <row r="287" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B287" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6276,7 +5646,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="288" outlineLevel="1" spans="2:3">
+    <row r="288" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B288" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -6286,14 +5656,14 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" collapsed="1">
       <c r="A289" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" outlineLevel="1" spans="2:3">
+    <row r="290" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B290" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6303,7 +5673,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="291" outlineLevel="1" spans="2:3">
+    <row r="291" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B291" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6313,7 +5683,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="292" outlineLevel="1" spans="2:3">
+    <row r="292" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B292" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -6323,7 +5693,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="293" outlineLevel="1" spans="2:3">
+    <row r="293" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B293" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6333,7 +5703,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="294" outlineLevel="1" spans="2:3">
+    <row r="294" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B294" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -6343,7 +5713,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="295" outlineLevel="1" spans="2:3">
+    <row r="295" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B295" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -6353,7 +5723,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="296" outlineLevel="1" spans="2:3">
+    <row r="296" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B296" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>condizioni-ejb</v>
@@ -6363,7 +5733,7 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="297" outlineLevel="1" spans="2:3">
+    <row r="297" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B297" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -6373,7 +5743,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="298" outlineLevel="1" spans="2:3">
+    <row r="298" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B298" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6383,14 +5753,14 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" collapsed="1">
       <c r="A299" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
     </row>
-    <row r="300" outlineLevel="1" spans="2:3">
+    <row r="300" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B300" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -6400,7 +5770,7 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="301" outlineLevel="1" spans="2:3">
+    <row r="301" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B301" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -6410,7 +5780,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="302" outlineLevel="1" spans="2:3">
+    <row r="302" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B302" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -6420,7 +5790,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="303" outlineLevel="1" spans="2:3">
+    <row r="303" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B303" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6430,7 +5800,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="304" outlineLevel="1" spans="2:3">
+    <row r="304" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B304" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6440,7 +5810,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="305" outlineLevel="1" spans="2:3">
+    <row r="305" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B305" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -6450,7 +5820,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="306" outlineLevel="1" spans="2:3">
+    <row r="306" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B306" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6460,7 +5830,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="307" outlineLevel="1" spans="2:3">
+    <row r="307" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B307" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>rubriche-ejb</v>
@@ -6470,14 +5840,14 @@
         <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" collapsed="1">
       <c r="A308" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
     </row>
-    <row r="309" outlineLevel="1" spans="2:3">
+    <row r="309" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B309" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6487,7 +5857,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="310" outlineLevel="1" spans="2:3">
+    <row r="310" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B310" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6497,7 +5867,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="311" outlineLevel="1" spans="2:3">
+    <row r="311" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B311" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6507,7 +5877,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="312" outlineLevel="1" spans="2:3">
+    <row r="312" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B312" t="str">
         <f>'Versioni EJB'!B67</f>
         <v>salvadanaio-ejb</v>
@@ -6517,21 +5887,21 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
+    <row r="313" spans="1:3" collapsed="1">
+      <c r="A313" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B313" s="8"/>
+      <c r="C313" s="8"/>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
     </row>
-    <row r="315" outlineLevel="1" spans="2:3">
+    <row r="315" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B315" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6541,7 +5911,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="316" outlineLevel="1" spans="2:3">
+    <row r="316" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B316" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -6551,17 +5921,17 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="317" outlineLevel="1" spans="2:3">
+    <row r="317" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B317" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="318" outlineLevel="1" spans="2:3">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B318" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -6571,7 +5941,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="319" outlineLevel="1" spans="2:3">
+    <row r="319" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B319" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -6581,7 +5951,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="320" outlineLevel="1" spans="2:3">
+    <row r="320" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B320" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6591,7 +5961,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="321" outlineLevel="1" spans="2:3">
+    <row r="321" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B321" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6601,7 +5971,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="322" outlineLevel="1" spans="2:3">
+    <row r="322" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B322" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6611,14 +5981,14 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" collapsed="1">
       <c r="A323" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
     </row>
-    <row r="324" outlineLevel="1" spans="2:3">
+    <row r="324" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B324" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
@@ -6628,27 +5998,27 @@
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="325" outlineLevel="1" spans="2:3">
+    <row r="325" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B325" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="326" outlineLevel="1" spans="2:3">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B326" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.52.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="327" outlineLevel="1" spans="2:3">
+        <v>1.55.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B327" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
@@ -6658,7 +6028,7 @@
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="328" outlineLevel="1" spans="2:3">
+    <row r="328" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B328" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>pagamenti-ejb</v>
@@ -6668,7 +6038,7 @@
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="329" outlineLevel="1" spans="2:3">
+    <row r="329" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B329" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6678,7 +6048,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="330" outlineLevel="1" spans="2:3">
+    <row r="330" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B330" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6688,7 +6058,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="331" outlineLevel="1" spans="2:3">
+    <row r="331" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B331" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>agenda-ejb</v>
@@ -6698,7 +6068,7 @@
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="332" outlineLevel="1" spans="2:3">
+    <row r="332" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B332" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
@@ -6708,7 +6078,7 @@
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="333" outlineLevel="1" spans="2:3">
+    <row r="333" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B333" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>rubriche-ejb</v>
@@ -6718,7 +6088,7 @@
         <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="334" outlineLevel="1" spans="2:3">
+    <row r="334" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B334" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6728,14 +6098,14 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" collapsed="1">
       <c r="A335" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
     </row>
-    <row r="336" outlineLevel="1" spans="2:3">
+    <row r="336" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B336" t="str">
         <f>'Versioni EJB'!B45</f>
         <v>commonssmallbusiness-ejb</v>
@@ -6745,7 +6115,7 @@
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="337" outlineLevel="1" spans="2:3">
+    <row r="337" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B337" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
@@ -6755,7 +6125,7 @@
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="338" outlineLevel="1" spans="2:3">
+    <row r="338" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B338" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
@@ -6765,7 +6135,7 @@
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="339" outlineLevel="1" spans="2:3">
+    <row r="339" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B339" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6775,7 +6145,7 @@
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="340" outlineLevel="1" spans="2:3">
+    <row r="340" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B340" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6785,7 +6155,7 @@
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="341" outlineLevel="1" spans="2:3">
+    <row r="341" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B341" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
@@ -6795,1769 +6165,1779 @@
         <v>1.74.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-    </row>
-    <row r="343" outlineLevel="1" spans="2:3">
-      <c r="B343" t="str">
+    <row r="342" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B342" t="str">
+        <f>'Versioni EJB'!B9</f>
+        <v>stampe-ejb</v>
+      </c>
+      <c r="C342" t="str">
+        <f>'Versioni EJB'!C9</f>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" collapsed="1">
+      <c r="A343" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+    </row>
+    <row r="344" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B344" t="str">
         <f>'Versioni EJB'!B68</f>
         <v>tasse-ejb</v>
       </c>
-      <c r="C343" t="str">
+      <c r="C344" t="str">
         <f>'Versioni EJB'!C68</f>
         <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="344" outlineLevel="1" spans="2:3">
-      <c r="B344" t="str">
+    <row r="345" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B345" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
       </c>
-      <c r="C344" t="str">
+      <c r="C345" t="str">
         <f>'Versioni EJB'!C73</f>
         <v>1.74.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="345" outlineLevel="1" spans="2:3">
-      <c r="B345" t="str">
+    <row r="346" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B346" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>bollettinopostale-ejb</v>
       </c>
-      <c r="C345" t="str">
+      <c r="C346" t="str">
         <f>'Versioni EJB'!C62</f>
         <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="346" outlineLevel="1" spans="2:3">
-      <c r="B346" t="str">
+    <row r="347" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B347" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>moneytransfer-ejb</v>
       </c>
-      <c r="C346" t="str">
+      <c r="C347" t="str">
         <f>'Versioni EJB'!C47</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="347" outlineLevel="1" spans="2:3">
-      <c r="B347" t="str">
+    <row r="348" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B348" t="str">
         <f>'Versioni EJB'!B64</f>
         <v>f24-ejb</v>
       </c>
-      <c r="C347" t="str">
+      <c r="C348" t="str">
         <f>'Versioni EJB'!C64</f>
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="348" outlineLevel="1" spans="2:3">
-      <c r="B348" t="str">
+    <row r="349" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B349" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
-      <c r="C348" t="str">
+      <c r="C349" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="349" outlineLevel="1" spans="2:3">
-      <c r="B349" t="str">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B350" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C349" t="str">
+      <c r="C350" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="350" outlineLevel="1" spans="2:3">
-      <c r="B350" t="str">
+    <row r="351" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B351" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C350" t="str">
+      <c r="C351" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B351" s="3"/>
-      <c r="C351" s="3"/>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-    </row>
-    <row r="353" outlineLevel="1" spans="2:3">
-      <c r="B353" t="str">
+    <row r="352" spans="1:3" collapsed="1">
+      <c r="A352" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B352" s="8"/>
+      <c r="C352" s="8"/>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+    </row>
+    <row r="354" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B354" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C353" t="str">
+      <c r="C354" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="354" outlineLevel="1" spans="2:3">
-      <c r="B354" t="str">
+    <row r="355" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B355" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C354" t="str">
+      <c r="C355" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="355" outlineLevel="1" spans="2:3">
-      <c r="B355" t="str">
+    <row r="356" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B356" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
       </c>
-      <c r="C355" t="str">
+      <c r="C356" t="str">
         <f>'Versioni EJB'!C7</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="356" outlineLevel="1" spans="2:3">
-      <c r="B356" t="str">
+    <row r="357" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B357" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C356" t="str">
+      <c r="C357" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-    </row>
-    <row r="358" outlineLevel="1" spans="2:3">
-      <c r="B358" t="str">
+    <row r="358" spans="1:3" collapsed="1">
+      <c r="A358" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+    </row>
+    <row r="359" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B359" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C358" t="str">
+      <c r="C359" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="359" outlineLevel="1" spans="2:3">
-      <c r="B359" t="str">
+    <row r="360" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B360" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C359" t="str">
+      <c r="C360" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="360" outlineLevel="1" spans="2:3">
-      <c r="B360" t="str">
+    <row r="361" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B361" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C360" t="str">
+      <c r="C361" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="361" outlineLevel="1" spans="2:3">
-      <c r="B361" t="str">
+    <row r="362" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B362" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>stampe-ejb</v>
       </c>
-      <c r="C361" t="str">
+      <c r="C362" t="str">
         <f>'Versioni EJB'!C9</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-    </row>
-    <row r="363" outlineLevel="1" spans="2:3">
-      <c r="B363" t="str">
+    <row r="363" spans="1:3" collapsed="1">
+      <c r="A363" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+    </row>
+    <row r="364" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B364" t="str">
         <f>'Versioni EJB'!B11</f>
         <v>wishlist-ejb</v>
       </c>
-      <c r="C363" t="str">
+      <c r="C364" t="str">
         <f>'Versioni EJB'!C11</f>
         <v>1.7.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="364" outlineLevel="1" spans="2:3">
-      <c r="B364" t="str">
+    <row r="365" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B365" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C364" t="str">
+      <c r="C365" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="365" outlineLevel="1" spans="2:3">
-      <c r="B365" t="str">
+    <row r="366" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B366" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
-      <c r="C365" t="str">
+      <c r="C366" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.52.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="366" outlineLevel="1" spans="2:3">
-      <c r="B366" t="str">
+        <v>1.55.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B367" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C366" t="str">
+      <c r="C367" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-    </row>
-    <row r="368" outlineLevel="1" spans="2:3">
-      <c r="B368" t="str">
+    <row r="368" spans="1:3" collapsed="1">
+      <c r="A368" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+    </row>
+    <row r="369" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B369" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C368" t="str">
+      <c r="C369" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="369" outlineLevel="1" spans="2:3">
-      <c r="B369" t="str">
+    <row r="370" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B370" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>pendingprocesslist-ejb</v>
       </c>
-      <c r="C369" t="str">
+      <c r="C370" t="str">
         <f>'Versioni EJB'!C39</f>
         <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="370" outlineLevel="1" spans="2:3">
-      <c r="B370" t="str">
+    <row r="371" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B371" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C370" t="str">
+      <c r="C371" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="371" outlineLevel="1" spans="2:3">
-      <c r="B371" t="str">
+    <row r="372" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B372" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C371" t="str">
+      <c r="C372" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="372" outlineLevel="1" spans="2:3">
-      <c r="B372" t="str">
+    <row r="373" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B373" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C372" t="str">
+      <c r="C373" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-    </row>
-    <row r="374" outlineLevel="1" spans="2:3">
-      <c r="B374" t="str">
+    <row r="374" spans="1:3" collapsed="1">
+      <c r="A374" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+    </row>
+    <row r="375" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B375" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C374" t="str">
+      <c r="C375" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="375" outlineLevel="1" spans="2:3">
-      <c r="B375" t="str">
+    <row r="376" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B376" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C375" t="str">
+      <c r="C376" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="376" outlineLevel="1" spans="2:3">
-      <c r="B376" t="str">
+    <row r="377" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B377" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C376" t="str">
+      <c r="C377" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="377" outlineLevel="1" spans="2:3">
-      <c r="B377" t="str">
+    <row r="378" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B378" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
       </c>
-      <c r="C377" t="str">
+      <c r="C378" t="str">
         <f>'Versioni EJB'!C7</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-    </row>
-    <row r="379" outlineLevel="1" spans="2:3">
-      <c r="B379" t="str">
+    <row r="379" spans="1:3" collapsed="1">
+      <c r="A379" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+    </row>
+    <row r="380" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B380" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C379" t="str">
+      <c r="C380" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="380" outlineLevel="1" spans="2:3">
-      <c r="B380" t="str">
+    <row r="381" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B381" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C380" t="str">
+      <c r="C381" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="381" outlineLevel="1" spans="2:3">
-      <c r="B381" t="str">
+    <row r="382" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B382" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C381" t="str">
+      <c r="C382" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="382" outlineLevel="1" spans="2:3">
-      <c r="B382" t="str">
+    <row r="383" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B383" t="str">
         <f>'Versioni EJB'!B77</f>
         <v>bonificoestero-ejb</v>
       </c>
-      <c r="C382" t="str">
+      <c r="C383" t="str">
         <f>'Versioni EJB'!C77</f>
         <v>1.23.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="383" outlineLevel="1" spans="2:3">
-      <c r="B383" t="str">
+    <row r="384" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B384" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
-      <c r="C383" t="str">
+      <c r="C384" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" outlineLevel="1" spans="2:3">
-      <c r="B385" t="str">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" collapsed="1">
+      <c r="A385" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B386" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C385" t="str">
+      <c r="C386" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="386" outlineLevel="1" spans="2:3">
-      <c r="B386" t="str">
+    <row r="387" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B387" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C386" t="str">
+      <c r="C387" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="387" outlineLevel="1" spans="2:3">
-      <c r="B387" t="str">
+    <row r="388" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B388" t="str">
         <f>'Versioni EJB'!B68</f>
         <v>tasse-ejb</v>
       </c>
-      <c r="C387" t="str">
+      <c r="C388" t="str">
         <f>'Versioni EJB'!C68</f>
         <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="388" outlineLevel="1" spans="2:3">
-      <c r="B388" t="str">
+    <row r="389" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B389" t="str">
         <f>'Versioni EJB'!B50</f>
         <v>ricarichevarie-ejb</v>
       </c>
-      <c r="C388" t="str">
+      <c r="C389" t="str">
         <f>'Versioni EJB'!C50</f>
         <v>1.46.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="389" outlineLevel="1" spans="2:3">
-      <c r="B389" t="str">
+    <row r="390" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B390" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
       </c>
-      <c r="C389" t="str">
+      <c r="C390" t="str">
         <f>'Versioni EJB'!C73</f>
         <v>1.74.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="390" outlineLevel="1" spans="2:3">
-      <c r="B390" t="str">
+    <row r="391" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B391" t="str">
         <f>'Versioni EJB'!B77</f>
         <v>bonificoestero-ejb</v>
       </c>
-      <c r="C390" t="str">
+      <c r="C391" t="str">
         <f>'Versioni EJB'!C77</f>
         <v>1.23.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="391" outlineLevel="1" spans="2:3">
-      <c r="B391" t="str">
+    <row r="392" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B392" t="str">
         <f>'Versioni EJB'!B72</f>
         <v>giroconto-ejb</v>
       </c>
-      <c r="C391" t="str">
+      <c r="C392" t="str">
         <f>'Versioni EJB'!C72</f>
         <v>1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="392" outlineLevel="1" spans="2:3">
-      <c r="B392" t="str">
+    <row r="393" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B393" t="str">
         <f>'Versioni EJB'!B74</f>
         <v>ricaricacellulare-ejb</v>
       </c>
-      <c r="C392" t="str">
+      <c r="C393" t="str">
         <f>'Versioni EJB'!C74</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="393" outlineLevel="1" spans="2:3">
-      <c r="B393" t="str">
+    <row r="394" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B394" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>bollettinopostale-ejb</v>
       </c>
-      <c r="C393" t="str">
+      <c r="C394" t="str">
         <f>'Versioni EJB'!C62</f>
         <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="394" outlineLevel="1" spans="2:3">
-      <c r="B394" t="str">
+    <row r="395" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B395" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>moneytransfer-ejb</v>
       </c>
-      <c r="C394" t="str">
+      <c r="C395" t="str">
         <f>'Versioni EJB'!C47</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="395" outlineLevel="1" spans="2:3">
-      <c r="B395" t="str">
+    <row r="396" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B396" t="str">
         <f>'Versioni EJB'!B64</f>
         <v>f24-ejb</v>
       </c>
-      <c r="C395" t="str">
+      <c r="C396" t="str">
         <f>'Versioni EJB'!C64</f>
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="396" outlineLevel="1" spans="2:3">
-      <c r="B396" t="str">
+    <row r="397" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B397" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
-      <c r="C396" t="str">
+      <c r="C397" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-    </row>
-    <row r="398" outlineLevel="1" spans="2:3">
-      <c r="B398" t="str">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" collapsed="1">
+      <c r="A398" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+    </row>
+    <row r="399" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B399" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C398" t="str">
+      <c r="C399" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="399" outlineLevel="1" spans="2:3">
-      <c r="B399" t="str">
+    <row r="400" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B400" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C399" t="str">
+      <c r="C400" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="400" outlineLevel="1" spans="2:3">
-      <c r="B400" t="str">
+    <row r="401" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B401" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
       </c>
-      <c r="C400" t="str">
+      <c r="C401" t="str">
         <f>'Versioni EJB'!C15</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="401" outlineLevel="1" spans="2:3">
-      <c r="B401" t="str">
+    <row r="402" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B402" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C401" t="str">
+      <c r="C402" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-    </row>
-    <row r="404" outlineLevel="1" spans="2:3">
-      <c r="B404" t="str">
+    <row r="403" spans="1:3" collapsed="1">
+      <c r="A403" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B403" s="8"/>
+      <c r="C403" s="8"/>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+    </row>
+    <row r="405" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B405" t="str">
         <f>'Versioni EJB'!B5</f>
         <v>callmeback-ejb</v>
       </c>
-      <c r="C404" t="str">
+      <c r="C405" t="str">
         <f>'Versioni EJB'!C5</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="405" outlineLevel="1" spans="2:3">
-      <c r="B405" t="str">
+    <row r="406" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B406" t="str">
         <f>'Versioni EJB'!B49</f>
         <v>rapporticliente-ejb</v>
       </c>
-      <c r="C405" t="str">
+      <c r="C406" t="str">
         <f>'Versioni EJB'!C49</f>
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="406" outlineLevel="1" spans="2:3">
-      <c r="B406" t="str">
+    <row r="407" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B407" t="str">
         <f>'Versioni EJB'!B83</f>
         <v>bonus-ejb</v>
       </c>
-      <c r="C406" t="str">
+      <c r="C407" t="str">
         <f>'Versioni EJB'!C83</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="407" outlineLevel="1" spans="2:3">
-      <c r="B407" t="str">
+    <row r="408" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B408" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>agenda-ejb</v>
       </c>
-      <c r="C407" t="str">
+      <c r="C408" t="str">
         <f>'Versioni EJB'!C20</f>
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="408" outlineLevel="1" spans="2:3">
-      <c r="B408" t="str">
+    <row r="409" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B409" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
       </c>
-      <c r="C408" t="str">
+      <c r="C409" t="str">
         <f>'Versioni EJB'!C61</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="409" outlineLevel="1" spans="2:3">
-      <c r="B409" t="str">
+    <row r="410" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B410" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
       </c>
-      <c r="C409" t="str">
+      <c r="C410" t="str">
         <f>'Versioni EJB'!C59</f>
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="410" outlineLevel="1" spans="2:3">
-      <c r="B410" t="str">
+    <row r="411" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B411" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C410" t="str">
+      <c r="C411" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
-      <c r="A411" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B411" s="3"/>
-      <c r="C411" s="3"/>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-    </row>
-    <row r="413" outlineLevel="1" spans="2:3">
-      <c r="B413" t="s">
-        <v>117</v>
-      </c>
-      <c r="C413" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="414" outlineLevel="1" spans="2:3">
-      <c r="B414" t="str">
+    <row r="412" spans="1:3" collapsed="1">
+      <c r="A412" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B412" s="8"/>
+      <c r="C412" s="8"/>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+    </row>
+    <row r="414" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B414" t="s">
+        <v>91</v>
+      </c>
+      <c r="C414" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B415" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C414" t="str">
+      <c r="C415" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="415" outlineLevel="1" spans="2:3">
-      <c r="B415" t="str">
+    <row r="416" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B416" t="str">
         <f>'Versioni EJB'!B53</f>
         <v>etichette-ejb</v>
       </c>
-      <c r="C415" t="str">
+      <c r="C416" t="str">
         <f>'Versioni EJB'!C53</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="416" outlineLevel="1" spans="2:3">
-      <c r="B416" t="str">
+    <row r="417" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B417" t="str">
         <f>'Versioni EJB'!B91</f>
         <v>ricordamidi-ejb</v>
       </c>
-      <c r="C416" t="str">
+      <c r="C417" t="str">
         <f>'Versioni EJB'!C91</f>
         <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="417" outlineLevel="1" spans="2:3">
-      <c r="B417" t="str">
+    <row r="418" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B418" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
       </c>
-      <c r="C417" t="str">
+      <c r="C418" t="str">
         <f>'Versioni EJB'!C48</f>
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="418" outlineLevel="1" spans="2:3">
-      <c r="B418" t="str">
+    <row r="419" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B419" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
-      <c r="C418" t="str">
+      <c r="C419" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.52.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="419" outlineLevel="1" spans="2:3">
-      <c r="B419" t="str">
+        <v>1.55.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B420" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
-      <c r="C419" t="str">
+      <c r="C420" t="str">
         <f>'Versioni EJB'!C41</f>
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="420" outlineLevel="1" spans="2:3">
-      <c r="B420" t="str">
+    <row r="421" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B421" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
-      <c r="C420" t="str">
+      <c r="C421" t="str">
         <f>'Versioni EJB'!C13</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="421" outlineLevel="1" spans="2:3">
-      <c r="B421" t="str">
+    <row r="422" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B422" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C421" t="str">
+      <c r="C422" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="422" outlineLevel="1" spans="2:3">
-      <c r="B422" t="str">
+    <row r="423" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B423" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C422" t="str">
+      <c r="C423" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="423" outlineLevel="1" spans="2:3">
-      <c r="B423" t="str">
+    <row r="424" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B424" t="str">
         <f>'Versioni EJB'!B10</f>
         <v>userpreferences-ejb</v>
       </c>
-      <c r="C423" t="str">
+      <c r="C424" t="str">
         <f>'Versioni EJB'!C10</f>
         <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="424" outlineLevel="1" spans="2:3">
-      <c r="B424" t="str">
+    <row r="425" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B425" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C424" t="str">
+      <c r="C425" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
-      <c r="A425" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B425" s="3"/>
-      <c r="C425" s="3"/>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="A426" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-    </row>
-    <row r="427" outlineLevel="1" spans="2:3">
-      <c r="B427" t="str">
+    <row r="426" spans="1:3" collapsed="1">
+      <c r="A426" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B426" s="8"/>
+      <c r="C426" s="8"/>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+    </row>
+    <row r="428" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B428" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C427" t="str">
+      <c r="C428" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="428" outlineLevel="1" spans="2:3">
-      <c r="B428" t="str">
+    <row r="429" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B429" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
-      <c r="C428" t="str">
+      <c r="C429" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.223.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="429" outlineLevel="1" spans="2:3">
-      <c r="B429" t="str">
+        <v>1.224.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B430" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
-      <c r="C429" t="str">
+      <c r="C430" t="str">
         <f>'Versioni EJB'!C13</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="430" outlineLevel="1" spans="2:3">
-      <c r="B430" t="str">
+    <row r="431" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B431" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C430" t="str">
+      <c r="C431" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="431" outlineLevel="1" spans="2:3">
-      <c r="B431" t="str">
+    <row r="432" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B432" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C431" t="str">
+      <c r="C432" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="432" outlineLevel="1" spans="2:3">
-      <c r="B432" t="str">
+    <row r="433" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B433" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C432" t="str">
+      <c r="C433" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
-      <c r="A433" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B433" s="3"/>
-      <c r="C433" s="3"/>
-    </row>
-    <row r="434" spans="1:3">
-      <c r="A434" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-    </row>
-    <row r="435" outlineLevel="1" spans="2:3">
-      <c r="B435" t="str">
+    <row r="434" spans="1:3" collapsed="1">
+      <c r="A434" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B434" s="8"/>
+      <c r="C434" s="8"/>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+    </row>
+    <row r="436" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B436" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C435" t="str">
+      <c r="C436" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="436" outlineLevel="1" spans="2:3">
-      <c r="B436" t="str">
+    <row r="437" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B437" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C436" t="str">
+      <c r="C437" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="437" outlineLevel="1" spans="2:3">
-      <c r="B437" t="str">
+    <row r="438" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B438" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
-      <c r="C437" t="str">
+      <c r="C438" t="str">
         <f>'Versioni EJB'!C95</f>
         <v>1.143.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="438" outlineLevel="1" spans="2:3">
-      <c r="B438" t="str">
+    <row r="439" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B439" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C438" t="str">
+      <c r="C439" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="439" outlineLevel="1" spans="2:3">
-      <c r="B439" t="str">
+    <row r="440" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B440" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C439" t="str">
+      <c r="C440" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="440" outlineLevel="1" spans="2:3">
-      <c r="B440" t="str">
+    <row r="441" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B441" t="str">
         <f>'Versioni EJB'!B15</f>
         <v>postvendita-common-ejb</v>
       </c>
-      <c r="C440" t="str">
+      <c r="C441" t="str">
         <f>'Versioni EJB'!C15</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
-      <c r="A441" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-    </row>
-    <row r="442" outlineLevel="2" spans="2:3">
-      <c r="B442" t="str">
+    <row r="442" spans="1:3" collapsed="1">
+      <c r="A442" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+    </row>
+    <row r="443" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B443" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C442" t="str">
+      <c r="C443" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="443" outlineLevel="2" spans="2:3">
-      <c r="B443" t="str">
+    <row r="444" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B444" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
-      <c r="C443" t="str">
+      <c r="C444" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.223.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="444" outlineLevel="2" spans="2:3">
-      <c r="B444" t="str">
+        <v>1.224.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B445" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C444" t="str">
+      <c r="C445" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="445" outlineLevel="2" spans="2:3">
-      <c r="B445" t="str">
+    <row r="446" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B446" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>rubriche-ejb</v>
       </c>
-      <c r="C445" t="str">
+      <c r="C446" t="str">
         <f>'Versioni EJB'!C57</f>
         <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="446" outlineLevel="2" spans="2:3">
-      <c r="B446" t="str">
+    <row r="447" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B447" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C446" t="str">
+      <c r="C447" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="447" outlineLevel="2" spans="2:3">
-      <c r="B447" t="str">
+    <row r="448" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B448" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C447" t="str">
+      <c r="C448" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="448" outlineLevel="2" spans="2:3">
-      <c r="B448" t="str">
+    <row r="449" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B449" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C448" t="str">
+      <c r="C449" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-    </row>
-    <row r="450" outlineLevel="2" spans="2:3">
-      <c r="B450" t="str">
+    <row r="450" spans="1:3" collapsed="1">
+      <c r="A450" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
+    </row>
+    <row r="451" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B451" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
-      <c r="C450" t="str">
+      <c r="C451" t="str">
         <f>'Versioni EJB'!C95</f>
         <v>1.143.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="451" outlineLevel="2" spans="2:3">
-      <c r="B451" t="str">
+    <row r="452" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B452" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C451" t="str">
+      <c r="C452" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="452" outlineLevel="2" spans="2:3">
-      <c r="B452" t="str">
+    <row r="453" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B453" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C452" t="str">
+      <c r="C453" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="453" outlineLevel="2" spans="2:3">
-      <c r="B453" t="str">
+    <row r="454" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B454" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
       </c>
-      <c r="C453" t="str">
+      <c r="C454" t="str">
         <f>'Versioni EJB'!C48</f>
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="454" outlineLevel="2" spans="2:3">
-      <c r="B454" t="str">
+    <row r="455" spans="1:3" hidden="1" outlineLevel="2">
+      <c r="B455" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C454" t="str">
+      <c r="C455" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
-      <c r="A455" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-    </row>
-    <row r="456" outlineLevel="1" spans="2:3">
-      <c r="B456" t="str">
+    <row r="456" spans="1:3" collapsed="1">
+      <c r="A456" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
+    </row>
+    <row r="457" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B457" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
-      <c r="C456" t="str">
+      <c r="C457" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.223.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="457" outlineLevel="1" spans="2:3">
-      <c r="B457" t="str">
+        <v>1.224.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B458" t="str">
         <f>'Versioni EJB'!B40</f>
         <v>prestiti-ejb</v>
       </c>
-      <c r="C457" t="str">
+      <c r="C458" t="str">
         <f>'Versioni EJB'!C40</f>
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="458" outlineLevel="1" spans="2:3">
-      <c r="B458" t="str">
+    <row r="459" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B459" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>agenda-ejb</v>
       </c>
-      <c r="C458" t="str">
+      <c r="C459" t="str">
         <f>'Versioni EJB'!C20</f>
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="459" outlineLevel="1" spans="2:3">
-      <c r="B459" t="str">
+    <row r="460" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B460" t="str">
         <f>'Versioni EJB'!B34</f>
         <v>listiniinfofin-ejb</v>
       </c>
-      <c r="C459" t="str">
+      <c r="C460" t="str">
         <f>'Versioni EJB'!C34</f>
         <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="460" outlineLevel="1" spans="2:3">
-      <c r="B460" t="str">
+    <row r="461" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B461" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
-      <c r="C460" t="str">
+      <c r="C461" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="461" outlineLevel="1" spans="2:3">
-      <c r="B461" t="str">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B462" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
-      <c r="C461" t="str">
+      <c r="C462" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.52.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="462" outlineLevel="1" spans="2:3">
-      <c r="B462" t="str">
+        <v>1.55.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B463" t="str">
         <f>'Versioni EJB'!B21</f>
         <v>anagrafiche-ejb</v>
       </c>
-      <c r="C462" t="str">
+      <c r="C463" t="str">
         <f>'Versioni EJB'!C21</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="463" outlineLevel="1" spans="2:3">
-      <c r="B463" t="str">
+    <row r="464" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B464" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
       </c>
-      <c r="C463" t="str">
+      <c r="C464" t="str">
         <f>'Versioni EJB'!C59</f>
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="464" outlineLevel="1" spans="2:3">
-      <c r="B464" t="str">
+    <row r="465" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B465" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C464" t="str">
+      <c r="C465" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="465" outlineLevel="1" spans="2:3">
-      <c r="B465" t="str">
+    <row r="466" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B466" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
-      <c r="C465" t="str">
+      <c r="C466" t="str">
         <f>'Versioni EJB'!C41</f>
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="466" outlineLevel="1" spans="2:3">
-      <c r="B466" t="str">
+    <row r="467" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B467" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
       </c>
-      <c r="C466" t="str">
+      <c r="C467" t="str">
         <f>'Versioni EJB'!C48</f>
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="467" outlineLevel="1" spans="2:3">
-      <c r="B467" t="str">
+    <row r="468" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B468" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C467" t="str">
+      <c r="C468" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="468" outlineLevel="1" spans="2:3">
-      <c r="B468" t="str">
+    <row r="469" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B469" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C468" t="str">
+      <c r="C469" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="469" outlineLevel="1" spans="2:3">
-      <c r="B469" t="str">
+    <row r="470" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B470" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>rubriche-ejb</v>
       </c>
-      <c r="C469" t="str">
+      <c r="C470" t="str">
         <f>'Versioni EJB'!C57</f>
         <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="470" outlineLevel="1" spans="2:3">
-      <c r="B470" t="str">
+    <row r="471" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B471" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>commons-ejb</v>
       </c>
-      <c r="C470" t="str">
+      <c r="C471" t="str">
         <f>'Versioni EJB'!C13</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-    </row>
-    <row r="472" outlineLevel="1" spans="2:3">
-      <c r="B472" t="str">
+    <row r="472" spans="1:3" collapsed="1">
+      <c r="A472" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B472" s="2"/>
+      <c r="C472" s="2"/>
+    </row>
+    <row r="473" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B473" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C472" t="str">
+      <c r="C473" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="473" outlineLevel="1" spans="2:3">
-      <c r="B473" t="str">
+    <row r="474" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B474" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>condizioni-ejb</v>
       </c>
-      <c r="C473" t="str">
+      <c r="C474" t="str">
         <f>'Versioni EJB'!C46</f>
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="474" outlineLevel="1" spans="2:3">
-      <c r="B474" t="str">
+    <row r="475" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B475" t="str">
         <f>'Versioni EJB'!B27</f>
         <v>filialevirtuale-ejb</v>
       </c>
-      <c r="C474" t="str">
+      <c r="C475" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.52.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="475" outlineLevel="1" spans="2:3">
-      <c r="B475" t="str">
+        <v>1.55.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B476" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C475" t="str">
+      <c r="C476" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="476" outlineLevel="1" spans="2:3">
-      <c r="B476" t="str">
+    <row r="477" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B477" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C476" t="str">
+      <c r="C477" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="477" outlineLevel="1" spans="2:3">
-      <c r="B477" t="str">
+    <row r="478" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B478" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C477" t="str">
+      <c r="C478" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="478" outlineLevel="1" spans="2:3">
-      <c r="B478" t="str">
+    <row r="479" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B479" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
-      <c r="C478" t="str">
+      <c r="C479" t="str">
         <f>'Versioni EJB'!C95</f>
         <v>1.143.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
-      <c r="A479" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
-    </row>
-    <row r="480" outlineLevel="1" spans="2:3">
-      <c r="B480" t="str">
+    <row r="480" spans="1:3" collapsed="1">
+      <c r="A480" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B480" s="2"/>
+      <c r="C480" s="2"/>
+    </row>
+    <row r="481" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B481" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
       </c>
-      <c r="C480" t="str">
+      <c r="C481" t="str">
         <f>'Versioni EJB'!C95</f>
         <v>1.143.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="481" outlineLevel="1" spans="2:3">
-      <c r="B481" t="str">
+    <row r="482" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B482" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>notification-ejb</v>
       </c>
-      <c r="C481" t="str">
+      <c r="C482" t="str">
         <f>'Versioni EJB'!C14</f>
         <v>1.57.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="482" outlineLevel="1" spans="2:3">
-      <c r="B482" t="str">
+    <row r="483" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B483" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
-      <c r="C482" t="str">
+      <c r="C483" t="str">
         <f>'Versioni EJB'!C41</f>
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="483" outlineLevel="1" spans="2:3">
-      <c r="B483" t="str">
+    <row r="484" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B484" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C483" t="str">
+      <c r="C484" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="484" outlineLevel="1" spans="2:3">
-      <c r="B484" t="str">
+    <row r="485" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B485" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
       </c>
-      <c r="C484" t="str">
+      <c r="C485" t="str">
         <f>'Versioni EJB'!C59</f>
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-    </row>
-    <row r="487" outlineLevel="1" spans="2:3">
-      <c r="B487" t="str">
+    <row r="486" spans="1:3" collapsed="1">
+      <c r="A486" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B486" s="8"/>
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B487" s="2"/>
+      <c r="C487" s="2"/>
+    </row>
+    <row r="488" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B488" t="str">
         <f>'Versioni EJB'!B86</f>
         <v>nfc-ejb</v>
       </c>
-      <c r="C487" t="str">
+      <c r="C488" t="str">
         <f>'Versioni EJB'!C86</f>
         <v>1.47.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="488" outlineLevel="1" spans="2:3">
-      <c r="B488" t="str">
+    <row r="489" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B489" t="str">
         <f>'Versioni EJB'!B85</f>
         <v>masterpass-ejb</v>
       </c>
-      <c r="C488" t="str">
+      <c r="C489" t="str">
         <f>'Versioni EJB'!C85</f>
         <v>1.35.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="489" outlineLevel="1" spans="2:3">
-      <c r="B489" t="str">
+    <row r="490" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B490" t="str">
         <f>'Versioni EJB'!B32</f>
         <v>jiffy-v2-ejb</v>
       </c>
-      <c r="C489" t="str">
+      <c r="C490" t="str">
         <f>'Versioni EJB'!C32</f>
         <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="490" outlineLevel="1" spans="2:3">
-      <c r="B490" t="str">
+    <row r="491" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B491" t="str">
         <f>'Versioni EJB'!B66</f>
         <v>matchingidbpfm-ejb</v>
       </c>
-      <c r="C490" t="str">
+      <c r="C491" t="str">
         <f>'Versioni EJB'!C66</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="491" outlineLevel="1" spans="2:3">
-      <c r="B491" t="str">
+    <row r="492" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B492" t="str">
         <f>'Versioni EJB'!B82</f>
         <v>applepay-ejb</v>
       </c>
-      <c r="C491" t="str">
+      <c r="C492" t="str">
         <f>'Versioni EJB'!C82</f>
         <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="492" outlineLevel="1" spans="2:3">
-      <c r="B492" t="str">
+    <row r="493" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B493" t="str">
         <f>'Versioni EJB'!B29</f>
         <v>gestorelimiti-ejb</v>
       </c>
-      <c r="C492" t="str">
+      <c r="C493" t="str">
         <f>'Versioni EJB'!C29</f>
         <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="493" outlineLevel="1" spans="2:3">
-      <c r="B493" t="str">
+    <row r="494" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B494" t="str">
         <f>'Versioni EJB'!B63</f>
         <v>bustine-ejb</v>
       </c>
-      <c r="C493" t="str">
+      <c r="C494" t="str">
         <f>'Versioni EJB'!C63</f>
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="494" outlineLevel="1" spans="2:3">
-      <c r="B494" t="str">
+    <row r="495" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B495" t="str">
         <f>'Versioni EJB'!B102</f>
         <v>proposte-ejb</v>
       </c>
-      <c r="C494" t="str">
+      <c r="C495" t="str">
         <f>'Versioni EJB'!C102</f>
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="495" outlineLevel="1" spans="2:3">
-      <c r="B495" t="str">
+    <row r="496" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B496" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
-      <c r="C495" t="str">
+      <c r="C496" t="str">
         <f>'Versioni EJB'!C41</f>
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="496" outlineLevel="1" spans="2:3">
-      <c r="B496" t="str">
+    <row r="497" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B497" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
       </c>
-      <c r="C496" t="str">
+      <c r="C497" t="str">
         <f>'Versioni EJB'!C48</f>
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="497" outlineLevel="1" spans="2:3">
-      <c r="B497" t="str">
+    <row r="498" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B498" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C497" t="str">
+      <c r="C498" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="498" outlineLevel="1" spans="2:3">
-      <c r="B498" t="str">
+    <row r="499" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B499" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C498" t="str">
+      <c r="C499" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="499" outlineLevel="1" spans="2:3">
-      <c r="B499" t="str">
+    <row r="500" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B500" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
-      <c r="C499" t="str">
+      <c r="C500" t="str">
         <f>'Versioni EJB'!C2</f>
         <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
-      <c r="A500" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
-    </row>
-    <row r="501" outlineLevel="1" spans="2:3">
-      <c r="B501" t="str">
+    <row r="501" spans="1:3" collapsed="1">
+      <c r="A501" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B501" s="2"/>
+      <c r="C501" s="2"/>
+    </row>
+    <row r="502" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B502" t="str">
         <f>'Versioni EJB'!B100</f>
         <v>globalposition-ejb</v>
       </c>
-      <c r="C501" t="str">
+      <c r="C502" t="str">
         <f>'Versioni EJB'!C100</f>
         <v>1.131.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="502" outlineLevel="1" spans="2:3">
-      <c r="B502" t="str">
+    <row r="503" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B503" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
-      <c r="C502" t="str">
+      <c r="C503" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.223.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="503" outlineLevel="1" spans="2:3">
-      <c r="B503" t="str">
+        <v>1.224.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B504" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
-      <c r="C503" t="str">
+      <c r="C504" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="504" outlineLevel="1" spans="2:3">
-      <c r="B504" t="str">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B505" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>interactiondb-ejb</v>
       </c>
-      <c r="C504" t="str">
+      <c r="C505" t="str">
         <f>'Versioni EJB'!C59</f>
         <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="505" outlineLevel="1" spans="2:3">
-      <c r="B505" t="str">
+    <row r="506" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B506" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C505" t="str">
+      <c r="C506" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="506" outlineLevel="1" spans="2:3">
-      <c r="B506" t="str">
+    <row r="507" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B507" t="str">
         <f>'Versioni EJB'!B45</f>
         <v>commonssmallbusiness-ejb</v>
       </c>
-      <c r="C506" t="str">
+      <c r="C507" t="str">
         <f>'Versioni EJB'!C45</f>
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="507" outlineLevel="1" spans="2:3">
-      <c r="B507" t="str">
+    <row r="508" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B508" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
-      <c r="C507" t="str">
+      <c r="C508" t="str">
         <f>'Versioni EJB'!C41</f>
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
-      <c r="A508" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
-    </row>
-    <row r="509" outlineLevel="1" spans="2:3">
-      <c r="B509" t="str">
+    <row r="509" spans="1:3" collapsed="1">
+      <c r="A509" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B509" s="2"/>
+      <c r="C509" s="2"/>
+    </row>
+    <row r="510" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B510" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C509" t="str">
+      <c r="C510" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="510" outlineLevel="1" spans="2:3">
-      <c r="B510" t="str">
+    <row r="511" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B511" t="str">
         <f>'Versioni EJB'!B17</f>
         <v>profilocliente-ejb</v>
       </c>
-      <c r="C510" t="str">
+      <c r="C511" t="str">
         <f>'Versioni EJB'!C17</f>
         <v>1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="511" outlineLevel="1" spans="2:3">
-      <c r="B511" t="str">
+    <row r="512" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B512" t="str">
         <f>'Versioni EJB'!B100</f>
         <v>globalposition-ejb</v>
       </c>
-      <c r="C511" t="str">
+      <c r="C512" t="str">
         <f>'Versioni EJB'!C100</f>
         <v>1.131.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="512" outlineLevel="1" spans="2:3">
-      <c r="B512" t="str">
+    <row r="513" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="B513" t="str">
         <f>'Versioni EJB'!B34</f>
         <v>listiniinfofin-ejb</v>
       </c>
-      <c r="C512" t="str">
+      <c r="C513" t="str">
         <f>'Versioni EJB'!C34</f>
         <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
-      <c r="A513" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B513" s="3"/>
-      <c r="C513" s="3"/>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="A514" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
-    </row>
-    <row r="515" outlineLevel="1" spans="2:3">
-      <c r="B515" t="str">
+    <row r="514" spans="1:3" collapsed="1">
+      <c r="A514" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B514" s="8"/>
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B515" s="2"/>
+      <c r="C515" s="2"/>
+    </row>
+    <row r="516" spans="1:3" outlineLevel="1">
+      <c r="B516" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
-      <c r="C515" t="str">
+      <c r="C516" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.223.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="516" outlineLevel="1" spans="2:3">
-      <c r="B516" t="str">
+        <v>1.224.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" outlineLevel="1">
+      <c r="B517" t="str">
         <f>'Versioni EJB'!B105</f>
         <v>pulsantiera-ejb</v>
       </c>
-      <c r="C516" t="str">
+      <c r="C517" t="str">
         <f>'Versioni EJB'!C105</f>
         <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="517" outlineLevel="1" spans="2:3">
-      <c r="B517" t="str">
+    <row r="518" spans="1:3" outlineLevel="1">
+      <c r="B518" t="str">
         <f>'Versioni EJB'!B66</f>
         <v>matchingidbpfm-ejb</v>
       </c>
-      <c r="C517" t="str">
+      <c r="C518" t="str">
         <f>'Versioni EJB'!C66</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="518" outlineLevel="1" spans="2:3">
-      <c r="B518" t="str">
+    <row r="519" spans="1:3" outlineLevel="1">
+      <c r="B519" t="str">
         <f>'Versioni EJB'!B63</f>
         <v>bustine-ejb</v>
       </c>
-      <c r="C518" t="str">
+      <c r="C519" t="str">
         <f>'Versioni EJB'!C63</f>
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="519" outlineLevel="1" spans="2:3">
-      <c r="B519" t="str">
+    <row r="520" spans="1:3" outlineLevel="1">
+      <c r="B520" t="str">
         <f>'Versioni EJB'!B40</f>
         <v>prestiti-ejb</v>
       </c>
-      <c r="C519" t="str">
+      <c r="C520" t="str">
         <f>'Versioni EJB'!C40</f>
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="520" outlineLevel="1" spans="2:3">
-      <c r="B520" t="str">
+    <row r="521" spans="1:3" outlineLevel="1">
+      <c r="B521" t="str">
         <f>'Versioni EJB'!B102</f>
         <v>proposte-ejb</v>
       </c>
-      <c r="C520" t="str">
+      <c r="C521" t="str">
         <f>'Versioni EJB'!C102</f>
         <v>1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="521" outlineLevel="1" spans="2:3">
-      <c r="B521" t="str">
+    <row r="522" spans="1:3" outlineLevel="1">
+      <c r="B522" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
       </c>
-      <c r="C521" t="str">
+      <c r="C522" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.31.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="522" outlineLevel="1" spans="2:3">
-      <c r="B522" t="str">
+        <v>1.32.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" outlineLevel="1">
+      <c r="B523" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>pfm-ejb</v>
       </c>
-      <c r="C522" t="str">
+      <c r="C523" t="str">
         <f>'Versioni EJB'!C48</f>
         <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="523" outlineLevel="1" spans="2:3">
-      <c r="B523" t="str">
+    <row r="524" spans="1:3" outlineLevel="1">
+      <c r="B524" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>agenda-ejb</v>
       </c>
-      <c r="C523" t="str">
+      <c r="C524" t="str">
         <f>'Versioni EJB'!C20</f>
         <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="524" outlineLevel="1" spans="2:3">
-      <c r="B524" t="str">
+    <row r="525" spans="1:3" outlineLevel="1">
+      <c r="B525" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
       </c>
-      <c r="C524" t="str">
+      <c r="C525" t="str">
         <f>'Versioni EJB'!C78</f>
         <v>1.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="525" outlineLevel="1" spans="2:3">
-      <c r="B525" t="str">
+    <row r="526" spans="1:3" outlineLevel="1">
+      <c r="B526" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
-      <c r="C525" t="str">
+      <c r="C526" t="str">
         <f>'Versioni EJB'!C4</f>
         <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
-    <row r="526" outlineLevel="1" spans="2:3">
-      <c r="B526" t="str">
+    <row r="527" spans="1:3" outlineLevel="1">
+      <c r="B527" t="str">
         <f>'Versioni EJB'!B41</f>
         <v>saldo-ejb</v>
       </c>
-      <c r="C526" t="str">
+      <c r="C527" t="str">
         <f>'Versioni EJB'!C41</f>
         <v>1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B20:C21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B20:C21">
     <sortCondition ref="B20"/>
   </sortState>
   <mergeCells count="19">
@@ -8571,18 +7951,17 @@
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A426:C426"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="A514:C514"/>
     <mergeCell ref="A261:C261"/>
     <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A412:C412"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2ABD09-0FBA-4591-94C7-7BE9BB392CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53030619-B54C-4331-ACF1-70AD192947D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="154">
   <si>
     <t>BLOCCO</t>
   </si>
@@ -87,9 +87,6 @@
     <t>ricerca-ejb</t>
   </si>
   <si>
-    <t>1.6.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>stampe-ejb</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>notification-ejb</t>
   </si>
   <si>
-    <t>1.57.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>postvendita-common-ejb</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
     <t>Blocco 19</t>
   </si>
   <si>
-    <t>1.79.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.17.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
@@ -423,9 +414,6 @@
     <t>1.11.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.55.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.20.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
@@ -438,73 +426,76 @@
     <t>1.15.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.10.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>0.36.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.25.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.26.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.46.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.29.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.22.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
     <t>1.58.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.32.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.27.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.74.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.23.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.37.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.35.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.47.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.51.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.224.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.143.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.131.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.42.0-env-svia-SNAPSHOT</t>
-  </si>
-  <si>
     <t>1.54.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
     <t>1.21.0-env-svia-SNAPSHOT</t>
   </si>
   <si>
-    <t>1.75.0-env-svia-SNAPSHOT</t>
+    <t>1.8.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.93.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.66.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.37.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.28.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.48.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.30.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.60.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.33.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.77.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.38.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.43.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.233.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.146.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.44.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.132.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.61.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.76.0-env-svia-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -862,8 +853,8 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F108"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -907,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E2" t="str">
         <f>B2</f>
@@ -915,11 +906,11 @@
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("&lt;",E2,".version&gt;",C2,"&lt;/",E2,".version&gt;")</f>
-        <v>&lt;isp-ib-om.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/isp-ib-om.version&gt;</v>
+        <v>&lt;isp-ib-om.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/isp-ib-om.version&gt;</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(E2," --&gt; ",C2)</f>
-        <v>isp-ib-om --&gt; 1.18.0-env-svia-SNAPSHOT</v>
+        <v>isp-ib-om --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -939,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="str">
         <f>LEFT(B4,LEN(B4)-4)</f>
@@ -947,11 +938,11 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F11" si="0">CONCATENATE("&lt;",E4,".version&gt;",C4,"&lt;/",E4,".version&gt;")</f>
-        <v>&lt;banca.version&gt;1.12.0-env-svia-SNAPSHOT&lt;/banca.version&gt;</v>
+        <v>&lt;banca.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/banca.version&gt;</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G66" si="1">CONCATENATE(E4," --&gt; ",C4)</f>
-        <v>banca --&gt; 1.12.0-env-svia-SNAPSHOT</v>
+        <v>banca --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -960,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E68" si="2">LEFT(B5,LEN(B5)-4)</f>
@@ -968,11 +959,11 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;callmeback.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/callmeback.version&gt;</v>
+        <v>&lt;callmeback.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/callmeback.version&gt;</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>callmeback --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>callmeback --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -981,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
@@ -989,11 +980,11 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;customerjourney.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/customerjourney.version&gt;</v>
+        <v>&lt;customerjourney.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/customerjourney.version&gt;</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>customerjourney --&gt; 1.13.0-env-svia-SNAPSHOT</v>
+        <v>customerjourney --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1002,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
@@ -1010,11 +1001,11 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;deviceregistry.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/deviceregistry.version&gt;</v>
+        <v>&lt;deviceregistry.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/deviceregistry.version&gt;</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>deviceregistry --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>deviceregistry --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1023,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
@@ -1031,20 +1022,20 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;ricerca.version&gt;1.6.0-env-svia-SNAPSHOT&lt;/ricerca.version&gt;</v>
+        <v>&lt;ricerca.version&gt;1.7.0-env-svia-SNAPSHOT&lt;/ricerca.version&gt;</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>ricerca --&gt; 1.6.0-env-svia-SNAPSHOT</v>
+        <v>ricerca --&gt; 1.7.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
@@ -1052,20 +1043,20 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;stampe.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/stampe.version&gt;</v>
+        <v>&lt;stampe.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/stampe.version&gt;</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>stampe --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>stampe --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
@@ -1073,20 +1064,20 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;userpreferences.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/userpreferences.version&gt;</v>
+        <v>&lt;userpreferences.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/userpreferences.version&gt;</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>userpreferences --&gt; 1.13.0-env-svia-SNAPSHOT</v>
+        <v>userpreferences --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
@@ -1094,11 +1085,11 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;wishlist.version&gt;1.7.0-env-svia-SNAPSHOT&lt;/wishlist.version&gt;</v>
+        <v>&lt;wishlist.version&gt;1.8.0-env-svia-SNAPSHOT&lt;/wishlist.version&gt;</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>wishlist --&gt; 1.7.0-env-svia-SNAPSHOT</v>
+        <v>wishlist --&gt; 1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1115,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
@@ -1126,20 +1117,20 @@
       </c>
       <c r="F13" t="str">
         <f>CONCATENATE("&lt;",E13,".version&gt;",C13,"&lt;/",E13,".version&gt;")</f>
-        <v>&lt;commons.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/commons.version&gt;</v>
+        <v>&lt;commons.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/commons.version&gt;</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>commons --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>commons --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
@@ -1147,20 +1138,20 @@
       </c>
       <c r="F14" t="str">
         <f>CONCATENATE("&lt;",E14,".version&gt;",C14,"&lt;/",E14,".version&gt;")</f>
-        <v>&lt;notification.version&gt;1.57.0-env-svia-SNAPSHOT&lt;/notification.version&gt;</v>
+        <v>&lt;notification.version&gt;1.58.0-env-svia-SNAPSHOT&lt;/notification.version&gt;</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>notification --&gt; 1.57.0-env-svia-SNAPSHOT</v>
+        <v>notification --&gt; 1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
@@ -1168,11 +1159,11 @@
       </c>
       <c r="F15" t="str">
         <f>CONCATENATE("&lt;",E15,".version&gt;",C15,"&lt;/",E15,".version&gt;")</f>
-        <v>&lt;postvendita-common.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/postvendita-common.version&gt;</v>
+        <v>&lt;postvendita-common.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/postvendita-common.version&gt;</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>postvendita-common --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>postvendita-common --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1189,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
@@ -1200,11 +1191,11 @@
       </c>
       <c r="F17" t="str">
         <f>CONCATENATE("&lt;",E17,".version&gt;",C17,"&lt;/",E17,".version&gt;")</f>
-        <v>&lt;profilocliente.version&gt;1.79.0-env-svia-SNAPSHOT&lt;/profilocliente.version&gt;</v>
+        <v>&lt;profilocliente.version&gt;1.93.0-env-svia-SNAPSHOT&lt;/profilocliente.version&gt;</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>profilocliente --&gt; 1.79.0-env-svia-SNAPSHOT</v>
+        <v>profilocliente --&gt; 1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1221,10 +1212,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -1232,20 +1223,20 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ref="F19:F30" si="3">CONCATENATE("&lt;",E19,".version&gt;",C19,"&lt;/",E19,".version&gt;")</f>
-        <v>&lt;adue.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/adue.version&gt;</v>
+        <v>&lt;adue.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/adue.version&gt;</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>adue --&gt; 1.17.0-env-svia-SNAPSHOT</v>
+        <v>adue --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
@@ -1253,20 +1244,20 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;agenda.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/agenda.version&gt;</v>
+        <v>&lt;agenda.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/agenda.version&gt;</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>agenda --&gt; 1.16.0-env-svia-SNAPSHOT</v>
+        <v>agenda --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
@@ -1274,20 +1265,20 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;anagrafiche.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/anagrafiche.version&gt;</v>
+        <v>&lt;anagrafiche.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/anagrafiche.version&gt;</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>anagrafiche --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>anagrafiche --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
@@ -1295,20 +1286,20 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;antiriciclaggio.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/antiriciclaggio.version&gt;</v>
+        <v>&lt;antiriciclaggio.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/antiriciclaggio.version&gt;</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>antiriciclaggio --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>antiriciclaggio --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
@@ -1316,20 +1307,20 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;assegni.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/assegni.version&gt;</v>
+        <v>&lt;assegni.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/assegni.version&gt;</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>assegni --&gt; 1.18.0-env-svia-SNAPSHOT</v>
+        <v>assegni --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
@@ -1337,20 +1328,20 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;condizionieconomiche.version&gt;1.11.0-env-svia-SNAPSHOT&lt;/condizionieconomiche.version&gt;</v>
+        <v>&lt;condizionieconomiche.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/condizionieconomiche.version&gt;</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>condizionieconomiche --&gt; 1.11.0-env-svia-SNAPSHOT</v>
+        <v>condizionieconomiche --&gt; 1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
@@ -1358,20 +1349,20 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;digitalcollaboration.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/digitalcollaboration.version&gt;</v>
+        <v>&lt;digitalcollaboration.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/digitalcollaboration.version&gt;</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>digitalcollaboration --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>digitalcollaboration --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -1379,20 +1370,20 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;duplicatocarta.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/duplicatocarta.version&gt;</v>
+        <v>&lt;duplicatocarta.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/duplicatocarta.version&gt;</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>duplicatocarta --&gt; 1.16.0-env-svia-SNAPSHOT</v>
+        <v>duplicatocarta --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -1400,20 +1391,20 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;filialevirtuale.version&gt;1.55.0-env-svia-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
+        <v>&lt;filialevirtuale.version&gt;1.66.0-env-svia-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>filialevirtuale --&gt; 1.55.0-env-svia-SNAPSHOT</v>
+        <v>filialevirtuale --&gt; 1.66.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
@@ -1421,20 +1412,20 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;firmaunica.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/firmaunica.version&gt;</v>
+        <v>&lt;firmaunica.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/firmaunica.version&gt;</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>firmaunica --&gt; 1.20.0-env-svia-SNAPSHOT</v>
+        <v>firmaunica --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
@@ -1442,20 +1433,20 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;gestorelimiti.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/gestorelimiti.version&gt;</v>
+        <v>&lt;gestorelimiti.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/gestorelimiti.version&gt;</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>gestorelimiti --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>gestorelimiti --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
@@ -1463,11 +1454,11 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;guestarea.version&gt;1.24.0-env-svia-SNAPSHOT&lt;/guestarea.version&gt;</v>
+        <v>&lt;guestarea.version&gt;1.26.0-env-svia-SNAPSHOT&lt;/guestarea.version&gt;</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>guestarea --&gt; 1.24.0-env-svia-SNAPSHOT</v>
+        <v>guestarea --&gt; 1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1484,10 +1475,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -1495,20 +1486,20 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" ref="F32:F43" si="4">CONCATENATE("&lt;",E32,".version&gt;",C32,"&lt;/",E32,".version&gt;")</f>
-        <v>&lt;jiffy-v2.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/jiffy-v2.version&gt;</v>
+        <v>&lt;jiffy-v2.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/jiffy-v2.version&gt;</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>jiffy-v2 --&gt; 1.19.0-env-svia-SNAPSHOT</v>
+        <v>jiffy-v2 --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -1516,20 +1507,20 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;listaprodotti.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/listaprodotti.version&gt;</v>
+        <v>&lt;listaprodotti.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/listaprodotti.version&gt;</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>listaprodotti --&gt; 1.19.0-env-svia-SNAPSHOT</v>
+        <v>listaprodotti --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7"/>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -1537,20 +1528,20 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;listiniinfofin.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/listiniinfofin.version&gt;</v>
+        <v>&lt;listiniinfofin.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/listiniinfofin.version&gt;</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>listiniinfofin --&gt; 1.15.0-env-svia-SNAPSHOT</v>
+        <v>listiniinfofin --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -1558,20 +1549,20 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;mobileconfigurator.version&gt;1.10.0-env-svia-SNAPSHOT&lt;/mobileconfigurator.version&gt;</v>
+        <v>&lt;mobileconfigurator.version&gt;1.12.0-env-svia-SNAPSHOT&lt;/mobileconfigurator.version&gt;</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>mobileconfigurator --&gt; 1.10.0-env-svia-SNAPSHOT</v>
+        <v>mobileconfigurator --&gt; 1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7"/>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -1579,20 +1570,20 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;monetaattiva.version&gt;0.36.0-env-svia-SNAPSHOT&lt;/monetaattiva.version&gt;</v>
+        <v>&lt;monetaattiva.version&gt;0.37.0-env-svia-SNAPSHOT&lt;/monetaattiva.version&gt;</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>monetaattiva --&gt; 0.36.0-env-svia-SNAPSHOT</v>
+        <v>monetaattiva --&gt; 0.37.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="7"/>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -1600,20 +1591,20 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;movepay.version&gt;1.25.0-env-svia-SNAPSHOT&lt;/movepay.version&gt;</v>
+        <v>&lt;movepay.version&gt;1.27.0-env-svia-SNAPSHOT&lt;/movepay.version&gt;</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>movepay --&gt; 1.25.0-env-svia-SNAPSHOT</v>
+        <v>movepay --&gt; 1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -1621,20 +1612,20 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;pagamenti.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/pagamenti.version&gt;</v>
+        <v>&lt;pagamenti.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/pagamenti.version&gt;</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>pagamenti --&gt; 1.13.0-env-svia-SNAPSHOT</v>
+        <v>pagamenti --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -1642,20 +1633,20 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;pendingprocesslist.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/pendingprocesslist.version&gt;</v>
+        <v>&lt;pendingprocesslist.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/pendingprocesslist.version&gt;</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>pendingprocesslist --&gt; 1.15.0-env-svia-SNAPSHOT</v>
+        <v>pendingprocesslist --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -1663,20 +1654,20 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;prestiti.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/prestiti.version&gt;</v>
+        <v>&lt;prestiti.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/prestiti.version&gt;</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>prestiti --&gt; 1.16.0-env-svia-SNAPSHOT</v>
+        <v>prestiti --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -1684,20 +1675,20 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;saldo.version&gt;1.26.0-env-svia-SNAPSHOT&lt;/saldo.version&gt;</v>
+        <v>&lt;saldo.version&gt;1.27.0-env-svia-SNAPSHOT&lt;/saldo.version&gt;</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>saldo --&gt; 1.26.0-env-svia-SNAPSHOT</v>
+        <v>saldo --&gt; 1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
@@ -1705,20 +1696,20 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;variazionelimiti-definitiva.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/variazionelimiti-definitiva.version&gt;</v>
+        <v>&lt;variazionelimiti-definitiva.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/variazionelimiti-definitiva.version&gt;</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>variazionelimiti-definitiva --&gt; 1.17.0-env-svia-SNAPSHOT</v>
+        <v>variazionelimiti-definitiva --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
@@ -1726,11 +1717,11 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;variazionelimiti-temporanea.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/variazionelimiti-temporanea.version&gt;</v>
+        <v>&lt;variazionelimiti-temporanea.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/variazionelimiti-temporanea.version&gt;</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>variazionelimiti-temporanea --&gt; 1.13.0-env-svia-SNAPSHOT</v>
+        <v>variazionelimiti-temporanea --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1745,10 +1736,10 @@
     <row r="45" spans="1:7">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
@@ -1756,20 +1747,20 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" ref="F45:F50" si="5">CONCATENATE("&lt;",E45,".version&gt;",C45,"&lt;/",E45,".version&gt;")</f>
-        <v>&lt;commonssmallbusiness.version&gt;1.11.0-env-svia-SNAPSHOT&lt;/commonssmallbusiness.version&gt;</v>
+        <v>&lt;commonssmallbusiness.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/commonssmallbusiness.version&gt;</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>commonssmallbusiness --&gt; 1.11.0-env-svia-SNAPSHOT</v>
+        <v>commonssmallbusiness --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -1777,20 +1768,20 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;condizioni.version&gt;1.11.0-env-svia-SNAPSHOT&lt;/condizioni.version&gt;</v>
+        <v>&lt;condizioni.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/condizioni.version&gt;</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>condizioni --&gt; 1.11.0-env-svia-SNAPSHOT</v>
+        <v>condizioni --&gt; 1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
@@ -1798,20 +1789,20 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;moneytransfer.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/moneytransfer.version&gt;</v>
+        <v>&lt;moneytransfer.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/moneytransfer.version&gt;</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>moneytransfer --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>moneytransfer --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -1819,20 +1810,20 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;pfm.version&gt;1.24.0-env-svia-SNAPSHOT&lt;/pfm.version&gt;</v>
+        <v>&lt;pfm.version&gt;1.28.0-env-svia-SNAPSHOT&lt;/pfm.version&gt;</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>pfm --&gt; 1.24.0-env-svia-SNAPSHOT</v>
+        <v>pfm --&gt; 1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="7"/>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
@@ -1840,20 +1831,20 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;rapporticliente.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/rapporticliente.version&gt;</v>
+        <v>&lt;rapporticliente.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/rapporticliente.version&gt;</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>rapporticliente --&gt; 1.13.0-env-svia-SNAPSHOT</v>
+        <v>rapporticliente --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -1861,11 +1852,11 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;ricarichevarie.version&gt;1.46.0-env-svia-SNAPSHOT&lt;/ricarichevarie.version&gt;</v>
+        <v>&lt;ricarichevarie.version&gt;1.48.0-env-svia-SNAPSHOT&lt;/ricarichevarie.version&gt;</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>ricarichevarie --&gt; 1.46.0-env-svia-SNAPSHOT</v>
+        <v>ricarichevarie --&gt; 1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1882,10 +1873,10 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
@@ -1893,20 +1884,20 @@
       </c>
       <c r="F52" t="str">
         <f>CONCATENATE("&lt;",E52,".version&gt;",C52,"&lt;/",E52,".version&gt;")</f>
-        <v>&lt;bonificimultipli.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/bonificimultipli.version&gt;</v>
+        <v>&lt;bonificimultipli.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/bonificimultipli.version&gt;</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>bonificimultipli --&gt; 1.15.0-env-svia-SNAPSHOT</v>
+        <v>bonificimultipli --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="7"/>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
@@ -1914,20 +1905,20 @@
       </c>
       <c r="F53" t="str">
         <f>CONCATENATE("&lt;",E53,".version&gt;",C53,"&lt;/",E53,".version&gt;")</f>
-        <v>&lt;etichette.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/etichette.version&gt;</v>
+        <v>&lt;etichette.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/etichette.version&gt;</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>etichette --&gt; 1.18.0-env-svia-SNAPSHOT</v>
+        <v>etichette --&gt; 1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="7"/>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
@@ -1935,20 +1926,20 @@
       </c>
       <c r="F54" t="str">
         <f>CONCATENATE("&lt;",E54,".version&gt;",C54,"&lt;/",E54,".version&gt;")</f>
-        <v>&lt;incassiribamultipli.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/incassiribamultipli.version&gt;</v>
+        <v>&lt;incassiribamultipli.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/incassiribamultipli.version&gt;</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
-        <v>incassiribamultipli --&gt; 1.13.0-env-svia-SNAPSHOT</v>
+        <v>incassiribamultipli --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="7"/>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -1956,11 +1947,11 @@
       </c>
       <c r="F55" t="str">
         <f>CONCATENATE("&lt;",E55,".version&gt;",C55,"&lt;/",E55,".version&gt;")</f>
-        <v>&lt;xmedindi.version&gt;1.25.0-env-svia-SNAPSHOT&lt;/xmedindi.version&gt;</v>
+        <v>&lt;xmedindi.version&gt;1.28.0-env-svia-SNAPSHOT&lt;/xmedindi.version&gt;</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>xmedindi --&gt; 1.25.0-env-svia-SNAPSHOT</v>
+        <v>xmedindi --&gt; 1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1977,10 +1968,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -1988,11 +1979,11 @@
       </c>
       <c r="F57" t="str">
         <f>CONCATENATE("&lt;",E57,".version&gt;",C57,"&lt;/",E57,".version&gt;")</f>
-        <v>&lt;rubriche.version&gt;1.29.0-env-svia-SNAPSHOT&lt;/rubriche.version&gt;</v>
+        <v>&lt;rubriche.version&gt;1.30.0-env-svia-SNAPSHOT&lt;/rubriche.version&gt;</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>rubriche --&gt; 1.29.0-env-svia-SNAPSHOT</v>
+        <v>rubriche --&gt; 1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2009,10 +2000,10 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
@@ -2020,11 +2011,11 @@
       </c>
       <c r="F59" t="str">
         <f>CONCATENATE("&lt;",E59,".version&gt;",C59,"&lt;/",E59,".version&gt;")</f>
-        <v>&lt;interactiondb.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/interactiondb.version&gt;</v>
+        <v>&lt;interactiondb.version&gt;1.24.0-env-svia-SNAPSHOT&lt;/interactiondb.version&gt;</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
-        <v>interactiondb --&gt; 1.22.0-env-svia-SNAPSHOT</v>
+        <v>interactiondb --&gt; 1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2041,10 +2032,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
@@ -2052,20 +2043,20 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" ref="F61:F68" si="6">CONCATENATE("&lt;",E61,".version&gt;",C61,"&lt;/",E61,".version&gt;")</f>
-        <v>&lt;autorizzazioni.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/autorizzazioni.version&gt;</v>
+        <v>&lt;autorizzazioni.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/autorizzazioni.version&gt;</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>autorizzazioni --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>autorizzazioni --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="7"/>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -2073,20 +2064,20 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;bollettinopostale.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/bollettinopostale.version&gt;</v>
+        <v>&lt;bollettinopostale.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/bollettinopostale.version&gt;</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>bollettinopostale --&gt; 1.17.0-env-svia-SNAPSHOT</v>
+        <v>bollettinopostale --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="7"/>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -2094,20 +2085,20 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;bustine.version&gt;1.11.0-env-svia-SNAPSHOT&lt;/bustine.version&gt;</v>
+        <v>&lt;bustine.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/bustine.version&gt;</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>bustine --&gt; 1.11.0-env-svia-SNAPSHOT</v>
+        <v>bustine --&gt; 1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
@@ -2115,20 +2106,20 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;f24.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/f24.version&gt;</v>
+        <v>&lt;f24.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/f24.version&gt;</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>f24 --&gt; 1.16.0-env-svia-SNAPSHOT</v>
+        <v>f24 --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="7"/>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
@@ -2136,20 +2127,20 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;jiffy.version&gt;1.25.0-env-svia-SNAPSHOT&lt;/jiffy.version&gt;</v>
+        <v>&lt;jiffy.version&gt;1.26.0-env-svia-SNAPSHOT&lt;/jiffy.version&gt;</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>jiffy --&gt; 1.25.0-env-svia-SNAPSHOT</v>
+        <v>jiffy --&gt; 1.26.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="7"/>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
@@ -2157,20 +2148,20 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;matchingidbpfm.version&gt;1.12.0-env-svia-SNAPSHOT&lt;/matchingidbpfm.version&gt;</v>
+        <v>&lt;matchingidbpfm.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/matchingidbpfm.version&gt;</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
-        <v>matchingidbpfm --&gt; 1.12.0-env-svia-SNAPSHOT</v>
+        <v>matchingidbpfm --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="7"/>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
@@ -2178,20 +2169,20 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;salvadanaio.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/salvadanaio.version&gt;</v>
+        <v>&lt;salvadanaio.version&gt;1.24.0-env-svia-SNAPSHOT&lt;/salvadanaio.version&gt;</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G108" si="7">CONCATENATE(E67," --&gt; ",C67)</f>
-        <v>salvadanaio --&gt; 1.22.0-env-svia-SNAPSHOT</v>
+        <v>salvadanaio --&gt; 1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="7"/>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -2199,11 +2190,11 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tasse.version&gt;1.58.0-env-svia-SNAPSHOT&lt;/tasse.version&gt;</v>
+        <v>&lt;tasse.version&gt;1.60.0-env-svia-SNAPSHOT&lt;/tasse.version&gt;</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="7"/>
-        <v>tasse --&gt; 1.58.0-env-svia-SNAPSHOT</v>
+        <v>tasse --&gt; 1.60.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2220,10 +2211,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:E108" si="8">LEFT(B70,LEN(B70)-4)</f>
@@ -2231,20 +2222,20 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:F75" si="9">CONCATENATE("&lt;",E70,".version&gt;",C70,"&lt;/",E70,".version&gt;")</f>
-        <v>&lt;bonifico.version&gt;1.32.0-env-svia-SNAPSHOT&lt;/bonifico.version&gt;</v>
+        <v>&lt;bonifico.version&gt;1.33.0-env-svia-SNAPSHOT&lt;/bonifico.version&gt;</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="7"/>
-        <v>bonifico --&gt; 1.32.0-env-svia-SNAPSHOT</v>
+        <v>bonifico --&gt; 1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="7"/>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="8"/>
@@ -2252,20 +2243,20 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;cardless.version&gt;1.27.0-env-svia-SNAPSHOT&lt;/cardless.version&gt;</v>
+        <v>&lt;cardless.version&gt;1.30.0-env-svia-SNAPSHOT&lt;/cardless.version&gt;</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="7"/>
-        <v>cardless --&gt; 1.27.0-env-svia-SNAPSHOT</v>
+        <v>cardless --&gt; 1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="7"/>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="8"/>
@@ -2273,20 +2264,20 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;giroconto.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/giroconto.version&gt;</v>
+        <v>&lt;giroconto.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/giroconto.version&gt;</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="7"/>
-        <v>giroconto --&gt; 1.20.0-env-svia-SNAPSHOT</v>
+        <v>giroconto --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="7"/>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="8"/>
@@ -2294,20 +2285,20 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;pagamentibollette.version&gt;1.74.0-env-svia-SNAPSHOT&lt;/pagamentibollette.version&gt;</v>
+        <v>&lt;pagamentibollette.version&gt;1.77.0-env-svia-SNAPSHOT&lt;/pagamentibollette.version&gt;</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentibollette --&gt; 1.74.0-env-svia-SNAPSHOT</v>
+        <v>pagamentibollette --&gt; 1.77.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="7"/>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="8"/>
@@ -2315,20 +2306,20 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;ricaricacellulare.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/ricaricacellulare.version&gt;</v>
+        <v>&lt;ricaricacellulare.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/ricaricacellulare.version&gt;</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="7"/>
-        <v>ricaricacellulare --&gt; 1.18.0-env-svia-SNAPSHOT</v>
+        <v>ricaricacellulare --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="7"/>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="8"/>
@@ -2336,11 +2327,11 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;xmedindi-self.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/xmedindi-self.version&gt;</v>
+        <v>&lt;xmedindi-self.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/xmedindi-self.version&gt;</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="7"/>
-        <v>xmedindi-self --&gt; 1.13.0-env-svia-SNAPSHOT</v>
+        <v>xmedindi-self --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2357,10 +2348,10 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="8"/>
@@ -2368,17 +2359,17 @@
       </c>
       <c r="F77" t="str">
         <f>CONCATENATE("&lt;",E77,".version&gt;",C77,"&lt;/",E77,".version&gt;")</f>
-        <v>&lt;bonificoestero.version&gt;1.23.0-env-svia-SNAPSHOT&lt;/bonificoestero.version&gt;</v>
+        <v>&lt;bonificoestero.version&gt;1.24.0-env-svia-SNAPSHOT&lt;/bonificoestero.version&gt;</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="7"/>
-        <v>bonificoestero --&gt; 1.23.0-env-svia-SNAPSHOT</v>
+        <v>bonificoestero --&gt; 1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="7"/>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>146</v>
@@ -2389,17 +2380,17 @@
       </c>
       <c r="F78" t="str">
         <f>CONCATENATE("&lt;",E78,".version&gt;",C78,"&lt;/",E78,".version&gt;")</f>
-        <v>&lt;carte.version&gt;1.37.0-env-svia-SNAPSHOT&lt;/carte.version&gt;</v>
+        <v>&lt;carte.version&gt;1.38.0-env-svia-SNAPSHOT&lt;/carte.version&gt;</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="7"/>
-        <v>carte --&gt; 1.37.0-env-svia-SNAPSHOT</v>
+        <v>carte --&gt; 1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="7"/>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
         <v>126</v>
@@ -2410,20 +2401,20 @@
       </c>
       <c r="F79" t="str">
         <f>CONCATENATE("&lt;",E79,".version&gt;",C79,"&lt;/",E79,".version&gt;")</f>
-        <v>&lt;pagamentiribamultipli.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/pagamentiribamultipli.version&gt;</v>
+        <v>&lt;pagamentiribamultipli.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/pagamentiribamultipli.version&gt;</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentiribamultipli --&gt; 1.17.0-env-svia-SNAPSHOT</v>
+        <v>pagamentiribamultipli --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="7"/>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="8"/>
@@ -2431,11 +2422,11 @@
       </c>
       <c r="F80" t="str">
         <f>CONCATENATE("&lt;",E80,".version&gt;",C80,"&lt;/",E80,".version&gt;")</f>
-        <v>&lt;revoche.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/revoche.version&gt;</v>
+        <v>&lt;revoche.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/revoche.version&gt;</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="7"/>
-        <v>revoche --&gt; 1.15.0-env-svia-SNAPSHOT</v>
+        <v>revoche --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2452,10 +2443,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="8"/>
@@ -2463,20 +2454,20 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" ref="F82:F89" si="10">CONCATENATE("&lt;",E82,".version&gt;",C82,"&lt;/",E82,".version&gt;")</f>
-        <v>&lt;applepay.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/applepay.version&gt;</v>
+        <v>&lt;applepay.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/applepay.version&gt;</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="7"/>
-        <v>applepay --&gt; 1.15.0-env-svia-SNAPSHOT</v>
+        <v>applepay --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="7"/>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="8"/>
@@ -2484,20 +2475,20 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;bonus.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/bonus.version&gt;</v>
+        <v>&lt;bonus.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/bonus.version&gt;</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="7"/>
-        <v>bonus --&gt; 1.14.0-env-svia-SNAPSHOT</v>
+        <v>bonus --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="7"/>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="8"/>
@@ -2505,17 +2496,17 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;catalogo-prodotti.version&gt;1.10.0-env-svia-SNAPSHOT&lt;/catalogo-prodotti.version&gt;</v>
+        <v>&lt;catalogo-prodotti.version&gt;1.11.0-env-svia-SNAPSHOT&lt;/catalogo-prodotti.version&gt;</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="7"/>
-        <v>catalogo-prodotti --&gt; 1.10.0-env-svia-SNAPSHOT</v>
+        <v>catalogo-prodotti --&gt; 1.11.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="7"/>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
         <v>147</v>
@@ -2526,20 +2517,20 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;masterpass.version&gt;1.35.0-env-svia-SNAPSHOT&lt;/masterpass.version&gt;</v>
+        <v>&lt;masterpass.version&gt;1.43.0-env-svia-SNAPSHOT&lt;/masterpass.version&gt;</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="7"/>
-        <v>masterpass --&gt; 1.35.0-env-svia-SNAPSHOT</v>
+        <v>masterpass --&gt; 1.43.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="7"/>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="8"/>
@@ -2547,20 +2538,20 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;nfc.version&gt;1.47.0-env-svia-SNAPSHOT&lt;/nfc.version&gt;</v>
+        <v>&lt;nfc.version&gt;1.54.0-env-svia-SNAPSHOT&lt;/nfc.version&gt;</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="7"/>
-        <v>nfc --&gt; 1.47.0-env-svia-SNAPSHOT</v>
+        <v>nfc --&gt; 1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="7"/>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="8"/>
@@ -2568,20 +2559,20 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;opricorrenti.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/opricorrenti.version&gt;</v>
+        <v>&lt;opricorrenti.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/opricorrenti.version&gt;</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="7"/>
-        <v>opricorrenti --&gt; 1.17.0-env-svia-SNAPSHOT</v>
+        <v>opricorrenti --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="7"/>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="8"/>
@@ -2589,20 +2580,20 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;pagamentimultipli.version&gt;1.51.0-env-svia-SNAPSHOT&lt;/pagamentimultipli.version&gt;</v>
+        <v>&lt;pagamentimultipli.version&gt;1.54.0-env-svia-SNAPSHOT&lt;/pagamentimultipli.version&gt;</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentimultipli --&gt; 1.51.0-env-svia-SNAPSHOT</v>
+        <v>pagamentimultipli --&gt; 1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="7"/>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="8"/>
@@ -2610,11 +2601,11 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;ristampa-pin.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/ristampa-pin.version&gt;</v>
+        <v>&lt;ristampa-pin.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/ristampa-pin.version&gt;</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="7"/>
-        <v>ristampa-pin --&gt; 1.15.0-env-svia-SNAPSHOT</v>
+        <v>ristampa-pin --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2631,10 +2622,10 @@
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="8"/>
@@ -2642,11 +2633,11 @@
       </c>
       <c r="F91" t="str">
         <f>CONCATENATE("&lt;",E91,".version&gt;",C91,"&lt;/",E91,".version&gt;")</f>
-        <v>&lt;ricordamidi.version&gt;1.25.0-env-svia-SNAPSHOT&lt;/ricordamidi.version&gt;</v>
+        <v>&lt;ricordamidi.version&gt;1.27.0-env-svia-SNAPSHOT&lt;/ricordamidi.version&gt;</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="7"/>
-        <v>ricordamidi --&gt; 1.25.0-env-svia-SNAPSHOT</v>
+        <v>ricordamidi --&gt; 1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2663,10 +2654,10 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="8"/>
@@ -2674,11 +2665,11 @@
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("&lt;",E93,".version&gt;",C93,"&lt;/",E93,".version&gt;")</f>
-        <v>&lt;comunicazioni.version&gt;1.224.0-env-svia-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
+        <v>&lt;comunicazioni.version&gt;1.233.0-env-svia-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="7"/>
-        <v>comunicazioni --&gt; 1.224.0-env-svia-SNAPSHOT</v>
+        <v>comunicazioni --&gt; 1.233.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2695,10 +2686,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="8"/>
@@ -2706,11 +2697,11 @@
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE("&lt;",E95,".version&gt;",C95,"&lt;/",E95,".version&gt;")</f>
-        <v>&lt;miogestore.version&gt;1.143.0-env-svia-SNAPSHOT&lt;/miogestore.version&gt;</v>
+        <v>&lt;miogestore.version&gt;1.146.0-env-svia-SNAPSHOT&lt;/miogestore.version&gt;</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="7"/>
-        <v>miogestore --&gt; 1.143.0-env-svia-SNAPSHOT</v>
+        <v>miogestore --&gt; 1.146.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2727,10 +2718,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="8"/>
@@ -2738,20 +2729,20 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ref="F97:F102" si="11">CONCATENATE("&lt;",E97,".version&gt;",C97,"&lt;/",E97,".version&gt;")</f>
-        <v>&lt;bloccosblocco.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
+        <v>&lt;bloccosblocco.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="7"/>
-        <v>bloccosblocco --&gt; 1.19.0-env-svia-SNAPSHOT</v>
+        <v>bloccosblocco --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="7"/>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="8"/>
@@ -2759,17 +2750,17 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;condivisione.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/condivisione.version&gt;</v>
+        <v>&lt;condivisione.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/condivisione.version&gt;</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="7"/>
-        <v>condivisione --&gt; 1.16.0-env-svia-SNAPSHOT</v>
+        <v>condivisione --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="7"/>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s">
         <v>146</v>
@@ -2780,20 +2771,20 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;conto.version&gt;1.37.0-env-svia-SNAPSHOT&lt;/conto.version&gt;</v>
+        <v>&lt;conto.version&gt;1.38.0-env-svia-SNAPSHOT&lt;/conto.version&gt;</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="7"/>
-        <v>conto --&gt; 1.37.0-env-svia-SNAPSHOT</v>
+        <v>conto --&gt; 1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="7"/>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="8"/>
@@ -2801,20 +2792,20 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;globalposition.version&gt;1.131.0-env-svia-SNAPSHOT&lt;/globalposition.version&gt;</v>
+        <v>&lt;globalposition.version&gt;1.132.0-env-svia-SNAPSHOT&lt;/globalposition.version&gt;</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="7"/>
-        <v>globalposition --&gt; 1.131.0-env-svia-SNAPSHOT</v>
+        <v>globalposition --&gt; 1.132.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="7"/>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="8"/>
@@ -2822,20 +2813,20 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;identitadigitale.version&gt;1.42.0-env-svia-SNAPSHOT&lt;/identitadigitale.version&gt;</v>
+        <v>&lt;identitadigitale.version&gt;1.44.0-env-svia-SNAPSHOT&lt;/identitadigitale.version&gt;</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="7"/>
-        <v>identitadigitale --&gt; 1.42.0-env-svia-SNAPSHOT</v>
+        <v>identitadigitale --&gt; 1.44.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="7"/>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="8"/>
@@ -2843,11 +2834,11 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;proposte.version&gt;1.11.0-env-svia-SNAPSHOT&lt;/proposte.version&gt;</v>
+        <v>&lt;proposte.version&gt;1.12.0-env-svia-SNAPSHOT&lt;/proposte.version&gt;</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="7"/>
-        <v>proposte --&gt; 1.11.0-env-svia-SNAPSHOT</v>
+        <v>proposte --&gt; 1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2864,10 +2855,10 @@
         <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="8"/>
@@ -2875,20 +2866,20 @@
       </c>
       <c r="F104" t="str">
         <f>CONCATENATE("&lt;",E104,".version&gt;",C104,"&lt;/",E104,".version&gt;")</f>
-        <v>&lt;digitalwallet.version&gt;1.54.0-env-svia-SNAPSHOT&lt;/digitalwallet.version&gt;</v>
+        <v>&lt;digitalwallet.version&gt;1.61.0-env-svia-SNAPSHOT&lt;/digitalwallet.version&gt;</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="7"/>
-        <v>digitalwallet --&gt; 1.54.0-env-svia-SNAPSHOT</v>
+        <v>digitalwallet --&gt; 1.61.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="7"/>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="8"/>
@@ -2896,20 +2887,20 @@
       </c>
       <c r="F105" t="str">
         <f>CONCATENATE("&lt;",E105,".version&gt;",C105,"&lt;/",E105,".version&gt;")</f>
-        <v>&lt;pulsantiera.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/pulsantiera.version&gt;</v>
+        <v>&lt;pulsantiera.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/pulsantiera.version&gt;</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="7"/>
-        <v>pulsantiera --&gt; 1.21.0-env-svia-SNAPSHOT</v>
+        <v>pulsantiera --&gt; 1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="7"/>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="8"/>
@@ -2917,11 +2908,11 @@
       </c>
       <c r="F106" t="str">
         <f>CONCATENATE("&lt;",E106,".version&gt;",C106,"&lt;/",E106,".version&gt;")</f>
-        <v>&lt;trading.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/trading.version&gt;</v>
+        <v>&lt;trading.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/trading.version&gt;</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="7"/>
-        <v>trading --&gt; 1.19.0-env-svia-SNAPSHOT</v>
+        <v>trading --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2938,10 +2929,10 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="8"/>
@@ -2949,21 +2940,16 @@
       </c>
       <c r="F108" t="str">
         <f>CONCATENATE("&lt;",E108,".version&gt;",C108,"&lt;/",E108,".version&gt;")</f>
-        <v>&lt;listaoperazioni.version&gt;1.75.0-env-svia-SNAPSHOT&lt;/listaoperazioni.version&gt;</v>
+        <v>&lt;listaoperazioni.version&gt;1.76.0-env-svia-SNAPSHOT&lt;/listaoperazioni.version&gt;</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="7"/>
-        <v>listaoperazioni --&gt; 1.75.0-env-svia-SNAPSHOT</v>
+        <v>listaoperazioni --&gt; 1.76.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:D108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A45:A50"/>
     <mergeCell ref="A97:A102"/>
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A52:A55"/>
@@ -2971,6 +2957,11 @@
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A45:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2995,13 +2986,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3016,7 +3007,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3035,7 +3026,7 @@
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:4" collapsed="1">
@@ -3052,7 +3043,7 @@
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:4" collapsed="1">
@@ -3084,12 +3075,12 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:4" collapsed="1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3101,12 +3092,12 @@
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:4" collapsed="1">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3118,12 +3109,12 @@
       </c>
       <c r="C15" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="16" spans="1:4" collapsed="1">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3136,46 +3127,46 @@
       </c>
       <c r="C17" s="3" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="18" spans="1:3" collapsed="1">
       <c r="A18" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" outlineLevel="1">
+    <row r="20" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B20" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
       </c>
       <c r="C20" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" outlineLevel="1">
+        <v>1.14.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B21" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C21" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1.19.0-env-svia-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" collapsed="1">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3187,7 +3178,7 @@
       </c>
       <c r="C23" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" outlineLevel="1">
@@ -3197,12 +3188,12 @@
       </c>
       <c r="C24" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="25" spans="1:3" collapsed="1">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3214,7 +3205,7 @@
       </c>
       <c r="C26" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" outlineLevel="1">
@@ -3224,19 +3215,19 @@
       </c>
       <c r="C27" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:3" collapsed="1">
       <c r="A28" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3248,7 +3239,7 @@
       </c>
       <c r="C30" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" outlineLevel="1">
@@ -3258,7 +3249,7 @@
       </c>
       <c r="C31" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1" outlineLevel="1">
@@ -3268,7 +3259,7 @@
       </c>
       <c r="C32" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" outlineLevel="1">
@@ -3278,19 +3269,19 @@
       </c>
       <c r="C33" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:3" collapsed="1">
       <c r="A34" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3302,7 +3293,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" outlineLevel="1">
@@ -3312,7 +3303,7 @@
       </c>
       <c r="C37" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" outlineLevel="1">
@@ -3322,7 +3313,7 @@
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" outlineLevel="1">
@@ -3332,7 +3323,7 @@
       </c>
       <c r="C39" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" outlineLevel="1">
@@ -3342,12 +3333,12 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" collapsed="1">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3359,7 +3350,7 @@
       </c>
       <c r="C42" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" outlineLevel="1">
@@ -3369,7 +3360,7 @@
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" outlineLevel="1">
@@ -3379,7 +3370,7 @@
       </c>
       <c r="C44" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" outlineLevel="1">
@@ -3389,12 +3380,12 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" collapsed="1">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3406,7 +3397,7 @@
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" outlineLevel="1">
@@ -3416,7 +3407,7 @@
       </c>
       <c r="C48" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" outlineLevel="1">
@@ -3426,12 +3417,12 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" collapsed="1">
       <c r="A50" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3443,7 +3434,7 @@
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" outlineLevel="1">
@@ -3453,7 +3444,7 @@
       </c>
       <c r="C52" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" outlineLevel="1">
@@ -3463,12 +3454,12 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" collapsed="1">
       <c r="A54" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3480,7 +3471,7 @@
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" outlineLevel="1">
@@ -3490,7 +3481,7 @@
       </c>
       <c r="C56" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1" outlineLevel="1">
@@ -3500,12 +3491,12 @@
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:3" collapsed="1">
       <c r="A58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3517,7 +3508,7 @@
       </c>
       <c r="C59" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" outlineLevel="1">
@@ -3527,12 +3518,12 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" collapsed="1">
       <c r="A61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3544,7 +3535,7 @@
       </c>
       <c r="C62" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1" outlineLevel="1">
@@ -3554,12 +3545,12 @@
       </c>
       <c r="C63" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:3" collapsed="1">
       <c r="A64" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3571,7 +3562,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" outlineLevel="1">
@@ -3581,7 +3572,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" outlineLevel="1">
@@ -3591,7 +3582,7 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3" hidden="1" outlineLevel="1">
@@ -3601,7 +3592,7 @@
       </c>
       <c r="C68" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="69" spans="1:3" hidden="1" outlineLevel="1">
@@ -3611,22 +3602,22 @@
       </c>
       <c r="C69" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="70" spans="1:3" collapsed="1">
       <c r="A70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:3" hidden="1" outlineLevel="1">
@@ -3636,7 +3627,7 @@
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:3" hidden="1" outlineLevel="1">
@@ -3646,7 +3637,7 @@
       </c>
       <c r="C73" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:3" hidden="1" outlineLevel="1">
@@ -3656,12 +3647,12 @@
       </c>
       <c r="C74" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:3" collapsed="1">
       <c r="A75" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3673,7 +3664,7 @@
       </c>
       <c r="C76" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="77" spans="1:3" hidden="1" outlineLevel="1">
@@ -3683,12 +3674,12 @@
       </c>
       <c r="C77" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:3" collapsed="1">
       <c r="A78" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3700,7 +3691,7 @@
       </c>
       <c r="C79" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:3" hidden="1" outlineLevel="1">
@@ -3710,12 +3701,12 @@
       </c>
       <c r="C80" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:3" collapsed="1">
       <c r="A81" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3727,7 +3718,7 @@
       </c>
       <c r="C82" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="83" spans="1:3" hidden="1" outlineLevel="1">
@@ -3737,19 +3728,19 @@
       </c>
       <c r="C83" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="84" spans="1:3" collapsed="1">
       <c r="A84" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3761,7 +3752,7 @@
       </c>
       <c r="C86" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="87" spans="1:3" hidden="1" outlineLevel="1">
@@ -3771,12 +3762,12 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" collapsed="1">
       <c r="A88" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3788,7 +3779,7 @@
       </c>
       <c r="C89" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="90" spans="1:3" hidden="1" outlineLevel="1">
@@ -3798,12 +3789,12 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" collapsed="1">
       <c r="A91" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3815,7 +3806,7 @@
       </c>
       <c r="C92" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1" outlineLevel="1">
@@ -3825,12 +3816,12 @@
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:3" collapsed="1">
       <c r="A94" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3842,7 +3833,7 @@
       </c>
       <c r="C95" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="96" spans="1:3" hidden="1" outlineLevel="1">
@@ -3852,12 +3843,12 @@
       </c>
       <c r="C96" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="97" spans="1:3" collapsed="1">
       <c r="A97" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3869,7 +3860,7 @@
       </c>
       <c r="C98" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:3" hidden="1" outlineLevel="1">
@@ -3879,12 +3870,12 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" collapsed="1">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3896,7 +3887,7 @@
       </c>
       <c r="C101" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="102" spans="1:3" hidden="1" outlineLevel="1">
@@ -3906,12 +3897,12 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" collapsed="1">
       <c r="A103" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3923,7 +3914,7 @@
       </c>
       <c r="C104" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1" outlineLevel="1">
@@ -3933,12 +3924,12 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" collapsed="1">
       <c r="A106" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3950,7 +3941,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" outlineLevel="1">
@@ -3960,20 +3951,20 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:3" collapsed="1">
       <c r="A110" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3985,7 +3976,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1" outlineLevel="1">
@@ -3995,7 +3986,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1" outlineLevel="1">
@@ -4005,7 +3996,7 @@
       </c>
       <c r="C113" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="114" spans="1:3" hidden="1" outlineLevel="1">
@@ -4015,12 +4006,12 @@
       </c>
       <c r="C114" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="115" spans="1:3" collapsed="1">
       <c r="A115" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4032,7 +4023,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1">
@@ -4042,7 +4033,7 @@
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1" outlineLevel="1">
@@ -4052,7 +4043,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" hidden="1" outlineLevel="1">
@@ -4062,12 +4053,12 @@
       </c>
       <c r="C119" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="120" spans="1:3" collapsed="1">
       <c r="A120" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4079,7 +4070,7 @@
       </c>
       <c r="C121" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1" outlineLevel="1">
@@ -4089,7 +4080,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1">
@@ -4099,7 +4090,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" outlineLevel="1">
@@ -4109,7 +4100,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" outlineLevel="1">
@@ -4119,7 +4110,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" hidden="1" outlineLevel="1">
@@ -4129,12 +4120,12 @@
       </c>
       <c r="C126" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="127" spans="1:3" collapsed="1">
       <c r="A127" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4146,7 +4137,7 @@
       </c>
       <c r="C128" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="129" spans="1:3" hidden="1" outlineLevel="1">
@@ -4156,7 +4147,7 @@
       </c>
       <c r="C129" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="130" spans="1:3" hidden="1" outlineLevel="1">
@@ -4166,7 +4157,7 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1">
@@ -4176,7 +4167,7 @@
       </c>
       <c r="C131" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="132" spans="1:3" hidden="1" outlineLevel="1">
@@ -4186,19 +4177,19 @@
       </c>
       <c r="C132" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="133" spans="1:3" collapsed="1">
       <c r="A133" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4210,7 +4201,7 @@
       </c>
       <c r="C135" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="136" spans="1:3" hidden="1" outlineLevel="1">
@@ -4220,15 +4211,15 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:3" hidden="1" outlineLevel="1">
@@ -4238,7 +4229,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" outlineLevel="1">
@@ -4248,12 +4239,12 @@
       </c>
       <c r="C139" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="140" spans="1:3" collapsed="1">
       <c r="A140" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4265,7 +4256,7 @@
       </c>
       <c r="C141" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="142" spans="1:3" hidden="1" outlineLevel="1">
@@ -4275,12 +4266,12 @@
       </c>
       <c r="C142" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="143" spans="1:3" collapsed="1">
       <c r="A143" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4292,7 +4283,7 @@
       </c>
       <c r="C144" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" outlineLevel="1">
@@ -4302,7 +4293,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" hidden="1" outlineLevel="1">
@@ -4312,7 +4303,7 @@
       </c>
       <c r="C146" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="147" spans="1:3" hidden="1" outlineLevel="1">
@@ -4322,7 +4313,7 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1">
@@ -4332,7 +4323,7 @@
       </c>
       <c r="C148" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" outlineLevel="1">
@@ -4342,12 +4333,12 @@
       </c>
       <c r="C149" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="150" spans="1:3" collapsed="1">
       <c r="A150" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4359,7 +4350,7 @@
       </c>
       <c r="C151" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="152" spans="1:3" hidden="1" outlineLevel="1">
@@ -4369,7 +4360,7 @@
       </c>
       <c r="C152" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="153" spans="1:3" hidden="1" outlineLevel="1">
@@ -4379,15 +4370,15 @@
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B154" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C154" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1" outlineLevel="1">
@@ -4397,20 +4388,20 @@
       </c>
       <c r="C155" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B156" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:3" collapsed="1">
       <c r="A157" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4422,7 +4413,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" outlineLevel="1">
@@ -4432,7 +4423,7 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3" hidden="1" outlineLevel="1">
@@ -4442,12 +4433,12 @@
       </c>
       <c r="C160" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="161" spans="1:3" collapsed="1">
       <c r="A161" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4459,7 +4450,7 @@
       </c>
       <c r="C162" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="163" spans="1:3" hidden="1" outlineLevel="1">
@@ -4469,7 +4460,7 @@
       </c>
       <c r="C163" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="164" spans="1:3" hidden="1" outlineLevel="1">
@@ -4479,7 +4470,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" outlineLevel="1">
@@ -4489,19 +4480,19 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" collapsed="1">
       <c r="A166" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4513,7 +4504,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" outlineLevel="1">
@@ -4523,7 +4514,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" hidden="1" outlineLevel="1">
@@ -4533,7 +4524,7 @@
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="171" spans="1:3" hidden="1" outlineLevel="1">
@@ -4543,12 +4534,12 @@
       </c>
       <c r="C171" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="172" spans="1:3" collapsed="1">
       <c r="A172" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4560,7 +4551,7 @@
       </c>
       <c r="C173" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="174" spans="1:3" hidden="1" outlineLevel="1">
@@ -4570,7 +4561,7 @@
       </c>
       <c r="C174" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="175" spans="1:3" hidden="1" outlineLevel="1">
@@ -4580,7 +4571,7 @@
       </c>
       <c r="C175" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="176" spans="1:3" hidden="1" outlineLevel="1">
@@ -4590,12 +4581,12 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" collapsed="1">
       <c r="A177" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4607,7 +4598,7 @@
       </c>
       <c r="C178" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="179" spans="1:3" hidden="1" outlineLevel="1">
@@ -4617,7 +4608,7 @@
       </c>
       <c r="C179" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="180" spans="1:3" hidden="1" outlineLevel="1">
@@ -4627,12 +4618,12 @@
       </c>
       <c r="C180" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="181" spans="1:3" collapsed="1">
       <c r="A181" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4644,7 +4635,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" hidden="1" outlineLevel="1">
@@ -4654,19 +4645,19 @@
       </c>
       <c r="C183" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="184" spans="1:3" collapsed="1">
       <c r="A184" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4678,7 +4669,7 @@
       </c>
       <c r="C186" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="187" spans="1:3" hidden="1" outlineLevel="1">
@@ -4688,7 +4679,7 @@
       </c>
       <c r="C187" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="188" spans="1:3" hidden="1" outlineLevel="1">
@@ -4698,7 +4689,7 @@
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="189" spans="1:3" hidden="1" outlineLevel="1">
@@ -4708,7 +4699,7 @@
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C53</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="190" spans="1:3" hidden="1" outlineLevel="1">
@@ -4718,19 +4709,19 @@
       </c>
       <c r="C190" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="191" spans="1:3" collapsed="1">
       <c r="A191" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4742,7 +4733,7 @@
       </c>
       <c r="C193" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="194" spans="1:3" hidden="1" outlineLevel="1">
@@ -4752,7 +4743,7 @@
       </c>
       <c r="C194" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="195" spans="1:3" hidden="1" outlineLevel="1">
@@ -4762,7 +4753,7 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" hidden="1" outlineLevel="1">
@@ -4772,7 +4763,7 @@
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" hidden="1" outlineLevel="1">
@@ -4782,19 +4773,19 @@
       </c>
       <c r="C197" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="198" spans="1:3" collapsed="1">
       <c r="A198" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4806,7 +4797,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1">
@@ -4816,7 +4807,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" hidden="1" outlineLevel="1">
@@ -4826,7 +4817,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1">
@@ -4836,7 +4827,7 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3" hidden="1" outlineLevel="1">
@@ -4846,12 +4837,12 @@
       </c>
       <c r="C204" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="205" spans="1:3" collapsed="1">
       <c r="A205" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4863,7 +4854,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" hidden="1" outlineLevel="1">
@@ -4873,7 +4864,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" hidden="1" outlineLevel="1">
@@ -4883,7 +4874,7 @@
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="209" spans="1:3" hidden="1" outlineLevel="1">
@@ -4893,7 +4884,7 @@
       </c>
       <c r="C209" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="210" spans="1:3" hidden="1" outlineLevel="1">
@@ -4903,7 +4894,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" hidden="1" outlineLevel="1">
@@ -4913,7 +4904,7 @@
       </c>
       <c r="C211" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="212" spans="1:3" hidden="1" outlineLevel="1">
@@ -4923,7 +4914,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" hidden="1" outlineLevel="1">
@@ -4933,7 +4924,7 @@
       </c>
       <c r="C213" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="214" spans="1:3" hidden="1" outlineLevel="1">
@@ -4943,12 +4934,12 @@
       </c>
       <c r="C214" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="215" spans="1:3" collapsed="1">
       <c r="A215" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4960,7 +4951,7 @@
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="217" spans="1:3" hidden="1" outlineLevel="1">
@@ -4970,7 +4961,7 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3" hidden="1" outlineLevel="1">
@@ -4980,12 +4971,12 @@
       </c>
       <c r="C218" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="219" spans="1:3" collapsed="1">
       <c r="A219" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4997,7 +4988,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" hidden="1" outlineLevel="1">
@@ -5007,7 +4998,7 @@
       </c>
       <c r="C221" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="222" spans="1:3" hidden="1" outlineLevel="1">
@@ -5017,7 +5008,7 @@
       </c>
       <c r="C222" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="223" spans="1:3" hidden="1" outlineLevel="1">
@@ -5027,7 +5018,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" hidden="1" outlineLevel="1">
@@ -5037,7 +5028,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" hidden="1" outlineLevel="1">
@@ -5047,7 +5038,7 @@
       </c>
       <c r="C225" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="226" spans="1:3" hidden="1" outlineLevel="1">
@@ -5057,12 +5048,12 @@
       </c>
       <c r="C226" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="227" spans="1:3" collapsed="1">
       <c r="A227" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -5074,7 +5065,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" hidden="1" outlineLevel="1">
@@ -5084,7 +5075,7 @@
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="230" spans="1:3" hidden="1" outlineLevel="1">
@@ -5094,7 +5085,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" hidden="1" outlineLevel="1">
@@ -5104,7 +5095,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" hidden="1" outlineLevel="1">
@@ -5114,7 +5105,7 @@
       </c>
       <c r="C232" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="233" spans="1:3" hidden="1" outlineLevel="1">
@@ -5124,7 +5115,7 @@
       </c>
       <c r="C233" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="234" spans="1:3" hidden="1" outlineLevel="1">
@@ -5134,7 +5125,7 @@
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="235" spans="1:3" hidden="1" outlineLevel="1">
@@ -5144,7 +5135,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" outlineLevel="1">
@@ -5154,7 +5145,7 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" outlineLevel="1">
@@ -5164,12 +5155,12 @@
       </c>
       <c r="C237" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="238" spans="1:3" collapsed="1">
       <c r="A238" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -5181,7 +5172,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" outlineLevel="1">
@@ -5191,7 +5182,7 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" outlineLevel="1">
@@ -5201,12 +5192,12 @@
       </c>
       <c r="C241" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="242" spans="1:3" collapsed="1">
       <c r="A242" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -5218,7 +5209,7 @@
       </c>
       <c r="C243" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="244" spans="1:3" hidden="1" outlineLevel="1">
@@ -5228,7 +5219,7 @@
       </c>
       <c r="C244" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="245" spans="1:3" hidden="1" outlineLevel="1">
@@ -5238,7 +5229,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" outlineLevel="1">
@@ -5248,7 +5239,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1">
@@ -5258,7 +5249,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" hidden="1" outlineLevel="1">
@@ -5268,7 +5259,7 @@
       </c>
       <c r="C248" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="249" spans="1:3" hidden="1" outlineLevel="1">
@@ -5278,7 +5269,7 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3" hidden="1" outlineLevel="1">
@@ -5288,12 +5279,12 @@
       </c>
       <c r="C250" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="251" spans="1:3" collapsed="1">
       <c r="A251" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -5305,7 +5296,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" outlineLevel="1">
@@ -5315,7 +5306,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" outlineLevel="1">
@@ -5325,7 +5316,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1">
@@ -5335,7 +5326,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" hidden="1" outlineLevel="1">
@@ -5345,7 +5336,7 @@
       </c>
       <c r="C256" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="257" spans="1:3" hidden="1" outlineLevel="1">
@@ -5355,7 +5346,7 @@
       </c>
       <c r="C257" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="258" spans="1:3" hidden="1" outlineLevel="1">
@@ -5365,7 +5356,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="259" spans="1:3" hidden="1" outlineLevel="1">
@@ -5375,7 +5366,7 @@
       </c>
       <c r="C259" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="260" spans="1:3" hidden="1" outlineLevel="1">
@@ -5385,19 +5376,19 @@
       </c>
       <c r="C260" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="261" spans="1:3" collapsed="1">
       <c r="A261" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -5409,7 +5400,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" hidden="1" outlineLevel="1">
@@ -5419,7 +5410,7 @@
       </c>
       <c r="C264" t="str">
         <f>'Versioni EJB'!C22</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="265" spans="1:3" hidden="1" outlineLevel="1">
@@ -5429,7 +5420,7 @@
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="266" spans="1:3" hidden="1" outlineLevel="1">
@@ -5439,7 +5430,7 @@
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="267" spans="1:3" hidden="1" outlineLevel="1">
@@ -5449,7 +5440,7 @@
       </c>
       <c r="C267" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="268" spans="1:3" hidden="1" outlineLevel="1">
@@ -5459,7 +5450,7 @@
       </c>
       <c r="C268" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="269" spans="1:3" hidden="1" outlineLevel="1">
@@ -5469,7 +5460,7 @@
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="270" spans="1:3" hidden="1" outlineLevel="1">
@@ -5479,7 +5470,7 @@
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="271" spans="1:3" hidden="1" outlineLevel="1">
@@ -5489,7 +5480,7 @@
       </c>
       <c r="C271" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="272" spans="1:3" hidden="1" outlineLevel="1">
@@ -5499,7 +5490,7 @@
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="273" spans="1:3" hidden="1" outlineLevel="1">
@@ -5509,7 +5500,7 @@
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="274" spans="1:3" hidden="1" outlineLevel="1">
@@ -5519,12 +5510,12 @@
       </c>
       <c r="C274" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="275" spans="1:3" collapsed="1">
       <c r="A275" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -5536,7 +5527,7 @@
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="277" spans="1:3" hidden="1" outlineLevel="1">
@@ -5546,7 +5537,7 @@
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="278" spans="1:3" hidden="1" outlineLevel="1">
@@ -5556,7 +5547,7 @@
       </c>
       <c r="C278" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="279" spans="1:3" hidden="1" outlineLevel="1">
@@ -5566,7 +5557,7 @@
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="280" spans="1:3" hidden="1" outlineLevel="1">
@@ -5576,7 +5567,7 @@
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="281" spans="1:3" hidden="1" outlineLevel="1">
@@ -5586,12 +5577,12 @@
       </c>
       <c r="C281" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="282" spans="1:3" collapsed="1">
       <c r="A282" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -5603,7 +5594,7 @@
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="284" spans="1:3" hidden="1" outlineLevel="1">
@@ -5613,7 +5604,7 @@
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="285" spans="1:3" hidden="1" outlineLevel="1">
@@ -5623,7 +5614,7 @@
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="286" spans="1:3" hidden="1" outlineLevel="1">
@@ -5633,7 +5624,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" hidden="1" outlineLevel="1">
@@ -5643,7 +5634,7 @@
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="288" spans="1:3" hidden="1" outlineLevel="1">
@@ -5653,12 +5644,12 @@
       </c>
       <c r="C288" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="289" spans="1:3" collapsed="1">
       <c r="A289" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -5670,7 +5661,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" hidden="1" outlineLevel="1">
@@ -5680,7 +5671,7 @@
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="292" spans="1:3" hidden="1" outlineLevel="1">
@@ -5690,7 +5681,7 @@
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="293" spans="1:3" hidden="1" outlineLevel="1">
@@ -5700,7 +5691,7 @@
       </c>
       <c r="C293" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="294" spans="1:3" hidden="1" outlineLevel="1">
@@ -5710,7 +5701,7 @@
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="295" spans="1:3" hidden="1" outlineLevel="1">
@@ -5720,7 +5711,7 @@
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="296" spans="1:3" hidden="1" outlineLevel="1">
@@ -5730,7 +5721,7 @@
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="297" spans="1:3" hidden="1" outlineLevel="1">
@@ -5740,7 +5731,7 @@
       </c>
       <c r="C297" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="298" spans="1:3" hidden="1" outlineLevel="1">
@@ -5750,12 +5741,12 @@
       </c>
       <c r="C298" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="299" spans="1:3" collapsed="1">
       <c r="A299" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -5767,7 +5758,7 @@
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="301" spans="1:3" hidden="1" outlineLevel="1">
@@ -5777,7 +5768,7 @@
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="302" spans="1:3" hidden="1" outlineLevel="1">
@@ -5787,7 +5778,7 @@
       </c>
       <c r="C302" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="303" spans="1:3" hidden="1" outlineLevel="1">
@@ -5797,7 +5788,7 @@
       </c>
       <c r="C303" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="304" spans="1:3" hidden="1" outlineLevel="1">
@@ -5807,7 +5798,7 @@
       </c>
       <c r="C304" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="305" spans="1:3" hidden="1" outlineLevel="1">
@@ -5817,7 +5808,7 @@
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="306" spans="1:3" hidden="1" outlineLevel="1">
@@ -5827,7 +5818,7 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3" hidden="1" outlineLevel="1">
@@ -5837,12 +5828,12 @@
       </c>
       <c r="C307" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="308" spans="1:3" collapsed="1">
       <c r="A308" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -5854,7 +5845,7 @@
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" outlineLevel="1">
@@ -5864,7 +5855,7 @@
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="311" spans="1:3" hidden="1" outlineLevel="1">
@@ -5874,7 +5865,7 @@
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="312" spans="1:3" hidden="1" outlineLevel="1">
@@ -5884,19 +5875,19 @@
       </c>
       <c r="C312" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="313" spans="1:3" collapsed="1">
       <c r="A313" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -5908,7 +5899,7 @@
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="316" spans="1:3" hidden="1" outlineLevel="1">
@@ -5918,7 +5909,7 @@
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="317" spans="1:3" hidden="1" outlineLevel="1">
@@ -5928,7 +5919,7 @@
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="318" spans="1:3" hidden="1" outlineLevel="1">
@@ -5938,7 +5929,7 @@
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="319" spans="1:3" hidden="1" outlineLevel="1">
@@ -5948,7 +5939,7 @@
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="320" spans="1:3" hidden="1" outlineLevel="1">
@@ -5958,7 +5949,7 @@
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="321" spans="1:3" hidden="1" outlineLevel="1">
@@ -5968,7 +5959,7 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3" hidden="1" outlineLevel="1">
@@ -5978,12 +5969,12 @@
       </c>
       <c r="C322" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="323" spans="1:3" collapsed="1">
       <c r="A323" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5995,7 +5986,7 @@
       </c>
       <c r="C324" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="325" spans="1:3" hidden="1" outlineLevel="1">
@@ -6005,7 +5996,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" hidden="1" outlineLevel="1">
@@ -6015,7 +6006,7 @@
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.55.0-env-svia-SNAPSHOT</v>
+        <v>1.66.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="327" spans="1:3" hidden="1" outlineLevel="1">
@@ -6025,7 +6016,7 @@
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="328" spans="1:3" hidden="1" outlineLevel="1">
@@ -6035,7 +6026,7 @@
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="329" spans="1:3" hidden="1" outlineLevel="1">
@@ -6045,7 +6036,7 @@
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="330" spans="1:3" hidden="1" outlineLevel="1">
@@ -6055,7 +6046,7 @@
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="331" spans="1:3" hidden="1" outlineLevel="1">
@@ -6065,7 +6056,7 @@
       </c>
       <c r="C331" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="332" spans="1:3" hidden="1" outlineLevel="1">
@@ -6075,7 +6066,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" hidden="1" outlineLevel="1">
@@ -6085,7 +6076,7 @@
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="334" spans="1:3" hidden="1" outlineLevel="1">
@@ -6095,12 +6086,12 @@
       </c>
       <c r="C334" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="335" spans="1:3" collapsed="1">
       <c r="A335" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -6112,7 +6103,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" outlineLevel="1">
@@ -6122,7 +6113,7 @@
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="338" spans="1:3" hidden="1" outlineLevel="1">
@@ -6132,7 +6123,7 @@
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="339" spans="1:3" hidden="1" outlineLevel="1">
@@ -6142,7 +6133,7 @@
       </c>
       <c r="C339" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="340" spans="1:3" hidden="1" outlineLevel="1">
@@ -6152,7 +6143,7 @@
       </c>
       <c r="C340" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="341" spans="1:3" hidden="1" outlineLevel="1">
@@ -6162,7 +6153,7 @@
       </c>
       <c r="C341" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.74.0-env-svia-SNAPSHOT</v>
+        <v>1.77.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="342" spans="1:3" hidden="1" outlineLevel="1">
@@ -6172,12 +6163,12 @@
       </c>
       <c r="C342" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="343" spans="1:3" collapsed="1">
       <c r="A343" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -6189,7 +6180,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
+        <v>1.60.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" outlineLevel="1">
@@ -6199,7 +6190,7 @@
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.74.0-env-svia-SNAPSHOT</v>
+        <v>1.77.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="346" spans="1:3" hidden="1" outlineLevel="1">
@@ -6209,7 +6200,7 @@
       </c>
       <c r="C346" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="347" spans="1:3" hidden="1" outlineLevel="1">
@@ -6219,7 +6210,7 @@
       </c>
       <c r="C347" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="348" spans="1:3" hidden="1" outlineLevel="1">
@@ -6229,7 +6220,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" outlineLevel="1">
@@ -6239,7 +6230,7 @@
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="350" spans="1:3" hidden="1" outlineLevel="1">
@@ -6249,7 +6240,7 @@
       </c>
       <c r="C350" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="351" spans="1:3" hidden="1" outlineLevel="1">
@@ -6259,19 +6250,19 @@
       </c>
       <c r="C351" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="352" spans="1:3" collapsed="1">
       <c r="A352" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -6283,7 +6274,7 @@
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="355" spans="1:3" hidden="1" outlineLevel="1">
@@ -6293,7 +6284,7 @@
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="356" spans="1:3" hidden="1" outlineLevel="1">
@@ -6303,7 +6294,7 @@
       </c>
       <c r="C356" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="357" spans="1:3" hidden="1" outlineLevel="1">
@@ -6313,12 +6304,12 @@
       </c>
       <c r="C357" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="358" spans="1:3" collapsed="1">
       <c r="A358" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -6330,7 +6321,7 @@
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" outlineLevel="1">
@@ -6340,7 +6331,7 @@
       </c>
       <c r="C360" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="361" spans="1:3" hidden="1" outlineLevel="1">
@@ -6350,7 +6341,7 @@
       </c>
       <c r="C361" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="362" spans="1:3" hidden="1" outlineLevel="1">
@@ -6360,12 +6351,12 @@
       </c>
       <c r="C362" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="363" spans="1:3" collapsed="1">
       <c r="A363" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -6377,7 +6368,7 @@
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C11</f>
-        <v>1.7.0-env-svia-SNAPSHOT</v>
+        <v>1.8.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="365" spans="1:3" hidden="1" outlineLevel="1">
@@ -6387,7 +6378,7 @@
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="366" spans="1:3" hidden="1" outlineLevel="1">
@@ -6397,7 +6388,7 @@
       </c>
       <c r="C366" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.55.0-env-svia-SNAPSHOT</v>
+        <v>1.66.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="367" spans="1:3" hidden="1" outlineLevel="1">
@@ -6407,12 +6398,12 @@
       </c>
       <c r="C367" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="368" spans="1:3" collapsed="1">
       <c r="A368" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -6424,7 +6415,7 @@
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="370" spans="1:3" hidden="1" outlineLevel="1">
@@ -6434,7 +6425,7 @@
       </c>
       <c r="C370" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="371" spans="1:3" hidden="1" outlineLevel="1">
@@ -6444,7 +6435,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" hidden="1" outlineLevel="1">
@@ -6454,7 +6445,7 @@
       </c>
       <c r="C372" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="373" spans="1:3" hidden="1" outlineLevel="1">
@@ -6464,12 +6455,12 @@
       </c>
       <c r="C373" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="374" spans="1:3" collapsed="1">
       <c r="A374" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -6481,7 +6472,7 @@
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="376" spans="1:3" hidden="1" outlineLevel="1">
@@ -6491,7 +6482,7 @@
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="377" spans="1:3" hidden="1" outlineLevel="1">
@@ -6501,7 +6492,7 @@
       </c>
       <c r="C377" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="378" spans="1:3" hidden="1" outlineLevel="1">
@@ -6511,12 +6502,12 @@
       </c>
       <c r="C378" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="379" spans="1:3" collapsed="1">
       <c r="A379" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -6528,7 +6519,7 @@
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="381" spans="1:3" hidden="1" outlineLevel="1">
@@ -6538,7 +6529,7 @@
       </c>
       <c r="C381" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="382" spans="1:3" hidden="1" outlineLevel="1">
@@ -6548,7 +6539,7 @@
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="383" spans="1:3" hidden="1" outlineLevel="1">
@@ -6558,7 +6549,7 @@
       </c>
       <c r="C383" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.23.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="384" spans="1:3" hidden="1" outlineLevel="1">
@@ -6568,12 +6559,12 @@
       </c>
       <c r="C384" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="385" spans="1:3" collapsed="1">
       <c r="A385" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -6585,7 +6576,7 @@
       </c>
       <c r="C386" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="387" spans="1:3" hidden="1" outlineLevel="1">
@@ -6595,7 +6586,7 @@
       </c>
       <c r="C387" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="388" spans="1:3" hidden="1" outlineLevel="1">
@@ -6605,7 +6596,7 @@
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.58.0-env-svia-SNAPSHOT</v>
+        <v>1.60.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" outlineLevel="1">
@@ -6615,7 +6606,7 @@
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C50</f>
-        <v>1.46.0-env-svia-SNAPSHOT</v>
+        <v>1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" outlineLevel="1">
@@ -6625,7 +6616,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.74.0-env-svia-SNAPSHOT</v>
+        <v>1.77.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" outlineLevel="1">
@@ -6635,7 +6626,7 @@
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.23.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="392" spans="1:3" hidden="1" outlineLevel="1">
@@ -6645,7 +6636,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.20.0-env-svia-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" outlineLevel="1">
@@ -6655,7 +6646,7 @@
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C74</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" outlineLevel="1">
@@ -6665,7 +6656,7 @@
       </c>
       <c r="C394" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.17.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="395" spans="1:3" hidden="1" outlineLevel="1">
@@ -6675,7 +6666,7 @@
       </c>
       <c r="C395" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="396" spans="1:3" hidden="1" outlineLevel="1">
@@ -6685,7 +6676,7 @@
       </c>
       <c r="C396" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="397" spans="1:3" hidden="1" outlineLevel="1">
@@ -6695,12 +6686,12 @@
       </c>
       <c r="C397" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="398" spans="1:3" collapsed="1">
       <c r="A398" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -6712,7 +6703,7 @@
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" outlineLevel="1">
@@ -6722,7 +6713,7 @@
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="401" spans="1:3" hidden="1" outlineLevel="1">
@@ -6732,7 +6723,7 @@
       </c>
       <c r="C401" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="402" spans="1:3" hidden="1" outlineLevel="1">
@@ -6742,19 +6733,19 @@
       </c>
       <c r="C402" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="403" spans="1:3" collapsed="1">
       <c r="A403" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -6766,7 +6757,7 @@
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="406" spans="1:3" hidden="1" outlineLevel="1">
@@ -6776,7 +6767,7 @@
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C49</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="407" spans="1:3" hidden="1" outlineLevel="1">
@@ -6786,7 +6777,7 @@
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C83</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="408" spans="1:3" hidden="1" outlineLevel="1">
@@ -6796,7 +6787,7 @@
       </c>
       <c r="C408" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="409" spans="1:3" hidden="1" outlineLevel="1">
@@ -6806,7 +6797,7 @@
       </c>
       <c r="C409" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="410" spans="1:3" hidden="1" outlineLevel="1">
@@ -6816,7 +6807,7 @@
       </c>
       <c r="C410" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="411" spans="1:3" hidden="1" outlineLevel="1">
@@ -6826,29 +6817,29 @@
       </c>
       <c r="C411" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="412" spans="1:3" collapsed="1">
       <c r="A412" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
     </row>
     <row r="414" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B414" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C414" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="415" spans="1:3" hidden="1" outlineLevel="1">
@@ -6858,7 +6849,7 @@
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="416" spans="1:3" hidden="1" outlineLevel="1">
@@ -6868,7 +6859,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C53</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" hidden="1" outlineLevel="1">
@@ -6878,7 +6869,7 @@
       </c>
       <c r="C417" t="str">
         <f>'Versioni EJB'!C91</f>
-        <v>1.25.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="418" spans="1:3" hidden="1" outlineLevel="1">
@@ -6888,7 +6879,7 @@
       </c>
       <c r="C418" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="419" spans="1:3" hidden="1" outlineLevel="1">
@@ -6898,7 +6889,7 @@
       </c>
       <c r="C419" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.55.0-env-svia-SNAPSHOT</v>
+        <v>1.66.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="420" spans="1:3" hidden="1" outlineLevel="1">
@@ -6908,7 +6899,7 @@
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="421" spans="1:3" hidden="1" outlineLevel="1">
@@ -6918,7 +6909,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" hidden="1" outlineLevel="1">
@@ -6928,7 +6919,7 @@
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="423" spans="1:3" hidden="1" outlineLevel="1">
@@ -6938,7 +6929,7 @@
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="424" spans="1:3" hidden="1" outlineLevel="1">
@@ -6948,7 +6939,7 @@
       </c>
       <c r="C424" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.13.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="425" spans="1:3" hidden="1" outlineLevel="1">
@@ -6958,19 +6949,19 @@
       </c>
       <c r="C425" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="426" spans="1:3" collapsed="1">
       <c r="A426" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6982,7 +6973,7 @@
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="429" spans="1:3" hidden="1" outlineLevel="1">
@@ -6992,7 +6983,7 @@
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.224.0-env-svia-SNAPSHOT</v>
+        <v>1.233.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="430" spans="1:3" hidden="1" outlineLevel="1">
@@ -7002,7 +6993,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" outlineLevel="1">
@@ -7012,7 +7003,7 @@
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="432" spans="1:3" hidden="1" outlineLevel="1">
@@ -7022,7 +7013,7 @@
       </c>
       <c r="C432" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="433" spans="1:3" hidden="1" outlineLevel="1">
@@ -7032,19 +7023,19 @@
       </c>
       <c r="C433" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="434" spans="1:3" collapsed="1">
       <c r="A434" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -7056,7 +7047,7 @@
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="437" spans="1:3" hidden="1" outlineLevel="1">
@@ -7066,7 +7057,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" outlineLevel="1">
@@ -7076,7 +7067,7 @@
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.146.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="439" spans="1:3" hidden="1" outlineLevel="1">
@@ -7086,7 +7077,7 @@
       </c>
       <c r="C439" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="440" spans="1:3" hidden="1" outlineLevel="1">
@@ -7096,7 +7087,7 @@
       </c>
       <c r="C440" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="441" spans="1:3" hidden="1" outlineLevel="1">
@@ -7106,12 +7097,12 @@
       </c>
       <c r="C441" t="str">
         <f>'Versioni EJB'!C15</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="442" spans="1:3" collapsed="1">
       <c r="A442" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -7123,7 +7114,7 @@
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="444" spans="1:3" hidden="1" outlineLevel="2">
@@ -7133,7 +7124,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.224.0-env-svia-SNAPSHOT</v>
+        <v>1.233.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" outlineLevel="2">
@@ -7143,7 +7134,7 @@
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="446" spans="1:3" hidden="1" outlineLevel="2">
@@ -7153,7 +7144,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" hidden="1" outlineLevel="2">
@@ -7163,7 +7154,7 @@
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="448" spans="1:3" hidden="1" outlineLevel="2">
@@ -7173,7 +7164,7 @@
       </c>
       <c r="C448" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="449" spans="1:3" hidden="1" outlineLevel="2">
@@ -7183,12 +7174,12 @@
       </c>
       <c r="C449" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="450" spans="1:3" collapsed="1">
       <c r="A450" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -7200,7 +7191,7 @@
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.146.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="452" spans="1:3" hidden="1" outlineLevel="2">
@@ -7210,7 +7201,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" outlineLevel="2">
@@ -7220,7 +7211,7 @@
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="454" spans="1:3" hidden="1" outlineLevel="2">
@@ -7230,7 +7221,7 @@
       </c>
       <c r="C454" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="455" spans="1:3" hidden="1" outlineLevel="2">
@@ -7240,12 +7231,12 @@
       </c>
       <c r="C455" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="456" spans="1:3" collapsed="1">
       <c r="A456" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -7257,7 +7248,7 @@
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.224.0-env-svia-SNAPSHOT</v>
+        <v>1.233.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="458" spans="1:3" hidden="1" outlineLevel="1">
@@ -7267,7 +7258,7 @@
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="459" spans="1:3" hidden="1" outlineLevel="1">
@@ -7277,7 +7268,7 @@
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="460" spans="1:3" hidden="1" outlineLevel="1">
@@ -7287,7 +7278,7 @@
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="461" spans="1:3" hidden="1" outlineLevel="1">
@@ -7297,7 +7288,7 @@
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" outlineLevel="1">
@@ -7307,7 +7298,7 @@
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.55.0-env-svia-SNAPSHOT</v>
+        <v>1.66.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="463" spans="1:3" hidden="1" outlineLevel="1">
@@ -7317,7 +7308,7 @@
       </c>
       <c r="C463" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="464" spans="1:3" hidden="1" outlineLevel="1">
@@ -7327,7 +7318,7 @@
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="465" spans="1:3" hidden="1" outlineLevel="1">
@@ -7337,7 +7328,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" outlineLevel="1">
@@ -7347,7 +7338,7 @@
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" outlineLevel="1">
@@ -7357,7 +7348,7 @@
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="468" spans="1:3" hidden="1" outlineLevel="1">
@@ -7367,7 +7358,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" hidden="1" outlineLevel="1">
@@ -7377,7 +7368,7 @@
       </c>
       <c r="C469" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="470" spans="1:3" hidden="1" outlineLevel="1">
@@ -7387,7 +7378,7 @@
       </c>
       <c r="C470" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.29.0-env-svia-SNAPSHOT</v>
+        <v>1.30.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="471" spans="1:3" hidden="1" outlineLevel="1">
@@ -7397,12 +7388,12 @@
       </c>
       <c r="C471" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="472" spans="1:3" collapsed="1">
       <c r="A472" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -7414,7 +7405,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" outlineLevel="1">
@@ -7424,7 +7415,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" outlineLevel="1">
@@ -7434,7 +7425,7 @@
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C27</f>
-        <v>1.55.0-env-svia-SNAPSHOT</v>
+        <v>1.66.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="476" spans="1:3" hidden="1" outlineLevel="1">
@@ -7444,7 +7435,7 @@
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="477" spans="1:3" hidden="1" outlineLevel="1">
@@ -7454,7 +7445,7 @@
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="478" spans="1:3" hidden="1" outlineLevel="1">
@@ -7464,7 +7455,7 @@
       </c>
       <c r="C478" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="479" spans="1:3" hidden="1" outlineLevel="1">
@@ -7474,12 +7465,12 @@
       </c>
       <c r="C479" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.146.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="480" spans="1:3" collapsed="1">
       <c r="A480" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -7491,7 +7482,7 @@
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.143.0-env-svia-SNAPSHOT</v>
+        <v>1.146.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="482" spans="1:3" hidden="1" outlineLevel="1">
@@ -7501,7 +7492,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.57.0-env-svia-SNAPSHOT</v>
+        <v>1.58.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" hidden="1" outlineLevel="1">
@@ -7511,7 +7502,7 @@
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="484" spans="1:3" hidden="1" outlineLevel="1">
@@ -7521,7 +7512,7 @@
       </c>
       <c r="C484" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="485" spans="1:3" hidden="1" outlineLevel="1">
@@ -7531,19 +7522,19 @@
       </c>
       <c r="C485" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="486" spans="1:3" collapsed="1">
       <c r="A486" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -7555,7 +7546,7 @@
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C86</f>
-        <v>1.47.0-env-svia-SNAPSHOT</v>
+        <v>1.54.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="489" spans="1:3" hidden="1" outlineLevel="1">
@@ -7565,7 +7556,7 @@
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.35.0-env-svia-SNAPSHOT</v>
+        <v>1.43.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="490" spans="1:3" hidden="1" outlineLevel="1">
@@ -7575,7 +7566,7 @@
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C32</f>
-        <v>1.19.0-env-svia-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="491" spans="1:3" hidden="1" outlineLevel="1">
@@ -7585,7 +7576,7 @@
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="492" spans="1:3" hidden="1" outlineLevel="1">
@@ -7595,7 +7586,7 @@
       </c>
       <c r="C492" t="str">
         <f>'Versioni EJB'!C82</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="493" spans="1:3" hidden="1" outlineLevel="1">
@@ -7605,7 +7596,7 @@
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C29</f>
-        <v>1.14.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="494" spans="1:3" hidden="1" outlineLevel="1">
@@ -7615,7 +7606,7 @@
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="495" spans="1:3" hidden="1" outlineLevel="1">
@@ -7625,7 +7616,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" outlineLevel="1">
@@ -7635,7 +7626,7 @@
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="497" spans="1:3" hidden="1" outlineLevel="1">
@@ -7645,7 +7636,7 @@
       </c>
       <c r="C497" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="498" spans="1:3" hidden="1" outlineLevel="1">
@@ -7655,7 +7646,7 @@
       </c>
       <c r="C498" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="499" spans="1:3" hidden="1" outlineLevel="1">
@@ -7665,7 +7656,7 @@
       </c>
       <c r="C499" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="500" spans="1:3" hidden="1" outlineLevel="1">
@@ -7675,12 +7666,12 @@
       </c>
       <c r="C500" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.18.0-env-svia-SNAPSHOT</v>
+        <v>1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="501" spans="1:3" collapsed="1">
       <c r="A501" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -7692,7 +7683,7 @@
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.131.0-env-svia-SNAPSHOT</v>
+        <v>1.132.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="503" spans="1:3" hidden="1" outlineLevel="1">
@@ -7702,7 +7693,7 @@
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.224.0-env-svia-SNAPSHOT</v>
+        <v>1.233.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="504" spans="1:3" hidden="1" outlineLevel="1">
@@ -7712,7 +7703,7 @@
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="505" spans="1:3" hidden="1" outlineLevel="1">
@@ -7722,7 +7713,7 @@
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.22.0-env-svia-SNAPSHOT</v>
+        <v>1.24.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="506" spans="1:3" hidden="1" outlineLevel="1">
@@ -7732,7 +7723,7 @@
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="507" spans="1:3" hidden="1" outlineLevel="1">
@@ -7742,7 +7733,7 @@
       </c>
       <c r="C507" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="508" spans="1:3" hidden="1" outlineLevel="1">
@@ -7752,12 +7743,12 @@
       </c>
       <c r="C508" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="509" spans="1:3" collapsed="1">
       <c r="A509" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -7769,7 +7760,7 @@
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="511" spans="1:3" hidden="1" outlineLevel="1">
@@ -7779,7 +7770,7 @@
       </c>
       <c r="C511" t="str">
         <f>'Versioni EJB'!C17</f>
-        <v>1.79.0-env-svia-SNAPSHOT</v>
+        <v>1.93.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="512" spans="1:3" hidden="1" outlineLevel="1">
@@ -7789,7 +7780,7 @@
       </c>
       <c r="C512" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.131.0-env-svia-SNAPSHOT</v>
+        <v>1.132.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="513" spans="1:3" hidden="1" outlineLevel="1">
@@ -7799,19 +7790,19 @@
       </c>
       <c r="C513" t="str">
         <f>'Versioni EJB'!C34</f>
-        <v>1.15.0-env-svia-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="514" spans="1:3" collapsed="1">
       <c r="A514" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -7823,7 +7814,7 @@
       </c>
       <c r="C516" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.224.0-env-svia-SNAPSHOT</v>
+        <v>1.233.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="517" spans="1:3" outlineLevel="1">
@@ -7833,7 +7824,7 @@
       </c>
       <c r="C517" t="str">
         <f>'Versioni EJB'!C105</f>
-        <v>1.21.0-env-svia-SNAPSHOT</v>
+        <v>1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="518" spans="1:3" outlineLevel="1">
@@ -7843,7 +7834,7 @@
       </c>
       <c r="C518" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="519" spans="1:3" outlineLevel="1">
@@ -7853,7 +7844,7 @@
       </c>
       <c r="C519" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="520" spans="1:3" outlineLevel="1">
@@ -7863,7 +7854,7 @@
       </c>
       <c r="C520" t="str">
         <f>'Versioni EJB'!C40</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="521" spans="1:3" outlineLevel="1">
@@ -7873,7 +7864,7 @@
       </c>
       <c r="C521" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.11.0-env-svia-SNAPSHOT</v>
+        <v>1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="522" spans="1:3" outlineLevel="1">
@@ -7883,7 +7874,7 @@
       </c>
       <c r="C522" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.32.0-env-svia-SNAPSHOT</v>
+        <v>1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="523" spans="1:3" outlineLevel="1">
@@ -7893,7 +7884,7 @@
       </c>
       <c r="C523" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.24.0-env-svia-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="524" spans="1:3" outlineLevel="1">
@@ -7903,7 +7894,7 @@
       </c>
       <c r="C524" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0-env-svia-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="525" spans="1:3" outlineLevel="1">
@@ -7913,7 +7904,7 @@
       </c>
       <c r="C525" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.37.0-env-svia-SNAPSHOT</v>
+        <v>1.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="526" spans="1:3" outlineLevel="1">
@@ -7923,7 +7914,7 @@
       </c>
       <c r="C526" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.12.0-env-svia-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="527" spans="1:3" outlineLevel="1">
@@ -7933,7 +7924,7 @@
       </c>
       <c r="C527" t="str">
         <f>'Versioni EJB'!C41</f>
-        <v>1.26.0-env-svia-SNAPSHOT</v>
+        <v>1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -7941,16 +7932,6 @@
     <sortCondition ref="B20"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A198:C198"/>
     <mergeCell ref="A426:C426"/>
     <mergeCell ref="A434:C434"/>
     <mergeCell ref="A486:C486"/>
@@ -7960,6 +7941,16 @@
     <mergeCell ref="A352:C352"/>
     <mergeCell ref="A403:C403"/>
     <mergeCell ref="A412:C412"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A84:C84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3549C313-A72A-47DF-9EBE-46A58DCE1D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{3549C313-A72A-47DF-9EBE-46A58DCE1D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FE1AD0-952E-4065-A7E2-E56C71CD4C42}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versioni EJB" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
   <si>
     <t>BLOCCO</t>
   </si>
@@ -60,379 +61,379 @@
     <t>isp-ib-om</t>
   </si>
   <si>
-    <t>1.20.0</t>
+    <t>1.21.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
     <t>banca-ejb</t>
   </si>
   <si>
-    <t>1.14.0</t>
+    <t>1.15.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
     <t>callmeback-ejb</t>
   </si>
   <si>
-    <t>1.16.0</t>
+    <t>1.17.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
     <t>customerjourney-ejb</t>
   </si>
   <si>
-    <t>1.15.0</t>
+    <t>1.16.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
     <t>deviceregistry-ejb</t>
   </si>
   <si>
+    <t>stampe-ejb</t>
+  </si>
+  <si>
+    <t>userpreferences-ejb</t>
+  </si>
+  <si>
+    <t>wishlist-ejb</t>
+  </si>
+  <si>
+    <t>1.9.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>commons-ejb</t>
+  </si>
+  <si>
+    <t>1.18.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>notification-ejb</t>
+  </si>
+  <si>
+    <t>1.59.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>postvendita-common-ejb</t>
+  </si>
+  <si>
+    <t>profilocliente-ejb</t>
+  </si>
+  <si>
+    <t>1.97.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>adue-ejb</t>
+  </si>
+  <si>
+    <t>1.20.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>agenda-ejb</t>
+  </si>
+  <si>
+    <t>1.19.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>anagrafiche-ejb</t>
+  </si>
+  <si>
+    <t>antiriciclaggio-ejb</t>
+  </si>
+  <si>
+    <t>assegni-ejb</t>
+  </si>
+  <si>
+    <t>condizionieconomiche-ejb</t>
+  </si>
+  <si>
+    <t>1.14.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>digitalcollaboration-ejb</t>
+  </si>
+  <si>
+    <t>duplicatocarta-ejb</t>
+  </si>
+  <si>
+    <t>filialevirtuale-ejb</t>
+  </si>
+  <si>
+    <t>1.71.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>firmaunica-ejb</t>
+  </si>
+  <si>
+    <t>1.22.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>gestorelimiti-ejb</t>
+  </si>
+  <si>
+    <t>guestarea-ejb</t>
+  </si>
+  <si>
+    <t>1.28.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>jiffy-v2-ejb</t>
+  </si>
+  <si>
+    <t>listaprodotti-ejb</t>
+  </si>
+  <si>
+    <t>listiniinfofin-ejb</t>
+  </si>
+  <si>
+    <t>mobileconfigurator-ejb</t>
+  </si>
+  <si>
+    <t>monetaattiva-ejb</t>
+  </si>
+  <si>
+    <t>0.38.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>movepay-ejb</t>
+  </si>
+  <si>
+    <t>1.29.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>pagamenti-ejb</t>
+  </si>
+  <si>
+    <t>prestiti-ejb</t>
+  </si>
+  <si>
+    <t>saldo-ejb</t>
+  </si>
+  <si>
+    <t>variazionelimiti-definitiva-ejb</t>
+  </si>
+  <si>
+    <t>1.23.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>variazionelimiti-temporanea-ejb</t>
+  </si>
+  <si>
+    <t>commonssmallbusiness-ejb</t>
+  </si>
+  <si>
+    <t>condizioni-ejb</t>
+  </si>
+  <si>
+    <t>moneytransfer-ejb</t>
+  </si>
+  <si>
+    <t>pfm-ejb</t>
+  </si>
+  <si>
+    <t>rapporticliente-ejb</t>
+  </si>
+  <si>
+    <t>ricarichevarie-ejb</t>
+  </si>
+  <si>
+    <t>1.49.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>bonificimultipli-ejb</t>
+  </si>
+  <si>
+    <t>etichette-ejb</t>
+  </si>
+  <si>
+    <t>incassiribamultipli-ejb</t>
+  </si>
+  <si>
+    <t>xmedindi-ejb</t>
+  </si>
+  <si>
+    <t>rubriche-ejb</t>
+  </si>
+  <si>
+    <t>1.31.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>interactiondb-ejb</t>
+  </si>
+  <si>
+    <t>1.25.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>pendingprocesslist-ejb</t>
+  </si>
+  <si>
+    <t>autorizzazioni-ejb</t>
+  </si>
+  <si>
+    <t>bollettinopostale-ejb</t>
+  </si>
+  <si>
+    <t>bustine-ejb</t>
+  </si>
+  <si>
+    <t>f24-ejb</t>
+  </si>
+  <si>
+    <t>jiffy-ejb</t>
+  </si>
+  <si>
+    <t>1.27.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>matchingidbpfm-ejb</t>
+  </si>
+  <si>
+    <t>salvadanaio-ejb</t>
+  </si>
+  <si>
+    <t>tasse-ejb</t>
+  </si>
+  <si>
+    <t>1.61.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>bonifico-ejb</t>
+  </si>
+  <si>
+    <t>1.35.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>cardless-ejb</t>
+  </si>
+  <si>
+    <t>1.32.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>giroconto-ejb</t>
+  </si>
+  <si>
+    <t>pagamentibollette-ejb</t>
+  </si>
+  <si>
+    <t>1.78.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>ricaricacellulare-ejb</t>
+  </si>
+  <si>
+    <t>xmedindi-self-ejb</t>
+  </si>
+  <si>
+    <t>bonificoestero-ejb</t>
+  </si>
+  <si>
+    <t>carte-ejb</t>
+  </si>
+  <si>
+    <t>1.39.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>pagamentiribamultipli-ejb</t>
+  </si>
+  <si>
+    <t>revoche-ejb</t>
+  </si>
+  <si>
+    <t>applepay-ejb</t>
+  </si>
+  <si>
+    <t>bonus-ejb</t>
+  </si>
+  <si>
+    <t>catalogo-prodotti-ejb</t>
+  </si>
+  <si>
+    <t>1.12.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>masterpass-ejb</t>
+  </si>
+  <si>
+    <t>1.48.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>nfc-ejb</t>
+  </si>
+  <si>
+    <t>1.56.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>opricorrenti-ejb</t>
+  </si>
+  <si>
+    <t>pagamentimultipli-ejb</t>
+  </si>
+  <si>
+    <t>1.55.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>ristampa-pin-ejb</t>
+  </si>
+  <si>
+    <t>ricordamidi-ejb</t>
+  </si>
+  <si>
+    <t>comunicazioni-ejb</t>
+  </si>
+  <si>
+    <t>1.237.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>miogestore-ejb</t>
+  </si>
+  <si>
+    <t>1.149.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>bloccosblocco-ejb</t>
+  </si>
+  <si>
+    <t>condivisione-ejb</t>
+  </si>
+  <si>
+    <t>conto-ejb</t>
+  </si>
+  <si>
+    <t>globalposition-ejb</t>
+  </si>
+  <si>
+    <t>1.133.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>identitadigitale-ejb</t>
+  </si>
+  <si>
+    <t>1.45.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>proposte-ejb</t>
+  </si>
+  <si>
+    <t>1.13.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>digitalwallet-ejb</t>
+  </si>
+  <si>
+    <t>1.63.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>pulsantiera-ejb</t>
+  </si>
+  <si>
+    <t>trading-ejb</t>
+  </si>
+  <si>
+    <t>listaoperazioni-ejb</t>
+  </si>
+  <si>
+    <t>1.77.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
     <t>ricerca-ejb</t>
   </si>
   <si>
-    <t>1.7.0</t>
-  </si>
-  <si>
-    <t>stampe-ejb</t>
-  </si>
-  <si>
-    <t>userpreferences-ejb</t>
-  </si>
-  <si>
-    <t>wishlist-ejb</t>
-  </si>
-  <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
-    <t>commons-ejb</t>
-  </si>
-  <si>
-    <t>1.17.0</t>
-  </si>
-  <si>
-    <t>notification-ejb</t>
-  </si>
-  <si>
-    <t>1.58.0</t>
-  </si>
-  <si>
-    <t>postvendita-common-ejb</t>
-  </si>
-  <si>
-    <t>profilocliente-ejb</t>
-  </si>
-  <si>
-    <t>1.96.0</t>
-  </si>
-  <si>
-    <t>adue-ejb</t>
-  </si>
-  <si>
-    <t>1.19.0</t>
-  </si>
-  <si>
-    <t>agenda-ejb</t>
-  </si>
-  <si>
-    <t>1.18.0</t>
-  </si>
-  <si>
-    <t>anagrafiche-ejb</t>
-  </si>
-  <si>
-    <t>antiriciclaggio-ejb</t>
-  </si>
-  <si>
-    <t>assegni-ejb</t>
-  </si>
-  <si>
-    <t>condizionieconomiche-ejb</t>
-  </si>
-  <si>
-    <t>1.13.0</t>
-  </si>
-  <si>
-    <t>digitalcollaboration-ejb</t>
-  </si>
-  <si>
-    <t>duplicatocarta-ejb</t>
-  </si>
-  <si>
-    <t>filialevirtuale-ejb</t>
-  </si>
-  <si>
-    <t>1.69.0</t>
-  </si>
-  <si>
-    <t>firmaunica-ejb</t>
-  </si>
-  <si>
-    <t>1.21.0</t>
-  </si>
-  <si>
-    <t>gestorelimiti-ejb</t>
-  </si>
-  <si>
-    <t>guestarea-ejb</t>
-  </si>
-  <si>
-    <t>1.27.0</t>
-  </si>
-  <si>
-    <t>jiffy-v2-ejb</t>
-  </si>
-  <si>
-    <t>listaprodotti-ejb</t>
-  </si>
-  <si>
-    <t>listiniinfofin-ejb</t>
-  </si>
-  <si>
-    <t>mobileconfigurator-ejb</t>
-  </si>
-  <si>
-    <t>monetaattiva-ejb</t>
-  </si>
-  <si>
-    <t>0.37.0</t>
-  </si>
-  <si>
-    <t>movepay-ejb</t>
-  </si>
-  <si>
-    <t>1.28.0</t>
-  </si>
-  <si>
-    <t>pagamenti-ejb</t>
-  </si>
-  <si>
-    <t>prestiti-ejb</t>
-  </si>
-  <si>
-    <t>saldo-ejb</t>
-  </si>
-  <si>
-    <t>variazionelimiti-definitiva-ejb</t>
-  </si>
-  <si>
-    <t>1.22.0</t>
-  </si>
-  <si>
-    <t>variazionelimiti-temporanea-ejb</t>
-  </si>
-  <si>
-    <t>commonssmallbusiness-ejb</t>
-  </si>
-  <si>
-    <t>condizioni-ejb</t>
-  </si>
-  <si>
-    <t>moneytransfer-ejb</t>
-  </si>
-  <si>
-    <t>pfm-ejb</t>
-  </si>
-  <si>
-    <t>rapporticliente-ejb</t>
-  </si>
-  <si>
-    <t>ricarichevarie-ejb</t>
-  </si>
-  <si>
-    <t>1.48.0</t>
-  </si>
-  <si>
-    <t>bonificimultipli-ejb</t>
-  </si>
-  <si>
-    <t>etichette-ejb</t>
-  </si>
-  <si>
-    <t>incassiribamultipli-ejb</t>
-  </si>
-  <si>
-    <t>xmedindi-ejb</t>
-  </si>
-  <si>
-    <t>rubriche-ejb</t>
-  </si>
-  <si>
-    <t>1.30.0</t>
-  </si>
-  <si>
-    <t>interactiondb-ejb</t>
-  </si>
-  <si>
-    <t>1.24.0</t>
-  </si>
-  <si>
-    <t>pendingprocesslist-ejb</t>
-  </si>
-  <si>
-    <t>autorizzazioni-ejb</t>
-  </si>
-  <si>
-    <t>bollettinopostale-ejb</t>
-  </si>
-  <si>
-    <t>bustine-ejb</t>
-  </si>
-  <si>
-    <t>f24-ejb</t>
-  </si>
-  <si>
-    <t>jiffy-ejb</t>
-  </si>
-  <si>
-    <t>1.26.0</t>
-  </si>
-  <si>
-    <t>matchingidbpfm-ejb</t>
-  </si>
-  <si>
-    <t>salvadanaio-ejb</t>
-  </si>
-  <si>
-    <t>tasse-ejb</t>
-  </si>
-  <si>
-    <t>1.60.0</t>
-  </si>
-  <si>
-    <t>bonifico-ejb</t>
-  </si>
-  <si>
-    <t>1.34.0</t>
-  </si>
-  <si>
-    <t>cardless-ejb</t>
-  </si>
-  <si>
-    <t>1.31.0</t>
-  </si>
-  <si>
-    <t>giroconto-ejb</t>
-  </si>
-  <si>
-    <t>pagamentibollette-ejb</t>
-  </si>
-  <si>
-    <t>1.77.0</t>
-  </si>
-  <si>
-    <t>ricaricacellulare-ejb</t>
-  </si>
-  <si>
-    <t>xmedindi-self-ejb</t>
-  </si>
-  <si>
-    <t>bonificoestero-ejb</t>
-  </si>
-  <si>
-    <t>carte-ejb</t>
-  </si>
-  <si>
-    <t>1.38.0</t>
-  </si>
-  <si>
-    <t>pagamentiribamultipli-ejb</t>
-  </si>
-  <si>
-    <t>revoche-ejb</t>
-  </si>
-  <si>
-    <t>applepay-ejb</t>
-  </si>
-  <si>
-    <t>bonus-ejb</t>
-  </si>
-  <si>
-    <t>catalogo-prodotti-ejb</t>
-  </si>
-  <si>
-    <t>1.11.0</t>
-  </si>
-  <si>
-    <t>masterpass-ejb</t>
-  </si>
-  <si>
-    <t>1.47.0</t>
-  </si>
-  <si>
-    <t>nfc-ejb</t>
-  </si>
-  <si>
-    <t>1.55.0</t>
-  </si>
-  <si>
-    <t>opricorrenti-ejb</t>
-  </si>
-  <si>
-    <t>pagamentimultipli-ejb</t>
-  </si>
-  <si>
-    <t>1.54.0</t>
-  </si>
-  <si>
-    <t>ristampa-pin-ejb</t>
-  </si>
-  <si>
-    <t>ricordamidi-ejb</t>
-  </si>
-  <si>
-    <t>comunicazioni-ejb</t>
-  </si>
-  <si>
-    <t>1.235.0</t>
-  </si>
-  <si>
-    <t>miogestore-ejb</t>
-  </si>
-  <si>
-    <t>1.148.0</t>
-  </si>
-  <si>
-    <t>bloccosblocco-ejb</t>
-  </si>
-  <si>
-    <t>condivisione-ejb</t>
-  </si>
-  <si>
-    <t>conto-ejb</t>
-  </si>
-  <si>
-    <t>globalposition-ejb</t>
-  </si>
-  <si>
-    <t>1.132.0</t>
-  </si>
-  <si>
-    <t>identitadigitale-ejb</t>
-  </si>
-  <si>
-    <t>1.44.0</t>
-  </si>
-  <si>
-    <t>proposte-ejb</t>
-  </si>
-  <si>
-    <t>1.12.0</t>
-  </si>
-  <si>
-    <t>digitalwallet-ejb</t>
-  </si>
-  <si>
-    <t>1.62.0</t>
-  </si>
-  <si>
-    <t>pulsantiera-ejb</t>
-  </si>
-  <si>
-    <t>trading-ejb</t>
-  </si>
-  <si>
-    <t>listaoperazioni-ejb</t>
-  </si>
-  <si>
-    <t>1.76.0</t>
+    <t>1.8.0-env-svis-SNAPSHOT</t>
   </si>
   <si>
     <t>EJB</t>
@@ -514,7 +515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +536,20 @@
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -575,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -592,9 +607,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,19 +894,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="92.21875" customWidth="1"/>
-    <col min="7" max="7" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="25.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="92.25" customWidth="1"/>
+    <col min="7" max="7" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -916,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -932,11 +948,11 @@
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("&lt;",E2,".version&gt;",C2,"&lt;/",E2,".version&gt;")</f>
-        <v>&lt;isp-ib-om.version&gt;1.20.0&lt;/isp-ib-om.version&gt;</v>
+        <v>&lt;isp-ib-om.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/isp-ib-om.version&gt;</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(E2," --&gt; ",C2)</f>
-        <v>isp-ib-om --&gt; 1.20.0</v>
+        <v>isp-ib-om --&gt; 1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -948,8 +964,8 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" ht="13.5">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -964,15 +980,15 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F10" si="0">CONCATENATE("&lt;",E4,".version&gt;",C4,"&lt;/",E4,".version&gt;")</f>
-        <v>&lt;banca.version&gt;1.14.0&lt;/banca.version&gt;</v>
+        <v>&lt;banca.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/banca.version&gt;</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G66" si="1">CONCATENATE(E4," --&gt; ",C4)</f>
-        <v>banca --&gt; 1.14.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9"/>
+        <v>banca --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -985,15 +1001,15 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;callmeback.version&gt;1.16.0&lt;/callmeback.version&gt;</v>
+        <v>&lt;callmeback.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/callmeback.version&gt;</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>callmeback --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
+        <v>callmeback --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1006,15 +1022,15 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;customerjourney.version&gt;1.15.0&lt;/customerjourney.version&gt;</v>
+        <v>&lt;customerjourney.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/customerjourney.version&gt;</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>customerjourney --&gt; 1.15.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
+        <v>customerjourney --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5">
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1027,17 +1043,17 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;deviceregistry.version&gt;1.16.0&lt;/deviceregistry.version&gt;</v>
+        <v>&lt;deviceregistry.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/deviceregistry.version&gt;</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>deviceregistry --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
+        <v>deviceregistry --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5">
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -1048,17 +1064,17 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;stampe.version&gt;1.16.0&lt;/stampe.version&gt;</v>
+        <v>&lt;stampe.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/stampe.version&gt;</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>stampe --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
+        <v>stampe --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5">
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -1069,20 +1085,20 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;userpreferences.version&gt;1.15.0&lt;/userpreferences.version&gt;</v>
+        <v>&lt;userpreferences.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/userpreferences.version&gt;</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>userpreferences --&gt; 1.15.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
+        <v>userpreferences --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5">
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
@@ -1090,11 +1106,11 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;wishlist.version&gt;1.8.0&lt;/wishlist.version&gt;</v>
+        <v>&lt;wishlist.version&gt;1.9.0-env-svis-SNAPSHOT&lt;/wishlist.version&gt;</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>wishlist --&gt; 1.8.0</v>
+        <v>wishlist --&gt; 1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1106,15 +1122,15 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" ht="13.5">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
@@ -1122,20 +1138,20 @@
       </c>
       <c r="F12" t="str">
         <f>CONCATENATE("&lt;",E12,".version&gt;",C12,"&lt;/",E12,".version&gt;")</f>
-        <v>&lt;commons.version&gt;1.17.0&lt;/commons.version&gt;</v>
+        <v>&lt;commons.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/commons.version&gt;</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>commons --&gt; 1.17.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
+        <v>commons --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5">
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
@@ -1143,17 +1159,17 @@
       </c>
       <c r="F13" t="str">
         <f>CONCATENATE("&lt;",E13,".version&gt;",C13,"&lt;/",E13,".version&gt;")</f>
-        <v>&lt;notification.version&gt;1.58.0&lt;/notification.version&gt;</v>
+        <v>&lt;notification.version&gt;1.59.0-env-svis-SNAPSHOT&lt;/notification.version&gt;</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>notification --&gt; 1.58.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
+        <v>notification --&gt; 1.59.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5">
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -1164,11 +1180,11 @@
       </c>
       <c r="F14" t="str">
         <f>CONCATENATE("&lt;",E14,".version&gt;",C14,"&lt;/",E14,".version&gt;")</f>
-        <v>&lt;postvendita-common.version&gt;1.15.0&lt;/postvendita-common.version&gt;</v>
+        <v>&lt;postvendita-common.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/postvendita-common.version&gt;</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>postvendita-common --&gt; 1.15.0</v>
+        <v>postvendita-common --&gt; 1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1180,15 +1196,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="3">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
@@ -1196,11 +1212,11 @@
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE("&lt;",E16,".version&gt;",C16,"&lt;/",E16,".version&gt;")</f>
-        <v>&lt;profilocliente.version&gt;1.96.0&lt;/profilocliente.version&gt;</v>
+        <v>&lt;profilocliente.version&gt;1.97.0-env-svis-SNAPSHOT&lt;/profilocliente.version&gt;</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>profilocliente --&gt; 1.96.0</v>
+        <v>profilocliente --&gt; 1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1212,15 +1228,15 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9">
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="10">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
@@ -1228,20 +1244,20 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ref="F18:F29" si="3">CONCATENATE("&lt;",E18,".version&gt;",C18,"&lt;/",E18,".version&gt;")</f>
-        <v>&lt;adue.version&gt;1.19.0&lt;/adue.version&gt;</v>
+        <v>&lt;adue.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/adue.version&gt;</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>adue --&gt; 1.19.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
+        <v>adue --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25">
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -1249,19 +1265,19 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;agenda.version&gt;1.18.0&lt;/agenda.version&gt;</v>
+        <v>&lt;agenda.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/agenda.version&gt;</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>agenda --&gt; 1.18.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
+        <v>agenda --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="str">
@@ -1270,19 +1286,19 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;anagrafiche.version&gt;1.16.0&lt;/anagrafiche.version&gt;</v>
+        <v>&lt;anagrafiche.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/anagrafiche.version&gt;</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>anagrafiche --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
+        <v>anagrafiche --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="str">
@@ -1291,19 +1307,19 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;antiriciclaggio.version&gt;1.16.0&lt;/antiriciclaggio.version&gt;</v>
+        <v>&lt;antiriciclaggio.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/antiriciclaggio.version&gt;</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>antiriciclaggio --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
+        <v>antiriciclaggio --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="str">
@@ -1312,20 +1328,20 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;assegni.version&gt;1.20.0&lt;/assegni.version&gt;</v>
+        <v>&lt;assegni.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/assegni.version&gt;</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>assegni --&gt; 1.20.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
+        <v>assegni --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25">
+      <c r="A23" s="10"/>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
@@ -1333,19 +1349,19 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;condizionieconomiche.version&gt;1.13.0&lt;/condizionieconomiche.version&gt;</v>
+        <v>&lt;condizionieconomiche.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/condizionieconomiche.version&gt;</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>condizionieconomiche --&gt; 1.13.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
+        <v>condizionieconomiche --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="10"/>
       <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="str">
@@ -1354,20 +1370,20 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;digitalcollaboration.version&gt;1.16.0&lt;/digitalcollaboration.version&gt;</v>
+        <v>&lt;digitalcollaboration.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/digitalcollaboration.version&gt;</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>digitalcollaboration --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
+        <v>digitalcollaboration --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
@@ -1375,20 +1391,20 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;duplicatocarta.version&gt;1.17.0&lt;/duplicatocarta.version&gt;</v>
+        <v>&lt;duplicatocarta.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/duplicatocarta.version&gt;</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>duplicatocarta --&gt; 1.17.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
+        <v>duplicatocarta --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25">
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -1396,20 +1412,20 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;filialevirtuale.version&gt;1.69.0&lt;/filialevirtuale.version&gt;</v>
+        <v>&lt;filialevirtuale.version&gt;1.71.0-env-svis-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>filialevirtuale --&gt; 1.69.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
+        <v>filialevirtuale --&gt; 1.71.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25">
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -1417,19 +1433,19 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;firmaunica.version&gt;1.21.0&lt;/firmaunica.version&gt;</v>
+        <v>&lt;firmaunica.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/firmaunica.version&gt;</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>firmaunica --&gt; 1.21.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
+        <v>firmaunica --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="str">
@@ -1438,20 +1454,20 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;gestorelimiti.version&gt;1.16.0&lt;/gestorelimiti.version&gt;</v>
+        <v>&lt;gestorelimiti.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/gestorelimiti.version&gt;</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>gestorelimiti --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
+        <v>gestorelimiti --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25">
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
@@ -1459,11 +1475,11 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;guestarea.version&gt;1.27.0&lt;/guestarea.version&gt;</v>
+        <v>&lt;guestarea.version&gt;1.28.0-env-svis-SNAPSHOT&lt;/guestarea.version&gt;</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>guestarea --&gt; 1.27.0</v>
+        <v>guestarea --&gt; 1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1475,15 +1491,15 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9">
+    <row r="31" spans="1:7" ht="14.25">
+      <c r="A31" s="10">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
@@ -1491,19 +1507,19 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ref="F31:F41" si="4">CONCATENATE("&lt;",E31,".version&gt;",C31,"&lt;/",E31,".version&gt;")</f>
-        <v>&lt;jiffy-v2.version&gt;1.21.0&lt;/jiffy-v2.version&gt;</v>
+        <v>&lt;jiffy-v2.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/jiffy-v2.version&gt;</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>jiffy-v2 --&gt; 1.21.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
+        <v>jiffy-v2 --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25">
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="str">
@@ -1512,19 +1528,19 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;listaprodotti.version&gt;1.20.0&lt;/listaprodotti.version&gt;</v>
+        <v>&lt;listaprodotti.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/listaprodotti.version&gt;</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>listaprodotti --&gt; 1.20.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
+        <v>listaprodotti --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25">
+      <c r="A33" s="10"/>
       <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="str">
@@ -1533,20 +1549,20 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;listiniinfofin.version&gt;1.16.0&lt;/listiniinfofin.version&gt;</v>
+        <v>&lt;listiniinfofin.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/listiniinfofin.version&gt;</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>listiniinfofin --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
+        <v>listiniinfofin --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25">
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -1554,20 +1570,20 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;mobileconfigurator.version&gt;1.13.0&lt;/mobileconfigurator.version&gt;</v>
+        <v>&lt;mobileconfigurator.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/mobileconfigurator.version&gt;</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>mobileconfigurator --&gt; 1.13.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
+        <v>mobileconfigurator --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25">
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -1575,20 +1591,20 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;monetaattiva.version&gt;0.37.0&lt;/monetaattiva.version&gt;</v>
+        <v>&lt;monetaattiva.version&gt;0.38.0-env-svis-SNAPSHOT&lt;/monetaattiva.version&gt;</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>monetaattiva --&gt; 0.37.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
+        <v>monetaattiva --&gt; 0.38.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25">
+      <c r="A36" s="10"/>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -1596,19 +1612,19 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;movepay.version&gt;1.28.0&lt;/movepay.version&gt;</v>
+        <v>&lt;movepay.version&gt;1.29.0-env-svis-SNAPSHOT&lt;/movepay.version&gt;</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>movepay --&gt; 1.28.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="9"/>
+        <v>movepay --&gt; 1.29.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25">
+      <c r="A37" s="10"/>
       <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="str">
@@ -1617,20 +1633,20 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;pagamenti.version&gt;1.14.0&lt;/pagamenti.version&gt;</v>
+        <v>&lt;pagamenti.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/pagamenti.version&gt;</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>pagamenti --&gt; 1.14.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
+        <v>pagamenti --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25">
+      <c r="A38" s="10"/>
       <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -1638,20 +1654,20 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;prestiti.version&gt;1.18.0&lt;/prestiti.version&gt;</v>
+        <v>&lt;prestiti.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/prestiti.version&gt;</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>prestiti --&gt; 1.18.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
+        <v>prestiti --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.25">
+      <c r="A39" s="10"/>
       <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -1659,20 +1675,20 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;saldo.version&gt;1.27.0&lt;/saldo.version&gt;</v>
+        <v>&lt;saldo.version&gt;1.28.0-env-svis-SNAPSHOT&lt;/saldo.version&gt;</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>saldo --&gt; 1.27.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
+        <v>saldo --&gt; 1.28.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="10"/>
       <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -1680,20 +1696,20 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;variazionelimiti-definitiva.version&gt;1.22.0&lt;/variazionelimiti-definitiva.version&gt;</v>
+        <v>&lt;variazionelimiti-definitiva.version&gt;1.23.0-env-svis-SNAPSHOT&lt;/variazionelimiti-definitiva.version&gt;</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>variazionelimiti-definitiva --&gt; 1.22.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
+        <v>variazionelimiti-definitiva --&gt; 1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25">
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -1701,11 +1717,11 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;variazionelimiti-temporanea.version&gt;1.17.0&lt;/variazionelimiti-temporanea.version&gt;</v>
+        <v>&lt;variazionelimiti-temporanea.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/variazionelimiti-temporanea.version&gt;</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>variazionelimiti-temporanea --&gt; 1.17.0</v>
+        <v>variazionelimiti-temporanea --&gt; 1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1717,12 +1733,14 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="9"/>
+    <row r="43" spans="1:7" ht="14.25">
+      <c r="A43" s="10">
+        <v>6</v>
+      </c>
       <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="str">
@@ -1731,20 +1749,20 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ref="F43:F48" si="5">CONCATENATE("&lt;",E43,".version&gt;",C43,"&lt;/",E43,".version&gt;")</f>
-        <v>&lt;commonssmallbusiness.version&gt;1.15.0&lt;/commonssmallbusiness.version&gt;</v>
+        <v>&lt;commonssmallbusiness.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/commonssmallbusiness.version&gt;</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>commonssmallbusiness --&gt; 1.15.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="9"/>
+        <v>commonssmallbusiness --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25">
+      <c r="A44" s="10"/>
       <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
@@ -1752,19 +1770,19 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;condizioni.version&gt;1.13.0&lt;/condizioni.version&gt;</v>
+        <v>&lt;condizioni.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/condizioni.version&gt;</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>condizioni --&gt; 1.13.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="9"/>
+        <v>condizioni --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25">
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="str">
@@ -1773,20 +1791,20 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;moneytransfer.version&gt;1.16.0&lt;/moneytransfer.version&gt;</v>
+        <v>&lt;moneytransfer.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/moneytransfer.version&gt;</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>moneytransfer --&gt; 1.16.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="9"/>
+        <v>moneytransfer --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25">
+      <c r="A46" s="10"/>
       <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -1794,19 +1812,19 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;pfm.version&gt;1.28.0&lt;/pfm.version&gt;</v>
+        <v>&lt;pfm.version&gt;1.29.0-env-svis-SNAPSHOT&lt;/pfm.version&gt;</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>pfm --&gt; 1.28.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="9"/>
+        <v>pfm --&gt; 1.29.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25">
+      <c r="A47" s="10"/>
       <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E47" t="str">
@@ -1815,20 +1833,20 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;rapporticliente.version&gt;1.15.0&lt;/rapporticliente.version&gt;</v>
+        <v>&lt;rapporticliente.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/rapporticliente.version&gt;</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>rapporticliente --&gt; 1.15.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
+        <v>rapporticliente --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25">
+      <c r="A48" s="10"/>
       <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -1836,11 +1854,11 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;ricarichevarie.version&gt;1.48.0&lt;/ricarichevarie.version&gt;</v>
+        <v>&lt;ricarichevarie.version&gt;1.49.0-env-svis-SNAPSHOT&lt;/ricarichevarie.version&gt;</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>ricarichevarie --&gt; 1.48.0</v>
+        <v>ricarichevarie --&gt; 1.49.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1852,15 +1870,15 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="9">
+    <row r="50" spans="1:7" ht="14.25">
+      <c r="A50" s="10">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -1868,20 +1886,20 @@
       </c>
       <c r="F50" t="str">
         <f>CONCATENATE("&lt;",E50,".version&gt;",C50,"&lt;/",E50,".version&gt;")</f>
-        <v>&lt;bonificimultipli.version&gt;1.19.0&lt;/bonificimultipli.version&gt;</v>
+        <v>&lt;bonificimultipli.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/bonificimultipli.version&gt;</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>bonificimultipli --&gt; 1.19.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="9"/>
+        <v>bonificimultipli --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.25">
+      <c r="A51" s="10"/>
       <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
@@ -1889,20 +1907,20 @@
       </c>
       <c r="F51" t="str">
         <f>CONCATENATE("&lt;",E51,".version&gt;",C51,"&lt;/",E51,".version&gt;")</f>
-        <v>&lt;etichette.version&gt;1.22.0&lt;/etichette.version&gt;</v>
+        <v>&lt;etichette.version&gt;1.23.0-env-svis-SNAPSHOT&lt;/etichette.version&gt;</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>etichette --&gt; 1.22.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
+        <v>etichette --&gt; 1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.25">
+      <c r="A52" s="10"/>
       <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
@@ -1910,20 +1928,20 @@
       </c>
       <c r="F52" t="str">
         <f>CONCATENATE("&lt;",E52,".version&gt;",C52,"&lt;/",E52,".version&gt;")</f>
-        <v>&lt;incassiribamultipli.version&gt;1.17.0&lt;/incassiribamultipli.version&gt;</v>
+        <v>&lt;incassiribamultipli.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/incassiribamultipli.version&gt;</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>incassiribamultipli --&gt; 1.17.0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
+        <v>incassiribamultipli --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.25">
+      <c r="A53" s="10"/>
       <c r="B53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
@@ -1931,11 +1949,11 @@
       </c>
       <c r="F53" t="str">
         <f>CONCATENATE("&lt;",E53,".version&gt;",C53,"&lt;/",E53,".version&gt;")</f>
-        <v>&lt;xmedindi.version&gt;1.28.0&lt;/xmedindi.version&gt;</v>
+        <v>&lt;xmedindi.version&gt;1.29.0-env-svis-SNAPSHOT&lt;/xmedindi.version&gt;</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>xmedindi --&gt; 1.28.0</v>
+        <v>xmedindi --&gt; 1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1947,15 +1965,15 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="3">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -1963,11 +1981,11 @@
       </c>
       <c r="F55" t="str">
         <f>CONCATENATE("&lt;",E55,".version&gt;",C55,"&lt;/",E55,".version&gt;")</f>
-        <v>&lt;rubriche.version&gt;1.30.0&lt;/rubriche.version&gt;</v>
+        <v>&lt;rubriche.version&gt;1.31.0-env-svis-SNAPSHOT&lt;/rubriche.version&gt;</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>rubriche --&gt; 1.30.0</v>
+        <v>rubriche --&gt; 1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1979,15 +1997,15 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="3">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -1995,11 +2013,11 @@
       </c>
       <c r="F57" t="str">
         <f>CONCATENATE("&lt;",E57,".version&gt;",C57,"&lt;/",E57,".version&gt;")</f>
-        <v>&lt;interactiondb.version&gt;1.24.0&lt;/interactiondb.version&gt;</v>
+        <v>&lt;interactiondb.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/interactiondb.version&gt;</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>interactiondb --&gt; 1.24.0</v>
+        <v>interactiondb --&gt; 1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2011,15 +2029,15 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="6">
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E59" t="str">
         <f>LEFT(B59,LEN(B59)-4)</f>
@@ -2027,11 +2045,11 @@
       </c>
       <c r="F59" t="str">
         <f>CONCATENATE("&lt;",E59,".version&gt;",C59,"&lt;/",E59,".version&gt;")</f>
-        <v>&lt;pendingprocesslist.version&gt;1.17.0&lt;/pendingprocesslist.version&gt;</v>
+        <v>&lt;pendingprocesslist.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/pendingprocesslist.version&gt;</v>
       </c>
       <c r="G59" t="str">
         <f>CONCATENATE(E59," --&gt; ",C59)</f>
-        <v>pendingprocesslist --&gt; 1.17.0</v>
+        <v>pendingprocesslist --&gt; 1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2043,14 +2061,14 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="9">
+    <row r="61" spans="1:7" ht="14.25">
+      <c r="A61" s="10">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="str">
@@ -2059,20 +2077,20 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" ref="F61:F68" si="6">CONCATENATE("&lt;",E61,".version&gt;",C61,"&lt;/",E61,".version&gt;")</f>
-        <v>&lt;autorizzazioni.version&gt;1.20.0&lt;/autorizzazioni.version&gt;</v>
+        <v>&lt;autorizzazioni.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/autorizzazioni.version&gt;</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>autorizzazioni --&gt; 1.20.0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="9"/>
+        <v>autorizzazioni --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25">
+      <c r="A62" s="10"/>
       <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -2080,20 +2098,20 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;bollettinopostale.version&gt;1.19.0&lt;/bollettinopostale.version&gt;</v>
+        <v>&lt;bollettinopostale.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/bollettinopostale.version&gt;</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>bollettinopostale --&gt; 1.19.0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="9"/>
+        <v>bollettinopostale --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.25">
+      <c r="A63" s="10"/>
       <c r="B63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>37</v>
+        <v>77</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -2101,20 +2119,20 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;bustine.version&gt;1.13.0&lt;/bustine.version&gt;</v>
+        <v>&lt;bustine.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/bustine.version&gt;</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>bustine --&gt; 1.13.0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="9"/>
+        <v>bustine --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.25">
+      <c r="A64" s="10"/>
       <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
@@ -2122,20 +2140,20 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;f24.version&gt;1.17.0&lt;/f24.version&gt;</v>
+        <v>&lt;f24.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/f24.version&gt;</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>f24 --&gt; 1.17.0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="9"/>
+        <v>f24 --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25">
+      <c r="A65" s="10"/>
       <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
@@ -2143,19 +2161,19 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;jiffy.version&gt;1.26.0&lt;/jiffy.version&gt;</v>
+        <v>&lt;jiffy.version&gt;1.27.0-env-svis-SNAPSHOT&lt;/jiffy.version&gt;</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>jiffy --&gt; 1.26.0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="9"/>
+        <v>jiffy --&gt; 1.27.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.25">
+      <c r="A66" s="10"/>
       <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E66" t="str">
@@ -2164,20 +2182,20 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;matchingidbpfm.version&gt;1.14.0&lt;/matchingidbpfm.version&gt;</v>
+        <v>&lt;matchingidbpfm.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/matchingidbpfm.version&gt;</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
-        <v>matchingidbpfm --&gt; 1.14.0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="9"/>
+        <v>matchingidbpfm --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.25">
+      <c r="A67" s="10"/>
       <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
@@ -2185,20 +2203,20 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;salvadanaio.version&gt;1.24.0&lt;/salvadanaio.version&gt;</v>
+        <v>&lt;salvadanaio.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/salvadanaio.version&gt;</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G108" si="7">CONCATENATE(E67," --&gt; ",C67)</f>
-        <v>salvadanaio --&gt; 1.24.0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="9"/>
+        <v>salvadanaio --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.25">
+      <c r="A68" s="10"/>
       <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -2206,11 +2224,11 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tasse.version&gt;1.60.0&lt;/tasse.version&gt;</v>
+        <v>&lt;tasse.version&gt;1.61.0-env-svis-SNAPSHOT&lt;/tasse.version&gt;</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="7"/>
-        <v>tasse --&gt; 1.60.0</v>
+        <v>tasse --&gt; 1.61.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2222,15 +2240,15 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="9">
+    <row r="70" spans="1:7" ht="14.25">
+      <c r="A70" s="10">
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:E108" si="8">LEFT(B70,LEN(B70)-4)</f>
@@ -2238,20 +2256,20 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:F75" si="9">CONCATENATE("&lt;",E70,".version&gt;",C70,"&lt;/",E70,".version&gt;")</f>
-        <v>&lt;bonifico.version&gt;1.34.0&lt;/bonifico.version&gt;</v>
+        <v>&lt;bonifico.version&gt;1.35.0-env-svis-SNAPSHOT&lt;/bonifico.version&gt;</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="7"/>
-        <v>bonifico --&gt; 1.34.0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="9"/>
+        <v>bonifico --&gt; 1.35.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.25">
+      <c r="A71" s="10"/>
       <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="8"/>
@@ -2259,20 +2277,20 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;cardless.version&gt;1.31.0&lt;/cardless.version&gt;</v>
+        <v>&lt;cardless.version&gt;1.32.0-env-svis-SNAPSHOT&lt;/cardless.version&gt;</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="7"/>
-        <v>cardless --&gt; 1.31.0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="9"/>
+        <v>cardless --&gt; 1.32.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.25">
+      <c r="A72" s="10"/>
       <c r="B72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="8"/>
@@ -2280,20 +2298,20 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;giroconto.version&gt;1.21.0&lt;/giroconto.version&gt;</v>
+        <v>&lt;giroconto.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/giroconto.version&gt;</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="7"/>
-        <v>giroconto --&gt; 1.21.0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="9"/>
+        <v>giroconto --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.25">
+      <c r="A73" s="10"/>
       <c r="B73" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="8"/>
@@ -2301,20 +2319,20 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;pagamentibollette.version&gt;1.77.0&lt;/pagamentibollette.version&gt;</v>
+        <v>&lt;pagamentibollette.version&gt;1.78.0-env-svis-SNAPSHOT&lt;/pagamentibollette.version&gt;</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentibollette --&gt; 1.77.0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="9"/>
+        <v>pagamentibollette --&gt; 1.78.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.25">
+      <c r="A74" s="10"/>
       <c r="B74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>30</v>
+        <v>92</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="8"/>
@@ -2322,19 +2340,19 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;ricaricacellulare.version&gt;1.19.0&lt;/ricaricacellulare.version&gt;</v>
+        <v>&lt;ricaricacellulare.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/ricaricacellulare.version&gt;</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="7"/>
-        <v>ricaricacellulare --&gt; 1.19.0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="9"/>
+        <v>ricaricacellulare --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14.25">
+      <c r="A75" s="10"/>
       <c r="B75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="str">
@@ -2343,11 +2361,11 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;xmedindi-self.version&gt;1.15.0&lt;/xmedindi-self.version&gt;</v>
+        <v>&lt;xmedindi-self.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/xmedindi-self.version&gt;</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="7"/>
-        <v>xmedindi-self --&gt; 1.15.0</v>
+        <v>xmedindi-self --&gt; 1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2359,15 +2377,15 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="9">
+    <row r="77" spans="1:7" ht="14.25">
+      <c r="A77" s="10">
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="8"/>
@@ -2375,20 +2393,20 @@
       </c>
       <c r="F77" t="str">
         <f>CONCATENATE("&lt;",E77,".version&gt;",C77,"&lt;/",E77,".version&gt;")</f>
-        <v>&lt;bonificoestero.version&gt;1.24.0&lt;/bonificoestero.version&gt;</v>
+        <v>&lt;bonificoestero.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/bonificoestero.version&gt;</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="7"/>
-        <v>bonificoestero --&gt; 1.24.0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="9"/>
+        <v>bonificoestero --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25">
+      <c r="A78" s="10"/>
       <c r="B78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="8"/>
@@ -2396,20 +2414,20 @@
       </c>
       <c r="F78" t="str">
         <f>CONCATENATE("&lt;",E78,".version&gt;",C78,"&lt;/",E78,".version&gt;")</f>
-        <v>&lt;carte.version&gt;1.38.0&lt;/carte.version&gt;</v>
+        <v>&lt;carte.version&gt;1.39.0-env-svis-SNAPSHOT&lt;/carte.version&gt;</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="7"/>
-        <v>carte --&gt; 1.38.0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="9"/>
+        <v>carte --&gt; 1.39.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25">
+      <c r="A79" s="10"/>
       <c r="B79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="8"/>
@@ -2417,20 +2435,20 @@
       </c>
       <c r="F79" t="str">
         <f>CONCATENATE("&lt;",E79,".version&gt;",C79,"&lt;/",E79,".version&gt;")</f>
-        <v>&lt;pagamentiribamultipli.version&gt;1.21.0&lt;/pagamentiribamultipli.version&gt;</v>
+        <v>&lt;pagamentiribamultipli.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/pagamentiribamultipli.version&gt;</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentiribamultipli --&gt; 1.21.0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="9"/>
+        <v>pagamentiribamultipli --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.25">
+      <c r="A80" s="10"/>
       <c r="B80" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="8"/>
@@ -2438,11 +2456,11 @@
       </c>
       <c r="F80" t="str">
         <f>CONCATENATE("&lt;",E80,".version&gt;",C80,"&lt;/",E80,".version&gt;")</f>
-        <v>&lt;revoche.version&gt;1.18.0&lt;/revoche.version&gt;</v>
+        <v>&lt;revoche.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/revoche.version&gt;</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="7"/>
-        <v>revoche --&gt; 1.18.0</v>
+        <v>revoche --&gt; 1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2454,15 +2472,15 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="9">
+    <row r="82" spans="1:7" ht="14.25">
+      <c r="A82" s="10">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>30</v>
+        <v>99</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="8"/>
@@ -2470,20 +2488,20 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" ref="F82:F89" si="10">CONCATENATE("&lt;",E82,".version&gt;",C82,"&lt;/",E82,".version&gt;")</f>
-        <v>&lt;applepay.version&gt;1.19.0&lt;/applepay.version&gt;</v>
+        <v>&lt;applepay.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/applepay.version&gt;</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="7"/>
-        <v>applepay --&gt; 1.19.0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="9"/>
+        <v>applepay --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.25">
+      <c r="A83" s="10"/>
       <c r="B83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>32</v>
+        <v>100</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="8"/>
@@ -2491,20 +2509,20 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;bonus.version&gt;1.18.0&lt;/bonus.version&gt;</v>
+        <v>&lt;bonus.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/bonus.version&gt;</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="7"/>
-        <v>bonus --&gt; 1.18.0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="9"/>
+        <v>bonus --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.25">
+      <c r="A84" s="10"/>
       <c r="B84" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="8"/>
@@ -2512,20 +2530,20 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;catalogo-prodotti.version&gt;1.11.0&lt;/catalogo-prodotti.version&gt;</v>
+        <v>&lt;catalogo-prodotti.version&gt;1.12.0-env-svis-SNAPSHOT&lt;/catalogo-prodotti.version&gt;</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="7"/>
-        <v>catalogo-prodotti --&gt; 1.11.0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="9"/>
+        <v>catalogo-prodotti --&gt; 1.12.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25">
+      <c r="A85" s="10"/>
       <c r="B85" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="8"/>
@@ -2533,20 +2551,20 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;masterpass.version&gt;1.47.0&lt;/masterpass.version&gt;</v>
+        <v>&lt;masterpass.version&gt;1.48.0-env-svis-SNAPSHOT&lt;/masterpass.version&gt;</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="7"/>
-        <v>masterpass --&gt; 1.47.0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="9"/>
+        <v>masterpass --&gt; 1.48.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25">
+      <c r="A86" s="10"/>
       <c r="B86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="8"/>
@@ -2554,20 +2572,20 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;nfc.version&gt;1.55.0&lt;/nfc.version&gt;</v>
+        <v>&lt;nfc.version&gt;1.56.0-env-svis-SNAPSHOT&lt;/nfc.version&gt;</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="7"/>
-        <v>nfc --&gt; 1.55.0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="9"/>
+        <v>nfc --&gt; 1.56.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.25">
+      <c r="A87" s="10"/>
       <c r="B87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>30</v>
+        <v>107</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="8"/>
@@ -2575,20 +2593,20 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;opricorrenti.version&gt;1.19.0&lt;/opricorrenti.version&gt;</v>
+        <v>&lt;opricorrenti.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/opricorrenti.version&gt;</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="7"/>
-        <v>opricorrenti --&gt; 1.19.0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="9"/>
+        <v>opricorrenti --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25">
+      <c r="A88" s="10"/>
       <c r="B88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="8"/>
@@ -2596,19 +2614,19 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;pagamentimultipli.version&gt;1.54.0&lt;/pagamentimultipli.version&gt;</v>
+        <v>&lt;pagamentimultipli.version&gt;1.55.0-env-svis-SNAPSHOT&lt;/pagamentimultipli.version&gt;</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentimultipli --&gt; 1.54.0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="9"/>
+        <v>pagamentimultipli --&gt; 1.55.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.25">
+      <c r="A89" s="10"/>
       <c r="B89" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="str">
@@ -2617,11 +2635,11 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;ristampa-pin.version&gt;1.16.0&lt;/ristampa-pin.version&gt;</v>
+        <v>&lt;ristampa-pin.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/ristampa-pin.version&gt;</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="7"/>
-        <v>ristampa-pin --&gt; 1.16.0</v>
+        <v>ristampa-pin --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2633,15 +2651,15 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="3">
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>46</v>
+        <v>111</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="8"/>
@@ -2649,11 +2667,11 @@
       </c>
       <c r="F91" t="str">
         <f>CONCATENATE("&lt;",E91,".version&gt;",C91,"&lt;/",E91,".version&gt;")</f>
-        <v>&lt;ricordamidi.version&gt;1.27.0&lt;/ricordamidi.version&gt;</v>
+        <v>&lt;ricordamidi.version&gt;1.28.0-env-svis-SNAPSHOT&lt;/ricordamidi.version&gt;</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="7"/>
-        <v>ricordamidi --&gt; 1.27.0</v>
+        <v>ricordamidi --&gt; 1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2665,15 +2683,15 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="3">
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="8"/>
@@ -2681,11 +2699,11 @@
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("&lt;",E93,".version&gt;",C93,"&lt;/",E93,".version&gt;")</f>
-        <v>&lt;comunicazioni.version&gt;1.235.0&lt;/comunicazioni.version&gt;</v>
+        <v>&lt;comunicazioni.version&gt;1.237.0-env-svis-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="7"/>
-        <v>comunicazioni --&gt; 1.235.0</v>
+        <v>comunicazioni --&gt; 1.237.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2697,15 +2715,15 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="3">
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="8"/>
@@ -2713,11 +2731,11 @@
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE("&lt;",E95,".version&gt;",C95,"&lt;/",E95,".version&gt;")</f>
-        <v>&lt;miogestore.version&gt;1.148.0&lt;/miogestore.version&gt;</v>
+        <v>&lt;miogestore.version&gt;1.149.0-env-svis-SNAPSHOT&lt;/miogestore.version&gt;</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="7"/>
-        <v>miogestore --&gt; 1.148.0</v>
+        <v>miogestore --&gt; 1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2729,14 +2747,14 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="9">
+    <row r="97" spans="1:7" ht="14.25">
+      <c r="A97" s="10">
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E97" t="str">
@@ -2745,20 +2763,20 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ref="F97:F102" si="11">CONCATENATE("&lt;",E97,".version&gt;",C97,"&lt;/",E97,".version&gt;")</f>
-        <v>&lt;bloccosblocco.version&gt;1.20.0&lt;/bloccosblocco.version&gt;</v>
+        <v>&lt;bloccosblocco.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="7"/>
-        <v>bloccosblocco --&gt; 1.20.0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="9"/>
+        <v>bloccosblocco --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="13.5">
+      <c r="A98" s="10"/>
       <c r="B98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="8"/>
@@ -2766,20 +2784,20 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;condivisione.version&gt;1.18.0&lt;/condivisione.version&gt;</v>
+        <v>&lt;condivisione.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/condivisione.version&gt;</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="7"/>
-        <v>condivisione --&gt; 1.18.0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="9"/>
+        <v>condivisione --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="14.25">
+      <c r="A99" s="10"/>
       <c r="B99" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="8"/>
@@ -2787,20 +2805,20 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;conto.version&gt;1.38.0&lt;/conto.version&gt;</v>
+        <v>&lt;conto.version&gt;1.39.0-env-svis-SNAPSHOT&lt;/conto.version&gt;</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="7"/>
-        <v>conto --&gt; 1.38.0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="9"/>
+        <v>conto --&gt; 1.39.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="14.25">
+      <c r="A100" s="10"/>
       <c r="B100" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="8"/>
@@ -2808,20 +2826,20 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;globalposition.version&gt;1.132.0&lt;/globalposition.version&gt;</v>
+        <v>&lt;globalposition.version&gt;1.133.0-env-svis-SNAPSHOT&lt;/globalposition.version&gt;</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="7"/>
-        <v>globalposition --&gt; 1.132.0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="9"/>
+        <v>globalposition --&gt; 1.133.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.25">
+      <c r="A101" s="10"/>
       <c r="B101" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="8"/>
@@ -2829,20 +2847,20 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;identitadigitale.version&gt;1.44.0&lt;/identitadigitale.version&gt;</v>
+        <v>&lt;identitadigitale.version&gt;1.45.0-env-svis-SNAPSHOT&lt;/identitadigitale.version&gt;</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="7"/>
-        <v>identitadigitale --&gt; 1.44.0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="9"/>
+        <v>identitadigitale --&gt; 1.45.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.25">
+      <c r="A102" s="10"/>
       <c r="B102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="8"/>
@@ -2850,11 +2868,11 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;proposte.version&gt;1.12.0&lt;/proposte.version&gt;</v>
+        <v>&lt;proposte.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/proposte.version&gt;</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="7"/>
-        <v>proposte --&gt; 1.12.0</v>
+        <v>proposte --&gt; 1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2866,15 +2884,15 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="9">
+    <row r="104" spans="1:7" ht="14.25">
+      <c r="A104" s="10">
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="8"/>
@@ -2882,20 +2900,20 @@
       </c>
       <c r="F104" t="str">
         <f>CONCATENATE("&lt;",E104,".version&gt;",C104,"&lt;/",E104,".version&gt;")</f>
-        <v>&lt;digitalwallet.version&gt;1.62.0&lt;/digitalwallet.version&gt;</v>
+        <v>&lt;digitalwallet.version&gt;1.63.0-env-svis-SNAPSHOT&lt;/digitalwallet.version&gt;</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="7"/>
-        <v>digitalwallet --&gt; 1.62.0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="9"/>
+        <v>digitalwallet --&gt; 1.63.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="14.25">
+      <c r="A105" s="10"/>
       <c r="B105" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>59</v>
+        <v>127</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="8"/>
@@ -2903,19 +2921,19 @@
       </c>
       <c r="F105" t="str">
         <f>CONCATENATE("&lt;",E105,".version&gt;",C105,"&lt;/",E105,".version&gt;")</f>
-        <v>&lt;pulsantiera.version&gt;1.22.0&lt;/pulsantiera.version&gt;</v>
+        <v>&lt;pulsantiera.version&gt;1.23.0-env-svis-SNAPSHOT&lt;/pulsantiera.version&gt;</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="7"/>
-        <v>pulsantiera --&gt; 1.22.0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="9"/>
+        <v>pulsantiera --&gt; 1.23.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="14.25">
+      <c r="A106" s="10"/>
       <c r="B106" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E106" t="str">
@@ -2924,11 +2942,11 @@
       </c>
       <c r="F106" t="str">
         <f>CONCATENATE("&lt;",E106,".version&gt;",C106,"&lt;/",E106,".version&gt;")</f>
-        <v>&lt;trading.version&gt;1.20.0&lt;/trading.version&gt;</v>
+        <v>&lt;trading.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/trading.version&gt;</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="7"/>
-        <v>trading --&gt; 1.20.0</v>
+        <v>trading --&gt; 1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2940,15 +2958,15 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="3">
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="8"/>
@@ -2956,11 +2974,11 @@
       </c>
       <c r="F108" t="str">
         <f>CONCATENATE("&lt;",E108,".version&gt;",C108,"&lt;/",E108,".version&gt;")</f>
-        <v>&lt;listaoperazioni.version&gt;1.76.0&lt;/listaoperazioni.version&gt;</v>
+        <v>&lt;listaoperazioni.version&gt;1.77.0-env-svis-SNAPSHOT&lt;/listaoperazioni.version&gt;</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="7"/>
-        <v>listaoperazioni --&gt; 1.76.0</v>
+        <v>listaoperazioni --&gt; 1.77.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2972,15 +2990,15 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="8">
+    <row r="110" spans="1:7" ht="14.25">
+      <c r="A110" s="3">
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="E110" t="str">
         <f>LEFT(B110,LEN(B110)-4)</f>
@@ -2988,21 +3006,16 @@
       </c>
       <c r="F110" t="str">
         <f>CONCATENATE("&lt;",E110,".version&gt;",C110,"&lt;/",E110,".version&gt;")</f>
-        <v>&lt;ricerca.version&gt;1.7.0&lt;/ricerca.version&gt;</v>
+        <v>&lt;ricerca.version&gt;1.8.0-env-svis-SNAPSHOT&lt;/ricerca.version&gt;</v>
       </c>
       <c r="G110" t="str">
         <f>CONCATENATE(E110," --&gt; ",C110)</f>
-        <v>ricerca --&gt; 1.7.0</v>
+        <v>ricerca --&gt; 1.8.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:D108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="A43:A48"/>
     <mergeCell ref="A97:A102"/>
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A50:A53"/>
@@ -3010,6 +3023,11 @@
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="A43:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3020,16 +3038,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D531"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B532" sqref="B532"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3046,21 +3064,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="13.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -3076,7 +3092,7 @@
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3093,7 +3109,7 @@
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3112,7 +3128,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3124,12 +3140,12 @@
       </c>
       <c r="C11" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3141,12 +3157,12 @@
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3158,19 +3174,19 @@
       </c>
       <c r="C15" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3182,7 +3198,7 @@
       </c>
       <c r="C18" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="19" spans="1:3" outlineLevel="1">
@@ -3192,12 +3208,12 @@
       </c>
       <c r="C19" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3209,7 +3225,7 @@
       </c>
       <c r="C21" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="22" spans="1:3" outlineLevel="1">
@@ -3219,12 +3235,12 @@
       </c>
       <c r="C22" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3236,7 +3252,7 @@
       </c>
       <c r="C24" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="25" spans="1:3" outlineLevel="1">
@@ -3246,19 +3262,19 @@
       </c>
       <c r="C25" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3270,7 +3286,7 @@
       </c>
       <c r="C28" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="29" spans="1:3" outlineLevel="1">
@@ -3280,7 +3296,7 @@
       </c>
       <c r="C29" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:3" outlineLevel="1">
@@ -3290,7 +3306,7 @@
       </c>
       <c r="C30" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="31" spans="1:3" outlineLevel="1">
@@ -3300,19 +3316,19 @@
       </c>
       <c r="C31" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3324,7 +3340,7 @@
       </c>
       <c r="C34" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="35" spans="1:3" outlineLevel="1">
@@ -3334,7 +3350,7 @@
       </c>
       <c r="C35" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="36" spans="1:3" outlineLevel="1">
@@ -3344,7 +3360,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" outlineLevel="1">
@@ -3354,7 +3370,7 @@
       </c>
       <c r="C37" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="38" spans="1:3" outlineLevel="1">
@@ -3364,12 +3380,12 @@
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3381,7 +3397,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" outlineLevel="1">
@@ -3391,7 +3407,7 @@
       </c>
       <c r="C41" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:3" outlineLevel="1">
@@ -3401,7 +3417,7 @@
       </c>
       <c r="C42" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="43" spans="1:3" outlineLevel="1">
@@ -3411,12 +3427,12 @@
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3428,7 +3444,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" outlineLevel="1">
@@ -3438,7 +3454,7 @@
       </c>
       <c r="C46" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="47" spans="1:3" outlineLevel="1">
@@ -3448,12 +3464,12 @@
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3465,7 +3481,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" outlineLevel="1">
@@ -3475,7 +3491,7 @@
       </c>
       <c r="C50" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="51" spans="1:3" outlineLevel="1">
@@ -3485,12 +3501,12 @@
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3502,7 +3518,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" outlineLevel="1">
@@ -3512,7 +3528,7 @@
       </c>
       <c r="C54" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="55" spans="1:3" outlineLevel="1">
@@ -3522,12 +3538,12 @@
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3539,7 +3555,7 @@
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:3" outlineLevel="1">
@@ -3549,12 +3565,12 @@
       </c>
       <c r="C58" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3566,7 +3582,7 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" outlineLevel="1">
@@ -3576,12 +3592,12 @@
       </c>
       <c r="C61" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3593,7 +3609,7 @@
       </c>
       <c r="C63" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:3" outlineLevel="1">
@@ -3603,7 +3619,7 @@
       </c>
       <c r="C64" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="65" spans="1:3" outlineLevel="1">
@@ -3613,7 +3629,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" outlineLevel="1">
@@ -3623,7 +3639,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" outlineLevel="1">
@@ -3633,19 +3649,19 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" outlineLevel="1">
       <c r="B69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>140</v>
@@ -3658,7 +3674,7 @@
       </c>
       <c r="C70" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:3" outlineLevel="1">
@@ -3668,7 +3684,7 @@
       </c>
       <c r="C71" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="72" spans="1:3" outlineLevel="1">
@@ -3678,12 +3694,12 @@
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3695,7 +3711,7 @@
       </c>
       <c r="C74" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:3" outlineLevel="1">
@@ -3705,12 +3721,12 @@
       </c>
       <c r="C75" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3722,7 +3738,7 @@
       </c>
       <c r="C77" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:3" outlineLevel="1">
@@ -3732,12 +3748,12 @@
       </c>
       <c r="C78" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3749,7 +3765,7 @@
       </c>
       <c r="C80" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:3" outlineLevel="1">
@@ -3759,19 +3775,19 @@
       </c>
       <c r="C81" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3783,7 +3799,7 @@
       </c>
       <c r="C84" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="85" spans="1:3" outlineLevel="1">
@@ -3793,12 +3809,12 @@
       </c>
       <c r="C85" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3810,7 +3826,7 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" outlineLevel="1">
@@ -3820,12 +3836,12 @@
       </c>
       <c r="C88" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3837,7 +3853,7 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" outlineLevel="1">
@@ -3847,12 +3863,12 @@
       </c>
       <c r="C91" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3864,7 +3880,7 @@
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:3" outlineLevel="1">
@@ -3874,12 +3890,12 @@
       </c>
       <c r="C94" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3891,7 +3907,7 @@
       </c>
       <c r="C96" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="97" spans="1:3" outlineLevel="1">
@@ -3901,12 +3917,12 @@
       </c>
       <c r="C97" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3918,7 +3934,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" outlineLevel="1">
@@ -3928,12 +3944,12 @@
       </c>
       <c r="C100" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3945,7 +3961,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" outlineLevel="1">
@@ -3955,12 +3971,12 @@
       </c>
       <c r="C103" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3972,7 +3988,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" outlineLevel="1">
@@ -3982,7 +3998,7 @@
       </c>
       <c r="C106" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="107" spans="1:3" outlineLevel="1">
@@ -3992,7 +4008,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" outlineLevel="1">
@@ -4002,12 +4018,12 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4019,7 +4035,7 @@
       </c>
       <c r="C110" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="111" spans="1:3" outlineLevel="1">
@@ -4029,7 +4045,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" outlineLevel="1">
@@ -4039,7 +4055,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" outlineLevel="1">
@@ -4049,12 +4065,12 @@
       </c>
       <c r="C113" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4066,7 +4082,7 @@
       </c>
       <c r="C115" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="116" spans="1:3" outlineLevel="1">
@@ -4076,7 +4092,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" outlineLevel="1">
@@ -4086,7 +4102,7 @@
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="118" spans="1:3" outlineLevel="1">
@@ -4096,7 +4112,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" outlineLevel="1">
@@ -4106,7 +4122,7 @@
       </c>
       <c r="C119" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="120" spans="1:3" outlineLevel="1">
@@ -4116,12 +4132,12 @@
       </c>
       <c r="C120" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4133,7 +4149,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" outlineLevel="1">
@@ -4143,7 +4159,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" outlineLevel="1">
@@ -4153,7 +4169,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" outlineLevel="1">
@@ -4163,7 +4179,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" outlineLevel="1">
@@ -4173,19 +4189,19 @@
       </c>
       <c r="C126" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4197,7 +4213,7 @@
       </c>
       <c r="C129" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="130" spans="1:3" outlineLevel="1">
@@ -4207,12 +4223,12 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" outlineLevel="1">
       <c r="B131" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C131" t="s">
         <v>140</v>
@@ -4225,7 +4241,7 @@
       </c>
       <c r="C132" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="133" spans="1:3" outlineLevel="1">
@@ -4235,12 +4251,12 @@
       </c>
       <c r="C133" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4252,7 +4268,7 @@
       </c>
       <c r="C135" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="136" spans="1:3" outlineLevel="1">
@@ -4262,12 +4278,12 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4279,7 +4295,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" outlineLevel="1">
@@ -4289,7 +4305,7 @@
       </c>
       <c r="C139" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="140" spans="1:3" outlineLevel="1">
@@ -4299,7 +4315,7 @@
       </c>
       <c r="C140" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="141" spans="1:3" outlineLevel="1">
@@ -4309,7 +4325,7 @@
       </c>
       <c r="C141" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="142" spans="1:3" outlineLevel="1">
@@ -4319,7 +4335,7 @@
       </c>
       <c r="C142" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="143" spans="1:3" outlineLevel="1">
@@ -4329,12 +4345,12 @@
       </c>
       <c r="C143" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4346,7 +4362,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" outlineLevel="1">
@@ -4356,7 +4372,7 @@
       </c>
       <c r="C146" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="147" spans="1:3" outlineLevel="1">
@@ -4366,12 +4382,12 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" outlineLevel="1">
       <c r="B148" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C148" t="s">
         <v>140</v>
@@ -4384,12 +4400,12 @@
       </c>
       <c r="C149" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="150" spans="1:3" outlineLevel="1">
       <c r="B150" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C150" t="s">
         <v>140</v>
@@ -4397,7 +4413,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4409,7 +4425,7 @@
       </c>
       <c r="C152" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="153" spans="1:3" outlineLevel="1">
@@ -4419,7 +4435,7 @@
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="154" spans="1:3" outlineLevel="1">
@@ -4429,12 +4445,12 @@
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4446,7 +4462,7 @@
       </c>
       <c r="C156" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="157" spans="1:3" outlineLevel="1">
@@ -4456,7 +4472,7 @@
       </c>
       <c r="C157" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="158" spans="1:3" outlineLevel="1">
@@ -4466,7 +4482,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" outlineLevel="1">
@@ -4476,19 +4492,19 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4500,7 +4516,7 @@
       </c>
       <c r="C162" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="163" spans="1:3" outlineLevel="1">
@@ -4510,7 +4526,7 @@
       </c>
       <c r="C163" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="164" spans="1:3" outlineLevel="1">
@@ -4520,7 +4536,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" outlineLevel="1">
@@ -4530,12 +4546,12 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4547,7 +4563,7 @@
       </c>
       <c r="C167" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="168" spans="1:3" outlineLevel="1">
@@ -4557,7 +4573,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" outlineLevel="1">
@@ -4567,7 +4583,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" outlineLevel="1">
@@ -4577,24 +4593,25 @@
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" outlineLevel="1">
+    <row r="172" spans="1:3" ht="13.5" outlineLevel="1">
+      <c r="A172" s="9"/>
       <c r="B172" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C172" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="173" spans="1:3" outlineLevel="1">
@@ -4604,7 +4621,7 @@
       </c>
       <c r="C173" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="174" spans="1:3" outlineLevel="1">
@@ -4614,12 +4631,12 @@
       </c>
       <c r="C174" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4631,7 +4648,7 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" outlineLevel="1">
@@ -4641,19 +4658,19 @@
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4665,7 +4682,7 @@
       </c>
       <c r="C180" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="181" spans="1:3" outlineLevel="1">
@@ -4675,7 +4692,7 @@
       </c>
       <c r="C181" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="182" spans="1:3" outlineLevel="1">
@@ -4685,7 +4702,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" outlineLevel="1">
@@ -4695,7 +4712,7 @@
       </c>
       <c r="C183" t="str">
         <f>'Versioni EJB'!C51</f>
-        <v>1.22.0</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="184" spans="1:3" outlineLevel="1">
@@ -4705,19 +4722,19 @@
       </c>
       <c r="C184" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B185" s="10"/>
-      <c r="C185" s="10"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4729,7 +4746,7 @@
       </c>
       <c r="C187" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="188" spans="1:3" outlineLevel="1">
@@ -4739,7 +4756,7 @@
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="189" spans="1:3" outlineLevel="1">
@@ -4749,7 +4766,7 @@
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="190" spans="1:3" outlineLevel="1">
@@ -4759,7 +4776,7 @@
       </c>
       <c r="C190" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.30.0</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="191" spans="1:3" outlineLevel="1">
@@ -4769,19 +4786,19 @@
       </c>
       <c r="C191" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4793,7 +4810,7 @@
       </c>
       <c r="C194" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="195" spans="1:3" outlineLevel="1">
@@ -4803,28 +4820,28 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" outlineLevel="1">
       <c r="B196" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4836,7 +4853,7 @@
       </c>
       <c r="C199" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="200" spans="1:3" outlineLevel="1">
@@ -4846,7 +4863,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" outlineLevel="1">
@@ -4856,7 +4873,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" outlineLevel="1">
@@ -4866,7 +4883,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" outlineLevel="1">
@@ -4876,12 +4893,12 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4893,7 +4910,7 @@
       </c>
       <c r="C205" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="206" spans="1:3" outlineLevel="1">
@@ -4903,7 +4920,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" outlineLevel="1">
@@ -4913,7 +4930,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" outlineLevel="1">
@@ -4923,7 +4940,7 @@
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="209" spans="1:3" outlineLevel="1">
@@ -4933,7 +4950,7 @@
       </c>
       <c r="C209" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.13.0</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="210" spans="1:3" outlineLevel="1">
@@ -4943,7 +4960,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" outlineLevel="1">
@@ -4953,7 +4970,7 @@
       </c>
       <c r="C211" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="212" spans="1:3" outlineLevel="1">
@@ -4963,7 +4980,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" outlineLevel="1">
@@ -4973,12 +4990,12 @@
       </c>
       <c r="C213" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4990,7 +5007,7 @@
       </c>
       <c r="C215" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="216" spans="1:3" outlineLevel="1">
@@ -5000,7 +5017,7 @@
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="217" spans="1:3" outlineLevel="1">
@@ -5010,12 +5027,12 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -5027,7 +5044,7 @@
       </c>
       <c r="C219" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="220" spans="1:3" outlineLevel="1">
@@ -5037,7 +5054,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" outlineLevel="1">
@@ -5047,7 +5064,7 @@
       </c>
       <c r="C221" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="222" spans="1:3" outlineLevel="1">
@@ -5057,7 +5074,7 @@
       </c>
       <c r="C222" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="223" spans="1:3" outlineLevel="1">
@@ -5067,7 +5084,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" outlineLevel="1">
@@ -5077,7 +5094,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" outlineLevel="1">
@@ -5087,12 +5104,12 @@
       </c>
       <c r="C225" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -5104,7 +5121,7 @@
       </c>
       <c r="C227" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="228" spans="1:3" outlineLevel="1">
@@ -5114,7 +5131,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" outlineLevel="1">
@@ -5124,7 +5141,7 @@
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C28</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="230" spans="1:3" outlineLevel="1">
@@ -5134,7 +5151,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.13.0</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" outlineLevel="1">
@@ -5144,7 +5161,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" outlineLevel="1">
@@ -5154,7 +5171,7 @@
       </c>
       <c r="C232" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="233" spans="1:3" outlineLevel="1">
@@ -5164,7 +5181,7 @@
       </c>
       <c r="C233" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.30.0</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="234" spans="1:3" outlineLevel="1">
@@ -5174,7 +5191,7 @@
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="235" spans="1:3" outlineLevel="1">
@@ -5184,7 +5201,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" outlineLevel="1">
@@ -5194,12 +5211,12 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -5211,7 +5228,7 @@
       </c>
       <c r="C238" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="239" spans="1:3" outlineLevel="1">
@@ -5221,7 +5238,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" outlineLevel="1">
@@ -5231,12 +5248,12 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -5248,7 +5265,7 @@
       </c>
       <c r="C242" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="243" spans="1:3" outlineLevel="1">
@@ -5258,7 +5275,7 @@
       </c>
       <c r="C243" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="244" spans="1:3" outlineLevel="1">
@@ -5268,7 +5285,7 @@
       </c>
       <c r="C244" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="245" spans="1:3" outlineLevel="1">
@@ -5278,7 +5295,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" outlineLevel="1">
@@ -5288,7 +5305,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" outlineLevel="1">
@@ -5298,7 +5315,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" outlineLevel="1">
@@ -5308,7 +5325,7 @@
       </c>
       <c r="C248" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="249" spans="1:3" outlineLevel="1">
@@ -5318,12 +5335,12 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -5335,7 +5352,7 @@
       </c>
       <c r="C251" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="252" spans="1:3" outlineLevel="1">
@@ -5345,7 +5362,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.13.0</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" outlineLevel="1">
@@ -5355,7 +5372,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" outlineLevel="1">
@@ -5365,7 +5382,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" outlineLevel="1">
@@ -5375,7 +5392,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" outlineLevel="1">
@@ -5385,7 +5402,7 @@
       </c>
       <c r="C256" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="257" spans="1:3" outlineLevel="1">
@@ -5395,7 +5412,7 @@
       </c>
       <c r="C257" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="258" spans="1:3" outlineLevel="1">
@@ -5405,7 +5422,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="259" spans="1:3" outlineLevel="1">
@@ -5415,19 +5432,19 @@
       </c>
       <c r="C259" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="10" t="s">
+      <c r="A260" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -5439,7 +5456,7 @@
       </c>
       <c r="C262" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="263" spans="1:3" outlineLevel="1">
@@ -5449,7 +5466,7 @@
       </c>
       <c r="C263" t="str">
         <f>'Versioni EJB'!C21</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="264" spans="1:3" outlineLevel="1">
@@ -5459,7 +5476,7 @@
       </c>
       <c r="C264" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="265" spans="1:3" outlineLevel="1">
@@ -5469,7 +5486,7 @@
       </c>
       <c r="C265" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="266" spans="1:3" outlineLevel="1">
@@ -5479,7 +5496,7 @@
       </c>
       <c r="C266" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="267" spans="1:3" outlineLevel="1">
@@ -5489,7 +5506,7 @@
       </c>
       <c r="C267" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="268" spans="1:3" outlineLevel="1">
@@ -5499,7 +5516,7 @@
       </c>
       <c r="C268" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="269" spans="1:3" outlineLevel="1">
@@ -5509,7 +5526,7 @@
       </c>
       <c r="C269" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="270" spans="1:3" outlineLevel="1">
@@ -5519,7 +5536,7 @@
       </c>
       <c r="C270" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="271" spans="1:3" outlineLevel="1">
@@ -5529,7 +5546,7 @@
       </c>
       <c r="C271" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.30.0</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="272" spans="1:3" outlineLevel="1">
@@ -5539,7 +5556,7 @@
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="273" spans="1:3" outlineLevel="1">
@@ -5549,12 +5566,12 @@
       </c>
       <c r="C273" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -5566,7 +5583,7 @@
       </c>
       <c r="C275" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="276" spans="1:3" outlineLevel="1">
@@ -5576,7 +5593,7 @@
       </c>
       <c r="C276" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="277" spans="1:3" outlineLevel="1">
@@ -5586,7 +5603,7 @@
       </c>
       <c r="C277" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="278" spans="1:3" outlineLevel="1">
@@ -5596,7 +5613,7 @@
       </c>
       <c r="C278" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="279" spans="1:3" outlineLevel="1">
@@ -5606,7 +5623,7 @@
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="280" spans="1:3" outlineLevel="1">
@@ -5616,12 +5633,12 @@
       </c>
       <c r="C280" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -5633,7 +5650,7 @@
       </c>
       <c r="C282" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="283" spans="1:3" outlineLevel="1">
@@ -5643,7 +5660,7 @@
       </c>
       <c r="C283" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="284" spans="1:3" outlineLevel="1">
@@ -5653,7 +5670,7 @@
       </c>
       <c r="C284" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="285" spans="1:3" outlineLevel="1">
@@ -5663,7 +5680,7 @@
       </c>
       <c r="C285" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="286" spans="1:3" outlineLevel="1">
@@ -5673,7 +5690,7 @@
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="287" spans="1:3" outlineLevel="1">
@@ -5683,12 +5700,12 @@
       </c>
       <c r="C287" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -5700,7 +5717,7 @@
       </c>
       <c r="C289" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="290" spans="1:3" outlineLevel="1">
@@ -5710,7 +5727,7 @@
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="291" spans="1:3" outlineLevel="1">
@@ -5720,7 +5737,7 @@
       </c>
       <c r="C291" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="292" spans="1:3" outlineLevel="1">
@@ -5730,7 +5747,7 @@
       </c>
       <c r="C292" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="293" spans="1:3" outlineLevel="1">
@@ -5740,7 +5757,7 @@
       </c>
       <c r="C293" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="294" spans="1:3" outlineLevel="1">
@@ -5750,7 +5767,7 @@
       </c>
       <c r="C294" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="295" spans="1:3" outlineLevel="1">
@@ -5760,7 +5777,7 @@
       </c>
       <c r="C295" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.13.0</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="296" spans="1:3" outlineLevel="1">
@@ -5770,7 +5787,7 @@
       </c>
       <c r="C296" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="297" spans="1:3" outlineLevel="1">
@@ -5780,12 +5797,12 @@
       </c>
       <c r="C297" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -5797,7 +5814,7 @@
       </c>
       <c r="C299" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="300" spans="1:3" outlineLevel="1">
@@ -5807,7 +5824,7 @@
       </c>
       <c r="C300" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="301" spans="1:3" outlineLevel="1">
@@ -5817,7 +5834,7 @@
       </c>
       <c r="C301" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="302" spans="1:3" outlineLevel="1">
@@ -5827,7 +5844,7 @@
       </c>
       <c r="C302" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="303" spans="1:3" outlineLevel="1">
@@ -5837,7 +5854,7 @@
       </c>
       <c r="C303" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="304" spans="1:3" outlineLevel="1">
@@ -5847,7 +5864,7 @@
       </c>
       <c r="C304" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="305" spans="1:3" outlineLevel="1">
@@ -5857,7 +5874,7 @@
       </c>
       <c r="C305" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="306" spans="1:3" outlineLevel="1">
@@ -5867,12 +5884,12 @@
       </c>
       <c r="C306" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.30.0</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -5884,7 +5901,7 @@
       </c>
       <c r="C308" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="309" spans="1:3" outlineLevel="1">
@@ -5894,7 +5911,7 @@
       </c>
       <c r="C309" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="310" spans="1:3" outlineLevel="1">
@@ -5904,7 +5921,7 @@
       </c>
       <c r="C310" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="311" spans="1:3" outlineLevel="1">
@@ -5914,19 +5931,19 @@
       </c>
       <c r="C311" t="str">
         <f>'Versioni EJB'!C67</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="10" t="s">
+      <c r="A312" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -5938,7 +5955,7 @@
       </c>
       <c r="C314" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="315" spans="1:3" outlineLevel="1">
@@ -5948,7 +5965,7 @@
       </c>
       <c r="C315" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="316" spans="1:3" outlineLevel="1">
@@ -5958,7 +5975,7 @@
       </c>
       <c r="C316" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="317" spans="1:3" outlineLevel="1">
@@ -5968,7 +5985,7 @@
       </c>
       <c r="C317" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="318" spans="1:3" outlineLevel="1">
@@ -5978,7 +5995,7 @@
       </c>
       <c r="C318" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="319" spans="1:3" outlineLevel="1">
@@ -5988,7 +6005,7 @@
       </c>
       <c r="C319" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="320" spans="1:3" outlineLevel="1">
@@ -5998,7 +6015,7 @@
       </c>
       <c r="C320" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="321" spans="1:3" outlineLevel="1">
@@ -6008,12 +6025,12 @@
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -6025,7 +6042,7 @@
       </c>
       <c r="C323" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="324" spans="1:3" outlineLevel="1">
@@ -6035,7 +6052,7 @@
       </c>
       <c r="C324" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="325" spans="1:3" outlineLevel="1">
@@ -6045,7 +6062,7 @@
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.69.0</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="326" spans="1:3" outlineLevel="1">
@@ -6055,7 +6072,7 @@
       </c>
       <c r="C326" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="327" spans="1:3" outlineLevel="1">
@@ -6065,7 +6082,7 @@
       </c>
       <c r="C327" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="328" spans="1:3" outlineLevel="1">
@@ -6075,7 +6092,7 @@
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="329" spans="1:3" outlineLevel="1">
@@ -6085,7 +6102,7 @@
       </c>
       <c r="C329" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="330" spans="1:3" outlineLevel="1">
@@ -6095,7 +6112,7 @@
       </c>
       <c r="C330" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.18.0</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="331" spans="1:3" outlineLevel="1">
@@ -6105,7 +6122,7 @@
       </c>
       <c r="C331" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="332" spans="1:3" outlineLevel="1">
@@ -6115,7 +6132,7 @@
       </c>
       <c r="C332" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.30.0</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="333" spans="1:3" outlineLevel="1">
@@ -6125,12 +6142,12 @@
       </c>
       <c r="C333" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -6142,7 +6159,7 @@
       </c>
       <c r="C335" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="336" spans="1:3" outlineLevel="1">
@@ -6152,7 +6169,7 @@
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="337" spans="1:3" outlineLevel="1">
@@ -6162,7 +6179,7 @@
       </c>
       <c r="C337" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="338" spans="1:3" outlineLevel="1">
@@ -6172,7 +6189,7 @@
       </c>
       <c r="C338" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="339" spans="1:3" outlineLevel="1">
@@ -6182,7 +6199,7 @@
       </c>
       <c r="C339" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="340" spans="1:3" outlineLevel="1">
@@ -6192,7 +6209,7 @@
       </c>
       <c r="C340" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.77.0</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="341" spans="1:3" outlineLevel="1">
@@ -6202,12 +6219,12 @@
       </c>
       <c r="C341" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -6219,7 +6236,7 @@
       </c>
       <c r="C343" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.60.0</v>
+        <v>1.61.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="344" spans="1:3" outlineLevel="1">
@@ -6229,7 +6246,7 @@
       </c>
       <c r="C344" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.77.0</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="345" spans="1:3" outlineLevel="1">
@@ -6239,7 +6256,7 @@
       </c>
       <c r="C345" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.19.0</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="346" spans="1:3" outlineLevel="1">
@@ -6249,7 +6266,7 @@
       </c>
       <c r="C346" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="347" spans="1:3" outlineLevel="1">
@@ -6259,7 +6276,7 @@
       </c>
       <c r="C347" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="348" spans="1:3" outlineLevel="1">
@@ -6269,7 +6286,7 @@
       </c>
       <c r="C348" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="349" spans="1:3" outlineLevel="1">
@@ -6279,7 +6296,7 @@
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="350" spans="1:3" outlineLevel="1">
@@ -6289,19 +6306,19 @@
       </c>
       <c r="C350" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="10" t="s">
+      <c r="A351" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B351" s="10"/>
-      <c r="C351" s="10"/>
+      <c r="B351" s="11"/>
+      <c r="C351" s="11"/>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -6313,7 +6330,7 @@
       </c>
       <c r="C353" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="354" spans="1:3" outlineLevel="1">
@@ -6323,7 +6340,7 @@
       </c>
       <c r="C354" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="355" spans="1:3" outlineLevel="1">
@@ -6333,7 +6350,7 @@
       </c>
       <c r="C355" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="356" spans="1:3" outlineLevel="1">
@@ -6343,12 +6360,12 @@
       </c>
       <c r="C356" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -6360,7 +6377,7 @@
       </c>
       <c r="C358" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="359" spans="1:3" outlineLevel="1">
@@ -6370,7 +6387,7 @@
       </c>
       <c r="C359" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="360" spans="1:3" outlineLevel="1">
@@ -6380,7 +6397,7 @@
       </c>
       <c r="C360" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="361" spans="1:3" outlineLevel="1">
@@ -6390,12 +6407,12 @@
       </c>
       <c r="C361" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -6407,7 +6424,7 @@
       </c>
       <c r="C363" t="str">
         <f>'Versioni EJB'!C10</f>
-        <v>1.8.0</v>
+        <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="364" spans="1:3" outlineLevel="1">
@@ -6417,7 +6434,7 @@
       </c>
       <c r="C364" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="365" spans="1:3" outlineLevel="1">
@@ -6427,7 +6444,7 @@
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.69.0</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="366" spans="1:3" outlineLevel="1">
@@ -6437,12 +6454,12 @@
       </c>
       <c r="C366" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -6454,7 +6471,7 @@
       </c>
       <c r="C368" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="369" spans="1:3" outlineLevel="1">
@@ -6464,7 +6481,7 @@
       </c>
       <c r="C369" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="370" spans="1:3" outlineLevel="1">
@@ -6474,7 +6491,7 @@
       </c>
       <c r="C370" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="371" spans="1:3" outlineLevel="1">
@@ -6484,7 +6501,7 @@
       </c>
       <c r="C371" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="372" spans="1:3" outlineLevel="1">
@@ -6494,12 +6511,12 @@
       </c>
       <c r="C372" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -6511,7 +6528,7 @@
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="375" spans="1:3" outlineLevel="1">
@@ -6521,7 +6538,7 @@
       </c>
       <c r="C375" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="376" spans="1:3" outlineLevel="1">
@@ -6531,7 +6548,7 @@
       </c>
       <c r="C376" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="377" spans="1:3" outlineLevel="1">
@@ -6541,12 +6558,12 @@
       </c>
       <c r="C377" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -6558,7 +6575,7 @@
       </c>
       <c r="C379" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="380" spans="1:3" outlineLevel="1">
@@ -6568,7 +6585,7 @@
       </c>
       <c r="C380" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="381" spans="1:3" outlineLevel="1">
@@ -6578,7 +6595,7 @@
       </c>
       <c r="C381" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="382" spans="1:3" outlineLevel="1">
@@ -6588,7 +6605,7 @@
       </c>
       <c r="C382" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="383" spans="1:3" outlineLevel="1">
@@ -6598,12 +6615,12 @@
       </c>
       <c r="C383" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -6615,7 +6632,7 @@
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="386" spans="1:3" outlineLevel="1">
@@ -6625,7 +6642,7 @@
       </c>
       <c r="C386" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="387" spans="1:3" outlineLevel="1">
@@ -6635,7 +6652,7 @@
       </c>
       <c r="C387" t="str">
         <f>'Versioni EJB'!C68</f>
-        <v>1.60.0</v>
+        <v>1.61.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="388" spans="1:3" outlineLevel="1">
@@ -6645,7 +6662,7 @@
       </c>
       <c r="C388" t="str">
         <f>'Versioni EJB'!C48</f>
-        <v>1.48.0</v>
+        <v>1.49.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="389" spans="1:3" outlineLevel="1">
@@ -6655,7 +6672,7 @@
       </c>
       <c r="C389" t="str">
         <f>'Versioni EJB'!C73</f>
-        <v>1.77.0</v>
+        <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="390" spans="1:3" outlineLevel="1">
@@ -6665,7 +6682,7 @@
       </c>
       <c r="C390" t="str">
         <f>'Versioni EJB'!C77</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="391" spans="1:3" outlineLevel="1">
@@ -6675,7 +6692,7 @@
       </c>
       <c r="C391" t="str">
         <f>'Versioni EJB'!C72</f>
-        <v>1.21.0</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="392" spans="1:3" outlineLevel="1">
@@ -6685,7 +6702,7 @@
       </c>
       <c r="C392" t="str">
         <f>'Versioni EJB'!C74</f>
-        <v>1.19.0</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="393" spans="1:3" outlineLevel="1">
@@ -6695,7 +6712,7 @@
       </c>
       <c r="C393" t="str">
         <f>'Versioni EJB'!C62</f>
-        <v>1.19.0</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="394" spans="1:3" outlineLevel="1">
@@ -6705,7 +6722,7 @@
       </c>
       <c r="C394" t="str">
         <f>'Versioni EJB'!C45</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="395" spans="1:3" outlineLevel="1">
@@ -6715,7 +6732,7 @@
       </c>
       <c r="C395" t="str">
         <f>'Versioni EJB'!C64</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="396" spans="1:3" outlineLevel="1">
@@ -6725,12 +6742,12 @@
       </c>
       <c r="C396" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -6742,7 +6759,7 @@
       </c>
       <c r="C398" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="399" spans="1:3" outlineLevel="1">
@@ -6752,7 +6769,7 @@
       </c>
       <c r="C399" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="400" spans="1:3" outlineLevel="1">
@@ -6762,7 +6779,7 @@
       </c>
       <c r="C400" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="401" spans="1:3" outlineLevel="1">
@@ -6772,19 +6789,19 @@
       </c>
       <c r="C401" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="10" t="s">
+      <c r="A402" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B402" s="10"/>
-      <c r="C402" s="10"/>
+      <c r="B402" s="11"/>
+      <c r="C402" s="11"/>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -6796,7 +6813,7 @@
       </c>
       <c r="C404" t="str">
         <f>'Versioni EJB'!C5</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="405" spans="1:3" outlineLevel="1">
@@ -6806,7 +6823,7 @@
       </c>
       <c r="C405" t="str">
         <f>'Versioni EJB'!C47</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="406" spans="1:3" outlineLevel="1">
@@ -6816,7 +6833,7 @@
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C83</f>
-        <v>1.18.0</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="407" spans="1:3" outlineLevel="1">
@@ -6826,7 +6843,7 @@
       </c>
       <c r="C407" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.18.0</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="408" spans="1:3" outlineLevel="1">
@@ -6836,7 +6853,7 @@
       </c>
       <c r="C408" t="str">
         <f>'Versioni EJB'!C61</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="409" spans="1:3" outlineLevel="1">
@@ -6846,7 +6863,7 @@
       </c>
       <c r="C409" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="410" spans="1:3" outlineLevel="1">
@@ -6856,26 +6873,26 @@
       </c>
       <c r="C410" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" s="10" t="s">
+      <c r="A411" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B411" s="10"/>
-      <c r="C411" s="10"/>
+      <c r="B411" s="11"/>
+      <c r="C411" s="11"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
     </row>
     <row r="413" spans="1:3" outlineLevel="1">
       <c r="B413" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C413" t="s">
         <v>140</v>
@@ -6888,7 +6905,7 @@
       </c>
       <c r="C414" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="415" spans="1:3" outlineLevel="1">
@@ -6898,7 +6915,7 @@
       </c>
       <c r="C415" t="str">
         <f>'Versioni EJB'!C51</f>
-        <v>1.22.0</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="416" spans="1:3" outlineLevel="1">
@@ -6908,7 +6925,7 @@
       </c>
       <c r="C416" t="str">
         <f>'Versioni EJB'!C91</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="417" spans="1:3" outlineLevel="1">
@@ -6918,7 +6935,7 @@
       </c>
       <c r="C417" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="418" spans="1:3" outlineLevel="1">
@@ -6928,7 +6945,7 @@
       </c>
       <c r="C418" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.69.0</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="419" spans="1:3" outlineLevel="1">
@@ -6938,7 +6955,7 @@
       </c>
       <c r="C419" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="420" spans="1:3" outlineLevel="1">
@@ -6948,7 +6965,7 @@
       </c>
       <c r="C420" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="421" spans="1:3" outlineLevel="1">
@@ -6958,7 +6975,7 @@
       </c>
       <c r="C421" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="422" spans="1:3" outlineLevel="1">
@@ -6968,7 +6985,7 @@
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="423" spans="1:3" outlineLevel="1">
@@ -6978,7 +6995,7 @@
       </c>
       <c r="C423" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="424" spans="1:3" outlineLevel="1">
@@ -6988,19 +7005,19 @@
       </c>
       <c r="C424" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="10" t="s">
+      <c r="A425" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B425" s="10"/>
-      <c r="C425" s="10"/>
+      <c r="B425" s="11"/>
+      <c r="C425" s="11"/>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -7012,7 +7029,7 @@
       </c>
       <c r="C427" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="428" spans="1:3" outlineLevel="1">
@@ -7022,7 +7039,7 @@
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.235.0</v>
+        <v>1.237.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="429" spans="1:3" outlineLevel="1">
@@ -7032,7 +7049,7 @@
       </c>
       <c r="C429" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="430" spans="1:3" outlineLevel="1">
@@ -7042,7 +7059,7 @@
       </c>
       <c r="C430" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="431" spans="1:3" outlineLevel="1">
@@ -7052,7 +7069,7 @@
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="432" spans="1:3" outlineLevel="1">
@@ -7062,19 +7079,19 @@
       </c>
       <c r="C432" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433" s="10" t="s">
+      <c r="A433" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B433" s="10"/>
-      <c r="C433" s="10"/>
+      <c r="B433" s="11"/>
+      <c r="C433" s="11"/>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -7086,7 +7103,7 @@
       </c>
       <c r="C435" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="436" spans="1:3" outlineLevel="1">
@@ -7096,7 +7113,7 @@
       </c>
       <c r="C436" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="437" spans="1:3" outlineLevel="1">
@@ -7106,7 +7123,7 @@
       </c>
       <c r="C437" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.148.0</v>
+        <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="438" spans="1:3" outlineLevel="1">
@@ -7116,7 +7133,7 @@
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="439" spans="1:3" outlineLevel="1">
@@ -7126,7 +7143,7 @@
       </c>
       <c r="C439" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="440" spans="1:3" outlineLevel="1">
@@ -7136,12 +7153,12 @@
       </c>
       <c r="C440" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -7153,7 +7170,7 @@
       </c>
       <c r="C442" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="443" spans="1:3" outlineLevel="2">
@@ -7163,7 +7180,7 @@
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.235.0</v>
+        <v>1.237.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="444" spans="1:3" outlineLevel="2">
@@ -7173,7 +7190,7 @@
       </c>
       <c r="C444" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="445" spans="1:3" outlineLevel="2">
@@ -7183,7 +7200,7 @@
       </c>
       <c r="C445" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.30.0</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="446" spans="1:3" outlineLevel="2">
@@ -7193,7 +7210,7 @@
       </c>
       <c r="C446" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="447" spans="1:3" outlineLevel="2">
@@ -7203,7 +7220,7 @@
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="448" spans="1:3" outlineLevel="2">
@@ -7213,12 +7230,12 @@
       </c>
       <c r="C448" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -7230,7 +7247,7 @@
       </c>
       <c r="C450" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.148.0</v>
+        <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="451" spans="1:3" outlineLevel="2">
@@ -7240,7 +7257,7 @@
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="452" spans="1:3" outlineLevel="2">
@@ -7250,7 +7267,7 @@
       </c>
       <c r="C452" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="453" spans="1:3" outlineLevel="2">
@@ -7260,7 +7277,7 @@
       </c>
       <c r="C453" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="454" spans="1:3" outlineLevel="2">
@@ -7270,12 +7287,12 @@
       </c>
       <c r="C454" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -7287,7 +7304,7 @@
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.235.0</v>
+        <v>1.237.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="457" spans="1:3" outlineLevel="1">
@@ -7297,7 +7314,7 @@
       </c>
       <c r="C457" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.18.0</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="458" spans="1:3" outlineLevel="1">
@@ -7307,7 +7324,7 @@
       </c>
       <c r="C458" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.18.0</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="459" spans="1:3" outlineLevel="1">
@@ -7317,7 +7334,7 @@
       </c>
       <c r="C459" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="460" spans="1:3" outlineLevel="1">
@@ -7327,7 +7344,7 @@
       </c>
       <c r="C460" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="461" spans="1:3" outlineLevel="1">
@@ -7337,7 +7354,7 @@
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.69.0</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="462" spans="1:3" outlineLevel="1">
@@ -7347,7 +7364,7 @@
       </c>
       <c r="C462" t="str">
         <f>'Versioni EJB'!C20</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="463" spans="1:3" outlineLevel="1">
@@ -7357,7 +7374,7 @@
       </c>
       <c r="C463" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="464" spans="1:3" outlineLevel="1">
@@ -7367,7 +7384,7 @@
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="465" spans="1:3" outlineLevel="1">
@@ -7377,7 +7394,7 @@
       </c>
       <c r="C465" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="466" spans="1:3" outlineLevel="1">
@@ -7387,7 +7404,7 @@
       </c>
       <c r="C466" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="467" spans="1:3" outlineLevel="1">
@@ -7397,7 +7414,7 @@
       </c>
       <c r="C467" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="468" spans="1:3" outlineLevel="1">
@@ -7407,7 +7424,7 @@
       </c>
       <c r="C468" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="469" spans="1:3" outlineLevel="1">
@@ -7417,7 +7434,7 @@
       </c>
       <c r="C469" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.30.0</v>
+        <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="470" spans="1:3" outlineLevel="1">
@@ -7427,12 +7444,12 @@
       </c>
       <c r="C470" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.17.0</v>
+        <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -7444,7 +7461,7 @@
       </c>
       <c r="C472" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="473" spans="1:3" outlineLevel="1">
@@ -7454,7 +7471,7 @@
       </c>
       <c r="C473" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.13.0</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="474" spans="1:3" outlineLevel="1">
@@ -7464,7 +7481,7 @@
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.69.0</v>
+        <v>1.71.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="475" spans="1:3" outlineLevel="1">
@@ -7474,7 +7491,7 @@
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="476" spans="1:3" outlineLevel="1">
@@ -7484,7 +7501,7 @@
       </c>
       <c r="C476" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="477" spans="1:3" outlineLevel="1">
@@ -7494,7 +7511,7 @@
       </c>
       <c r="C477" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="478" spans="1:3" outlineLevel="1">
@@ -7504,12 +7521,12 @@
       </c>
       <c r="C478" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.148.0</v>
+        <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -7521,7 +7538,7 @@
       </c>
       <c r="C480" t="str">
         <f>'Versioni EJB'!C95</f>
-        <v>1.148.0</v>
+        <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="481" spans="1:3" outlineLevel="1">
@@ -7531,7 +7548,7 @@
       </c>
       <c r="C481" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.58.0</v>
+        <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="482" spans="1:3" outlineLevel="1">
@@ -7541,7 +7558,7 @@
       </c>
       <c r="C482" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="483" spans="1:3" outlineLevel="1">
@@ -7551,7 +7568,7 @@
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="484" spans="1:3" outlineLevel="1">
@@ -7561,19 +7578,19 @@
       </c>
       <c r="C484" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" s="10" t="s">
+      <c r="A485" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B485" s="10"/>
-      <c r="C485" s="10"/>
+      <c r="B485" s="11"/>
+      <c r="C485" s="11"/>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -7585,7 +7602,7 @@
       </c>
       <c r="C487" t="str">
         <f>'Versioni EJB'!C86</f>
-        <v>1.55.0</v>
+        <v>1.56.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="488" spans="1:3" outlineLevel="1">
@@ -7595,7 +7612,7 @@
       </c>
       <c r="C488" t="str">
         <f>'Versioni EJB'!C85</f>
-        <v>1.47.0</v>
+        <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="489" spans="1:3" outlineLevel="1">
@@ -7605,7 +7622,7 @@
       </c>
       <c r="C489" t="str">
         <f>'Versioni EJB'!C31</f>
-        <v>1.21.0</v>
+        <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="490" spans="1:3" outlineLevel="1">
@@ -7615,7 +7632,7 @@
       </c>
       <c r="C490" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="491" spans="1:3" outlineLevel="1">
@@ -7625,7 +7642,7 @@
       </c>
       <c r="C491" t="str">
         <f>'Versioni EJB'!C82</f>
-        <v>1.19.0</v>
+        <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="492" spans="1:3" outlineLevel="1">
@@ -7635,7 +7652,7 @@
       </c>
       <c r="C492" t="str">
         <f>'Versioni EJB'!C28</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="493" spans="1:3" outlineLevel="1">
@@ -7645,7 +7662,7 @@
       </c>
       <c r="C493" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.13.0</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="494" spans="1:3" outlineLevel="1">
@@ -7655,7 +7672,7 @@
       </c>
       <c r="C494" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.12.0</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="495" spans="1:3" outlineLevel="1">
@@ -7665,7 +7682,7 @@
       </c>
       <c r="C495" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="496" spans="1:3" outlineLevel="1">
@@ -7675,7 +7692,7 @@
       </c>
       <c r="C496" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="497" spans="1:3" outlineLevel="1">
@@ -7685,7 +7702,7 @@
       </c>
       <c r="C497" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="498" spans="1:3" outlineLevel="1">
@@ -7695,7 +7712,7 @@
       </c>
       <c r="C498" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="499" spans="1:3" outlineLevel="1">
@@ -7705,12 +7722,12 @@
       </c>
       <c r="C499" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -7722,7 +7739,7 @@
       </c>
       <c r="C501" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.132.0</v>
+        <v>1.133.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="502" spans="1:3" outlineLevel="1">
@@ -7732,7 +7749,7 @@
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.235.0</v>
+        <v>1.237.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="503" spans="1:3" outlineLevel="1">
@@ -7742,7 +7759,7 @@
       </c>
       <c r="C503" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="504" spans="1:3" outlineLevel="1">
@@ -7752,7 +7769,7 @@
       </c>
       <c r="C504" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.24.0</v>
+        <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="505" spans="1:3" outlineLevel="1">
@@ -7762,7 +7779,7 @@
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="506" spans="1:3" outlineLevel="1">
@@ -7772,7 +7789,7 @@
       </c>
       <c r="C506" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.15.0</v>
+        <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="507" spans="1:3" outlineLevel="1">
@@ -7782,12 +7799,12 @@
       </c>
       <c r="C507" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -7799,7 +7816,7 @@
       </c>
       <c r="C509" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="510" spans="1:3" outlineLevel="1">
@@ -7809,7 +7826,7 @@
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.96.0</v>
+        <v>1.97.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="511" spans="1:3" outlineLevel="1">
@@ -7819,7 +7836,7 @@
       </c>
       <c r="C511" t="str">
         <f>'Versioni EJB'!C100</f>
-        <v>1.132.0</v>
+        <v>1.133.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="512" spans="1:3" outlineLevel="1">
@@ -7829,19 +7846,19 @@
       </c>
       <c r="C512" t="str">
         <f>'Versioni EJB'!C33</f>
-        <v>1.16.0</v>
+        <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="513" spans="1:3">
-      <c r="A513" s="10" t="s">
+      <c r="A513" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B513" s="10"/>
-      <c r="C513" s="10"/>
+      <c r="B513" s="11"/>
+      <c r="C513" s="11"/>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -7853,7 +7870,7 @@
       </c>
       <c r="C515" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.235.0</v>
+        <v>1.237.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="516" spans="1:3" outlineLevel="1">
@@ -7863,7 +7880,7 @@
       </c>
       <c r="C516" t="str">
         <f>'Versioni EJB'!C105</f>
-        <v>1.22.0</v>
+        <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="517" spans="1:3" outlineLevel="1">
@@ -7873,7 +7890,7 @@
       </c>
       <c r="C517" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="518" spans="1:3" outlineLevel="1">
@@ -7883,7 +7900,7 @@
       </c>
       <c r="C518" t="str">
         <f>'Versioni EJB'!C63</f>
-        <v>1.13.0</v>
+        <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="519" spans="1:3" outlineLevel="1">
@@ -7893,7 +7910,7 @@
       </c>
       <c r="C519" t="str">
         <f>'Versioni EJB'!C38</f>
-        <v>1.18.0</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="520" spans="1:3" outlineLevel="1">
@@ -7903,7 +7920,7 @@
       </c>
       <c r="C520" t="str">
         <f>'Versioni EJB'!C102</f>
-        <v>1.12.0</v>
+        <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="521" spans="1:3" outlineLevel="1">
@@ -7913,7 +7930,7 @@
       </c>
       <c r="C521" t="str">
         <f>'Versioni EJB'!C70</f>
-        <v>1.34.0</v>
+        <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="522" spans="1:3" outlineLevel="1">
@@ -7923,7 +7940,7 @@
       </c>
       <c r="C522" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.28.0</v>
+        <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="523" spans="1:3" outlineLevel="1">
@@ -7933,7 +7950,7 @@
       </c>
       <c r="C523" t="str">
         <f>'Versioni EJB'!C19</f>
-        <v>1.18.0</v>
+        <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="524" spans="1:3" outlineLevel="1">
@@ -7943,7 +7960,7 @@
       </c>
       <c r="C524" t="str">
         <f>'Versioni EJB'!C78</f>
-        <v>1.38.0</v>
+        <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="525" spans="1:3" outlineLevel="1">
@@ -7953,7 +7970,7 @@
       </c>
       <c r="C525" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="526" spans="1:3" outlineLevel="1">
@@ -7963,19 +7980,19 @@
       </c>
       <c r="C526" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.27.0</v>
+        <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="527" spans="1:3">
-      <c r="A527" s="10" t="s">
+      <c r="A527" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B527" s="10"/>
-      <c r="C527" s="10"/>
+      <c r="B527" s="11"/>
+      <c r="C527" s="11"/>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="2" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -7987,7 +8004,7 @@
       </c>
       <c r="C529" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.20.0</v>
+        <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="530" spans="2:3">
@@ -7997,7 +8014,7 @@
       </c>
       <c r="C530" t="str">
         <f>'Versioni EJB'!C66</f>
-        <v>1.14.0</v>
+        <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="531" spans="2:3">
@@ -8007,7 +8024,7 @@
       </c>
       <c r="C531" t="str">
         <f>'Versioni EJB'!C108</f>
-        <v>1.76.0</v>
+        <v>1.77.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -8015,6 +8032,11 @@
     <sortCondition ref="B18"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A411:C411"/>
     <mergeCell ref="A527:C527"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
@@ -8031,11 +8053,6 @@
     <mergeCell ref="A433:C433"/>
     <mergeCell ref="A485:C485"/>
     <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A411:C411"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{3549C313-A72A-47DF-9EBE-46A58DCE1D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FE1AD0-952E-4065-A7E2-E56C71CD4C42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53843DBD-77B9-410F-B187-B5BF6986E392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1800" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versioni EJB" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -115,9 +114,6 @@
     <t>profilocliente-ejb</t>
   </si>
   <si>
-    <t>1.97.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>adue-ejb</t>
   </si>
   <si>
@@ -154,9 +150,6 @@
     <t>filialevirtuale-ejb</t>
   </si>
   <si>
-    <t>1.71.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>firmaunica-ejb</t>
   </si>
   <si>
@@ -301,9 +294,6 @@
     <t>cardless-ejb</t>
   </si>
   <si>
-    <t>1.32.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>giroconto-ejb</t>
   </si>
   <si>
@@ -376,9 +366,6 @@
     <t>comunicazioni-ejb</t>
   </si>
   <si>
-    <t>1.237.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>miogestore-ejb</t>
   </si>
   <si>
@@ -509,13 +496,25 @@
   </si>
   <si>
     <t>Blocco 21</t>
+  </si>
+  <si>
+    <t>1.99.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.74.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.33.0-env-svis-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.239.0-env-svis-SNAPSHOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,12 +532,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="1"/>
@@ -590,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -607,10 +600,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,19 +884,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F2:F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="25.125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="92.25" customWidth="1"/>
-    <col min="7" max="7" width="51.875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="92.21875" customWidth="1"/>
+    <col min="7" max="7" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -932,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -964,14 +954,14 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
-      <c r="A4" s="10">
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="str">
@@ -987,12 +977,12 @@
         <v>banca --&gt; 1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="str">
@@ -1008,12 +998,12 @@
         <v>callmeback --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="str">
@@ -1029,12 +1019,12 @@
         <v>customerjourney --&gt; 1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="str">
@@ -1050,12 +1040,12 @@
         <v>deviceregistry --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="str">
@@ -1071,12 +1061,12 @@
         <v>stampe --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="str">
@@ -1092,12 +1082,12 @@
         <v>userpreferences --&gt; 1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="str">
@@ -1122,14 +1112,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5">
-      <c r="A12" s="10">
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="str">
@@ -1145,12 +1135,12 @@
         <v>commons --&gt; 1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="str">
@@ -1166,12 +1156,12 @@
         <v>notification --&gt; 1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="str">
@@ -1196,15 +1186,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
+      <c r="C16" t="s">
+        <v>154</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
@@ -1212,11 +1202,11 @@
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE("&lt;",E16,".version&gt;",C16,"&lt;/",E16,".version&gt;")</f>
-        <v>&lt;profilocliente.version&gt;1.97.0-env-svis-SNAPSHOT&lt;/profilocliente.version&gt;</v>
+        <v>&lt;profilocliente.version&gt;1.99.0-env-svis-SNAPSHOT&lt;/profilocliente.version&gt;</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>profilocliente --&gt; 1.97.0-env-svis-SNAPSHOT</v>
+        <v>profilocliente --&gt; 1.99.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1228,15 +1218,15 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:7">
+      <c r="A18" s="9">
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
@@ -1251,13 +1241,13 @@
         <v>adue --&gt; 1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -1272,12 +1262,12 @@
         <v>agenda --&gt; 1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="str">
@@ -1293,12 +1283,12 @@
         <v>anagrafiche --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="str">
@@ -1314,12 +1304,12 @@
         <v>antiriciclaggio --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="str">
@@ -1335,13 +1325,13 @@
         <v>assegni --&gt; 1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
@@ -1356,12 +1346,12 @@
         <v>condizionieconomiche --&gt; 1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="str">
@@ -1377,12 +1367,12 @@
         <v>digitalcollaboration --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="E25" t="str">
@@ -1398,13 +1388,13 @@
         <v>duplicatocarta --&gt; 1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -1412,20 +1402,20 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;filialevirtuale.version&gt;1.71.0-env-svis-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
+        <v>&lt;filialevirtuale.version&gt;1.74.0-env-svis-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>filialevirtuale --&gt; 1.71.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="10"/>
+        <v>filialevirtuale --&gt; 1.74.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -1440,12 +1430,12 @@
         <v>firmaunica --&gt; 1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="str">
@@ -1461,13 +1451,13 @@
         <v>gestorelimiti --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
@@ -1491,15 +1481,15 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:7">
+      <c r="A31" s="9">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
@@ -1514,12 +1504,12 @@
         <v>jiffy-v2 --&gt; 1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="str">
@@ -1535,12 +1525,12 @@
         <v>listaprodotti --&gt; 1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9"/>
       <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="str">
@@ -1556,13 +1546,13 @@
         <v>listiniinfofin --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -1577,13 +1567,13 @@
         <v>mobileconfigurator --&gt; 1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -1598,13 +1588,13 @@
         <v>monetaattiva --&gt; 0.38.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -1619,12 +1609,12 @@
         <v>movepay --&gt; 1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9"/>
       <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="str">
@@ -1640,13 +1630,13 @@
         <v>pagamenti --&gt; 1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9"/>
       <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -1661,13 +1651,13 @@
         <v>prestiti --&gt; 1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="9"/>
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -1682,13 +1672,13 @@
         <v>saldo --&gt; 1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9"/>
       <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -1703,12 +1693,12 @@
         <v>variazionelimiti-definitiva --&gt; 1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="9"/>
       <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
         <v>21</v>
       </c>
       <c r="E41" t="str">
@@ -1733,14 +1723,14 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="10">
+    <row r="43" spans="1:7">
+      <c r="A43" s="9">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="str">
@@ -1756,13 +1746,13 @@
         <v>commonssmallbusiness --&gt; 1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9"/>
       <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
@@ -1777,12 +1767,12 @@
         <v>condizioni --&gt; 1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9"/>
       <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="str">
@@ -1798,13 +1788,13 @@
         <v>moneytransfer --&gt; 1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9"/>
       <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -1819,12 +1809,12 @@
         <v>pfm --&gt; 1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9"/>
       <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="E47" t="str">
@@ -1840,13 +1830,13 @@
         <v>rapporticliente --&gt; 1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9"/>
       <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -1870,15 +1860,15 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25">
-      <c r="A50" s="10">
+    <row r="50" spans="1:7">
+      <c r="A50" s="9">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>28</v>
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -1893,13 +1883,13 @@
         <v>bonificimultipli --&gt; 1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.25">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="9"/>
       <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
@@ -1914,12 +1904,12 @@
         <v>etichette --&gt; 1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="9"/>
       <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
         <v>21</v>
       </c>
       <c r="E52" t="str">
@@ -1935,13 +1925,13 @@
         <v>incassiribamultipli --&gt; 1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
@@ -1965,15 +1955,15 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="14.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="3">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -1997,15 +1987,15 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="3">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -2029,14 +2019,14 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="6">
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
         <v>21</v>
       </c>
       <c r="E59" t="str">
@@ -2061,14 +2051,14 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="14.25">
-      <c r="A61" s="10">
+    <row r="61" spans="1:7">
+      <c r="A61" s="9">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="str">
@@ -2084,13 +2074,13 @@
         <v>autorizzazioni --&gt; 1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="9"/>
       <c r="B62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -2105,13 +2095,13 @@
         <v>bollettinopostale --&gt; 1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14.25">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="9"/>
       <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>35</v>
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -2126,12 +2116,12 @@
         <v>bustine --&gt; 1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.25">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="9"/>
       <c r="B64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
         <v>21</v>
       </c>
       <c r="E64" t="str">
@@ -2147,13 +2137,13 @@
         <v>f24 --&gt; 1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.25">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="9"/>
       <c r="B65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
@@ -2168,12 +2158,12 @@
         <v>jiffy --&gt; 1.27.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.25">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="9"/>
       <c r="B66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="E66" t="str">
@@ -2189,13 +2179,13 @@
         <v>matchingidbpfm --&gt; 1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9"/>
       <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
@@ -2210,13 +2200,13 @@
         <v>salvadanaio --&gt; 1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.25">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="9"/>
       <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -2240,15 +2230,15 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="10">
+    <row r="70" spans="1:7">
+      <c r="A70" s="9">
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:E108" si="8">LEFT(B70,LEN(B70)-4)</f>
@@ -2263,13 +2253,13 @@
         <v>bonifico --&gt; 1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:7">
+      <c r="A71" s="9"/>
       <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="8"/>
@@ -2277,20 +2267,20 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;cardless.version&gt;1.32.0-env-svis-SNAPSHOT&lt;/cardless.version&gt;</v>
+        <v>&lt;cardless.version&gt;1.33.0-env-svis-SNAPSHOT&lt;/cardless.version&gt;</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="7"/>
-        <v>cardless --&gt; 1.32.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="10"/>
+        <v>cardless --&gt; 1.33.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="9"/>
       <c r="B72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="8"/>
@@ -2305,13 +2295,13 @@
         <v>giroconto --&gt; 1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.25">
-      <c r="A73" s="10"/>
+    <row r="73" spans="1:7">
+      <c r="A73" s="9"/>
       <c r="B73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="8"/>
@@ -2326,13 +2316,13 @@
         <v>pagamentibollette --&gt; 1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.25">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="9"/>
       <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="8"/>
@@ -2347,12 +2337,12 @@
         <v>ricaricacellulare --&gt; 1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14.25">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="9"/>
       <c r="B75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="str">
@@ -2377,15 +2367,15 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="14.25">
-      <c r="A77" s="10">
+    <row r="77" spans="1:7">
+      <c r="A77" s="9">
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>71</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="8"/>
@@ -2400,13 +2390,13 @@
         <v>bonificoestero --&gt; 1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.25">
-      <c r="A78" s="10"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="9"/>
       <c r="B78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="8"/>
@@ -2421,13 +2411,13 @@
         <v>carte --&gt; 1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.25">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:7">
+      <c r="A79" s="9"/>
       <c r="B79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>41</v>
+        <v>94</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="8"/>
@@ -2442,13 +2432,13 @@
         <v>pagamentiribamultipli --&gt; 1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.25">
-      <c r="A80" s="10"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="9"/>
       <c r="B80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="8"/>
@@ -2472,15 +2462,15 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="10">
+    <row r="82" spans="1:7">
+      <c r="A82" s="9">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>28</v>
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="8"/>
@@ -2495,13 +2485,13 @@
         <v>applepay --&gt; 1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.25">
-      <c r="A83" s="10"/>
+    <row r="83" spans="1:7">
+      <c r="A83" s="9"/>
       <c r="B83" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>30</v>
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="8"/>
@@ -2509,20 +2499,20 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;bonus.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/bonus.version&gt;</v>
+        <v>&lt;bonus.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/bonus.version&gt;</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="7"/>
-        <v>bonus --&gt; 1.19.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25">
-      <c r="A84" s="10"/>
+        <v>bonus --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="9"/>
       <c r="B84" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>99</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="8"/>
@@ -2537,13 +2527,13 @@
         <v>catalogo-prodotti --&gt; 1.12.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.25">
-      <c r="A85" s="10"/>
+    <row r="85" spans="1:7">
+      <c r="A85" s="9"/>
       <c r="B85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="8"/>
@@ -2558,13 +2548,13 @@
         <v>masterpass --&gt; 1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.25">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:7">
+      <c r="A86" s="9"/>
       <c r="B86" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>103</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="8"/>
@@ -2579,13 +2569,13 @@
         <v>nfc --&gt; 1.56.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.25">
-      <c r="A87" s="10"/>
+    <row r="87" spans="1:7">
+      <c r="A87" s="9"/>
       <c r="B87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>28</v>
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="8"/>
@@ -2600,13 +2590,13 @@
         <v>opricorrenti --&gt; 1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.25">
-      <c r="A88" s="10"/>
+    <row r="88" spans="1:7">
+      <c r="A88" s="9"/>
       <c r="B88" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="8"/>
@@ -2621,12 +2611,12 @@
         <v>pagamentimultipli --&gt; 1.55.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25">
-      <c r="A89" s="10"/>
+    <row r="89" spans="1:7">
+      <c r="A89" s="9"/>
       <c r="B89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="str">
@@ -2651,15 +2641,15 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" ht="14.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="3">
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>44</v>
+        <v>108</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="8"/>
@@ -2683,15 +2673,15 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" ht="14.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="3">
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>157</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="8"/>
@@ -2699,11 +2689,11 @@
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("&lt;",E93,".version&gt;",C93,"&lt;/",E93,".version&gt;")</f>
-        <v>&lt;comunicazioni.version&gt;1.237.0-env-svis-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
+        <v>&lt;comunicazioni.version&gt;1.239.0-env-svis-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="7"/>
-        <v>comunicazioni --&gt; 1.237.0-env-svis-SNAPSHOT</v>
+        <v>comunicazioni --&gt; 1.239.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2715,15 +2705,15 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" ht="14.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="3">
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="8"/>
@@ -2747,15 +2737,15 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="14.25">
-      <c r="A97" s="10">
+    <row r="97" spans="1:7">
+      <c r="A97" s="9">
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>8</v>
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="8"/>
@@ -2763,20 +2753,20 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ref="F97:F102" si="11">CONCATENATE("&lt;",E97,".version&gt;",C97,"&lt;/",E97,".version&gt;")</f>
-        <v>&lt;bloccosblocco.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
+        <v>&lt;bloccosblocco.version&gt;1.149.0-env-svis-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="7"/>
-        <v>bloccosblocco --&gt; 1.21.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="13.5">
-      <c r="A98" s="10"/>
+        <v>bloccosblocco --&gt; 1.149.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="9"/>
       <c r="B98" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>30</v>
+        <v>113</v>
+      </c>
+      <c r="C98" t="s">
+        <v>29</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="8"/>
@@ -2791,13 +2781,13 @@
         <v>condivisione --&gt; 1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.25">
-      <c r="A99" s="10"/>
+    <row r="99" spans="1:7">
+      <c r="A99" s="9"/>
       <c r="B99" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>96</v>
+        <v>114</v>
+      </c>
+      <c r="C99" t="s">
+        <v>93</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="8"/>
@@ -2812,13 +2802,13 @@
         <v>conto --&gt; 1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.25">
-      <c r="A100" s="10"/>
+    <row r="100" spans="1:7">
+      <c r="A100" s="9"/>
       <c r="B100" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="C100" t="s">
+        <v>116</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="8"/>
@@ -2833,13 +2823,13 @@
         <v>globalposition --&gt; 1.133.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25">
-      <c r="A101" s="10"/>
+    <row r="101" spans="1:7">
+      <c r="A101" s="9"/>
       <c r="B101" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="8"/>
@@ -2854,13 +2844,13 @@
         <v>identitadigitale --&gt; 1.45.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25">
-      <c r="A102" s="10"/>
+    <row r="102" spans="1:7">
+      <c r="A102" s="9"/>
       <c r="B102" t="s">
-        <v>123</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="C102" t="s">
+        <v>120</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="8"/>
@@ -2884,15 +2874,15 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" ht="14.25">
-      <c r="A104" s="10">
+    <row r="104" spans="1:7">
+      <c r="A104" s="9">
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="C104" t="s">
+        <v>122</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="8"/>
@@ -2907,13 +2897,13 @@
         <v>digitalwallet --&gt; 1.63.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25">
-      <c r="A105" s="10"/>
+    <row r="105" spans="1:7">
+      <c r="A105" s="9"/>
       <c r="B105" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>57</v>
+        <v>123</v>
+      </c>
+      <c r="C105" t="s">
+        <v>55</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="8"/>
@@ -2928,12 +2918,12 @@
         <v>pulsantiera --&gt; 1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25">
-      <c r="A106" s="10"/>
+    <row r="106" spans="1:7">
+      <c r="A106" s="9"/>
       <c r="B106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C106" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="E106" t="str">
@@ -2958,15 +2948,15 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" ht="14.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="3">
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="8"/>
@@ -2990,15 +2980,15 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" ht="14.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="3">
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="C110" t="s">
+        <v>128</v>
       </c>
       <c r="E110" t="str">
         <f>LEFT(B110,LEN(B110)-4)</f>
@@ -3016,6 +3006,11 @@
   </sheetData>
   <autoFilter ref="B1:D108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="A43:A48"/>
     <mergeCell ref="A97:A102"/>
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A50:A53"/>
@@ -3023,11 +3018,6 @@
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="A43:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3038,33 +3028,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C489" sqref="C489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3072,11 +3062,11 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -3085,7 +3075,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" outlineLevel="1">
+    <row r="5" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B5" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3095,14 +3085,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" collapsed="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1">
+    <row r="7" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B7" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3112,7 +3102,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" collapsed="1">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3133,7 +3123,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1">
+    <row r="11" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B11" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3143,14 +3133,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" collapsed="1">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1">
+    <row r="13" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B13" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3160,14 +3150,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" collapsed="1">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" outlineLevel="1">
+    <row r="15" spans="1:4" hidden="1" outlineLevel="1">
       <c r="B15" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3177,12 +3167,12 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+    <row r="16" spans="1:4" collapsed="1">
+      <c r="A16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -3191,7 +3181,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" outlineLevel="1">
+    <row r="18" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B18" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3201,7 +3191,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="19" spans="1:3" outlineLevel="1">
+    <row r="19" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B19" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3211,14 +3201,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" collapsed="1">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" outlineLevel="1">
+    <row r="21" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B21" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
@@ -3228,7 +3218,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="22" spans="1:3" outlineLevel="1">
+    <row r="22" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B22" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3238,14 +3228,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" collapsed="1">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" outlineLevel="1">
+    <row r="24" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B24" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3255,7 +3245,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="25" spans="1:3" outlineLevel="1">
+    <row r="25" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B25" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3265,12 +3255,12 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+    <row r="26" spans="1:3" collapsed="1">
+      <c r="A26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
@@ -3279,7 +3269,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" outlineLevel="1">
+    <row r="28" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B28" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3289,7 +3279,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="29" spans="1:3" outlineLevel="1">
+    <row r="29" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B29" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3299,7 +3289,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="30" spans="1:3" outlineLevel="1">
+    <row r="30" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B30" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -3309,7 +3299,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="31" spans="1:3" outlineLevel="1">
+    <row r="31" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B31" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>userpreferences-ejb</v>
@@ -3319,21 +3309,21 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+    <row r="32" spans="1:3" collapsed="1">
+      <c r="A32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" outlineLevel="1">
+    <row r="34" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B34" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3343,7 +3333,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="35" spans="1:3" outlineLevel="1">
+    <row r="35" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B35" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -3353,7 +3343,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="36" spans="1:3" outlineLevel="1">
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B36" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3363,7 +3353,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="37" spans="1:3" outlineLevel="1">
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B37" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -3373,24 +3363,24 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="38" spans="1:3" outlineLevel="1">
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B38" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" collapsed="1">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" outlineLevel="1">
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B40" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3400,7 +3390,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="41" spans="1:3" outlineLevel="1">
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B41" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -3410,7 +3400,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="42" spans="1:3" outlineLevel="1">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B42" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3420,24 +3410,24 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="43" spans="1:3" outlineLevel="1">
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B43" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" collapsed="1">
       <c r="A44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" outlineLevel="1">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B45" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3447,7 +3437,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="46" spans="1:3" outlineLevel="1">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B46" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3457,24 +3447,24 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="47" spans="1:3" outlineLevel="1">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B47" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" collapsed="1">
       <c r="A48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" outlineLevel="1">
+    <row r="49" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B49" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3484,7 +3474,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="50" spans="1:3" outlineLevel="1">
+    <row r="50" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B50" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3494,24 +3484,24 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="51" spans="1:3" outlineLevel="1">
+    <row r="51" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B51" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" collapsed="1">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" outlineLevel="1">
+    <row r="53" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B53" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3521,7 +3511,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="54" spans="1:3" outlineLevel="1">
+    <row r="54" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B54" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -3531,34 +3521,34 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="55" spans="1:3" outlineLevel="1">
+    <row r="55" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B55" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" collapsed="1">
       <c r="A56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" outlineLevel="1">
+    <row r="57" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B57" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B58" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3568,14 +3558,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" collapsed="1">
       <c r="A59" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" outlineLevel="1">
+    <row r="60" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B60" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3585,24 +3575,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="61" spans="1:3" outlineLevel="1">
+    <row r="61" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B61" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C61" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" collapsed="1">
       <c r="A62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" outlineLevel="1">
+    <row r="63" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B63" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -3612,7 +3602,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="64" spans="1:3" outlineLevel="1">
+    <row r="64" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B64" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3622,7 +3612,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="65" spans="1:3" outlineLevel="1">
+    <row r="65" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B65" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>postvendita-common-ejb</v>
@@ -3632,7 +3622,7 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="66" spans="1:3" outlineLevel="1">
+    <row r="66" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B66" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3642,32 +3632,32 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="67" spans="1:3" outlineLevel="1">
+    <row r="67" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B67" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" collapsed="1">
       <c r="A68" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" outlineLevel="1">
+    <row r="69" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B69" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" outlineLevel="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B70" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -3677,7 +3667,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="71" spans="1:3" outlineLevel="1">
+    <row r="71" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B71" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -3687,24 +3677,24 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="72" spans="1:3" outlineLevel="1">
+    <row r="72" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B72" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" collapsed="1">
       <c r="A73" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" outlineLevel="1">
+    <row r="74" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B74" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3714,24 +3704,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="75" spans="1:3" outlineLevel="1">
+    <row r="75" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B75" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C75" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" collapsed="1">
       <c r="A76" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" outlineLevel="1">
+    <row r="77" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B77" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3741,24 +3731,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="78" spans="1:3" outlineLevel="1">
+    <row r="78" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B78" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C78" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" collapsed="1">
       <c r="A79" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" outlineLevel="1">
+    <row r="80" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B80" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3768,31 +3758,31 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="81" spans="1:3" outlineLevel="1">
+    <row r="81" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B81" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C81" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" collapsed="1">
+      <c r="A82" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" outlineLevel="1">
+    <row r="84" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B84" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3802,24 +3792,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="85" spans="1:3" outlineLevel="1">
+    <row r="85" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B85" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C85" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" collapsed="1">
       <c r="A86" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" outlineLevel="1">
+    <row r="87" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B87" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3829,34 +3819,34 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="88" spans="1:3" outlineLevel="1">
+    <row r="88" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B88" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C88" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" collapsed="1">
       <c r="A89" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" outlineLevel="1">
+    <row r="90" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B90" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B91" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3866,14 +3856,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" collapsed="1">
       <c r="A92" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" outlineLevel="1">
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B93" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3883,24 +3873,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="94" spans="1:3" outlineLevel="1">
+    <row r="94" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B94" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C94" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" collapsed="1">
       <c r="A95" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" outlineLevel="1">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B96" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3910,24 +3900,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="97" spans="1:3" outlineLevel="1">
+    <row r="97" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B97" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C97" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" collapsed="1">
       <c r="A98" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" outlineLevel="1">
+    <row r="99" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B99" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3937,24 +3927,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="100" spans="1:3" outlineLevel="1">
+    <row r="100" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B100" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C100" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" collapsed="1">
       <c r="A101" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" outlineLevel="1">
+    <row r="102" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B102" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -3964,24 +3954,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="103" spans="1:3" outlineLevel="1">
+    <row r="103" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B103" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C103" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" collapsed="1">
       <c r="A104" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" outlineLevel="1">
+    <row r="105" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B105" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -3991,7 +3981,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="106" spans="1:3" outlineLevel="1">
+    <row r="106" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B106" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4001,17 +3991,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="107" spans="1:3" outlineLevel="1">
+    <row r="107" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B107" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B108" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4021,24 +4011,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" collapsed="1">
       <c r="A109" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" outlineLevel="1">
+    <row r="110" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B110" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C110" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B111" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4048,7 +4038,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="112" spans="1:3" outlineLevel="1">
+    <row r="112" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B112" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -4058,7 +4048,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="113" spans="1:3" outlineLevel="1">
+    <row r="113" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B113" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4068,14 +4058,14 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" collapsed="1">
       <c r="A114" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:3" outlineLevel="1">
+    <row r="115" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B115" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4085,17 +4075,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="116" spans="1:3" outlineLevel="1">
+    <row r="116" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B116" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B117" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4105,7 +4095,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="118" spans="1:3" outlineLevel="1">
+    <row r="118" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B118" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>postvendita-common-ejb</v>
@@ -4115,7 +4105,7 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="119" spans="1:3" outlineLevel="1">
+    <row r="119" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B119" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4125,7 +4115,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="120" spans="1:3" outlineLevel="1">
+    <row r="120" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B120" t="str">
         <f>'Versioni EJB'!B8</f>
         <v>stampe-ejb</v>
@@ -4135,14 +4125,14 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" collapsed="1">
       <c r="A121" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" outlineLevel="1">
+    <row r="122" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B122" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4152,7 +4142,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="123" spans="1:3" outlineLevel="1">
+    <row r="123" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B123" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4162,17 +4152,17 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="124" spans="1:3" outlineLevel="1">
+    <row r="124" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B124" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B125" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4182,7 +4172,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="126" spans="1:3" outlineLevel="1">
+    <row r="126" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B126" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>postvendita-common-ejb</v>
@@ -4192,21 +4182,21 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
+    <row r="127" spans="1:3" collapsed="1">
+      <c r="A127" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" outlineLevel="1">
+    <row r="129" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B129" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4216,7 +4206,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="130" spans="1:3" outlineLevel="1">
+    <row r="130" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B130" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4226,15 +4216,15 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="131" spans="1:3" outlineLevel="1">
+    <row r="131" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B131" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" outlineLevel="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B132" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -4244,34 +4234,34 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="133" spans="1:3" outlineLevel="1">
+    <row r="133" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B133" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C133" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" collapsed="1">
       <c r="A134" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" outlineLevel="1">
+    <row r="135" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B135" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C135" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B136" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -4281,14 +4271,14 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" collapsed="1">
       <c r="A137" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" outlineLevel="1">
+    <row r="138" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B138" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4298,7 +4288,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="139" spans="1:3" outlineLevel="1">
+    <row r="139" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B139" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -4308,7 +4298,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="140" spans="1:3" outlineLevel="1">
+    <row r="140" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B140" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -4318,7 +4308,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="141" spans="1:3" outlineLevel="1">
+    <row r="141" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B141" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4328,17 +4318,17 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="142" spans="1:3" outlineLevel="1">
+    <row r="142" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B142" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C142" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B143" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4348,24 +4338,24 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" collapsed="1">
       <c r="A144" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:3" outlineLevel="1">
+    <row r="145" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B145" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B146" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4375,7 +4365,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="147" spans="1:3" outlineLevel="1">
+    <row r="147" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B147" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -4385,15 +4375,15 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="148" spans="1:3" outlineLevel="1">
+    <row r="148" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B148" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C148" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" outlineLevel="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B149" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4403,22 +4393,22 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="150" spans="1:3" outlineLevel="1">
+    <row r="150" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B150" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C150" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" collapsed="1">
       <c r="A151" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3" outlineLevel="1">
+    <row r="152" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B152" t="str">
         <f>'Versioni EJB'!B8</f>
         <v>stampe-ejb</v>
@@ -4428,17 +4418,17 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="153" spans="1:3" outlineLevel="1">
+    <row r="153" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B153" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B154" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4448,14 +4438,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" collapsed="1">
       <c r="A155" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="1:3" outlineLevel="1">
+    <row r="156" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B156" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4465,7 +4455,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="157" spans="1:3" outlineLevel="1">
+    <row r="157" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B157" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -4475,17 +4465,17 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="158" spans="1:3" outlineLevel="1">
+    <row r="158" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B158" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B159" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4495,21 +4485,21 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
+    <row r="160" spans="1:3" collapsed="1">
+      <c r="A160" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="1:3" outlineLevel="1">
+    <row r="162" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B162" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4519,7 +4509,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="163" spans="1:3" outlineLevel="1">
+    <row r="163" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B163" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4529,7 +4519,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="164" spans="1:3" outlineLevel="1">
+    <row r="164" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B164" t="str">
         <f>'Versioni EJB'!B43</f>
         <v>commonssmallbusiness-ejb</v>
@@ -4539,24 +4529,24 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="165" spans="1:3" outlineLevel="1">
+    <row r="165" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B165" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" collapsed="1">
       <c r="A166" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" outlineLevel="1">
+    <row r="167" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B167" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -4566,7 +4556,7 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="168" spans="1:3" outlineLevel="1">
+    <row r="168" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B168" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4576,7 +4566,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="169" spans="1:3" outlineLevel="1">
+    <row r="169" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B169" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4586,25 +4576,25 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="170" spans="1:3" outlineLevel="1">
+    <row r="170" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B170" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" collapsed="1">
       <c r="A171" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" ht="13.5" outlineLevel="1">
-      <c r="A172" s="9"/>
+    <row r="172" spans="1:3" hidden="1" outlineLevel="1">
+      <c r="A172" s="8"/>
       <c r="B172" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4614,7 +4604,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="173" spans="1:3" outlineLevel="1">
+    <row r="173" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B173" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4624,7 +4614,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="174" spans="1:3" outlineLevel="1">
+    <row r="174" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B174" t="str">
         <f>'Versioni EJB'!B43</f>
         <v>commonssmallbusiness-ejb</v>
@@ -4634,14 +4624,14 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" collapsed="1">
       <c r="A175" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="1:3" outlineLevel="1">
+    <row r="176" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B176" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -4651,7 +4641,7 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="177" spans="1:3" outlineLevel="1">
+    <row r="177" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B177" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4661,21 +4651,21 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
+    <row r="178" spans="1:3" collapsed="1">
+      <c r="A178" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="1:3" outlineLevel="1">
+    <row r="180" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B180" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4685,7 +4675,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="181" spans="1:3" outlineLevel="1">
+    <row r="181" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B181" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4695,7 +4685,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="182" spans="1:3" outlineLevel="1">
+    <row r="182" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B182" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -4705,7 +4695,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="183" spans="1:3" outlineLevel="1">
+    <row r="183" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B183" t="str">
         <f>'Versioni EJB'!B51</f>
         <v>etichette-ejb</v>
@@ -4715,31 +4705,31 @@
         <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="184" spans="1:3" outlineLevel="1">
+    <row r="184" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B184" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C184" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" collapsed="1">
+      <c r="A185" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="1:3" outlineLevel="1">
+    <row r="187" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B187" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4749,17 +4739,17 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="188" spans="1:3" outlineLevel="1">
+    <row r="188" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B188" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B189" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4769,7 +4759,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="190" spans="1:3" outlineLevel="1">
+    <row r="190" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B190" t="str">
         <f>'Versioni EJB'!B55</f>
         <v>rubriche-ejb</v>
@@ -4779,7 +4769,7 @@
         <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="191" spans="1:3" outlineLevel="1">
+    <row r="191" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B191" t="str">
         <f>'Versioni EJB'!B43</f>
         <v>commonssmallbusiness-ejb</v>
@@ -4789,21 +4779,21 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
+    <row r="192" spans="1:3" collapsed="1">
+      <c r="A192" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="1:3" outlineLevel="1">
+    <row r="194" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B194" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4813,40 +4803,40 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="195" spans="1:3" outlineLevel="1">
+    <row r="195" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B195" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B196" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C57</f>
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
+    <row r="197" spans="1:3" collapsed="1">
+      <c r="A197" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" outlineLevel="1">
+    <row r="199" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B199" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4856,7 +4846,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="200" spans="1:3" outlineLevel="1">
+    <row r="200" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B200" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4866,7 +4856,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="201" spans="1:3" outlineLevel="1">
+    <row r="201" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B201" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -4876,7 +4866,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="202" spans="1:3" outlineLevel="1">
+    <row r="202" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B202" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -4886,24 +4876,24 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="203" spans="1:3" outlineLevel="1">
+    <row r="203" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B203" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" collapsed="1">
       <c r="A204" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" outlineLevel="1">
+    <row r="205" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B205" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -4913,7 +4903,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="206" spans="1:3" outlineLevel="1">
+    <row r="206" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B206" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -4923,7 +4913,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="207" spans="1:3" outlineLevel="1">
+    <row r="207" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B207" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -4933,7 +4923,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="208" spans="1:3" outlineLevel="1">
+    <row r="208" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B208" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -4943,7 +4933,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="209" spans="1:3" outlineLevel="1">
+    <row r="209" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B209" t="str">
         <f>'Versioni EJB'!B44</f>
         <v>condizioni-ejb</v>
@@ -4953,7 +4943,7 @@
         <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="210" spans="1:3" outlineLevel="1">
+    <row r="210" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B210" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -4963,7 +4953,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="211" spans="1:3" outlineLevel="1">
+    <row r="211" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B211" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -4973,7 +4963,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="212" spans="1:3" outlineLevel="1">
+    <row r="212" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B212" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -4983,24 +4973,24 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="213" spans="1:3" outlineLevel="1">
+    <row r="213" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B213" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C213" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" collapsed="1">
       <c r="A214" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="1:3" outlineLevel="1">
+    <row r="215" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B215" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5010,7 +5000,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="216" spans="1:3" outlineLevel="1">
+    <row r="216" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B216" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5020,24 +5010,24 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="217" spans="1:3" outlineLevel="1">
+    <row r="217" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B217" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" collapsed="1">
       <c r="A218" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="1:3" outlineLevel="1">
+    <row r="219" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B219" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5047,7 +5037,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="220" spans="1:3" outlineLevel="1">
+    <row r="220" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B220" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5057,7 +5047,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="221" spans="1:3" outlineLevel="1">
+    <row r="221" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B221" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5067,7 +5057,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="222" spans="1:3" outlineLevel="1">
+    <row r="222" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B222" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5077,7 +5067,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="223" spans="1:3" outlineLevel="1">
+    <row r="223" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B223" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5087,17 +5077,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="224" spans="1:3" outlineLevel="1">
+    <row r="224" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B224" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B225" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5107,14 +5097,14 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" collapsed="1">
       <c r="A226" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="1:3" outlineLevel="1">
+    <row r="227" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B227" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5124,7 +5114,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="228" spans="1:3" outlineLevel="1">
+    <row r="228" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B228" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>pendingprocesslist-ejb</v>
@@ -5134,7 +5124,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="229" spans="1:3" outlineLevel="1">
+    <row r="229" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B229" t="str">
         <f>'Versioni EJB'!B28</f>
         <v>gestorelimiti-ejb</v>
@@ -5144,7 +5134,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="230" spans="1:3" outlineLevel="1">
+    <row r="230" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B230" t="str">
         <f>'Versioni EJB'!B44</f>
         <v>condizioni-ejb</v>
@@ -5154,7 +5144,7 @@
         <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="231" spans="1:3" outlineLevel="1">
+    <row r="231" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B231" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5164,7 +5154,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="232" spans="1:3" outlineLevel="1">
+    <row r="232" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B232" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -5174,7 +5164,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="233" spans="1:3" outlineLevel="1">
+    <row r="233" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B233" t="str">
         <f>'Versioni EJB'!B55</f>
         <v>rubriche-ejb</v>
@@ -5184,17 +5174,17 @@
         <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="234" spans="1:3" outlineLevel="1">
+    <row r="234" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B234" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B235" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5204,7 +5194,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="236" spans="1:3" outlineLevel="1">
+    <row r="236" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B236" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5214,14 +5204,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" collapsed="1">
       <c r="A237" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="1:3" outlineLevel="1">
+    <row r="238" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B238" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5231,17 +5221,17 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="239" spans="1:3" outlineLevel="1">
+    <row r="239" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B239" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B240" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5251,14 +5241,14 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" collapsed="1">
       <c r="A241" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="1:3" outlineLevel="1">
+    <row r="242" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B242" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5268,17 +5258,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="243" spans="1:3" outlineLevel="1">
+    <row r="243" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B243" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C243" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B244" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5288,7 +5278,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="245" spans="1:3" outlineLevel="1">
+    <row r="245" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B245" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5298,7 +5288,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="246" spans="1:3" outlineLevel="1">
+    <row r="246" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B246" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5308,7 +5298,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="247" spans="1:3" outlineLevel="1">
+    <row r="247" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B247" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -5318,7 +5308,7 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="248" spans="1:3" outlineLevel="1">
+    <row r="248" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B248" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5328,7 +5318,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="249" spans="1:3" outlineLevel="1">
+    <row r="249" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B249" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -5338,14 +5328,14 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" collapsed="1">
       <c r="A250" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="1:3" outlineLevel="1">
+    <row r="251" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B251" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5355,7 +5345,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="252" spans="1:3" outlineLevel="1">
+    <row r="252" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B252" t="str">
         <f>'Versioni EJB'!B44</f>
         <v>condizioni-ejb</v>
@@ -5365,7 +5355,7 @@
         <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="253" spans="1:3" outlineLevel="1">
+    <row r="253" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B253" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5375,7 +5365,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="254" spans="1:3" outlineLevel="1">
+    <row r="254" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B254" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -5385,7 +5375,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="255" spans="1:3" outlineLevel="1">
+    <row r="255" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B255" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5395,17 +5385,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="256" spans="1:3" outlineLevel="1">
+    <row r="256" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B256" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C256" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B257" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5415,7 +5405,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="258" spans="1:3" outlineLevel="1">
+    <row r="258" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B258" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5425,7 +5415,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="259" spans="1:3" outlineLevel="1">
+    <row r="259" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B259" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5435,21 +5425,21 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
+    <row r="260" spans="1:3" collapsed="1">
+      <c r="A260" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="1:3" outlineLevel="1">
+    <row r="262" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B262" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5459,7 +5449,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="263" spans="1:3" outlineLevel="1">
+    <row r="263" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B263" t="str">
         <f>'Versioni EJB'!B21</f>
         <v>antiriciclaggio-ejb</v>
@@ -5469,7 +5459,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="264" spans="1:3" outlineLevel="1">
+    <row r="264" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B264" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5479,7 +5469,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="265" spans="1:3" outlineLevel="1">
+    <row r="265" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B265" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>anagrafiche-ejb</v>
@@ -5489,7 +5479,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="266" spans="1:3" outlineLevel="1">
+    <row r="266" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B266" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5499,7 +5489,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="267" spans="1:3" outlineLevel="1">
+    <row r="267" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B267" t="str">
         <f>'Versioni EJB'!B67</f>
         <v>salvadanaio-ejb</v>
@@ -5509,7 +5499,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="268" spans="1:3" outlineLevel="1">
+    <row r="268" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B268" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -5519,7 +5509,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="269" spans="1:3" outlineLevel="1">
+    <row r="269" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B269" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5529,7 +5519,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="270" spans="1:3" outlineLevel="1">
+    <row r="270" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B270" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5539,7 +5529,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="271" spans="1:3" outlineLevel="1">
+    <row r="271" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B271" t="str">
         <f>'Versioni EJB'!B55</f>
         <v>rubriche-ejb</v>
@@ -5549,17 +5539,17 @@
         <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="272" spans="1:3" outlineLevel="1">
+    <row r="272" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B272" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C272" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B273" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5569,14 +5559,14 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" collapsed="1">
       <c r="A274" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="1:3" outlineLevel="1">
+    <row r="275" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B275" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5586,7 +5576,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="276" spans="1:3" outlineLevel="1">
+    <row r="276" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B276" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5596,7 +5586,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="277" spans="1:3" outlineLevel="1">
+    <row r="277" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B277" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5606,7 +5596,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="278" spans="1:3" outlineLevel="1">
+    <row r="278" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B278" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -5616,17 +5606,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="279" spans="1:3" outlineLevel="1">
+    <row r="279" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B279" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C279" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B280" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -5636,14 +5626,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" collapsed="1">
       <c r="A281" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="1:3" outlineLevel="1">
+    <row r="282" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B282" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5653,7 +5643,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="283" spans="1:3" outlineLevel="1">
+    <row r="283" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B283" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -5663,7 +5653,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="284" spans="1:3" outlineLevel="1">
+    <row r="284" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B284" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5673,7 +5663,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="285" spans="1:3" outlineLevel="1">
+    <row r="285" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B285" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5683,17 +5673,17 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="286" spans="1:3" outlineLevel="1">
+    <row r="286" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B286" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C286" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B287" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5703,14 +5693,14 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" collapsed="1">
       <c r="A288" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="1:3" outlineLevel="1">
+    <row r="289" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B289" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5720,17 +5710,17 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="290" spans="1:3" outlineLevel="1">
+    <row r="290" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B290" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C290" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B291" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5740,7 +5730,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="292" spans="1:3" outlineLevel="1">
+    <row r="292" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B292" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5750,7 +5740,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="293" spans="1:3" outlineLevel="1">
+    <row r="293" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B293" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5760,7 +5750,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="294" spans="1:3" outlineLevel="1">
+    <row r="294" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B294" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -5770,7 +5760,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="295" spans="1:3" outlineLevel="1">
+    <row r="295" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B295" t="str">
         <f>'Versioni EJB'!B44</f>
         <v>condizioni-ejb</v>
@@ -5780,7 +5770,7 @@
         <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="296" spans="1:3" outlineLevel="1">
+    <row r="296" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B296" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -5790,7 +5780,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="297" spans="1:3" outlineLevel="1">
+    <row r="297" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B297" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5800,14 +5790,14 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" collapsed="1">
       <c r="A298" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="1:3" outlineLevel="1">
+    <row r="299" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B299" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5817,7 +5807,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="300" spans="1:3" outlineLevel="1">
+    <row r="300" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B300" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -5827,7 +5817,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="301" spans="1:3" outlineLevel="1">
+    <row r="301" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B301" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -5837,17 +5827,17 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="302" spans="1:3" outlineLevel="1">
+    <row r="302" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B302" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C302" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B303" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5857,7 +5847,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="304" spans="1:3" outlineLevel="1">
+    <row r="304" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B304" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5867,7 +5857,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="305" spans="1:3" outlineLevel="1">
+    <row r="305" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B305" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5877,7 +5867,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="306" spans="1:3" outlineLevel="1">
+    <row r="306" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B306" t="str">
         <f>'Versioni EJB'!B55</f>
         <v>rubriche-ejb</v>
@@ -5887,14 +5877,14 @@
         <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" collapsed="1">
       <c r="A307" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="1:3" outlineLevel="1">
+    <row r="308" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B308" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -5904,7 +5894,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="309" spans="1:3" outlineLevel="1">
+    <row r="309" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B309" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5914,7 +5904,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="310" spans="1:3" outlineLevel="1">
+    <row r="310" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B310" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -5924,7 +5914,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="311" spans="1:3" outlineLevel="1">
+    <row r="311" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B311" t="str">
         <f>'Versioni EJB'!B67</f>
         <v>salvadanaio-ejb</v>
@@ -5934,21 +5924,21 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
+    <row r="312" spans="1:3" collapsed="1">
+      <c r="A312" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="1:3" outlineLevel="1">
+    <row r="314" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B314" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -5958,7 +5948,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="315" spans="1:3" outlineLevel="1">
+    <row r="315" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B315" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -5968,7 +5958,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="316" spans="1:3" outlineLevel="1">
+    <row r="316" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B316" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -5978,7 +5968,7 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="317" spans="1:3" outlineLevel="1">
+    <row r="317" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B317" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -5988,7 +5978,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="318" spans="1:3" outlineLevel="1">
+    <row r="318" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B318" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -5998,7 +5988,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="319" spans="1:3" outlineLevel="1">
+    <row r="319" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B319" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -6008,7 +5998,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="320" spans="1:3" outlineLevel="1">
+    <row r="320" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B320" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6018,24 +6008,24 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="321" spans="1:3" outlineLevel="1">
+    <row r="321" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B321" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C321" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" collapsed="1">
       <c r="A322" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="1:3" outlineLevel="1">
+    <row r="323" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B323" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -6045,7 +6035,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="324" spans="1:3" outlineLevel="1">
+    <row r="324" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B324" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -6055,17 +6045,17 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="325" spans="1:3" outlineLevel="1">
+    <row r="325" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B325" t="str">
         <f>'Versioni EJB'!B26</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C325" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.71.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" outlineLevel="1">
+        <v>1.74.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B326" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -6075,7 +6065,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="327" spans="1:3" outlineLevel="1">
+    <row r="327" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B327" t="str">
         <f>'Versioni EJB'!B37</f>
         <v>pagamenti-ejb</v>
@@ -6085,17 +6075,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="328" spans="1:3" outlineLevel="1">
+    <row r="328" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B328" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C328" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B329" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6105,7 +6095,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="330" spans="1:3" outlineLevel="1">
+    <row r="330" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B330" t="str">
         <f>'Versioni EJB'!B19</f>
         <v>agenda-ejb</v>
@@ -6115,7 +6105,7 @@
         <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="331" spans="1:3" outlineLevel="1">
+    <row r="331" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B331" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -6125,7 +6115,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="332" spans="1:3" outlineLevel="1">
+    <row r="332" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B332" t="str">
         <f>'Versioni EJB'!B55</f>
         <v>rubriche-ejb</v>
@@ -6135,7 +6125,7 @@
         <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="333" spans="1:3" outlineLevel="1">
+    <row r="333" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B333" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -6145,14 +6135,14 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" collapsed="1">
       <c r="A334" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="1:3" outlineLevel="1">
+    <row r="335" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B335" t="str">
         <f>'Versioni EJB'!B43</f>
         <v>commonssmallbusiness-ejb</v>
@@ -6162,17 +6152,17 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="336" spans="1:3" outlineLevel="1">
+    <row r="336" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B336" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C336" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B337" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -6182,7 +6172,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="338" spans="1:3" outlineLevel="1">
+    <row r="338" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B338" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6192,7 +6182,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="339" spans="1:3" outlineLevel="1">
+    <row r="339" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B339" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6202,7 +6192,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="340" spans="1:3" outlineLevel="1">
+    <row r="340" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B340" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
@@ -6212,7 +6202,7 @@
         <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="341" spans="1:3" outlineLevel="1">
+    <row r="341" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B341" t="str">
         <f>'Versioni EJB'!B8</f>
         <v>stampe-ejb</v>
@@ -6222,14 +6212,14 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" collapsed="1">
       <c r="A342" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="1:3" outlineLevel="1">
+    <row r="343" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B343" t="str">
         <f>'Versioni EJB'!B68</f>
         <v>tasse-ejb</v>
@@ -6239,7 +6229,7 @@
         <v>1.61.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="344" spans="1:3" outlineLevel="1">
+    <row r="344" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B344" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
@@ -6249,7 +6239,7 @@
         <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="345" spans="1:3" outlineLevel="1">
+    <row r="345" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B345" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>bollettinopostale-ejb</v>
@@ -6259,7 +6249,7 @@
         <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="346" spans="1:3" outlineLevel="1">
+    <row r="346" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B346" t="str">
         <f>'Versioni EJB'!B45</f>
         <v>moneytransfer-ejb</v>
@@ -6269,7 +6259,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="347" spans="1:3" outlineLevel="1">
+    <row r="347" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B347" t="str">
         <f>'Versioni EJB'!B64</f>
         <v>f24-ejb</v>
@@ -6279,7 +6269,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="348" spans="1:3" outlineLevel="1">
+    <row r="348" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B348" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -6289,17 +6279,17 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="349" spans="1:3" outlineLevel="1">
+    <row r="349" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B349" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C349" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B350" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6309,21 +6299,21 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B351" s="11"/>
-      <c r="C351" s="11"/>
+    <row r="351" spans="1:3" collapsed="1">
+      <c r="A351" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B351" s="10"/>
+      <c r="C351" s="10"/>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="1:3" outlineLevel="1">
+    <row r="353" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B353" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6333,7 +6323,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="354" spans="1:3" outlineLevel="1">
+    <row r="354" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B354" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -6343,7 +6333,7 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="355" spans="1:3" outlineLevel="1">
+    <row r="355" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B355" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
@@ -6353,24 +6343,24 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="356" spans="1:3" outlineLevel="1">
+    <row r="356" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B356" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C356" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" collapsed="1">
       <c r="A357" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
     </row>
-    <row r="358" spans="1:3" outlineLevel="1">
+    <row r="358" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B358" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6380,7 +6370,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="359" spans="1:3" outlineLevel="1">
+    <row r="359" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B359" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -6390,7 +6380,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="360" spans="1:3" outlineLevel="1">
+    <row r="360" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B360" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -6400,7 +6390,7 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="361" spans="1:3" outlineLevel="1">
+    <row r="361" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B361" t="str">
         <f>'Versioni EJB'!B8</f>
         <v>stampe-ejb</v>
@@ -6410,14 +6400,14 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" collapsed="1">
       <c r="A362" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="1:3" outlineLevel="1">
+    <row r="363" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B363" t="str">
         <f>'Versioni EJB'!B10</f>
         <v>wishlist-ejb</v>
@@ -6427,7 +6417,7 @@
         <v>1.9.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="364" spans="1:3" outlineLevel="1">
+    <row r="364" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B364" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -6437,17 +6427,17 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="365" spans="1:3" outlineLevel="1">
+    <row r="365" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B365" t="str">
         <f>'Versioni EJB'!B26</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C365" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.71.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" outlineLevel="1">
+        <v>1.74.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B366" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6457,14 +6447,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" collapsed="1">
       <c r="A367" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="1:3" outlineLevel="1">
+    <row r="368" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B368" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -6474,7 +6464,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="369" spans="1:3" outlineLevel="1">
+    <row r="369" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B369" t="str">
         <f>'Versioni EJB'!B59</f>
         <v>pendingprocesslist-ejb</v>
@@ -6484,7 +6474,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="370" spans="1:3" outlineLevel="1">
+    <row r="370" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B370" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -6494,7 +6484,7 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="371" spans="1:3" outlineLevel="1">
+    <row r="371" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B371" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6504,34 +6494,34 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="372" spans="1:3" outlineLevel="1">
+    <row r="372" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B372" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C372" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" collapsed="1">
       <c r="A373" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
     </row>
-    <row r="374" spans="1:3" outlineLevel="1">
+    <row r="374" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B374" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C374" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B375" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -6541,7 +6531,7 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="376" spans="1:3" outlineLevel="1">
+    <row r="376" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B376" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6551,7 +6541,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="377" spans="1:3" outlineLevel="1">
+    <row r="377" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B377" t="str">
         <f>'Versioni EJB'!B7</f>
         <v>deviceregistry-ejb</v>
@@ -6561,14 +6551,14 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" collapsed="1">
       <c r="A378" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="1:3" outlineLevel="1">
+    <row r="379" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B379" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6578,7 +6568,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="380" spans="1:3" outlineLevel="1">
+    <row r="380" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B380" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6588,7 +6578,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="381" spans="1:3" outlineLevel="1">
+    <row r="381" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B381" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -6598,7 +6588,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="382" spans="1:3" outlineLevel="1">
+    <row r="382" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B382" t="str">
         <f>'Versioni EJB'!B77</f>
         <v>bonificoestero-ejb</v>
@@ -6608,7 +6598,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="383" spans="1:3" outlineLevel="1">
+    <row r="383" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B383" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -6618,24 +6608,24 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" collapsed="1">
       <c r="A384" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="1:3" outlineLevel="1">
+    <row r="385" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B385" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C385" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B386" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6645,7 +6635,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="387" spans="1:3" outlineLevel="1">
+    <row r="387" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B387" t="str">
         <f>'Versioni EJB'!B68</f>
         <v>tasse-ejb</v>
@@ -6655,7 +6645,7 @@
         <v>1.61.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="388" spans="1:3" outlineLevel="1">
+    <row r="388" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B388" t="str">
         <f>'Versioni EJB'!B48</f>
         <v>ricarichevarie-ejb</v>
@@ -6665,7 +6655,7 @@
         <v>1.49.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="389" spans="1:3" outlineLevel="1">
+    <row r="389" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B389" t="str">
         <f>'Versioni EJB'!B73</f>
         <v>pagamentibollette-ejb</v>
@@ -6675,7 +6665,7 @@
         <v>1.78.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="390" spans="1:3" outlineLevel="1">
+    <row r="390" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B390" t="str">
         <f>'Versioni EJB'!B77</f>
         <v>bonificoestero-ejb</v>
@@ -6685,7 +6675,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="391" spans="1:3" outlineLevel="1">
+    <row r="391" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B391" t="str">
         <f>'Versioni EJB'!B72</f>
         <v>giroconto-ejb</v>
@@ -6695,7 +6685,7 @@
         <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="392" spans="1:3" outlineLevel="1">
+    <row r="392" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B392" t="str">
         <f>'Versioni EJB'!B74</f>
         <v>ricaricacellulare-ejb</v>
@@ -6705,7 +6695,7 @@
         <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="393" spans="1:3" outlineLevel="1">
+    <row r="393" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B393" t="str">
         <f>'Versioni EJB'!B62</f>
         <v>bollettinopostale-ejb</v>
@@ -6715,7 +6705,7 @@
         <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="394" spans="1:3" outlineLevel="1">
+    <row r="394" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B394" t="str">
         <f>'Versioni EJB'!B45</f>
         <v>moneytransfer-ejb</v>
@@ -6725,7 +6715,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="395" spans="1:3" outlineLevel="1">
+    <row r="395" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B395" t="str">
         <f>'Versioni EJB'!B64</f>
         <v>f24-ejb</v>
@@ -6735,7 +6725,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="396" spans="1:3" outlineLevel="1">
+    <row r="396" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B396" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -6745,14 +6735,14 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" collapsed="1">
       <c r="A397" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="1:3" outlineLevel="1">
+    <row r="398" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B398" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6762,7 +6752,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="399" spans="1:3" outlineLevel="1">
+    <row r="399" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B399" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6772,7 +6762,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="400" spans="1:3" outlineLevel="1">
+    <row r="400" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B400" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>postvendita-common-ejb</v>
@@ -6782,7 +6772,7 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="401" spans="1:3" outlineLevel="1">
+    <row r="401" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B401" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -6792,21 +6782,21 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B402" s="11"/>
-      <c r="C402" s="11"/>
+    <row r="402" spans="1:3" collapsed="1">
+      <c r="A402" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B402" s="10"/>
+      <c r="C402" s="10"/>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="1:3" outlineLevel="1">
+    <row r="404" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B404" t="str">
         <f>'Versioni EJB'!B5</f>
         <v>callmeback-ejb</v>
@@ -6816,7 +6806,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="405" spans="1:3" outlineLevel="1">
+    <row r="405" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B405" t="str">
         <f>'Versioni EJB'!B47</f>
         <v>rapporticliente-ejb</v>
@@ -6826,17 +6816,17 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="406" spans="1:3" outlineLevel="1">
+    <row r="406" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B406" t="str">
         <f>'Versioni EJB'!B83</f>
         <v>bonus-ejb</v>
       </c>
       <c r="C406" t="str">
         <f>'Versioni EJB'!C83</f>
-        <v>1.19.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" outlineLevel="1">
+        <v>1.20.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B407" t="str">
         <f>'Versioni EJB'!B19</f>
         <v>agenda-ejb</v>
@@ -6846,7 +6836,7 @@
         <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="408" spans="1:3" outlineLevel="1">
+    <row r="408" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B408" t="str">
         <f>'Versioni EJB'!B61</f>
         <v>autorizzazioni-ejb</v>
@@ -6856,7 +6846,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="409" spans="1:3" outlineLevel="1">
+    <row r="409" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B409" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -6866,7 +6856,7 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="410" spans="1:3" outlineLevel="1">
+    <row r="410" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B410" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -6876,29 +6866,29 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
-      <c r="A411" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B411" s="11"/>
-      <c r="C411" s="11"/>
+    <row r="411" spans="1:3" collapsed="1">
+      <c r="A411" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B411" s="10"/>
+      <c r="C411" s="10"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="1:3" outlineLevel="1">
+    <row r="413" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B413" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C413" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" outlineLevel="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B414" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -6908,7 +6898,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="415" spans="1:3" outlineLevel="1">
+    <row r="415" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B415" t="str">
         <f>'Versioni EJB'!B51</f>
         <v>etichette-ejb</v>
@@ -6918,7 +6908,7 @@
         <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="416" spans="1:3" outlineLevel="1">
+    <row r="416" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B416" t="str">
         <f>'Versioni EJB'!B91</f>
         <v>ricordamidi-ejb</v>
@@ -6928,7 +6918,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="417" spans="1:3" outlineLevel="1">
+    <row r="417" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B417" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -6938,17 +6928,17 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="418" spans="1:3" outlineLevel="1">
+    <row r="418" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B418" t="str">
         <f>'Versioni EJB'!B26</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C418" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.71.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" outlineLevel="1">
+        <v>1.74.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B419" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -6958,7 +6948,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="420" spans="1:3" outlineLevel="1">
+    <row r="420" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B420" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -6968,7 +6958,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="421" spans="1:3" outlineLevel="1">
+    <row r="421" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B421" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -6978,17 +6968,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="422" spans="1:3" outlineLevel="1">
+    <row r="422" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B422" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C422" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B423" t="str">
         <f>'Versioni EJB'!B9</f>
         <v>userpreferences-ejb</v>
@@ -6998,7 +6988,7 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="424" spans="1:3" outlineLevel="1">
+    <row r="424" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B424" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -7008,21 +6998,21 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
-      <c r="A425" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B425" s="11"/>
-      <c r="C425" s="11"/>
+    <row r="425" spans="1:3" collapsed="1">
+      <c r="A425" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B425" s="10"/>
+      <c r="C425" s="10"/>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="1:3" outlineLevel="1">
+    <row r="427" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B427" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -7032,17 +7022,17 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="428" spans="1:3" outlineLevel="1">
+    <row r="428" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B428" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C428" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.237.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" outlineLevel="1">
+        <v>1.239.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B429" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -7052,7 +7042,7 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="430" spans="1:3" outlineLevel="1">
+    <row r="430" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B430" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -7062,17 +7052,17 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="431" spans="1:3" outlineLevel="1">
+    <row r="431" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B431" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C431" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B432" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7082,21 +7072,21 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
-      <c r="A433" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B433" s="11"/>
-      <c r="C433" s="11"/>
+    <row r="433" spans="1:3" collapsed="1">
+      <c r="A433" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B433" s="10"/>
+      <c r="C433" s="10"/>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
     </row>
-    <row r="435" spans="1:3" outlineLevel="1">
+    <row r="435" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B435" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -7106,7 +7096,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="436" spans="1:3" outlineLevel="1">
+    <row r="436" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B436" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7116,7 +7106,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="437" spans="1:3" outlineLevel="1">
+    <row r="437" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B437" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
@@ -7126,17 +7116,17 @@
         <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="438" spans="1:3" outlineLevel="1">
+    <row r="438" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B438" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C438" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B439" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -7146,7 +7136,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="440" spans="1:3" outlineLevel="1">
+    <row r="440" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B440" t="str">
         <f>'Versioni EJB'!B14</f>
         <v>postvendita-common-ejb</v>
@@ -7156,14 +7146,14 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" collapsed="1">
       <c r="A441" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="1:3" outlineLevel="2">
+    <row r="442" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B442" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -7173,17 +7163,17 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="443" spans="1:3" outlineLevel="2">
+    <row r="443" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B443" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C443" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.237.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" outlineLevel="2">
+        <v>1.239.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B444" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -7193,7 +7183,7 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="445" spans="1:3" outlineLevel="2">
+    <row r="445" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B445" t="str">
         <f>'Versioni EJB'!B55</f>
         <v>rubriche-ejb</v>
@@ -7203,7 +7193,7 @@
         <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="446" spans="1:3" outlineLevel="2">
+    <row r="446" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B446" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7213,17 +7203,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="447" spans="1:3" outlineLevel="2">
+    <row r="447" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B447" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C447" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" outlineLevel="2">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B448" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -7233,14 +7223,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" collapsed="1">
       <c r="A449" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="1:3" outlineLevel="2">
+    <row r="450" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B450" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
@@ -7250,17 +7240,17 @@
         <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="451" spans="1:3" outlineLevel="2">
+    <row r="451" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B451" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C451" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" outlineLevel="2">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B452" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7270,7 +7260,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="453" spans="1:3" outlineLevel="2">
+    <row r="453" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B453" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -7280,7 +7270,7 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="454" spans="1:3" outlineLevel="2">
+    <row r="454" spans="1:3" hidden="1" outlineLevel="2">
       <c r="B454" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -7290,24 +7280,24 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" collapsed="1">
       <c r="A455" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="1:3" outlineLevel="1">
+    <row r="456" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B456" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C456" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.237.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" outlineLevel="1">
+        <v>1.239.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B457" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>prestiti-ejb</v>
@@ -7317,7 +7307,7 @@
         <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="458" spans="1:3" outlineLevel="1">
+    <row r="458" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B458" t="str">
         <f>'Versioni EJB'!B19</f>
         <v>agenda-ejb</v>
@@ -7327,7 +7317,7 @@
         <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="459" spans="1:3" outlineLevel="1">
+    <row r="459" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B459" t="str">
         <f>'Versioni EJB'!B33</f>
         <v>listiniinfofin-ejb</v>
@@ -7337,7 +7327,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="460" spans="1:3" outlineLevel="1">
+    <row r="460" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B460" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -7347,17 +7337,17 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="461" spans="1:3" outlineLevel="1">
+    <row r="461" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B461" t="str">
         <f>'Versioni EJB'!B26</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C461" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.71.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" outlineLevel="1">
+        <v>1.74.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B462" t="str">
         <f>'Versioni EJB'!B20</f>
         <v>anagrafiche-ejb</v>
@@ -7367,7 +7357,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="463" spans="1:3" outlineLevel="1">
+    <row r="463" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B463" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -7377,17 +7367,17 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="464" spans="1:3" outlineLevel="1">
+    <row r="464" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B464" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C464" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B465" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -7397,7 +7387,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="466" spans="1:3" outlineLevel="1">
+    <row r="466" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B466" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -7407,7 +7397,7 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="467" spans="1:3" outlineLevel="1">
+    <row r="467" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B467" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7417,7 +7407,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="468" spans="1:3" outlineLevel="1">
+    <row r="468" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B468" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -7427,7 +7417,7 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="469" spans="1:3" outlineLevel="1">
+    <row r="469" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B469" t="str">
         <f>'Versioni EJB'!B55</f>
         <v>rubriche-ejb</v>
@@ -7437,7 +7427,7 @@
         <v>1.31.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="470" spans="1:3" outlineLevel="1">
+    <row r="470" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B470" t="str">
         <f>'Versioni EJB'!B12</f>
         <v>commons-ejb</v>
@@ -7447,14 +7437,14 @@
         <v>1.18.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" collapsed="1">
       <c r="A471" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
     </row>
-    <row r="472" spans="1:3" outlineLevel="1">
+    <row r="472" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B472" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -7464,7 +7454,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="473" spans="1:3" outlineLevel="1">
+    <row r="473" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B473" t="str">
         <f>'Versioni EJB'!B44</f>
         <v>condizioni-ejb</v>
@@ -7474,27 +7464,27 @@
         <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="474" spans="1:3" outlineLevel="1">
+    <row r="474" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B474" t="str">
         <f>'Versioni EJB'!B26</f>
         <v>filialevirtuale-ejb</v>
       </c>
       <c r="C474" t="str">
         <f>'Versioni EJB'!C26</f>
-        <v>1.71.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" outlineLevel="1">
+        <v>1.74.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B475" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C475" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B476" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -7504,7 +7494,7 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="477" spans="1:3" outlineLevel="1">
+    <row r="477" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B477" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7514,7 +7504,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="478" spans="1:3" outlineLevel="1">
+    <row r="478" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B478" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
@@ -7524,14 +7514,14 @@
         <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" collapsed="1">
       <c r="A479" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="1:3" outlineLevel="1">
+    <row r="480" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B480" t="str">
         <f>'Versioni EJB'!B95</f>
         <v>miogestore-ejb</v>
@@ -7541,7 +7531,7 @@
         <v>1.149.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="481" spans="1:3" outlineLevel="1">
+    <row r="481" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B481" t="str">
         <f>'Versioni EJB'!B13</f>
         <v>notification-ejb</v>
@@ -7551,7 +7541,7 @@
         <v>1.59.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="482" spans="1:3" outlineLevel="1">
+    <row r="482" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B482" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -7561,17 +7551,17 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="483" spans="1:3" outlineLevel="1">
+    <row r="483" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B483" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C483" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B484" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -7581,21 +7571,21 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B485" s="11"/>
-      <c r="C485" s="11"/>
+    <row r="485" spans="1:3" collapsed="1">
+      <c r="A485" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B485" s="10"/>
+      <c r="C485" s="10"/>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="1:3" outlineLevel="1">
+    <row r="487" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B487" t="str">
         <f>'Versioni EJB'!B86</f>
         <v>nfc-ejb</v>
@@ -7605,7 +7595,7 @@
         <v>1.56.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="488" spans="1:3" outlineLevel="1">
+    <row r="488" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B488" t="str">
         <f>'Versioni EJB'!B85</f>
         <v>masterpass-ejb</v>
@@ -7615,7 +7605,7 @@
         <v>1.48.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="489" spans="1:3" outlineLevel="1">
+    <row r="489" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B489" t="str">
         <f>'Versioni EJB'!B31</f>
         <v>jiffy-v2-ejb</v>
@@ -7625,7 +7615,7 @@
         <v>1.22.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="490" spans="1:3" outlineLevel="1">
+    <row r="490" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B490" t="str">
         <f>'Versioni EJB'!B66</f>
         <v>matchingidbpfm-ejb</v>
@@ -7635,7 +7625,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="491" spans="1:3" outlineLevel="1">
+    <row r="491" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B491" t="str">
         <f>'Versioni EJB'!B82</f>
         <v>applepay-ejb</v>
@@ -7645,7 +7635,7 @@
         <v>1.20.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="492" spans="1:3" outlineLevel="1">
+    <row r="492" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B492" t="str">
         <f>'Versioni EJB'!B28</f>
         <v>gestorelimiti-ejb</v>
@@ -7655,7 +7645,7 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="493" spans="1:3" outlineLevel="1">
+    <row r="493" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B493" t="str">
         <f>'Versioni EJB'!B63</f>
         <v>bustine-ejb</v>
@@ -7665,7 +7655,7 @@
         <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="494" spans="1:3" outlineLevel="1">
+    <row r="494" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B494" t="str">
         <f>'Versioni EJB'!B102</f>
         <v>proposte-ejb</v>
@@ -7675,7 +7665,7 @@
         <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="495" spans="1:3" outlineLevel="1">
+    <row r="495" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B495" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -7685,7 +7675,7 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="496" spans="1:3" outlineLevel="1">
+    <row r="496" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B496" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -7695,7 +7685,7 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="497" spans="1:3" outlineLevel="1">
+    <row r="497" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B497" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -7705,17 +7695,17 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="498" spans="1:3" outlineLevel="1">
+    <row r="498" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B498" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C498" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B499" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
@@ -7725,14 +7715,14 @@
         <v>1.21.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" collapsed="1">
       <c r="A500" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="1:3" outlineLevel="1">
+    <row r="501" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B501" t="str">
         <f>'Versioni EJB'!B100</f>
         <v>globalposition-ejb</v>
@@ -7742,17 +7732,17 @@
         <v>1.133.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="502" spans="1:3" outlineLevel="1">
+    <row r="502" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B502" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C502" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.237.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" outlineLevel="1">
+        <v>1.239.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B503" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -7762,7 +7752,7 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="504" spans="1:3" outlineLevel="1">
+    <row r="504" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B504" t="str">
         <f>'Versioni EJB'!B57</f>
         <v>interactiondb-ejb</v>
@@ -7772,17 +7762,17 @@
         <v>1.25.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="505" spans="1:3" outlineLevel="1">
+    <row r="505" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B505" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C505" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B506" t="str">
         <f>'Versioni EJB'!B43</f>
         <v>commonssmallbusiness-ejb</v>
@@ -7792,7 +7782,7 @@
         <v>1.16.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="507" spans="1:3" outlineLevel="1">
+    <row r="507" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B507" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -7802,14 +7792,14 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" collapsed="1">
       <c r="A508" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
     </row>
-    <row r="509" spans="1:3" outlineLevel="1">
+    <row r="509" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B509" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7819,17 +7809,17 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="510" spans="1:3" outlineLevel="1">
+    <row r="510" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B510" t="str">
         <f>'Versioni EJB'!B16</f>
         <v>profilocliente-ejb</v>
       </c>
       <c r="C510" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.97.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" outlineLevel="1">
+        <v>1.99.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B511" t="str">
         <f>'Versioni EJB'!B100</f>
         <v>globalposition-ejb</v>
@@ -7839,7 +7829,7 @@
         <v>1.133.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="512" spans="1:3" outlineLevel="1">
+    <row r="512" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B512" t="str">
         <f>'Versioni EJB'!B33</f>
         <v>listiniinfofin-ejb</v>
@@ -7849,31 +7839,31 @@
         <v>1.17.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
-      <c r="A513" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B513" s="11"/>
-      <c r="C513" s="11"/>
+    <row r="513" spans="1:3" collapsed="1">
+      <c r="A513" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B513" s="10"/>
+      <c r="C513" s="10"/>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="1:3" outlineLevel="1">
+    <row r="515" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B515" t="str">
         <f>'Versioni EJB'!B93</f>
         <v>comunicazioni-ejb</v>
       </c>
       <c r="C515" t="str">
         <f>'Versioni EJB'!C93</f>
-        <v>1.237.0-env-svis-SNAPSHOT</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" outlineLevel="1">
+        <v>1.239.0-env-svis-SNAPSHOT</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B516" t="str">
         <f>'Versioni EJB'!B105</f>
         <v>pulsantiera-ejb</v>
@@ -7883,7 +7873,7 @@
         <v>1.23.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="517" spans="1:3" outlineLevel="1">
+    <row r="517" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B517" t="str">
         <f>'Versioni EJB'!B66</f>
         <v>matchingidbpfm-ejb</v>
@@ -7893,7 +7883,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="518" spans="1:3" outlineLevel="1">
+    <row r="518" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B518" t="str">
         <f>'Versioni EJB'!B63</f>
         <v>bustine-ejb</v>
@@ -7903,7 +7893,7 @@
         <v>1.14.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="519" spans="1:3" outlineLevel="1">
+    <row r="519" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B519" t="str">
         <f>'Versioni EJB'!B38</f>
         <v>prestiti-ejb</v>
@@ -7913,7 +7903,7 @@
         <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="520" spans="1:3" outlineLevel="1">
+    <row r="520" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B520" t="str">
         <f>'Versioni EJB'!B102</f>
         <v>proposte-ejb</v>
@@ -7923,7 +7913,7 @@
         <v>1.13.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="521" spans="1:3" outlineLevel="1">
+    <row r="521" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B521" t="str">
         <f>'Versioni EJB'!B70</f>
         <v>bonifico-ejb</v>
@@ -7933,7 +7923,7 @@
         <v>1.35.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="522" spans="1:3" outlineLevel="1">
+    <row r="522" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B522" t="str">
         <f>'Versioni EJB'!B46</f>
         <v>pfm-ejb</v>
@@ -7943,7 +7933,7 @@
         <v>1.29.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="523" spans="1:3" outlineLevel="1">
+    <row r="523" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B523" t="str">
         <f>'Versioni EJB'!B19</f>
         <v>agenda-ejb</v>
@@ -7953,7 +7943,7 @@
         <v>1.19.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="524" spans="1:3" outlineLevel="1">
+    <row r="524" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B524" t="str">
         <f>'Versioni EJB'!B78</f>
         <v>carte-ejb</v>
@@ -7963,7 +7953,7 @@
         <v>1.39.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="525" spans="1:3" outlineLevel="1">
+    <row r="525" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B525" t="str">
         <f>'Versioni EJB'!B4</f>
         <v>banca-ejb</v>
@@ -7973,7 +7963,7 @@
         <v>1.15.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="526" spans="1:3" outlineLevel="1">
+    <row r="526" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B526" t="str">
         <f>'Versioni EJB'!B39</f>
         <v>saldo-ejb</v>
@@ -7983,16 +7973,16 @@
         <v>1.28.0-env-svis-SNAPSHOT</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B527" s="11"/>
-      <c r="C527" s="11"/>
+    <row r="527" spans="1:3" collapsed="1">
+      <c r="A527" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B527" s="10"/>
+      <c r="C527" s="10"/>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -8032,11 +8022,6 @@
     <sortCondition ref="B18"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A411:C411"/>
     <mergeCell ref="A527:C527"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
@@ -8053,6 +8038,11 @@
     <mergeCell ref="A433:C433"/>
     <mergeCell ref="A485:C485"/>
     <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A411:C411"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
+++ b/src/main/resources/excelutils/Allineamento EJB in ambienti paralleli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Openshift\SoftwareAllineamenti\src\main\resources\excelutils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53843DBD-77B9-410F-B187-B5BF6986E392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD112D1-AA4C-445F-9653-140E6867DC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="157">
   <si>
     <t>BLOCCO</t>
   </si>
@@ -60,27 +60,15 @@
     <t>isp-ib-om</t>
   </si>
   <si>
-    <t>1.21.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>banca-ejb</t>
   </si>
   <si>
-    <t>1.15.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>callmeback-ejb</t>
   </si>
   <si>
-    <t>1.17.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>customerjourney-ejb</t>
   </si>
   <si>
-    <t>1.16.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>deviceregistry-ejb</t>
   </si>
   <si>
@@ -93,21 +81,12 @@
     <t>wishlist-ejb</t>
   </si>
   <si>
-    <t>1.9.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>commons-ejb</t>
   </si>
   <si>
-    <t>1.18.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>notification-ejb</t>
   </si>
   <si>
-    <t>1.59.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>postvendita-common-ejb</t>
   </si>
   <si>
@@ -117,15 +96,9 @@
     <t>adue-ejb</t>
   </si>
   <si>
-    <t>1.20.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>agenda-ejb</t>
   </si>
   <si>
-    <t>1.19.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>anagrafiche-ejb</t>
   </si>
   <si>
@@ -138,9 +111,6 @@
     <t>condizionieconomiche-ejb</t>
   </si>
   <si>
-    <t>1.14.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>digitalcollaboration-ejb</t>
   </si>
   <si>
@@ -153,18 +123,12 @@
     <t>firmaunica-ejb</t>
   </si>
   <si>
-    <t>1.22.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>gestorelimiti-ejb</t>
   </si>
   <si>
     <t>guestarea-ejb</t>
   </si>
   <si>
-    <t>1.28.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>jiffy-v2-ejb</t>
   </si>
   <si>
@@ -180,15 +144,9 @@
     <t>monetaattiva-ejb</t>
   </si>
   <si>
-    <t>0.38.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>movepay-ejb</t>
   </si>
   <si>
-    <t>1.29.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>pagamenti-ejb</t>
   </si>
   <si>
@@ -201,9 +159,6 @@
     <t>variazionelimiti-definitiva-ejb</t>
   </si>
   <si>
-    <t>1.23.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>variazionelimiti-temporanea-ejb</t>
   </si>
   <si>
@@ -225,9 +180,6 @@
     <t>ricarichevarie-ejb</t>
   </si>
   <si>
-    <t>1.49.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>bonificimultipli-ejb</t>
   </si>
   <si>
@@ -243,15 +195,9 @@
     <t>rubriche-ejb</t>
   </si>
   <si>
-    <t>1.31.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>interactiondb-ejb</t>
   </si>
   <si>
-    <t>1.25.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>pendingprocesslist-ejb</t>
   </si>
   <si>
@@ -270,9 +216,6 @@
     <t>jiffy-ejb</t>
   </si>
   <si>
-    <t>1.27.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>matchingidbpfm-ejb</t>
   </si>
   <si>
@@ -282,15 +225,9 @@
     <t>tasse-ejb</t>
   </si>
   <si>
-    <t>1.61.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>bonifico-ejb</t>
   </si>
   <si>
-    <t>1.35.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>cardless-ejb</t>
   </si>
   <si>
@@ -300,9 +237,6 @@
     <t>pagamentibollette-ejb</t>
   </si>
   <si>
-    <t>1.78.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>ricaricacellulare-ejb</t>
   </si>
   <si>
@@ -315,9 +249,6 @@
     <t>carte-ejb</t>
   </si>
   <si>
-    <t>1.39.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>pagamentiribamultipli-ejb</t>
   </si>
   <si>
@@ -333,30 +264,18 @@
     <t>catalogo-prodotti-ejb</t>
   </si>
   <si>
-    <t>1.12.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>masterpass-ejb</t>
   </si>
   <si>
-    <t>1.48.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>nfc-ejb</t>
   </si>
   <si>
-    <t>1.56.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>opricorrenti-ejb</t>
   </si>
   <si>
     <t>pagamentimultipli-ejb</t>
   </si>
   <si>
-    <t>1.55.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>ristampa-pin-ejb</t>
   </si>
   <si>
@@ -369,9 +288,6 @@
     <t>miogestore-ejb</t>
   </si>
   <si>
-    <t>1.149.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>bloccosblocco-ejb</t>
   </si>
   <si>
@@ -384,27 +300,15 @@
     <t>globalposition-ejb</t>
   </si>
   <si>
-    <t>1.133.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>identitadigitale-ejb</t>
   </si>
   <si>
-    <t>1.45.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>proposte-ejb</t>
   </si>
   <si>
-    <t>1.13.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>digitalwallet-ejb</t>
   </si>
   <si>
-    <t>1.63.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>pulsantiera-ejb</t>
   </si>
   <si>
@@ -414,15 +318,9 @@
     <t>listaoperazioni-ejb</t>
   </si>
   <si>
-    <t>1.77.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>ricerca-ejb</t>
   </si>
   <si>
-    <t>1.8.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
     <t>EJB</t>
   </si>
   <si>
@@ -498,23 +396,122 @@
     <t>Blocco 21</t>
   </si>
   <si>
-    <t>1.99.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.74.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.33.0-env-svis-SNAPSHOT</t>
-  </si>
-  <si>
-    <t>1.239.0-env-svis-SNAPSHOT</t>
+    <t>1.21.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.15.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.17.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.16.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.9.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.18.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.59.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.100.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.20.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.19.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.14.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.75.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.22.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.28.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>0.38.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.29.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.23.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.49.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.31.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.25.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.27.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.61.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.35.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.33.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.79.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.39.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.12.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.48.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.56.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.55.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.239.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.149.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.13.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.133.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.45.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.63.0-env-svia-SNAPSHOT</t>
+  </si>
+  <si>
+    <t>1.77.0-env-svia-SNAPSHOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,12 +526,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -583,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -597,10 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,15 +873,15 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F2:F110"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="92.21875" customWidth="1"/>
     <col min="7" max="7" width="51.88671875" customWidth="1"/>
@@ -929,8 +917,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
+      <c r="C2" t="s">
+        <v>120</v>
       </c>
       <c r="E2" t="str">
         <f>B2</f>
@@ -938,11 +926,11 @@
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("&lt;",E2,".version&gt;",C2,"&lt;/",E2,".version&gt;")</f>
-        <v>&lt;isp-ib-om.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/isp-ib-om.version&gt;</v>
+        <v>&lt;isp-ib-om.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/isp-ib-om.version&gt;</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(E2," --&gt; ",C2)</f>
-        <v>isp-ib-om --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+        <v>isp-ib-om --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -955,14 +943,14 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E4" t="str">
         <f>LEFT(B4,LEN(B4)-4)</f>
@@ -970,20 +958,20 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F10" si="0">CONCATENATE("&lt;",E4,".version&gt;",C4,"&lt;/",E4,".version&gt;")</f>
-        <v>&lt;banca.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/banca.version&gt;</v>
+        <v>&lt;banca.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/banca.version&gt;</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G66" si="1">CONCATENATE(E4," --&gt; ",C4)</f>
-        <v>banca --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+        <v>banca --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E68" si="2">LEFT(B5,LEN(B5)-4)</f>
@@ -991,20 +979,20 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;callmeback.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/callmeback.version&gt;</v>
+        <v>&lt;callmeback.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/callmeback.version&gt;</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>callmeback --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>callmeback --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
@@ -1012,20 +1000,20 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;customerjourney.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/customerjourney.version&gt;</v>
+        <v>&lt;customerjourney.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/customerjourney.version&gt;</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>customerjourney --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+        <v>customerjourney --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
@@ -1033,20 +1021,20 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;deviceregistry.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/deviceregistry.version&gt;</v>
+        <v>&lt;deviceregistry.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/deviceregistry.version&gt;</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>deviceregistry --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>deviceregistry --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
@@ -1054,20 +1042,20 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;stampe.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/stampe.version&gt;</v>
+        <v>&lt;stampe.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/stampe.version&gt;</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>stampe --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>stampe --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
@@ -1075,20 +1063,20 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;userpreferences.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/userpreferences.version&gt;</v>
+        <v>&lt;userpreferences.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/userpreferences.version&gt;</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>userpreferences --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+        <v>userpreferences --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
@@ -1096,11 +1084,11 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;wishlist.version&gt;1.9.0-env-svis-SNAPSHOT&lt;/wishlist.version&gt;</v>
+        <v>&lt;wishlist.version&gt;1.9.0-env-svia-SNAPSHOT&lt;/wishlist.version&gt;</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>wishlist --&gt; 1.9.0-env-svis-SNAPSHOT</v>
+        <v>wishlist --&gt; 1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1113,14 +1101,14 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
@@ -1128,20 +1116,20 @@
       </c>
       <c r="F12" t="str">
         <f>CONCATENATE("&lt;",E12,".version&gt;",C12,"&lt;/",E12,".version&gt;")</f>
-        <v>&lt;commons.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/commons.version&gt;</v>
+        <v>&lt;commons.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/commons.version&gt;</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>commons --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+        <v>commons --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
@@ -1149,20 +1137,20 @@
       </c>
       <c r="F13" t="str">
         <f>CONCATENATE("&lt;",E13,".version&gt;",C13,"&lt;/",E13,".version&gt;")</f>
-        <v>&lt;notification.version&gt;1.59.0-env-svis-SNAPSHOT&lt;/notification.version&gt;</v>
+        <v>&lt;notification.version&gt;1.59.0-env-svia-SNAPSHOT&lt;/notification.version&gt;</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>notification --&gt; 1.59.0-env-svis-SNAPSHOT</v>
+        <v>notification --&gt; 1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
@@ -1170,11 +1158,11 @@
       </c>
       <c r="F14" t="str">
         <f>CONCATENATE("&lt;",E14,".version&gt;",C14,"&lt;/",E14,".version&gt;")</f>
-        <v>&lt;postvendita-common.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/postvendita-common.version&gt;</v>
+        <v>&lt;postvendita-common.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/postvendita-common.version&gt;</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>postvendita-common --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+        <v>postvendita-common --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1191,10 +1179,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
@@ -1202,11 +1190,11 @@
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE("&lt;",E16,".version&gt;",C16,"&lt;/",E16,".version&gt;")</f>
-        <v>&lt;profilocliente.version&gt;1.99.0-env-svis-SNAPSHOT&lt;/profilocliente.version&gt;</v>
+        <v>&lt;profilocliente.version&gt;1.100.0-env-svia-SNAPSHOT&lt;/profilocliente.version&gt;</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>profilocliente --&gt; 1.99.0-env-svis-SNAPSHOT</v>
+        <v>profilocliente --&gt; 1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1219,14 +1207,14 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
@@ -1234,20 +1222,20 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ref="F18:F29" si="3">CONCATENATE("&lt;",E18,".version&gt;",C18,"&lt;/",E18,".version&gt;")</f>
-        <v>&lt;adue.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/adue.version&gt;</v>
+        <v>&lt;adue.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/adue.version&gt;</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>adue --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+        <v>adue --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
@@ -1255,20 +1243,20 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;agenda.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/agenda.version&gt;</v>
+        <v>&lt;agenda.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/agenda.version&gt;</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>agenda --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+        <v>agenda --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
@@ -1276,20 +1264,20 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;anagrafiche.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/anagrafiche.version&gt;</v>
+        <v>&lt;anagrafiche.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/anagrafiche.version&gt;</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>anagrafiche --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>anagrafiche --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
@@ -1297,20 +1285,20 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;antiriciclaggio.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/antiriciclaggio.version&gt;</v>
+        <v>&lt;antiriciclaggio.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/antiriciclaggio.version&gt;</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>antiriciclaggio --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>antiriciclaggio --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
@@ -1318,20 +1306,20 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;assegni.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/assegni.version&gt;</v>
+        <v>&lt;assegni.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/assegni.version&gt;</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>assegni --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+        <v>assegni --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
@@ -1339,20 +1327,20 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;condizionieconomiche.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/condizionieconomiche.version&gt;</v>
+        <v>&lt;condizionieconomiche.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/condizionieconomiche.version&gt;</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>condizionieconomiche --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+        <v>condizionieconomiche --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
@@ -1360,20 +1348,20 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;digitalcollaboration.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/digitalcollaboration.version&gt;</v>
+        <v>&lt;digitalcollaboration.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/digitalcollaboration.version&gt;</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>digitalcollaboration --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>digitalcollaboration --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
@@ -1381,20 +1369,20 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;duplicatocarta.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/duplicatocarta.version&gt;</v>
+        <v>&lt;duplicatocarta.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/duplicatocarta.version&gt;</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>duplicatocarta --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+        <v>duplicatocarta --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -1402,20 +1390,20 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;filialevirtuale.version&gt;1.74.0-env-svis-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
+        <v>&lt;filialevirtuale.version&gt;1.75.0-env-svia-SNAPSHOT&lt;/filialevirtuale.version&gt;</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>filialevirtuale --&gt; 1.74.0-env-svis-SNAPSHOT</v>
+        <v>filialevirtuale --&gt; 1.75.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
@@ -1423,20 +1411,20 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;firmaunica.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/firmaunica.version&gt;</v>
+        <v>&lt;firmaunica.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/firmaunica.version&gt;</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>firmaunica --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+        <v>firmaunica --&gt; 1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
@@ -1444,20 +1432,20 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;gestorelimiti.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/gestorelimiti.version&gt;</v>
+        <v>&lt;gestorelimiti.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/gestorelimiti.version&gt;</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>gestorelimiti --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>gestorelimiti --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
@@ -1465,11 +1453,11 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;guestarea.version&gt;1.28.0-env-svis-SNAPSHOT&lt;/guestarea.version&gt;</v>
+        <v>&lt;guestarea.version&gt;1.28.0-env-svia-SNAPSHOT&lt;/guestarea.version&gt;</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>guestarea --&gt; 1.28.0-env-svis-SNAPSHOT</v>
+        <v>guestarea --&gt; 1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1482,14 +1470,14 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
@@ -1497,20 +1485,20 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ref="F31:F41" si="4">CONCATENATE("&lt;",E31,".version&gt;",C31,"&lt;/",E31,".version&gt;")</f>
-        <v>&lt;jiffy-v2.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/jiffy-v2.version&gt;</v>
+        <v>&lt;jiffy-v2.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/jiffy-v2.version&gt;</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>jiffy-v2 --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+        <v>jiffy-v2 --&gt; 1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -1518,20 +1506,20 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;listaprodotti.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/listaprodotti.version&gt;</v>
+        <v>&lt;listaprodotti.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/listaprodotti.version&gt;</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>listaprodotti --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+        <v>listaprodotti --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -1539,20 +1527,20 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;listiniinfofin.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/listiniinfofin.version&gt;</v>
+        <v>&lt;listiniinfofin.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/listiniinfofin.version&gt;</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>listiniinfofin --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>listiniinfofin --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -1560,20 +1548,20 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;mobileconfigurator.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/mobileconfigurator.version&gt;</v>
+        <v>&lt;mobileconfigurator.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/mobileconfigurator.version&gt;</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>mobileconfigurator --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+        <v>mobileconfigurator --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -1581,20 +1569,20 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;monetaattiva.version&gt;0.38.0-env-svis-SNAPSHOT&lt;/monetaattiva.version&gt;</v>
+        <v>&lt;monetaattiva.version&gt;0.38.0-env-svia-SNAPSHOT&lt;/monetaattiva.version&gt;</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>monetaattiva --&gt; 0.38.0-env-svis-SNAPSHOT</v>
+        <v>monetaattiva --&gt; 0.38.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -1602,20 +1590,20 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;movepay.version&gt;1.29.0-env-svis-SNAPSHOT&lt;/movepay.version&gt;</v>
+        <v>&lt;movepay.version&gt;1.29.0-env-svia-SNAPSHOT&lt;/movepay.version&gt;</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>movepay --&gt; 1.29.0-env-svis-SNAPSHOT</v>
+        <v>movepay --&gt; 1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -1623,20 +1611,20 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;pagamenti.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/pagamenti.version&gt;</v>
+        <v>&lt;pagamenti.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/pagamenti.version&gt;</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>pagamenti --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+        <v>pagamenti --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -1644,20 +1632,20 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;prestiti.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/prestiti.version&gt;</v>
+        <v>&lt;prestiti.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/prestiti.version&gt;</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>prestiti --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+        <v>prestiti --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -1665,20 +1653,20 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;saldo.version&gt;1.28.0-env-svis-SNAPSHOT&lt;/saldo.version&gt;</v>
+        <v>&lt;saldo.version&gt;1.28.0-env-svia-SNAPSHOT&lt;/saldo.version&gt;</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>saldo --&gt; 1.28.0-env-svis-SNAPSHOT</v>
+        <v>saldo --&gt; 1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -1686,20 +1674,20 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;variazionelimiti-definitiva.version&gt;1.23.0-env-svis-SNAPSHOT&lt;/variazionelimiti-definitiva.version&gt;</v>
+        <v>&lt;variazionelimiti-definitiva.version&gt;1.23.0-env-svia-SNAPSHOT&lt;/variazionelimiti-definitiva.version&gt;</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>variazionelimiti-definitiva --&gt; 1.23.0-env-svis-SNAPSHOT</v>
+        <v>variazionelimiti-definitiva --&gt; 1.23.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -1707,11 +1695,11 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;variazionelimiti-temporanea.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/variazionelimiti-temporanea.version&gt;</v>
+        <v>&lt;variazionelimiti-temporanea.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/variazionelimiti-temporanea.version&gt;</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>variazionelimiti-temporanea --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+        <v>variazionelimiti-temporanea --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1724,14 +1712,14 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
@@ -1739,20 +1727,20 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ref="F43:F48" si="5">CONCATENATE("&lt;",E43,".version&gt;",C43,"&lt;/",E43,".version&gt;")</f>
-        <v>&lt;commonssmallbusiness.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/commonssmallbusiness.version&gt;</v>
+        <v>&lt;commonssmallbusiness.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/commonssmallbusiness.version&gt;</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>commonssmallbusiness --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+        <v>commonssmallbusiness --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
@@ -1760,20 +1748,20 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;condizioni.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/condizioni.version&gt;</v>
+        <v>&lt;condizioni.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/condizioni.version&gt;</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>condizioni --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+        <v>condizioni --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
@@ -1781,20 +1769,20 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;moneytransfer.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/moneytransfer.version&gt;</v>
+        <v>&lt;moneytransfer.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/moneytransfer.version&gt;</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>moneytransfer --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>moneytransfer --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -1802,20 +1790,20 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;pfm.version&gt;1.29.0-env-svis-SNAPSHOT&lt;/pfm.version&gt;</v>
+        <v>&lt;pfm.version&gt;1.29.0-env-svia-SNAPSHOT&lt;/pfm.version&gt;</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>pfm --&gt; 1.29.0-env-svis-SNAPSHOT</v>
+        <v>pfm --&gt; 1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
@@ -1823,20 +1811,20 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;rapporticliente.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/rapporticliente.version&gt;</v>
+        <v>&lt;rapporticliente.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/rapporticliente.version&gt;</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>rapporticliente --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+        <v>rapporticliente --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
@@ -1844,11 +1832,11 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;ricarichevarie.version&gt;1.49.0-env-svis-SNAPSHOT&lt;/ricarichevarie.version&gt;</v>
+        <v>&lt;ricarichevarie.version&gt;1.49.0-env-svia-SNAPSHOT&lt;/ricarichevarie.version&gt;</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>ricarichevarie --&gt; 1.49.0-env-svis-SNAPSHOT</v>
+        <v>ricarichevarie --&gt; 1.49.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1861,14 +1849,14 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
@@ -1876,20 +1864,20 @@
       </c>
       <c r="F50" t="str">
         <f>CONCATENATE("&lt;",E50,".version&gt;",C50,"&lt;/",E50,".version&gt;")</f>
-        <v>&lt;bonificimultipli.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/bonificimultipli.version&gt;</v>
+        <v>&lt;bonificimultipli.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/bonificimultipli.version&gt;</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>bonificimultipli --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+        <v>bonificimultipli --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
@@ -1897,20 +1885,20 @@
       </c>
       <c r="F51" t="str">
         <f>CONCATENATE("&lt;",E51,".version&gt;",C51,"&lt;/",E51,".version&gt;")</f>
-        <v>&lt;etichette.version&gt;1.23.0-env-svis-SNAPSHOT&lt;/etichette.version&gt;</v>
+        <v>&lt;etichette.version&gt;1.23.0-env-svia-SNAPSHOT&lt;/etichette.version&gt;</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>etichette --&gt; 1.23.0-env-svis-SNAPSHOT</v>
+        <v>etichette --&gt; 1.23.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
@@ -1918,20 +1906,20 @@
       </c>
       <c r="F52" t="str">
         <f>CONCATENATE("&lt;",E52,".version&gt;",C52,"&lt;/",E52,".version&gt;")</f>
-        <v>&lt;incassiribamultipli.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/incassiribamultipli.version&gt;</v>
+        <v>&lt;incassiribamultipli.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/incassiribamultipli.version&gt;</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>incassiribamultipli --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+        <v>incassiribamultipli --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
@@ -1939,11 +1927,11 @@
       </c>
       <c r="F53" t="str">
         <f>CONCATENATE("&lt;",E53,".version&gt;",C53,"&lt;/",E53,".version&gt;")</f>
-        <v>&lt;xmedindi.version&gt;1.29.0-env-svis-SNAPSHOT&lt;/xmedindi.version&gt;</v>
+        <v>&lt;xmedindi.version&gt;1.29.0-env-svia-SNAPSHOT&lt;/xmedindi.version&gt;</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>xmedindi --&gt; 1.29.0-env-svis-SNAPSHOT</v>
+        <v>xmedindi --&gt; 1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1960,10 +1948,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
@@ -1971,11 +1959,11 @@
       </c>
       <c r="F55" t="str">
         <f>CONCATENATE("&lt;",E55,".version&gt;",C55,"&lt;/",E55,".version&gt;")</f>
-        <v>&lt;rubriche.version&gt;1.31.0-env-svis-SNAPSHOT&lt;/rubriche.version&gt;</v>
+        <v>&lt;rubriche.version&gt;1.31.0-env-svia-SNAPSHOT&lt;/rubriche.version&gt;</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>rubriche --&gt; 1.31.0-env-svis-SNAPSHOT</v>
+        <v>rubriche --&gt; 1.31.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1992,10 +1980,10 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
@@ -2003,11 +1991,11 @@
       </c>
       <c r="F57" t="str">
         <f>CONCATENATE("&lt;",E57,".version&gt;",C57,"&lt;/",E57,".version&gt;")</f>
-        <v>&lt;interactiondb.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/interactiondb.version&gt;</v>
+        <v>&lt;interactiondb.version&gt;1.25.0-env-svia-SNAPSHOT&lt;/interactiondb.version&gt;</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>interactiondb --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+        <v>interactiondb --&gt; 1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2024,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E59" t="str">
         <f>LEFT(B59,LEN(B59)-4)</f>
@@ -2035,11 +2023,11 @@
       </c>
       <c r="F59" t="str">
         <f>CONCATENATE("&lt;",E59,".version&gt;",C59,"&lt;/",E59,".version&gt;")</f>
-        <v>&lt;pendingprocesslist.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/pendingprocesslist.version&gt;</v>
+        <v>&lt;pendingprocesslist.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/pendingprocesslist.version&gt;</v>
       </c>
       <c r="G59" t="str">
         <f>CONCATENATE(E59," --&gt; ",C59)</f>
-        <v>pendingprocesslist --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+        <v>pendingprocesslist --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2052,14 +2040,14 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
@@ -2067,20 +2055,20 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" ref="F61:F68" si="6">CONCATENATE("&lt;",E61,".version&gt;",C61,"&lt;/",E61,".version&gt;")</f>
-        <v>&lt;autorizzazioni.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/autorizzazioni.version&gt;</v>
+        <v>&lt;autorizzazioni.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/autorizzazioni.version&gt;</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>autorizzazioni --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+        <v>autorizzazioni --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
@@ -2088,20 +2076,20 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;bollettinopostale.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/bollettinopostale.version&gt;</v>
+        <v>&lt;bollettinopostale.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/bollettinopostale.version&gt;</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>bollettinopostale --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+        <v>bollettinopostale --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
@@ -2109,20 +2097,20 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;bustine.version&gt;1.14.0-env-svis-SNAPSHOT&lt;/bustine.version&gt;</v>
+        <v>&lt;bustine.version&gt;1.14.0-env-svia-SNAPSHOT&lt;/bustine.version&gt;</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>bustine --&gt; 1.14.0-env-svis-SNAPSHOT</v>
+        <v>bustine --&gt; 1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
@@ -2130,20 +2118,20 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;f24.version&gt;1.18.0-env-svis-SNAPSHOT&lt;/f24.version&gt;</v>
+        <v>&lt;f24.version&gt;1.18.0-env-svia-SNAPSHOT&lt;/f24.version&gt;</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>f24 --&gt; 1.18.0-env-svis-SNAPSHOT</v>
+        <v>f24 --&gt; 1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
@@ -2151,20 +2139,20 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;jiffy.version&gt;1.27.0-env-svis-SNAPSHOT&lt;/jiffy.version&gt;</v>
+        <v>&lt;jiffy.version&gt;1.27.0-env-svia-SNAPSHOT&lt;/jiffy.version&gt;</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>jiffy --&gt; 1.27.0-env-svis-SNAPSHOT</v>
+        <v>jiffy --&gt; 1.27.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
@@ -2172,20 +2160,20 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;matchingidbpfm.version&gt;1.15.0-env-svis-SNAPSHOT&lt;/matchingidbpfm.version&gt;</v>
+        <v>&lt;matchingidbpfm.version&gt;1.15.0-env-svia-SNAPSHOT&lt;/matchingidbpfm.version&gt;</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
-        <v>matchingidbpfm --&gt; 1.15.0-env-svis-SNAPSHOT</v>
+        <v>matchingidbpfm --&gt; 1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="2"/>
@@ -2193,20 +2181,20 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;salvadanaio.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/salvadanaio.version&gt;</v>
+        <v>&lt;salvadanaio.version&gt;1.25.0-env-svia-SNAPSHOT&lt;/salvadanaio.version&gt;</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G108" si="7">CONCATENATE(E67," --&gt; ",C67)</f>
-        <v>salvadanaio --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+        <v>salvadanaio --&gt; 1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -2214,11 +2202,11 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;tasse.version&gt;1.61.0-env-svis-SNAPSHOT&lt;/tasse.version&gt;</v>
+        <v>&lt;tasse.version&gt;1.61.0-env-svia-SNAPSHOT&lt;/tasse.version&gt;</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="7"/>
-        <v>tasse --&gt; 1.61.0-env-svis-SNAPSHOT</v>
+        <v>tasse --&gt; 1.61.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2231,14 +2219,14 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="9">
+      <c r="A70" s="8">
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:E108" si="8">LEFT(B70,LEN(B70)-4)</f>
@@ -2246,20 +2234,20 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:F75" si="9">CONCATENATE("&lt;",E70,".version&gt;",C70,"&lt;/",E70,".version&gt;")</f>
-        <v>&lt;bonifico.version&gt;1.35.0-env-svis-SNAPSHOT&lt;/bonifico.version&gt;</v>
+        <v>&lt;bonifico.version&gt;1.35.0-env-svia-SNAPSHOT&lt;/bonifico.version&gt;</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="7"/>
-        <v>bonifico --&gt; 1.35.0-env-svis-SNAPSHOT</v>
+        <v>bonifico --&gt; 1.35.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="8"/>
@@ -2267,20 +2255,20 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;cardless.version&gt;1.33.0-env-svis-SNAPSHOT&lt;/cardless.version&gt;</v>
+        <v>&lt;cardless.version&gt;1.33.0-env-svia-SNAPSHOT&lt;/cardless.version&gt;</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="7"/>
-        <v>cardless --&gt; 1.33.0-env-svis-SNAPSHOT</v>
+        <v>cardless --&gt; 1.33.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="8"/>
@@ -2288,20 +2276,20 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;giroconto.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/giroconto.version&gt;</v>
+        <v>&lt;giroconto.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/giroconto.version&gt;</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="7"/>
-        <v>giroconto --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+        <v>giroconto --&gt; 1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="8"/>
@@ -2309,20 +2297,20 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;pagamentibollette.version&gt;1.78.0-env-svis-SNAPSHOT&lt;/pagamentibollette.version&gt;</v>
+        <v>&lt;pagamentibollette.version&gt;1.79.0-env-svia-SNAPSHOT&lt;/pagamentibollette.version&gt;</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentibollette --&gt; 1.78.0-env-svis-SNAPSHOT</v>
+        <v>pagamentibollette --&gt; 1.79.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="8"/>
@@ -2330,20 +2318,20 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;ricaricacellulare.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/ricaricacellulare.version&gt;</v>
+        <v>&lt;ricaricacellulare.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/ricaricacellulare.version&gt;</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="7"/>
-        <v>ricaricacellulare --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+        <v>ricaricacellulare --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="8"/>
@@ -2351,11 +2339,11 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;xmedindi-self.version&gt;1.16.0-env-svis-SNAPSHOT&lt;/xmedindi-self.version&gt;</v>
+        <v>&lt;xmedindi-self.version&gt;1.16.0-env-svia-SNAPSHOT&lt;/xmedindi-self.version&gt;</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="7"/>
-        <v>xmedindi-self --&gt; 1.16.0-env-svis-SNAPSHOT</v>
+        <v>xmedindi-self --&gt; 1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2368,14 +2356,14 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="9">
+      <c r="A77" s="8">
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="8"/>
@@ -2383,20 +2371,20 @@
       </c>
       <c r="F77" t="str">
         <f>CONCATENATE("&lt;",E77,".version&gt;",C77,"&lt;/",E77,".version&gt;")</f>
-        <v>&lt;bonificoestero.version&gt;1.25.0-env-svis-SNAPSHOT&lt;/bonificoestero.version&gt;</v>
+        <v>&lt;bonificoestero.version&gt;1.25.0-env-svia-SNAPSHOT&lt;/bonificoestero.version&gt;</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="7"/>
-        <v>bonificoestero --&gt; 1.25.0-env-svis-SNAPSHOT</v>
+        <v>bonificoestero --&gt; 1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="8"/>
@@ -2404,20 +2392,20 @@
       </c>
       <c r="F78" t="str">
         <f>CONCATENATE("&lt;",E78,".version&gt;",C78,"&lt;/",E78,".version&gt;")</f>
-        <v>&lt;carte.version&gt;1.39.0-env-svis-SNAPSHOT&lt;/carte.version&gt;</v>
+        <v>&lt;carte.version&gt;1.39.0-env-svia-SNAPSHOT&lt;/carte.version&gt;</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="7"/>
-        <v>carte --&gt; 1.39.0-env-svis-SNAPSHOT</v>
+        <v>carte --&gt; 1.39.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="8"/>
@@ -2425,20 +2413,20 @@
       </c>
       <c r="F79" t="str">
         <f>CONCATENATE("&lt;",E79,".version&gt;",C79,"&lt;/",E79,".version&gt;")</f>
-        <v>&lt;pagamentiribamultipli.version&gt;1.22.0-env-svis-SNAPSHOT&lt;/pagamentiribamultipli.version&gt;</v>
+        <v>&lt;pagamentiribamultipli.version&gt;1.22.0-env-svia-SNAPSHOT&lt;/pagamentiribamultipli.version&gt;</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentiribamultipli --&gt; 1.22.0-env-svis-SNAPSHOT</v>
+        <v>pagamentiribamultipli --&gt; 1.22.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="8"/>
@@ -2446,11 +2434,11 @@
       </c>
       <c r="F80" t="str">
         <f>CONCATENATE("&lt;",E80,".version&gt;",C80,"&lt;/",E80,".version&gt;")</f>
-        <v>&lt;revoche.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/revoche.version&gt;</v>
+        <v>&lt;revoche.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/revoche.version&gt;</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="7"/>
-        <v>revoche --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+        <v>revoche --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2463,14 +2451,14 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="9">
+      <c r="A82" s="8">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="8"/>
@@ -2478,20 +2466,20 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" ref="F82:F89" si="10">CONCATENATE("&lt;",E82,".version&gt;",C82,"&lt;/",E82,".version&gt;")</f>
-        <v>&lt;applepay.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/applepay.version&gt;</v>
+        <v>&lt;applepay.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/applepay.version&gt;</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="7"/>
-        <v>applepay --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+        <v>applepay --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="8"/>
@@ -2499,20 +2487,20 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;bonus.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/bonus.version&gt;</v>
+        <v>&lt;bonus.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/bonus.version&gt;</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="7"/>
-        <v>bonus --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+        <v>bonus --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="8"/>
@@ -2520,20 +2508,20 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;catalogo-prodotti.version&gt;1.12.0-env-svis-SNAPSHOT&lt;/catalogo-prodotti.version&gt;</v>
+        <v>&lt;catalogo-prodotti.version&gt;1.12.0-env-svia-SNAPSHOT&lt;/catalogo-prodotti.version&gt;</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="7"/>
-        <v>catalogo-prodotti --&gt; 1.12.0-env-svis-SNAPSHOT</v>
+        <v>catalogo-prodotti --&gt; 1.12.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="9"/>
+      <c r="A85" s="8"/>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="8"/>
@@ -2541,20 +2529,20 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;masterpass.version&gt;1.48.0-env-svis-SNAPSHOT&lt;/masterpass.version&gt;</v>
+        <v>&lt;masterpass.version&gt;1.48.0-env-svia-SNAPSHOT&lt;/masterpass.version&gt;</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="7"/>
-        <v>masterpass --&gt; 1.48.0-env-svis-SNAPSHOT</v>
+        <v>masterpass --&gt; 1.48.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="8"/>
@@ -2562,20 +2550,20 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;nfc.version&gt;1.56.0-env-svis-SNAPSHOT&lt;/nfc.version&gt;</v>
+        <v>&lt;nfc.version&gt;1.56.0-env-svia-SNAPSHOT&lt;/nfc.version&gt;</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="7"/>
-        <v>nfc --&gt; 1.56.0-env-svis-SNAPSHOT</v>
+        <v>nfc --&gt; 1.56.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="8"/>
@@ -2583,20 +2571,20 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;opricorrenti.version&gt;1.20.0-env-svis-SNAPSHOT&lt;/opricorrenti.version&gt;</v>
+        <v>&lt;opricorrenti.version&gt;1.20.0-env-svia-SNAPSHOT&lt;/opricorrenti.version&gt;</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="7"/>
-        <v>opricorrenti --&gt; 1.20.0-env-svis-SNAPSHOT</v>
+        <v>opricorrenti --&gt; 1.20.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="8"/>
@@ -2604,20 +2592,20 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;pagamentimultipli.version&gt;1.55.0-env-svis-SNAPSHOT&lt;/pagamentimultipli.version&gt;</v>
+        <v>&lt;pagamentimultipli.version&gt;1.55.0-env-svia-SNAPSHOT&lt;/pagamentimultipli.version&gt;</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="7"/>
-        <v>pagamentimultipli --&gt; 1.55.0-env-svis-SNAPSHOT</v>
+        <v>pagamentimultipli --&gt; 1.55.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="8"/>
@@ -2625,11 +2613,11 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;ristampa-pin.version&gt;1.17.0-env-svis-SNAPSHOT&lt;/ristampa-pin.version&gt;</v>
+        <v>&lt;ristampa-pin.version&gt;1.17.0-env-svia-SNAPSHOT&lt;/ristampa-pin.version&gt;</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="7"/>
-        <v>ristampa-pin --&gt; 1.17.0-env-svis-SNAPSHOT</v>
+        <v>ristampa-pin --&gt; 1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2646,10 +2634,10 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="8"/>
@@ -2657,11 +2645,11 @@
       </c>
       <c r="F91" t="str">
         <f>CONCATENATE("&lt;",E91,".version&gt;",C91,"&lt;/",E91,".version&gt;")</f>
-        <v>&lt;ricordamidi.version&gt;1.28.0-env-svis-SNAPSHOT&lt;/ricordamidi.version&gt;</v>
+        <v>&lt;ricordamidi.version&gt;1.28.0-env-svia-SNAPSHOT&lt;/ricordamidi.version&gt;</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="7"/>
-        <v>ricordamidi --&gt; 1.28.0-env-svis-SNAPSHOT</v>
+        <v>ricordamidi --&gt; 1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2678,10 +2666,10 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="8"/>
@@ -2689,11 +2677,11 @@
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("&lt;",E93,".version&gt;",C93,"&lt;/",E93,".version&gt;")</f>
-        <v>&lt;comunicazioni.version&gt;1.239.0-env-svis-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
+        <v>&lt;comunicazioni.version&gt;1.239.0-env-svia-SNAPSHOT&lt;/comunicazioni.version&gt;</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="7"/>
-        <v>comunicazioni --&gt; 1.239.0-env-svis-SNAPSHOT</v>
+        <v>comunicazioni --&gt; 1.239.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2710,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="8"/>
@@ -2721,11 +2709,11 @@
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE("&lt;",E95,".version&gt;",C95,"&lt;/",E95,".version&gt;")</f>
-        <v>&lt;miogestore.version&gt;1.149.0-env-svis-SNAPSHOT&lt;/miogestore.version&gt;</v>
+        <v>&lt;miogestore.version&gt;1.149.0-env-svia-SNAPSHOT&lt;/miogestore.version&gt;</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="7"/>
-        <v>miogestore --&gt; 1.149.0-env-svis-SNAPSHOT</v>
+        <v>miogestore --&gt; 1.149.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2738,14 +2726,14 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="9">
+      <c r="A97" s="8">
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="8"/>
@@ -2753,20 +2741,20 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ref="F97:F102" si="11">CONCATENATE("&lt;",E97,".version&gt;",C97,"&lt;/",E97,".version&gt;")</f>
-        <v>&lt;bloccosblocco.version&gt;1.149.0-env-svis-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
+        <v>&lt;bloccosblocco.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/bloccosblocco.version&gt;</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="7"/>
-        <v>bloccosblocco --&gt; 1.149.0-env-svis-SNAPSHOT</v>
+        <v>bloccosblocco --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="8"/>
@@ -2774,20 +2762,20 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;condivisione.version&gt;1.19.0-env-svis-SNAPSHOT&lt;/condivisione.version&gt;</v>
+        <v>&lt;condivisione.version&gt;1.19.0-env-svia-SNAPSHOT&lt;/condivisione.version&gt;</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="7"/>
-        <v>condivisione --&gt; 1.19.0-env-svis-SNAPSHOT</v>
+        <v>condivisione --&gt; 1.19.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="8"/>
@@ -2795,20 +2783,20 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;conto.version&gt;1.39.0-env-svis-SNAPSHOT&lt;/conto.version&gt;</v>
+        <v>&lt;conto.version&gt;1.39.0-env-svia-SNAPSHOT&lt;/conto.version&gt;</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="7"/>
-        <v>conto --&gt; 1.39.0-env-svis-SNAPSHOT</v>
+        <v>conto --&gt; 1.39.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="8"/>
@@ -2816,20 +2804,20 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;globalposition.version&gt;1.133.0-env-svis-SNAPSHOT&lt;/globalposition.version&gt;</v>
+        <v>&lt;globalposition.version&gt;1.133.0-env-svia-SNAPSHOT&lt;/globalposition.version&gt;</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="7"/>
-        <v>globalposition --&gt; 1.133.0-env-svis-SNAPSHOT</v>
+        <v>globalposition --&gt; 1.133.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="8"/>
@@ -2837,20 +2825,20 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;identitadigitale.version&gt;1.45.0-env-svis-SNAPSHOT&lt;/identitadigitale.version&gt;</v>
+        <v>&lt;identitadigitale.version&gt;1.45.0-env-svia-SNAPSHOT&lt;/identitadigitale.version&gt;</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="7"/>
-        <v>identitadigitale --&gt; 1.45.0-env-svis-SNAPSHOT</v>
+        <v>identitadigitale --&gt; 1.45.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="9"/>
+      <c r="A102" s="8"/>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="8"/>
@@ -2858,11 +2846,11 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;proposte.version&gt;1.13.0-env-svis-SNAPSHOT&lt;/proposte.version&gt;</v>
+        <v>&lt;proposte.version&gt;1.13.0-env-svia-SNAPSHOT&lt;/proposte.version&gt;</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="7"/>
-        <v>proposte --&gt; 1.13.0-env-svis-SNAPSHOT</v>
+        <v>proposte --&gt; 1.13.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2875,14 +2863,14 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="9">
+      <c r="A104" s="8">
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="8"/>
@@ -2890,20 +2878,20 @@
       </c>
       <c r="F104" t="str">
         <f>CONCATENATE("&lt;",E104,".version&gt;",C104,"&lt;/",E104,".version&gt;")</f>
-        <v>&lt;digitalwallet.version&gt;1.63.0-env-svis-SNAPSHOT&lt;/digitalwallet.version&gt;</v>
+        <v>&lt;digitalwallet.version&gt;1.63.0-env-svia-SNAPSHOT&lt;/digitalwallet.version&gt;</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="7"/>
-        <v>digitalwallet --&gt; 1.63.0-env-svis-SNAPSHOT</v>
+        <v>digitalwallet --&gt; 1.63.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="8"/>
@@ -2911,20 +2899,20 @@
       </c>
       <c r="F105" t="str">
         <f>CONCATENATE("&lt;",E105,".version&gt;",C105,"&lt;/",E105,".version&gt;")</f>
-        <v>&lt;pulsantiera.version&gt;1.23.0-env-svis-SNAPSHOT&lt;/pulsantiera.version&gt;</v>
+        <v>&lt;pulsantiera.version&gt;1.23.0-env-svia-SNAPSHOT&lt;/pulsantiera.version&gt;</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="7"/>
-        <v>pulsantiera --&gt; 1.23.0-env-svis-SNAPSHOT</v>
+        <v>pulsantiera --&gt; 1.23.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="8"/>
@@ -2932,11 +2920,11 @@
       </c>
       <c r="F106" t="str">
         <f>CONCATENATE("&lt;",E106,".version&gt;",C106,"&lt;/",E106,".version&gt;")</f>
-        <v>&lt;trading.version&gt;1.21.0-env-svis-SNAPSHOT&lt;/trading.version&gt;</v>
+        <v>&lt;trading.version&gt;1.21.0-env-svia-SNAPSHOT&lt;/trading.version&gt;</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="7"/>
-        <v>trading --&gt; 1.21.0-env-svis-SNAPSHOT</v>
+        <v>trading --&gt; 1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2953,10 +2941,10 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="8"/>
@@ -2964,11 +2952,11 @@
       </c>
       <c r="F108" t="str">
         <f>CONCATENATE("&lt;",E108,".version&gt;",C108,"&lt;/",E108,".version&gt;")</f>
-        <v>&lt;listaoperazioni.version&gt;1.77.0-env-svis-SNAPSHOT&lt;/listaoperazioni.version&gt;</v>
+        <v>&lt;listaoperazioni.version&gt;1.77.0-env-svia-SNAPSHOT&lt;/listaoperazioni.version&gt;</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="7"/>
-        <v>listaoperazioni --&gt; 1.77.0-env-svis-SNAPSHOT</v>
+        <v>listaoperazioni --&gt; 1.77.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2985,10 +2973,10 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E110" t="str">
         <f>LEFT(B110,LEN(B110)-4)</f>
@@ -2996,11 +2984,11 @@
       </c>
       <c r="F110" t="str">
         <f>CONCATENATE("&lt;",E110,".version&gt;",C110,"&lt;/",E110,".version&gt;")</f>
-        <v>&lt;ricerca.version&gt;1.8.0-env-svis-SNAPSHOT&lt;/ricerca.version&gt;</v>
+        <v>&lt;ricerca.version&gt;1.9.0-env-svia-SNAPSHOT&lt;/ricerca.version&gt;</v>
       </c>
       <c r="G110" t="str">
         <f>CONCATENATE(E110," --&gt; ",C110)</f>
-        <v>ricerca --&gt; 1.8.0-env-svis-SNAPSHOT</v>
+        <v>ricerca --&gt; 1.9.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
   </sheetData>
@@ -3029,8 +3017,8 @@
   <dimension ref="A1:D531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C489" sqref="C489"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A532" sqref="A532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3042,13 +3030,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3062,15 +3050,15 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3082,12 +3070,12 @@
       </c>
       <c r="C5" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="6" spans="1:4" collapsed="1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3099,26 +3087,26 @@
       </c>
       <c r="C7" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="8" spans="1:4" collapsed="1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3130,12 +3118,12 @@
       </c>
       <c r="C11" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="12" spans="1:4" collapsed="1">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3147,12 +3135,12 @@
       </c>
       <c r="C13" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="14" spans="1:4" collapsed="1">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3164,19 +3152,19 @@
       </c>
       <c r="C15" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="16" spans="1:4" collapsed="1">
-      <c r="A16" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3188,7 +3176,7 @@
       </c>
       <c r="C18" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="19" spans="1:3" hidden="1" outlineLevel="1">
@@ -3198,12 +3186,12 @@
       </c>
       <c r="C19" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="20" spans="1:3" collapsed="1">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3215,7 +3203,7 @@
       </c>
       <c r="C21" t="str">
         <f>'Versioni EJB'!C7</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1" outlineLevel="1">
@@ -3225,12 +3213,12 @@
       </c>
       <c r="C22" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="23" spans="1:3" collapsed="1">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3242,7 +3230,7 @@
       </c>
       <c r="C24" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1" outlineLevel="1">
@@ -3252,19 +3240,19 @@
       </c>
       <c r="C25" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="26" spans="1:3" collapsed="1">
-      <c r="A26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3276,7 +3264,7 @@
       </c>
       <c r="C28" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" outlineLevel="1">
@@ -3286,7 +3274,7 @@
       </c>
       <c r="C29" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1" outlineLevel="1">
@@ -3296,7 +3284,7 @@
       </c>
       <c r="C30" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" outlineLevel="1">
@@ -3306,19 +3294,19 @@
       </c>
       <c r="C31" t="str">
         <f>'Versioni EJB'!C9</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="32" spans="1:3" collapsed="1">
-      <c r="A32" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3330,7 +3318,7 @@
       </c>
       <c r="C34" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" outlineLevel="1">
@@ -3340,7 +3328,7 @@
       </c>
       <c r="C35" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1" outlineLevel="1">
@@ -3350,7 +3338,7 @@
       </c>
       <c r="C36" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" outlineLevel="1">
@@ -3360,7 +3348,7 @@
       </c>
       <c r="C37" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" outlineLevel="1">
@@ -3370,12 +3358,12 @@
       </c>
       <c r="C38" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="39" spans="1:3" collapsed="1">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3387,7 +3375,7 @@
       </c>
       <c r="C40" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" outlineLevel="1">
@@ -3397,7 +3385,7 @@
       </c>
       <c r="C41" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1" outlineLevel="1">
@@ -3407,7 +3395,7 @@
       </c>
       <c r="C42" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" outlineLevel="1">
@@ -3417,12 +3405,12 @@
       </c>
       <c r="C43" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="44" spans="1:3" collapsed="1">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3434,7 +3422,7 @@
       </c>
       <c r="C45" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" outlineLevel="1">
@@ -3444,7 +3432,7 @@
       </c>
       <c r="C46" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" outlineLevel="1">
@@ -3454,12 +3442,12 @@
       </c>
       <c r="C47" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="48" spans="1:3" collapsed="1">
       <c r="A48" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3471,7 +3459,7 @@
       </c>
       <c r="C49" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="50" spans="1:3" hidden="1" outlineLevel="1">
@@ -3481,7 +3469,7 @@
       </c>
       <c r="C50" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1" outlineLevel="1">
@@ -3491,12 +3479,12 @@
       </c>
       <c r="C51" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="52" spans="1:3" collapsed="1">
       <c r="A52" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3508,7 +3496,7 @@
       </c>
       <c r="C53" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1" outlineLevel="1">
@@ -3518,7 +3506,7 @@
       </c>
       <c r="C54" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" outlineLevel="1">
@@ -3528,12 +3516,12 @@
       </c>
       <c r="C55" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="56" spans="1:3" collapsed="1">
       <c r="A56" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3545,7 +3533,7 @@
       </c>
       <c r="C57" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="58" spans="1:3" hidden="1" outlineLevel="1">
@@ -3555,12 +3543,12 @@
       </c>
       <c r="C58" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="59" spans="1:3" collapsed="1">
       <c r="A59" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3572,7 +3560,7 @@
       </c>
       <c r="C60" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" outlineLevel="1">
@@ -3582,12 +3570,12 @@
       </c>
       <c r="C61" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="62" spans="1:3" collapsed="1">
       <c r="A62" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3599,7 +3587,7 @@
       </c>
       <c r="C63" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="64" spans="1:3" hidden="1" outlineLevel="1">
@@ -3609,7 +3597,7 @@
       </c>
       <c r="C64" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="65" spans="1:3" hidden="1" outlineLevel="1">
@@ -3619,7 +3607,7 @@
       </c>
       <c r="C65" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" outlineLevel="1">
@@ -3629,7 +3617,7 @@
       </c>
       <c r="C66" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" outlineLevel="1">
@@ -3639,22 +3627,22 @@
       </c>
       <c r="C67" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="68" spans="1:3" collapsed="1">
       <c r="A68" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B69" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:3" hidden="1" outlineLevel="1">
@@ -3664,7 +3652,7 @@
       </c>
       <c r="C70" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="71" spans="1:3" hidden="1" outlineLevel="1">
@@ -3674,7 +3662,7 @@
       </c>
       <c r="C71" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="72" spans="1:3" hidden="1" outlineLevel="1">
@@ -3684,12 +3672,12 @@
       </c>
       <c r="C72" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="73" spans="1:3" collapsed="1">
       <c r="A73" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3701,7 +3689,7 @@
       </c>
       <c r="C74" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="75" spans="1:3" hidden="1" outlineLevel="1">
@@ -3711,12 +3699,12 @@
       </c>
       <c r="C75" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="76" spans="1:3" collapsed="1">
       <c r="A76" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3728,7 +3716,7 @@
       </c>
       <c r="C77" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="78" spans="1:3" hidden="1" outlineLevel="1">
@@ -3738,12 +3726,12 @@
       </c>
       <c r="C78" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="79" spans="1:3" collapsed="1">
       <c r="A79" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3755,7 +3743,7 @@
       </c>
       <c r="C80" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="81" spans="1:3" hidden="1" outlineLevel="1">
@@ -3765,19 +3753,19 @@
       </c>
       <c r="C81" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="82" spans="1:3" collapsed="1">
-      <c r="A82" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="A82" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3789,7 +3777,7 @@
       </c>
       <c r="C84" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="85" spans="1:3" hidden="1" outlineLevel="1">
@@ -3799,12 +3787,12 @@
       </c>
       <c r="C85" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="86" spans="1:3" collapsed="1">
       <c r="A86" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3816,7 +3804,7 @@
       </c>
       <c r="C87" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="88" spans="1:3" hidden="1" outlineLevel="1">
@@ -3826,12 +3814,12 @@
       </c>
       <c r="C88" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="89" spans="1:3" collapsed="1">
       <c r="A89" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3843,7 +3831,7 @@
       </c>
       <c r="C90" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="91" spans="1:3" hidden="1" outlineLevel="1">
@@ -3853,12 +3841,12 @@
       </c>
       <c r="C91" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="92" spans="1:3" collapsed="1">
       <c r="A92" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3870,7 +3858,7 @@
       </c>
       <c r="C93" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="94" spans="1:3" hidden="1" outlineLevel="1">
@@ -3880,12 +3868,12 @@
       </c>
       <c r="C94" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="95" spans="1:3" collapsed="1">
       <c r="A95" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3897,7 +3885,7 @@
       </c>
       <c r="C96" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="97" spans="1:3" hidden="1" outlineLevel="1">
@@ -3907,12 +3895,12 @@
       </c>
       <c r="C97" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="98" spans="1:3" collapsed="1">
       <c r="A98" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3924,7 +3912,7 @@
       </c>
       <c r="C99" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="100" spans="1:3" hidden="1" outlineLevel="1">
@@ -3934,12 +3922,12 @@
       </c>
       <c r="C100" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="101" spans="1:3" collapsed="1">
       <c r="A101" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3951,7 +3939,7 @@
       </c>
       <c r="C102" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="103" spans="1:3" hidden="1" outlineLevel="1">
@@ -3961,12 +3949,12 @@
       </c>
       <c r="C103" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="104" spans="1:3" collapsed="1">
       <c r="A104" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3978,7 +3966,7 @@
       </c>
       <c r="C105" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="106" spans="1:3" hidden="1" outlineLevel="1">
@@ -3988,7 +3976,7 @@
       </c>
       <c r="C106" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="107" spans="1:3" hidden="1" outlineLevel="1">
@@ -3998,7 +3986,7 @@
       </c>
       <c r="C107" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" outlineLevel="1">
@@ -4008,12 +3996,12 @@
       </c>
       <c r="C108" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="109" spans="1:3" collapsed="1">
       <c r="A109" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4025,7 +4013,7 @@
       </c>
       <c r="C110" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="111" spans="1:3" hidden="1" outlineLevel="1">
@@ -4035,7 +4023,7 @@
       </c>
       <c r="C111" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1" outlineLevel="1">
@@ -4045,7 +4033,7 @@
       </c>
       <c r="C112" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1" outlineLevel="1">
@@ -4055,12 +4043,12 @@
       </c>
       <c r="C113" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="114" spans="1:3" collapsed="1">
       <c r="A114" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4072,7 +4060,7 @@
       </c>
       <c r="C115" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="116" spans="1:3" hidden="1" outlineLevel="1">
@@ -4082,7 +4070,7 @@
       </c>
       <c r="C116" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" outlineLevel="1">
@@ -4092,7 +4080,7 @@
       </c>
       <c r="C117" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1" outlineLevel="1">
@@ -4102,7 +4090,7 @@
       </c>
       <c r="C118" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="119" spans="1:3" hidden="1" outlineLevel="1">
@@ -4112,7 +4100,7 @@
       </c>
       <c r="C119" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="120" spans="1:3" hidden="1" outlineLevel="1">
@@ -4122,12 +4110,12 @@
       </c>
       <c r="C120" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="121" spans="1:3" collapsed="1">
       <c r="A121" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4139,7 +4127,7 @@
       </c>
       <c r="C122" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" outlineLevel="1">
@@ -4149,7 +4137,7 @@
       </c>
       <c r="C123" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" outlineLevel="1">
@@ -4159,7 +4147,7 @@
       </c>
       <c r="C124" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" outlineLevel="1">
@@ -4169,7 +4157,7 @@
       </c>
       <c r="C125" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="126" spans="1:3" hidden="1" outlineLevel="1">
@@ -4179,19 +4167,19 @@
       </c>
       <c r="C126" t="str">
         <f>'Versioni EJB'!C14</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="127" spans="1:3" collapsed="1">
-      <c r="A127" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="A127" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4203,7 +4191,7 @@
       </c>
       <c r="C129" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="130" spans="1:3" hidden="1" outlineLevel="1">
@@ -4213,15 +4201,15 @@
       </c>
       <c r="C130" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B131" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C131" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:3" hidden="1" outlineLevel="1">
@@ -4231,7 +4219,7 @@
       </c>
       <c r="C132" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="133" spans="1:3" hidden="1" outlineLevel="1">
@@ -4241,12 +4229,12 @@
       </c>
       <c r="C133" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="134" spans="1:3" collapsed="1">
       <c r="A134" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4258,7 +4246,7 @@
       </c>
       <c r="C135" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="136" spans="1:3" hidden="1" outlineLevel="1">
@@ -4268,12 +4256,12 @@
       </c>
       <c r="C136" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="137" spans="1:3" collapsed="1">
       <c r="A137" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4285,7 +4273,7 @@
       </c>
       <c r="C138" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" outlineLevel="1">
@@ -4295,7 +4283,7 @@
       </c>
       <c r="C139" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="140" spans="1:3" hidden="1" outlineLevel="1">
@@ -4305,7 +4293,7 @@
       </c>
       <c r="C140" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="141" spans="1:3" hidden="1" outlineLevel="1">
@@ -4315,7 +4303,7 @@
       </c>
       <c r="C141" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="142" spans="1:3" hidden="1" outlineLevel="1">
@@ -4325,7 +4313,7 @@
       </c>
       <c r="C142" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="143" spans="1:3" hidden="1" outlineLevel="1">
@@ -4335,12 +4323,12 @@
       </c>
       <c r="C143" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="144" spans="1:3" collapsed="1">
       <c r="A144" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4352,7 +4340,7 @@
       </c>
       <c r="C145" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="146" spans="1:3" hidden="1" outlineLevel="1">
@@ -4362,7 +4350,7 @@
       </c>
       <c r="C146" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="147" spans="1:3" hidden="1" outlineLevel="1">
@@ -4372,15 +4360,15 @@
       </c>
       <c r="C147" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B148" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C148" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" outlineLevel="1">
@@ -4390,20 +4378,20 @@
       </c>
       <c r="C149" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="150" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B150" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C150" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:3" collapsed="1">
       <c r="A151" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4415,7 +4403,7 @@
       </c>
       <c r="C152" t="str">
         <f>'Versioni EJB'!C8</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="153" spans="1:3" hidden="1" outlineLevel="1">
@@ -4425,7 +4413,7 @@
       </c>
       <c r="C153" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" outlineLevel="1">
@@ -4435,12 +4423,12 @@
       </c>
       <c r="C154" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="155" spans="1:3" collapsed="1">
       <c r="A155" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4452,7 +4440,7 @@
       </c>
       <c r="C156" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="157" spans="1:3" hidden="1" outlineLevel="1">
@@ -4462,7 +4450,7 @@
       </c>
       <c r="C157" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="158" spans="1:3" hidden="1" outlineLevel="1">
@@ -4472,7 +4460,7 @@
       </c>
       <c r="C158" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" outlineLevel="1">
@@ -4482,19 +4470,19 @@
       </c>
       <c r="C159" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="160" spans="1:3" collapsed="1">
-      <c r="A160" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
+      <c r="A160" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4506,7 +4494,7 @@
       </c>
       <c r="C162" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="163" spans="1:3" hidden="1" outlineLevel="1">
@@ -4516,7 +4504,7 @@
       </c>
       <c r="C163" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="164" spans="1:3" hidden="1" outlineLevel="1">
@@ -4526,7 +4514,7 @@
       </c>
       <c r="C164" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" outlineLevel="1">
@@ -4536,12 +4524,12 @@
       </c>
       <c r="C165" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="166" spans="1:3" collapsed="1">
       <c r="A166" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4553,7 +4541,7 @@
       </c>
       <c r="C167" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="168" spans="1:3" hidden="1" outlineLevel="1">
@@ -4563,7 +4551,7 @@
       </c>
       <c r="C168" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" outlineLevel="1">
@@ -4573,7 +4561,7 @@
       </c>
       <c r="C169" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="170" spans="1:3" hidden="1" outlineLevel="1">
@@ -4583,25 +4571,25 @@
       </c>
       <c r="C170" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="171" spans="1:3" collapsed="1">
       <c r="A171" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" hidden="1" outlineLevel="1">
-      <c r="A172" s="8"/>
+      <c r="A172" s="7"/>
       <c r="B172" t="str">
         <f>'Versioni EJB'!B2</f>
         <v>isp-ib-om</v>
       </c>
       <c r="C172" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="173" spans="1:3" hidden="1" outlineLevel="1">
@@ -4611,7 +4599,7 @@
       </c>
       <c r="C173" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="174" spans="1:3" hidden="1" outlineLevel="1">
@@ -4621,12 +4609,12 @@
       </c>
       <c r="C174" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="175" spans="1:3" collapsed="1">
       <c r="A175" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4638,7 +4626,7 @@
       </c>
       <c r="C176" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="177" spans="1:3" hidden="1" outlineLevel="1">
@@ -4648,19 +4636,19 @@
       </c>
       <c r="C177" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="178" spans="1:3" collapsed="1">
-      <c r="A178" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
+      <c r="A178" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4672,7 +4660,7 @@
       </c>
       <c r="C180" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="181" spans="1:3" hidden="1" outlineLevel="1">
@@ -4682,7 +4670,7 @@
       </c>
       <c r="C181" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="182" spans="1:3" hidden="1" outlineLevel="1">
@@ -4692,7 +4680,7 @@
       </c>
       <c r="C182" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="183" spans="1:3" hidden="1" outlineLevel="1">
@@ -4702,7 +4690,7 @@
       </c>
       <c r="C183" t="str">
         <f>'Versioni EJB'!C51</f>
-        <v>1.23.0-env-svis-SNAPSHOT</v>
+        <v>1.23.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="184" spans="1:3" hidden="1" outlineLevel="1">
@@ -4712,19 +4700,19 @@
       </c>
       <c r="C184" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="185" spans="1:3" collapsed="1">
-      <c r="A185" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B185" s="10"/>
-      <c r="C185" s="10"/>
+      <c r="A185" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4736,7 +4724,7 @@
       </c>
       <c r="C187" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="188" spans="1:3" hidden="1" outlineLevel="1">
@@ -4746,7 +4734,7 @@
       </c>
       <c r="C188" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="189" spans="1:3" hidden="1" outlineLevel="1">
@@ -4756,7 +4744,7 @@
       </c>
       <c r="C189" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="190" spans="1:3" hidden="1" outlineLevel="1">
@@ -4766,7 +4754,7 @@
       </c>
       <c r="C190" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.31.0-env-svis-SNAPSHOT</v>
+        <v>1.31.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="191" spans="1:3" hidden="1" outlineLevel="1">
@@ -4776,19 +4764,19 @@
       </c>
       <c r="C191" t="str">
         <f>'Versioni EJB'!C43</f>
-        <v>1.16.0-env-svis-SNAPSHOT</v>
+        <v>1.16.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="192" spans="1:3" collapsed="1">
-      <c r="A192" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
+      <c r="A192" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4800,7 +4788,7 @@
       </c>
       <c r="C194" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="195" spans="1:3" hidden="1" outlineLevel="1">
@@ -4810,28 +4798,28 @@
       </c>
       <c r="C195" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="196" spans="1:3" hidden="1" outlineLevel="1">
       <c r="B196" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C196" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="197" spans="1:3" collapsed="1">
-      <c r="A197" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
+      <c r="A197" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4843,7 +4831,7 @@
       </c>
       <c r="C199" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="200" spans="1:3" hidden="1" outlineLevel="1">
@@ -4853,7 +4841,7 @@
       </c>
       <c r="C200" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="201" spans="1:3" hidden="1" outlineLevel="1">
@@ -4863,7 +4851,7 @@
       </c>
       <c r="C201" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="202" spans="1:3" hidden="1" outlineLevel="1">
@@ -4873,7 +4861,7 @@
       </c>
       <c r="C202" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" outlineLevel="1">
@@ -4883,12 +4871,12 @@
       </c>
       <c r="C203" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="204" spans="1:3" collapsed="1">
       <c r="A204" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4900,7 +4888,7 @@
       </c>
       <c r="C205" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="206" spans="1:3" hidden="1" outlineLevel="1">
@@ -4910,7 +4898,7 @@
       </c>
       <c r="C206" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="207" spans="1:3" hidden="1" outlineLevel="1">
@@ -4920,7 +4908,7 @@
       </c>
       <c r="C207" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="208" spans="1:3" hidden="1" outlineLevel="1">
@@ -4930,7 +4918,7 @@
       </c>
       <c r="C208" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="209" spans="1:3" hidden="1" outlineLevel="1">
@@ -4940,7 +4928,7 @@
       </c>
       <c r="C209" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="210" spans="1:3" hidden="1" outlineLevel="1">
@@ -4950,7 +4938,7 @@
       </c>
       <c r="C210" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="211" spans="1:3" hidden="1" outlineLevel="1">
@@ -4960,7 +4948,7 @@
       </c>
       <c r="C211" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="212" spans="1:3" hidden="1" outlineLevel="1">
@@ -4970,7 +4958,7 @@
       </c>
       <c r="C212" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="213" spans="1:3" hidden="1" outlineLevel="1">
@@ -4980,12 +4968,12 @@
       </c>
       <c r="C213" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="214" spans="1:3" collapsed="1">
       <c r="A214" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4997,7 +4985,7 @@
       </c>
       <c r="C215" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="216" spans="1:3" hidden="1" outlineLevel="1">
@@ -5007,7 +4995,7 @@
       </c>
       <c r="C216" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="217" spans="1:3" hidden="1" outlineLevel="1">
@@ -5017,12 +5005,12 @@
       </c>
       <c r="C217" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="218" spans="1:3" collapsed="1">
       <c r="A218" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -5034,7 +5022,7 @@
       </c>
       <c r="C219" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="220" spans="1:3" hidden="1" outlineLevel="1">
@@ -5044,7 +5032,7 @@
       </c>
       <c r="C220" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="221" spans="1:3" hidden="1" outlineLevel="1">
@@ -5054,7 +5042,7 @@
       </c>
       <c r="C221" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="222" spans="1:3" hidden="1" outlineLevel="1">
@@ -5064,7 +5052,7 @@
       </c>
       <c r="C222" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="223" spans="1:3" hidden="1" outlineLevel="1">
@@ -5074,7 +5062,7 @@
       </c>
       <c r="C223" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="224" spans="1:3" hidden="1" outlineLevel="1">
@@ -5084,7 +5072,7 @@
       </c>
       <c r="C224" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="225" spans="1:3" hidden="1" outlineLevel="1">
@@ -5094,12 +5082,12 @@
       </c>
       <c r="C225" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="226" spans="1:3" collapsed="1">
       <c r="A226" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -5111,7 +5099,7 @@
       </c>
       <c r="C227" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="228" spans="1:3" hidden="1" outlineLevel="1">
@@ -5121,7 +5109,7 @@
       </c>
       <c r="C228" t="str">
         <f>'Versioni EJB'!C59</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="229" spans="1:3" hidden="1" outlineLevel="1">
@@ -5131,7 +5119,7 @@
       </c>
       <c r="C229" t="str">
         <f>'Versioni EJB'!C28</f>
-        <v>1.17.0-env-svis-SNAPSHOT</v>
+        <v>1.17.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="230" spans="1:3" hidden="1" outlineLevel="1">
@@ -5141,7 +5129,7 @@
       </c>
       <c r="C230" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="231" spans="1:3" hidden="1" outlineLevel="1">
@@ -5151,7 +5139,7 @@
       </c>
       <c r="C231" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="232" spans="1:3" hidden="1" outlineLevel="1">
@@ -5161,7 +5149,7 @@
       </c>
       <c r="C232" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="233" spans="1:3" hidden="1" outlineLevel="1">
@@ -5171,7 +5159,7 @@
       </c>
       <c r="C233" t="str">
         <f>'Versioni EJB'!C55</f>
-        <v>1.31.0-env-svis-SNAPSHOT</v>
+        <v>1.31.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="234" spans="1:3" hidden="1" outlineLevel="1">
@@ -5181,7 +5169,7 @@
       </c>
       <c r="C234" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="235" spans="1:3" hidden="1" outlineLevel="1">
@@ -5191,7 +5179,7 @@
       </c>
       <c r="C235" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" outlineLevel="1">
@@ -5201,12 +5189,12 @@
       </c>
       <c r="C236" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="237" spans="1:3" collapsed="1">
       <c r="A237" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -5218,7 +5206,7 @@
       </c>
       <c r="C238" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="239" spans="1:3" hidden="1" outlineLevel="1">
@@ -5228,7 +5216,7 @@
       </c>
       <c r="C239" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" outlineLevel="1">
@@ -5238,12 +5226,12 @@
       </c>
       <c r="C240" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="241" spans="1:3" collapsed="1">
       <c r="A241" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -5255,7 +5243,7 @@
       </c>
       <c r="C242" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="243" spans="1:3" hidden="1" outlineLevel="1">
@@ -5265,7 +5253,7 @@
       </c>
       <c r="C243" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="244" spans="1:3" hidden="1" outlineLevel="1">
@@ -5275,7 +5263,7 @@
       </c>
       <c r="C244" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="245" spans="1:3" hidden="1" outlineLevel="1">
@@ -5285,7 +5273,7 @@
       </c>
       <c r="C245" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" outlineLevel="1">
@@ -5295,7 +5283,7 @@
       </c>
       <c r="C246" t="str">
         <f>'Versioni EJB'!C12</f>
-        <v>1.18.0-env-svis-SNAPSHOT</v>
+        <v>1.18.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="247" spans="1:3" hidden="1" outlineLevel="1">
@@ -5305,7 +5293,7 @@
       </c>
       <c r="C247" t="str">
         <f>'Versioni EJB'!C46</f>
-        <v>1.29.0-env-svis-SNAPSHOT</v>
+        <v>1.29.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="248" spans="1:3" hidden="1" outlineLevel="1">
@@ -5315,7 +5303,7 @@
       </c>
       <c r="C248" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="249" spans="1:3" hidden="1" outlineLevel="1">
@@ -5325,12 +5313,12 @@
       </c>
       <c r="C249" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="250" spans="1:3" collapsed="1">
       <c r="A250" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -5342,7 +5330,7 @@
       </c>
       <c r="C251" t="str">
         <f>'Versioni EJB'!C13</f>
-        <v>1.59.0-env-svis-SNAPSHOT</v>
+        <v>1.59.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="252" spans="1:3" hidden="1" outlineLevel="1">
@@ -5352,7 +5340,7 @@
       </c>
       <c r="C252" t="str">
         <f>'Versioni EJB'!C44</f>
-        <v>1.14.0-env-svis-SNAPSHOT</v>
+        <v>1.14.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" outlineLevel="1">
@@ -5362,7 +5350,7 @@
       </c>
       <c r="C253" t="str">
         <f>'Versioni EJB'!C39</f>
-        <v>1.28.0-env-svis-SNAPSHOT</v>
+        <v>1.28.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" outlineLevel="1">
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C254" t="str">
         <f>'Versioni EJB'!C37</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="255" spans="1:3" hidden="1" outlineLevel="1">
@@ -5382,7 +5370,7 @@
       </c>
       <c r="C255" t="str">
         <f>'Versioni EJB'!C4</f>
-        <v>1.15.0-env-svis-SNAPSHOT</v>
+        <v>1.15.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="256" spans="1:3" hidden="1" outlineLevel="1">
@@ -5392,7 +5380,7 @@
       </c>
       <c r="C256" t="str">
         <f>'Versioni EJB'!C16</f>
-        <v>1.99.0-env-svis-SNAPSHOT</v>
+        <v>1.100.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="257" spans="1:3" hidden="1" outlineLevel="1">
@@ -5402,7 +5390,7 @@
       </c>
       <c r="C257" t="str">
         <f>'Versioni EJB'!C2</f>
-        <v>1.21.0-env-svis-SNAPSHOT</v>
+        <v>1.21.0-env-svia-SNAPSHOT</v>
       </c>
     </row>
     <row r="258" spans="1:3" hidden="1" outlineLevel="1">
@@ -5412,7 +5400,7 @@
       </c>
       <c r="C258" t="str">
         <f>'Versioni EJB'!C57</f>
-        <v>1.25.0-env-svis-SNAPSHOT</v>
+        <v>1.25.0-env-svia-SN